--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
-    <t>Total Employment; Year/Year: January 1990 -- October 2015</t>
+    <t>Total Employment; Year/Year: January 1990 -- November 2015</t>
   </si>
   <si>
     <t>Source: Bureau of Labor Statistics</t>
@@ -581,9 +581,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA590"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BJ303" sqref="BJ303"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P304" sqref="P304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -48478,7 +48478,7 @@
         <v>42248</v>
       </c>
       <c r="B302" s="8">
-        <v>1.9796732536402639</v>
+        <v>1.9854031328114368</v>
       </c>
       <c r="C302" s="8">
         <v>1.5203403902034014</v>
@@ -48628,7 +48628,7 @@
         <v>-1.4817728822449603</v>
       </c>
       <c r="AZ302" s="8">
-        <v>1.6158493747365461</v>
+        <v>1.376984684558094</v>
       </c>
       <c r="BA302" s="8">
         <v>-0.37542662116041731</v>
@@ -48639,164 +48639,322 @@
         <v>42278</v>
       </c>
       <c r="B303" s="8">
-        <v>2.0122997711670481</v>
+        <v>2.0373283752860414</v>
       </c>
       <c r="C303" s="8">
-        <v>1.088863659820422</v>
+        <v>0.9753328516874854</v>
       </c>
       <c r="D303" s="8">
-        <v>0.71174377224200303</v>
+        <v>0.65243179122182349</v>
       </c>
       <c r="E303" s="8">
-        <v>2.3288147375738508</v>
+        <v>2.3983315954118836</v>
       </c>
       <c r="F303" s="8">
-        <v>1.6227519866164861</v>
+        <v>1.7147636971978253</v>
       </c>
       <c r="G303" s="8">
-        <v>2.9322170220581247</v>
+        <v>2.9284171727854771</v>
       </c>
       <c r="H303" s="8">
-        <v>2.0917298081573472</v>
+        <v>1.9869418023537071</v>
       </c>
       <c r="I303" s="8">
-        <v>1.4431137724550842</v>
+        <v>1.4730538922155634</v>
       </c>
       <c r="J303" s="8">
-        <v>0.97527784078022484</v>
+        <v>1.1567248809253852</v>
       </c>
       <c r="K303" s="8">
-        <v>1.0269914417379795</v>
+        <v>1.369321922317311</v>
       </c>
       <c r="L303" s="8">
-        <v>3.0327547627776399</v>
+        <v>3.0251697154343096</v>
       </c>
       <c r="M303" s="8">
-        <v>2.3087714292507875</v>
+        <v>2.3705922914140292</v>
       </c>
       <c r="N303" s="8">
-        <v>1.9033909149072259</v>
+        <v>2.0153550863723462</v>
       </c>
       <c r="O303" s="8">
-        <v>3.8122721749696269</v>
+        <v>3.5692588092345079</v>
       </c>
       <c r="P303" s="8">
-        <v>0.68457082675092462</v>
+        <v>0.67777607909087201</v>
       </c>
       <c r="Q303" s="8">
-        <v>2.0222919308549661</v>
+        <v>2.1157311619835846</v>
       </c>
       <c r="R303" s="8">
-        <v>1.4340836012861709</v>
+        <v>1.3697749196141451</v>
       </c>
       <c r="S303" s="8">
-        <v>0.77879394112604261</v>
+        <v>0.63589597027722855</v>
       </c>
       <c r="T303" s="8">
-        <v>1.6984457618971296</v>
+        <v>1.9601559579127303</v>
       </c>
       <c r="U303" s="8">
-        <v>-0.45687318003815192</v>
+        <v>-0.42674967366201422</v>
       </c>
       <c r="V303" s="8">
-        <v>0.90774055124608033</v>
+        <v>1.0727842878362766</v>
       </c>
       <c r="W303" s="8">
-        <v>1.9750835612275901</v>
+        <v>2.016864175022786</v>
       </c>
       <c r="X303" s="8">
-        <v>2.3511566173682188</v>
+        <v>2.3219859397333771</v>
       </c>
       <c r="Y303" s="8">
-        <v>1.8964572463250056</v>
+        <v>1.9178996021251757</v>
       </c>
       <c r="Z303" s="8">
-        <v>0.84464235227594331</v>
+        <v>0.91178965224767394</v>
       </c>
       <c r="AA303" s="8">
-        <v>0.73915753851633748</v>
+        <v>0.97960637634695868</v>
       </c>
       <c r="AB303" s="8">
-        <v>0.98883456177479045</v>
+        <v>0.94869736554039263</v>
       </c>
       <c r="AC303" s="8">
-        <v>0.9265387160820624</v>
+        <v>0.81623648797705461</v>
       </c>
       <c r="AD303" s="8">
         <v>1.2151034344245855</v>
       </c>
       <c r="AE303" s="8">
-        <v>3.438699665114771</v>
+        <v>3.406027934329825</v>
       </c>
       <c r="AF303" s="8">
-        <v>1.0437452033768158</v>
+        <v>0.90560245587106325</v>
       </c>
       <c r="AG303" s="8">
-        <v>1.3687945046926411</v>
+        <v>1.3864076692750902</v>
       </c>
       <c r="AH303" s="8">
-        <v>0.33951740026675814</v>
+        <v>0.38801988601915016</v>
       </c>
       <c r="AI303" s="8">
-        <v>1.7957056356688454</v>
+        <v>1.7683320741495034</v>
       </c>
       <c r="AJ303" s="8">
-        <v>2.1799017846448674</v>
+        <v>2.2302072104443735</v>
       </c>
       <c r="AK303" s="8">
-        <v>-2.0739790463972607</v>
+        <v>-2.1167415009621502</v>
       </c>
       <c r="AL303" s="8">
-        <v>1.4467830573105469</v>
+        <v>1.4449138285543419</v>
       </c>
       <c r="AM303" s="8">
-        <v>0.10827067669172659</v>
+        <v>0.1684210526315762</v>
       </c>
       <c r="AN303" s="8">
-        <v>2.6709647708956861</v>
+        <v>2.7745797835597537</v>
       </c>
       <c r="AO303" s="8">
-        <v>0.83656080557707824</v>
+        <v>0.85893794646698751</v>
       </c>
       <c r="AP303" s="8">
-        <v>1.1717932621887472</v>
+        <v>1.3810420590081656</v>
       </c>
       <c r="AQ303" s="8">
-        <v>2.9054088434335794</v>
+        <v>2.7476721111280722</v>
       </c>
       <c r="AR303" s="8">
-        <v>1.8592610025888527</v>
+        <v>1.8827959519887034</v>
       </c>
       <c r="AS303" s="8">
-        <v>1.7687889785419919</v>
+        <v>1.782882914625979</v>
       </c>
       <c r="AT303" s="8">
-        <v>1.7480239356686009</v>
+        <v>1.7291634518114545</v>
       </c>
       <c r="AU303" s="8">
-        <v>3.528007757141788</v>
+        <v>3.5951368687998837</v>
       </c>
       <c r="AV303" s="8">
-        <v>0.83655083655082563</v>
+        <v>0.90090090090090458</v>
       </c>
       <c r="AW303" s="8">
-        <v>1.2834422715605069</v>
+        <v>1.4475111805022578</v>
       </c>
       <c r="AX303" s="8">
-        <v>2.988439120213819</v>
+        <v>2.8209834798570155</v>
       </c>
       <c r="AY303" s="8">
-        <v>-1.792489860002608</v>
+        <v>-1.7663221248200971</v>
       </c>
       <c r="AZ303" s="8">
-        <v>1.777404569469234</v>
+        <v>1.5954655190511147</v>
       </c>
       <c r="BA303" s="8">
-        <v>0.17029972752043596</v>
+        <v>-0.54495912806540281</v>
       </c>
     </row>
     <row r="304" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A304" s="7"/>
+      <c r="A304" s="7">
+        <v>42309</v>
+      </c>
+      <c r="B304" s="8">
+        <v>1.8800396398194821</v>
+      </c>
+      <c r="C304" s="8">
+        <v>1.2676491806657806</v>
+      </c>
+      <c r="D304" s="8">
+        <v>0.14788524105294293</v>
+      </c>
+      <c r="E304" s="8">
+        <v>2.4898022011852641</v>
+      </c>
+      <c r="F304" s="8">
+        <v>1.2259194395796886</v>
+      </c>
+      <c r="G304" s="8">
+        <v>2.6330574651692791</v>
+      </c>
+      <c r="H304" s="8">
+        <v>1.7792448273086015</v>
+      </c>
+      <c r="I304" s="8">
+        <v>1.6020084882539274</v>
+      </c>
+      <c r="J304" s="8">
+        <v>1.4017635089305875</v>
+      </c>
+      <c r="K304" s="8">
+        <v>1.0888101797192797</v>
+      </c>
+      <c r="L304" s="8">
+        <v>3.0156572521774199</v>
+      </c>
+      <c r="M304" s="8">
+        <v>2.2034059105355661</v>
+      </c>
+      <c r="N304" s="8">
+        <v>2.1099744245524188</v>
+      </c>
+      <c r="O304" s="8">
+        <v>4.1875284478834809</v>
+      </c>
+      <c r="P304" s="8">
+        <v>0.60595773572095091</v>
+      </c>
+      <c r="Q304" s="8">
+        <v>1.9600013310705167</v>
+      </c>
+      <c r="R304" s="8">
+        <v>1.752921535893152</v>
+      </c>
+      <c r="S304" s="8">
+        <v>0.50039316605904638</v>
+      </c>
+      <c r="T304" s="8">
+        <v>1.766615229074658</v>
+      </c>
+      <c r="U304" s="8">
+        <v>-0.56658644203771469</v>
+      </c>
+      <c r="V304" s="8">
+        <v>1.2731481481481557</v>
+      </c>
+      <c r="W304" s="8">
+        <v>2.0179797443386494</v>
+      </c>
+      <c r="X304" s="8">
+        <v>2.2346368715083722</v>
+      </c>
+      <c r="Y304" s="8">
+        <v>1.7089344710384244</v>
+      </c>
+      <c r="Z304" s="8">
+        <v>1.1305023669893308</v>
+      </c>
+      <c r="AA304" s="8">
+        <v>0.89078923926598985</v>
+      </c>
+      <c r="AB304" s="8">
+        <v>1.0437194365374924</v>
+      </c>
+      <c r="AC304" s="8">
+        <v>0.7051564565888031</v>
+      </c>
+      <c r="AD304" s="8">
+        <v>1.4959839357429696</v>
+      </c>
+      <c r="AE304" s="8">
+        <v>2.5154672745034077</v>
+      </c>
+      <c r="AF304" s="8">
+        <v>0.62931696085955835</v>
+      </c>
+      <c r="AG304" s="8">
+        <v>1.3862032595866571</v>
+      </c>
+      <c r="AH304" s="8">
+        <v>0.36196911196911197</v>
+      </c>
+      <c r="AI304" s="8">
+        <v>1.8829093138328152</v>
+      </c>
+      <c r="AJ304" s="8">
+        <v>2.1777544295334019</v>
+      </c>
+      <c r="AK304" s="8">
+        <v>-2.8741750053225461</v>
+      </c>
+      <c r="AL304" s="8">
+        <v>1.4138625680817762</v>
+      </c>
+      <c r="AM304" s="8">
+        <v>-9.0057636887608081E-2</v>
+      </c>
+      <c r="AN304" s="8">
+        <v>2.7534489667410789</v>
+      </c>
+      <c r="AO304" s="8">
+        <v>0.68429558818472858</v>
+      </c>
+      <c r="AP304" s="8">
+        <v>1.6711928138709005</v>
+      </c>
+      <c r="AQ304" s="8">
+        <v>2.6409164639091718</v>
+      </c>
+      <c r="AR304" s="8">
+        <v>2.5949516395376269</v>
+      </c>
+      <c r="AS304" s="8">
+        <v>1.7106050473408154</v>
+      </c>
+      <c r="AT304" s="8">
+        <v>1.5320465167944177</v>
+      </c>
+      <c r="AU304" s="8">
+        <v>3.5544318857822694</v>
+      </c>
+      <c r="AV304" s="8">
+        <v>1.28</v>
+      </c>
+      <c r="AW304" s="8">
+        <v>1.372533523011668</v>
+      </c>
+      <c r="AX304" s="8">
+        <v>2.8679705816231555</v>
+      </c>
+      <c r="AY304" s="8">
+        <v>-1.4182534471437893</v>
+      </c>
+      <c r="AZ304" s="8">
+        <v>1.0421749738584904</v>
+      </c>
+      <c r="BA304" s="8">
+        <v>-0.71672354948806238</v>
+      </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="7"/>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -265,7 +265,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -275,6 +275,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,8 +583,8 @@
   <dimension ref="A1:BA590"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P304" sqref="P304"/>
+      <pane ySplit="5" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C305" sqref="C305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -48639,7 +48640,7 @@
         <v>42278</v>
       </c>
       <c r="B303" s="8">
-        <v>2.0373283752860414</v>
+        <v>2.0437643020594964</v>
       </c>
       <c r="C303" s="8">
         <v>0.9753328516874854</v>
@@ -48800,208 +48801,366 @@
         <v>42309</v>
       </c>
       <c r="B304" s="8">
-        <v>1.8800396398194821</v>
+        <v>1.9156869594975152</v>
       </c>
       <c r="C304" s="8">
-        <v>1.2676491806657806</v>
+        <v>1.2315778625167522</v>
       </c>
       <c r="D304" s="8">
-        <v>0.14788524105294293</v>
+        <v>-0.11830819284236441</v>
       </c>
       <c r="E304" s="8">
-        <v>2.4898022011852641</v>
+        <v>2.6475794658662428</v>
       </c>
       <c r="F304" s="8">
-        <v>1.2259194395796886</v>
+        <v>1.3259944958719116</v>
       </c>
       <c r="G304" s="8">
-        <v>2.6330574651692791</v>
+        <v>2.6437891786451595</v>
       </c>
       <c r="H304" s="8">
-        <v>1.7792448273086015</v>
+        <v>1.7913211496658885</v>
       </c>
       <c r="I304" s="8">
-        <v>1.6020084882539274</v>
+        <v>1.6438519935441449</v>
       </c>
       <c r="J304" s="8">
-        <v>1.4017635089305875</v>
+        <v>1.2661089758082671</v>
       </c>
       <c r="K304" s="8">
-        <v>1.0888101797192797</v>
+        <v>0.99698281516463638</v>
       </c>
       <c r="L304" s="8">
-        <v>3.0156572521774199</v>
+        <v>2.91622614912148</v>
       </c>
       <c r="M304" s="8">
-        <v>2.2034059105355661</v>
+        <v>2.3267397182296943</v>
       </c>
       <c r="N304" s="8">
-        <v>2.1099744245524188</v>
+        <v>1.998081841432225</v>
       </c>
       <c r="O304" s="8">
-        <v>4.1875284478834809</v>
+        <v>3.9902897891063502</v>
       </c>
       <c r="P304" s="8">
-        <v>0.60595773572095091</v>
+        <v>0.48883985402699109</v>
       </c>
       <c r="Q304" s="8">
-        <v>1.9600013310705167</v>
+        <v>2.0631592958636982</v>
       </c>
       <c r="R304" s="8">
-        <v>1.752921535893152</v>
+        <v>1.6822909978168625</v>
       </c>
       <c r="S304" s="8">
-        <v>0.50039316605904638</v>
+        <v>0.56472943026662825</v>
       </c>
       <c r="T304" s="8">
-        <v>1.766615229074658</v>
+        <v>1.9049646144841139</v>
       </c>
       <c r="U304" s="8">
-        <v>-0.56658644203771469</v>
+        <v>-0.58162855996791696</v>
       </c>
       <c r="V304" s="8">
-        <v>1.2731481481481557</v>
+        <v>1.190476190476198</v>
       </c>
       <c r="W304" s="8">
-        <v>2.0179797443386494</v>
+        <v>1.8738383340287386</v>
       </c>
       <c r="X304" s="8">
-        <v>2.2346368715083722</v>
+        <v>2.20554003724394</v>
       </c>
       <c r="Y304" s="8">
-        <v>1.7089344710384244</v>
+        <v>1.8943265277018471</v>
       </c>
       <c r="Z304" s="8">
-        <v>1.1305023669893308</v>
+        <v>1.2011587649261641</v>
       </c>
       <c r="AA304" s="8">
-        <v>0.89078923926598985</v>
+        <v>0.97096027079993685</v>
       </c>
       <c r="AB304" s="8">
-        <v>1.0437194365374924</v>
+        <v>1.1130574410626961</v>
       </c>
       <c r="AC304" s="8">
-        <v>0.7051564565888031</v>
+        <v>0.61701189951520741</v>
       </c>
       <c r="AD304" s="8">
-        <v>1.4959839357429696</v>
+        <v>1.5261044176706873</v>
       </c>
       <c r="AE304" s="8">
-        <v>2.5154672745034077</v>
+        <v>2.523607945294692</v>
       </c>
       <c r="AF304" s="8">
-        <v>0.62931696085955835</v>
+        <v>0.92095165003837298</v>
       </c>
       <c r="AG304" s="8">
-        <v>1.3862032595866571</v>
+        <v>1.3083548881243543</v>
       </c>
       <c r="AH304" s="8">
         <v>0.36196911196911197</v>
       </c>
       <c r="AI304" s="8">
-        <v>1.8829093138328152</v>
+        <v>1.8500678723124755</v>
       </c>
       <c r="AJ304" s="8">
-        <v>2.1777544295334019</v>
+        <v>2.2732699746883762</v>
       </c>
       <c r="AK304" s="8">
-        <v>-2.8741750053225461</v>
+        <v>-3.1296572280178814</v>
       </c>
       <c r="AL304" s="8">
-        <v>1.4138625680817762</v>
+        <v>1.4008057897485706</v>
       </c>
       <c r="AM304" s="8">
-        <v>-9.0057636887608081E-2</v>
+        <v>-6.6042267050907127E-2</v>
       </c>
       <c r="AN304" s="8">
-        <v>2.7534489667410789</v>
+        <v>2.8278665063827271</v>
       </c>
       <c r="AO304" s="8">
-        <v>0.68429558818472858</v>
+        <v>0.64475086826450256</v>
       </c>
       <c r="AP304" s="8">
-        <v>1.6711928138709005</v>
+        <v>1.6503029036975214</v>
       </c>
       <c r="AQ304" s="8">
-        <v>2.6409164639091718</v>
+        <v>2.6510543390105412</v>
       </c>
       <c r="AR304" s="8">
-        <v>2.5949516395376269</v>
+        <v>2.4769992922859165</v>
       </c>
       <c r="AS304" s="8">
-        <v>1.7106050473408154</v>
+        <v>1.9464291999577692</v>
       </c>
       <c r="AT304" s="8">
-        <v>1.5320465167944177</v>
+        <v>1.6080934437295529</v>
       </c>
       <c r="AU304" s="8">
-        <v>3.5544318857822694</v>
+        <v>3.5469958358120204</v>
       </c>
       <c r="AV304" s="8">
-        <v>1.28</v>
+        <v>1.2479999999999927</v>
       </c>
       <c r="AW304" s="8">
-        <v>1.372533523011668</v>
+        <v>1.4067810005532309</v>
       </c>
       <c r="AX304" s="8">
-        <v>2.8679705816231555</v>
+        <v>2.8776054212030822</v>
       </c>
       <c r="AY304" s="8">
-        <v>-1.4182534471437893</v>
+        <v>-1.4313854235062347</v>
       </c>
       <c r="AZ304" s="8">
-        <v>1.0421749738584904</v>
+        <v>1.0561171139770018</v>
       </c>
       <c r="BA304" s="8">
-        <v>-0.71672354948806238</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" s="7"/>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+        <v>-0.92150170648463769</v>
+      </c>
+    </row>
+    <row r="305" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A305" s="7">
+        <v>42339</v>
+      </c>
+      <c r="B305" s="9">
+        <v>1.884886764538523</v>
+      </c>
+      <c r="C305" s="9">
+        <v>1.044883673049205</v>
+      </c>
+      <c r="D305" s="9">
+        <v>-8.8079859072228817E-2</v>
+      </c>
+      <c r="E305" s="9">
+        <v>2.4738234955701297</v>
+      </c>
+      <c r="F305" s="9">
+        <v>1.6021915988710098</v>
+      </c>
+      <c r="G305" s="9">
+        <v>2.8964673690316292</v>
+      </c>
+      <c r="H305" s="9">
+        <v>1.8693838254171975</v>
+      </c>
+      <c r="I305" s="9">
+        <v>1.3467612180442248</v>
+      </c>
+      <c r="J305" s="9">
+        <v>1.6937669376693765</v>
+      </c>
+      <c r="K305" s="9">
+        <v>1.4053060152350991</v>
+      </c>
+      <c r="L305" s="9">
+        <v>2.926296496227569</v>
+      </c>
+      <c r="M305" s="9">
+        <v>2.1554477700224859</v>
+      </c>
+      <c r="N305" s="9">
+        <v>2.5079872204472919</v>
+      </c>
+      <c r="O305" s="9">
+        <v>4.4151115157032352</v>
+      </c>
+      <c r="P305" s="9">
+        <v>-5.0787201625190445E-2</v>
+      </c>
+      <c r="Q305" s="9">
+        <v>1.8956873941768173</v>
+      </c>
+      <c r="R305" s="9">
+        <v>1.6419729331024397</v>
+      </c>
+      <c r="S305" s="9">
+        <v>0.49218917183820982</v>
+      </c>
+      <c r="T305" s="9">
+        <v>2.138297872340428</v>
+      </c>
+      <c r="U305" s="9">
+        <v>-0.88149854753079782</v>
+      </c>
+      <c r="V305" s="9">
+        <v>1.422192822887367</v>
+      </c>
+      <c r="W305" s="9">
+        <v>2.0785219399537964</v>
+      </c>
+      <c r="X305" s="9">
+        <v>2.1416756144983817</v>
+      </c>
+      <c r="Y305" s="9">
+        <v>1.8920713201820767</v>
+      </c>
+      <c r="Z305" s="9">
+        <v>1.4939605848696662</v>
+      </c>
+      <c r="AA305" s="9">
+        <v>0.9337483325922632</v>
+      </c>
+      <c r="AB305" s="9">
+        <v>0.94731472710048825</v>
+      </c>
+      <c r="AC305" s="9">
+        <v>0.54981306355839021</v>
+      </c>
+      <c r="AD305" s="9">
+        <v>1.4245585874799405</v>
+      </c>
+      <c r="AE305" s="9">
+        <v>2.0479479886225147</v>
+      </c>
+      <c r="AF305" s="9">
+        <v>0.52067381316998118</v>
+      </c>
+      <c r="AG305" s="9">
+        <v>1.6372448082766193</v>
+      </c>
+      <c r="AH305" s="9">
+        <v>0.3142373700749363</v>
+      </c>
+      <c r="AI305" s="9">
+        <v>1.7463385865469836</v>
+      </c>
+      <c r="AJ305" s="9">
+        <v>2.0651423948989858</v>
+      </c>
+      <c r="AK305" s="9">
+        <v>-4.0017028522775675</v>
+      </c>
+      <c r="AL305" s="9">
+        <v>1.5403814632692561</v>
+      </c>
+      <c r="AM305" s="9">
+        <v>-0.53347719235148738</v>
+      </c>
+      <c r="AN305" s="9">
+        <v>2.7301804889193484</v>
+      </c>
+      <c r="AO305" s="9">
+        <v>0.65230452321689125</v>
+      </c>
+      <c r="AP305" s="9">
+        <v>1.7525558105570576</v>
+      </c>
+      <c r="AQ305" s="9">
+        <v>3.2908059943296881</v>
+      </c>
+      <c r="AR305" s="9">
+        <v>2.213327054391343</v>
+      </c>
+      <c r="AS305" s="9">
+        <v>2.2764740958995437</v>
+      </c>
+      <c r="AT305" s="9">
+        <v>1.4204859781267258</v>
+      </c>
+      <c r="AU305" s="9">
+        <v>3.1914893617021316</v>
+      </c>
+      <c r="AV305" s="9">
+        <v>0.8341353865896769</v>
+      </c>
+      <c r="AW305" s="9">
+        <v>1.5457944909674992</v>
+      </c>
+      <c r="AX305" s="9">
+        <v>2.8149618907320852</v>
+      </c>
+      <c r="AY305" s="9">
+        <v>-1.5463242039051326</v>
+      </c>
+      <c r="AZ305" s="9">
+        <v>0.89484679665737532</v>
+      </c>
+      <c r="BA305" s="9">
+        <v>-2.1694915254237208</v>
+      </c>
+    </row>
+    <row r="306" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A306" s="7"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A307" s="7"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A308" s="7"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A309" s="7"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A310" s="7"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A311" s="7"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A312" s="7"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A313" s="7"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A314" s="7"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A315" s="7"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A316" s="7"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A317" s="7"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A318" s="7"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A319" s="7"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A320" s="7"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1990 -- January 2016</t>
+    <t>Total Employment; Year/Year: January 1990 -- February 2016</t>
   </si>
 </sst>
 </file>
@@ -583,8 +583,8 @@
   <dimension ref="A1:BA590"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C302" sqref="C302"/>
+      <pane ySplit="5" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B305" sqref="B305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -49123,164 +49123,322 @@
         <v>42370</v>
       </c>
       <c r="B306" s="9">
-        <v>1.9164717009308576</v>
+        <v>1.9136272160315171</v>
       </c>
       <c r="C306" s="9">
-        <v>0.77987811176530886</v>
+        <v>0.97613882863339851</v>
       </c>
       <c r="D306" s="9">
-        <v>-0.52878965922442855</v>
+        <v>-0.35252643948295792</v>
       </c>
       <c r="E306" s="9">
-        <v>2.9435468396208417</v>
+        <v>2.9704110219902558</v>
       </c>
       <c r="F306" s="9">
-        <v>1.9184252231211945</v>
+        <v>2.0018350154308115</v>
       </c>
       <c r="G306" s="9">
-        <v>2.8108948236319842</v>
+        <v>2.7950997302198024</v>
       </c>
       <c r="H306" s="9">
-        <v>2.7478426850121433</v>
+        <v>2.6881934226746873</v>
       </c>
       <c r="I306" s="9">
-        <v>0.58644006941536608</v>
+        <v>0.6043923164382824</v>
       </c>
       <c r="J306" s="9">
-        <v>2.7871431782423093</v>
+        <v>2.8320971004720215</v>
       </c>
       <c r="K306" s="9">
-        <v>1.3209521318336415</v>
+        <v>1.3863458017263959</v>
       </c>
       <c r="L306" s="9">
-        <v>3.307100428582177</v>
+        <v>3.2081004536454434</v>
       </c>
       <c r="M306" s="9">
         <v>2.8331235602840295</v>
       </c>
       <c r="N306" s="9">
-        <v>1.8026565464895599</v>
+        <v>1.8817204301075234</v>
       </c>
       <c r="O306" s="9">
-        <v>3.944001204275184</v>
+        <v>3.7483064880325294</v>
       </c>
       <c r="P306" s="9">
-        <v>0.83810682482552601</v>
+        <v>0.9732853449586768</v>
       </c>
       <c r="Q306" s="9">
-        <v>1.51831592905686</v>
+        <v>1.6210840377921463</v>
       </c>
       <c r="R306" s="9">
-        <v>1.5080536482063789</v>
+        <v>1.431046653404348</v>
       </c>
       <c r="S306" s="9">
-        <v>0.10026498603452631</v>
+        <v>0.10742677075127122</v>
       </c>
       <c r="T306" s="9">
-        <v>1.3903686341359422</v>
+        <v>1.4756019603665058</v>
       </c>
       <c r="U306" s="9">
-        <v>-0.77069362426184018</v>
+        <v>-0.75067560804724254</v>
       </c>
       <c r="V306" s="9">
-        <v>0.80499425004106739</v>
+        <v>0.96927879086577584</v>
       </c>
       <c r="W306" s="9">
-        <v>1.6967126193000959</v>
+        <v>1.6550522648083554</v>
       </c>
       <c r="X306" s="9">
-        <v>1.4116628175519657</v>
+        <v>1.5184757505773645</v>
       </c>
       <c r="Y306" s="9">
         <v>2.0686713584985963</v>
       </c>
       <c r="Z306" s="9">
-        <v>1.1066079295154216</v>
+        <v>1.1700440528634297</v>
       </c>
       <c r="AA306" s="9">
-        <v>1.3396025550035404</v>
+        <v>1.144428672817589</v>
       </c>
       <c r="AB306" s="9">
-        <v>0.50455905142898339</v>
+        <v>0.51897502432695752</v>
       </c>
       <c r="AC306" s="9">
-        <v>0.8714596949891068</v>
+        <v>0.74074074074073581</v>
       </c>
       <c r="AD306" s="9">
-        <v>1.4510157109976984</v>
+        <v>1.7011908335835084</v>
       </c>
       <c r="AE306" s="9">
-        <v>2.7303479381443374</v>
+        <v>2.5692654639175334</v>
       </c>
       <c r="AF306" s="9">
-        <v>1.2411890897946709</v>
+        <v>1.2718357339871214</v>
       </c>
       <c r="AG306" s="9">
-        <v>1.7753704957496359</v>
+        <v>1.735249128614053</v>
       </c>
       <c r="AH306" s="9">
-        <v>0.20606060606061155</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="AI306" s="9">
-        <v>1.2573207637543271</v>
+        <v>1.2224859027671862</v>
       </c>
       <c r="AJ306" s="9">
-        <v>2.4869453253534943</v>
+        <v>2.4368726006819603</v>
       </c>
       <c r="AK306" s="9">
-        <v>-4.5249839159339524</v>
+        <v>-4.4606476517263589</v>
       </c>
       <c r="AL306" s="9">
-        <v>1.4977663262090606</v>
+        <v>1.3086918642371284</v>
       </c>
       <c r="AM306" s="9">
-        <v>-0.56699492688749631</v>
+        <v>-0.47150104446434438</v>
       </c>
       <c r="AN306" s="9">
-        <v>3.3979475484606558</v>
+        <v>3.3637400228050174</v>
       </c>
       <c r="AO306" s="9">
-        <v>0.59303824666953153</v>
+        <v>0.64632574129781462</v>
       </c>
       <c r="AP306" s="9">
-        <v>0.72343943778420827</v>
+        <v>0.84745762711863692</v>
       </c>
       <c r="AQ306" s="9">
-        <v>2.1797265250517088</v>
+        <v>2.3613704021393587</v>
       </c>
       <c r="AR306" s="9">
-        <v>1.1491557223264621</v>
+        <v>1.1960600375234576</v>
       </c>
       <c r="AS306" s="9">
-        <v>3.3586397509008847</v>
+        <v>3.2921666724976353</v>
       </c>
       <c r="AT306" s="9">
-        <v>1.591493915125983</v>
+        <v>1.5897954157501752</v>
       </c>
       <c r="AU306" s="9">
-        <v>2.9905715969357791</v>
+        <v>3.0715969357690076</v>
       </c>
       <c r="AV306" s="9">
-        <v>1.248799231508158</v>
+        <v>1.2808197246237591</v>
       </c>
       <c r="AW306" s="9">
-        <v>2.3221680557739663</v>
+        <v>2.2566441264349715</v>
       </c>
       <c r="AX306" s="9">
-        <v>2.9821520287622012</v>
+        <v>3.0206728299948757</v>
       </c>
       <c r="AY306" s="9">
         <v>-1.6450777202072597</v>
       </c>
       <c r="AZ306" s="9">
-        <v>0.93851020195349166</v>
+        <v>1.1957315165629703</v>
       </c>
       <c r="BA306" s="9">
-        <v>-2.9511533242876484</v>
+        <v>-3.0189959294437023</v>
       </c>
     </row>
     <row r="307" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A307" s="7"/>
+      <c r="A307" s="7">
+        <v>42401</v>
+      </c>
+      <c r="B307" s="9">
+        <v>1.8958321503605702</v>
+      </c>
+      <c r="C307" s="9">
+        <v>1.10400330169211</v>
+      </c>
+      <c r="D307" s="9">
+        <v>-8.8261253309783627E-2</v>
+      </c>
+      <c r="E307" s="9">
+        <v>2.9680977365861132</v>
+      </c>
+      <c r="F307" s="9">
+        <v>2.3228707018566395</v>
+      </c>
+      <c r="G307" s="9">
+        <v>2.847702164152754</v>
+      </c>
+      <c r="H307" s="9">
+        <v>2.4982155603140614</v>
+      </c>
+      <c r="I307" s="9">
+        <v>0.94633445136560745</v>
+      </c>
+      <c r="J307" s="9">
+        <v>2.4477880080844323</v>
+      </c>
+      <c r="K307" s="9">
+        <v>1.4523093026298606</v>
+      </c>
+      <c r="L307" s="9">
+        <v>3.0405701068950517</v>
+      </c>
+      <c r="M307" s="9">
+        <v>2.7448474953266602</v>
+      </c>
+      <c r="N307" s="9">
+        <v>2.462898642248188</v>
+      </c>
+      <c r="O307" s="9">
+        <v>3.9699248120300719</v>
+      </c>
+      <c r="P307" s="9">
+        <v>1.1082808994450128</v>
+      </c>
+      <c r="Q307" s="9">
+        <v>1.687735786617248</v>
+      </c>
+      <c r="R307" s="9">
+        <v>1.0137302707558182</v>
+      </c>
+      <c r="S307" s="9">
+        <v>-0.38535645472060687</v>
+      </c>
+      <c r="T307" s="9">
+        <v>1.5347721822541942</v>
+      </c>
+      <c r="U307" s="9">
+        <v>-0.9363108351692393</v>
+      </c>
+      <c r="V307" s="9">
+        <v>0.95473251028805828</v>
+      </c>
+      <c r="W307" s="9">
+        <v>1.4217113472227614</v>
+      </c>
+      <c r="X307" s="9">
+        <v>1.9377382465057151</v>
+      </c>
+      <c r="Y307" s="9">
+        <v>2.1505885696691047</v>
+      </c>
+      <c r="Z307" s="9">
+        <v>1.3158357668085576</v>
+      </c>
+      <c r="AA307" s="9">
+        <v>1.4528703047484135</v>
+      </c>
+      <c r="AB307" s="9">
+        <v>0.6727102669256716</v>
+      </c>
+      <c r="AC307" s="9">
+        <v>0.84819486733361837</v>
+      </c>
+      <c r="AD307" s="9">
+        <v>1.2888400439604333</v>
+      </c>
+      <c r="AE307" s="9">
+        <v>2.3024468511833169</v>
+      </c>
+      <c r="AF307" s="9">
+        <v>2.2109626900046204</v>
+      </c>
+      <c r="AG307" s="9">
+        <v>1.4992353398350386</v>
+      </c>
+      <c r="AH307" s="9">
+        <v>7.2621641249081215E-2</v>
+      </c>
+      <c r="AI307" s="9">
+        <v>1.4173365385661416</v>
+      </c>
+      <c r="AJ307" s="9">
+        <v>2.06011643103243</v>
+      </c>
+      <c r="AK307" s="9">
+        <v>-4.894351013367829</v>
+      </c>
+      <c r="AL307" s="9">
+        <v>1.4576773476569702</v>
+      </c>
+      <c r="AM307" s="9">
+        <v>-0.42967118219251926</v>
+      </c>
+      <c r="AN307" s="9">
+        <v>3.1384790011350714</v>
+      </c>
+      <c r="AO307" s="9">
+        <v>0.91535145717769817</v>
+      </c>
+      <c r="AP307" s="9">
+        <v>1.5391014975041548</v>
+      </c>
+      <c r="AQ307" s="9">
+        <v>2.1223093944880214</v>
+      </c>
+      <c r="AR307" s="9">
+        <v>1.3123974689477438</v>
+      </c>
+      <c r="AS307" s="9">
+        <v>3.1207408701729928</v>
+      </c>
+      <c r="AT307" s="9">
+        <v>1.4491033196252141</v>
+      </c>
+      <c r="AU307" s="9">
+        <v>3.2665345371797696</v>
+      </c>
+      <c r="AV307" s="9">
+        <v>1.5424164524421631</v>
+      </c>
+      <c r="AW307" s="9">
+        <v>2.5276337157525273</v>
+      </c>
+      <c r="AX307" s="9">
+        <v>3.0895818659153487</v>
+      </c>
+      <c r="AY307" s="9">
+        <v>-1.5200727556190781</v>
+      </c>
+      <c r="AZ307" s="9">
+        <v>1.3086642599277916</v>
+      </c>
+      <c r="BA307" s="9">
+        <v>-2.9911624745071421</v>
+      </c>
     </row>
     <row r="308" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A308" s="7"/>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1990 -- February 2016</t>
+    <t>Total Employment; Year/Year: January 1990 -- March 2016</t>
   </si>
 </sst>
 </file>
@@ -582,9 +582,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA590"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B305" sqref="B305"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I271" sqref="I271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -49237,7 +49237,7 @@
         <v>-0.47150104446434438</v>
       </c>
       <c r="AN306" s="9">
-        <v>3.3637400228050174</v>
+        <v>3.3067274800456099</v>
       </c>
       <c r="AO306" s="9">
         <v>0.64632574129781462</v>
@@ -49287,161 +49287,319 @@
         <v>1.8958321503605702</v>
       </c>
       <c r="C307" s="9">
-        <v>1.10400330169211</v>
+        <v>1.052414362360703</v>
       </c>
       <c r="D307" s="9">
         <v>-8.8261253309783627E-2</v>
       </c>
       <c r="E307" s="9">
-        <v>2.9680977365861132</v>
+        <v>2.9795871471793567</v>
       </c>
       <c r="F307" s="9">
-        <v>2.3228707018566395</v>
+        <v>2.2229622845724792</v>
       </c>
       <c r="G307" s="9">
-        <v>2.847702164152754</v>
+        <v>2.8905816475810906</v>
       </c>
       <c r="H307" s="9">
-        <v>2.4982155603140614</v>
+        <v>2.6568324212863823</v>
       </c>
       <c r="I307" s="9">
-        <v>0.94633445136560745</v>
+        <v>0.94034499281265249</v>
       </c>
       <c r="J307" s="9">
-        <v>2.4477880080844323</v>
+        <v>2.5376150909499238</v>
       </c>
       <c r="K307" s="9">
-        <v>1.4523093026298606</v>
+        <v>1.3999738322648236</v>
       </c>
       <c r="L307" s="9">
-        <v>3.0405701068950517</v>
+        <v>3.0918297180721295</v>
       </c>
       <c r="M307" s="9">
-        <v>2.7448474953266602</v>
+        <v>2.8489624003218008</v>
       </c>
       <c r="N307" s="9">
-        <v>2.462898642248188</v>
+        <v>2.3997473950110586</v>
       </c>
       <c r="O307" s="9">
-        <v>3.9699248120300719</v>
+        <v>3.9097744360902258</v>
       </c>
       <c r="P307" s="9">
-        <v>1.1082808994450128</v>
+        <v>1.1167153050724485</v>
       </c>
       <c r="Q307" s="9">
-        <v>1.687735786617248</v>
+        <v>1.5123436362432927</v>
       </c>
       <c r="R307" s="9">
-        <v>1.0137302707558182</v>
+        <v>0.97523418452457633</v>
       </c>
       <c r="S307" s="9">
-        <v>-0.38535645472060687</v>
+        <v>-0.35681153214871908</v>
       </c>
       <c r="T307" s="9">
-        <v>1.5347721822541942</v>
+        <v>1.4974686917132911</v>
       </c>
       <c r="U307" s="9">
-        <v>-0.9363108351692393</v>
+        <v>-0.9513318646104546</v>
       </c>
       <c r="V307" s="9">
-        <v>0.95473251028805828</v>
+        <v>0.90534979423868311</v>
       </c>
       <c r="W307" s="9">
-        <v>1.4217113472227614</v>
+        <v>1.4973342912239711</v>
       </c>
       <c r="X307" s="9">
-        <v>1.9377382465057151</v>
+        <v>1.9550652651033791</v>
       </c>
       <c r="Y307" s="9">
-        <v>2.1505885696691047</v>
+        <v>2.2074323204092705</v>
       </c>
       <c r="Z307" s="9">
-        <v>1.3158357668085576</v>
+        <v>1.3052809344544878</v>
       </c>
       <c r="AA307" s="9">
-        <v>1.4528703047484135</v>
+        <v>1.3908575478384164</v>
       </c>
       <c r="AB307" s="9">
-        <v>0.6727102669256716</v>
+        <v>0.71947622131088562</v>
       </c>
       <c r="AC307" s="9">
-        <v>0.84819486733361837</v>
+        <v>0.97868638538495001</v>
       </c>
       <c r="AD307" s="9">
-        <v>1.2888400439604333</v>
+        <v>1.2988310520531521</v>
       </c>
       <c r="AE307" s="9">
-        <v>2.3024468511833169</v>
+        <v>2.4227837946249537</v>
       </c>
       <c r="AF307" s="9">
-        <v>2.2109626900046204</v>
+        <v>2.118839244587758</v>
       </c>
       <c r="AG307" s="9">
-        <v>1.4992353398350386</v>
+        <v>1.5844761451099425</v>
       </c>
       <c r="AH307" s="9">
-        <v>7.2621641249081215E-2</v>
+        <v>3.6310820624540607E-2</v>
       </c>
       <c r="AI307" s="9">
-        <v>1.4173365385661416</v>
+        <v>1.3814408319101956</v>
       </c>
       <c r="AJ307" s="9">
-        <v>2.06011643103243</v>
+        <v>2.0838778662231152</v>
       </c>
       <c r="AK307" s="9">
-        <v>-4.894351013367829</v>
+        <v>-4.8727899956878016</v>
       </c>
       <c r="AL307" s="9">
-        <v>1.4576773476569702</v>
+        <v>1.4169290609372105</v>
       </c>
       <c r="AM307" s="9">
-        <v>-0.42967118219251926</v>
+        <v>-0.3520916631855398</v>
       </c>
       <c r="AN307" s="9">
-        <v>3.1384790011350714</v>
+        <v>3.2576617480136258</v>
       </c>
       <c r="AO307" s="9">
-        <v>0.91535145717769817</v>
+        <v>0.91878617183877453</v>
       </c>
       <c r="AP307" s="9">
         <v>1.5391014975041548</v>
       </c>
       <c r="AQ307" s="9">
-        <v>2.1223093944880214</v>
+        <v>2.0217260108629964</v>
       </c>
       <c r="AR307" s="9">
         <v>1.3123974689477438</v>
       </c>
       <c r="AS307" s="9">
-        <v>3.1207408701729928</v>
+        <v>3.1452035645640399</v>
       </c>
       <c r="AT307" s="9">
-        <v>1.4491033196252141</v>
+        <v>1.5050663501081105</v>
       </c>
       <c r="AU307" s="9">
-        <v>3.2665345371797696</v>
+        <v>3.3032371724289806</v>
       </c>
       <c r="AV307" s="9">
-        <v>1.5424164524421631</v>
+        <v>1.5102827763496107</v>
       </c>
       <c r="AW307" s="9">
-        <v>2.5276337157525273</v>
+        <v>2.5800199067525802</v>
       </c>
       <c r="AX307" s="9">
-        <v>3.0895818659153487</v>
+        <v>3.1792277646154741</v>
       </c>
       <c r="AY307" s="9">
-        <v>-1.5200727556190781</v>
+        <v>-1.4421203066129689</v>
       </c>
       <c r="AZ307" s="9">
-        <v>1.3086642599277916</v>
+        <v>1.4613996112191026</v>
       </c>
       <c r="BA307" s="9">
-        <v>-2.9911624745071421</v>
+        <v>-3.0251529571719842</v>
       </c>
     </row>
     <row r="308" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A308" s="7"/>
+      <c r="A308" s="7">
+        <v>42430</v>
+      </c>
+      <c r="B308" s="9">
+        <v>1.9876287489714268</v>
+      </c>
+      <c r="C308" s="9">
+        <v>1.2189453024120727</v>
+      </c>
+      <c r="D308" s="9">
+        <v>-0.52941176470588569</v>
+      </c>
+      <c r="E308" s="9">
+        <v>3.1235645383555317</v>
+      </c>
+      <c r="F308" s="9">
+        <v>2.1704649803823353</v>
+      </c>
+      <c r="G308" s="9">
+        <v>2.6465242356966261</v>
+      </c>
+      <c r="H308" s="9">
+        <v>2.8137756113026593</v>
+      </c>
+      <c r="I308" s="9">
+        <v>0.89788100083802236</v>
+      </c>
+      <c r="J308" s="9">
+        <v>2.6221425369789308</v>
+      </c>
+      <c r="K308" s="9">
+        <v>1.2947946638765337</v>
+      </c>
+      <c r="L308" s="9">
+        <v>2.9234512446191188</v>
+      </c>
+      <c r="M308" s="9">
+        <v>3.0739400818140972</v>
+      </c>
+      <c r="N308" s="9">
+        <v>2.9319041614123615</v>
+      </c>
+      <c r="O308" s="9">
+        <v>3.5938903863432166</v>
+      </c>
+      <c r="P308" s="9">
+        <v>1.3475906967330562</v>
+      </c>
+      <c r="Q308" s="9">
+        <v>1.2882500993509105</v>
+      </c>
+      <c r="R308" s="9">
+        <v>0.98070636497661567</v>
+      </c>
+      <c r="S308" s="9">
+        <v>0</v>
+      </c>
+      <c r="T308" s="9">
+        <v>1.971785828791272</v>
+      </c>
+      <c r="U308" s="9">
+        <v>-0.66288354341385247</v>
+      </c>
+      <c r="V308" s="9">
+        <v>0.98586920801840283</v>
+      </c>
+      <c r="W308" s="9">
+        <v>2.36256247160382</v>
+      </c>
+      <c r="X308" s="9">
+        <v>1.7663981588032247</v>
+      </c>
+      <c r="Y308" s="9">
+        <v>2.3037764886942154</v>
+      </c>
+      <c r="Z308" s="9">
+        <v>1.0894394658232296</v>
+      </c>
+      <c r="AA308" s="9">
+        <v>1.8385291766586567</v>
+      </c>
+      <c r="AB308" s="9">
+        <v>0.85417717869243404</v>
+      </c>
+      <c r="AC308" s="9">
+        <v>0.73704747452850139</v>
+      </c>
+      <c r="AD308" s="9">
+        <v>1.6365632172437856</v>
+      </c>
+      <c r="AE308" s="9">
+        <v>2.8452352328284043</v>
+      </c>
+      <c r="AF308" s="9">
+        <v>1.6059957173447537</v>
+      </c>
+      <c r="AG308" s="9">
+        <v>1.9517450454738965</v>
+      </c>
+      <c r="AH308" s="9">
+        <v>0.27845036319612043</v>
+      </c>
+      <c r="AI308" s="9">
+        <v>1.437715304115357</v>
+      </c>
+      <c r="AJ308" s="9">
+        <v>2.4807344686518928</v>
+      </c>
+      <c r="AK308" s="9">
+        <v>-4.4902386117136635</v>
+      </c>
+      <c r="AL308" s="9">
+        <v>1.7539960363764298</v>
+      </c>
+      <c r="AM308" s="9">
+        <v>-0.36524758996466739</v>
+      </c>
+      <c r="AN308" s="9">
+        <v>3.3206777355924468</v>
+      </c>
+      <c r="AO308" s="9">
+        <v>1.3939800712478703</v>
+      </c>
+      <c r="AP308" s="9">
+        <v>1.8253474382908017</v>
+      </c>
+      <c r="AQ308" s="9">
+        <v>2.657004830917872</v>
+      </c>
+      <c r="AR308" s="9">
+        <v>1.0282776349614478</v>
+      </c>
+      <c r="AS308" s="9">
+        <v>3.2109129066107092</v>
+      </c>
+      <c r="AT308" s="9">
+        <v>1.5712587056225584</v>
+      </c>
+      <c r="AU308" s="9">
+        <v>3.2942898975109811</v>
+      </c>
+      <c r="AV308" s="9">
+        <v>1.4116137311517596</v>
+      </c>
+      <c r="AW308" s="9">
+        <v>2.832266862477709</v>
+      </c>
+      <c r="AX308" s="9">
+        <v>3.1832694763729186</v>
+      </c>
+      <c r="AY308" s="9">
+        <v>-0.67867397546333141</v>
+      </c>
+      <c r="AZ308" s="9">
+        <v>1.7758046614872462</v>
+      </c>
+      <c r="BA308" s="9">
+        <v>-3.1675749318801127</v>
+      </c>
     </row>
     <row r="309" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A309" s="7"/>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1990 -- March 2016</t>
+    <t>Total Employment; Year/Year: January 1990 -- April 2016</t>
   </si>
 </sst>
 </file>
@@ -582,9 +582,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA590"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I271" sqref="I271"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G278" sqref="G278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -49284,7 +49284,7 @@
         <v>42401</v>
       </c>
       <c r="B307" s="9">
-        <v>1.8958321503605702</v>
+        <v>1.8873147464652775</v>
       </c>
       <c r="C307" s="9">
         <v>1.052414362360703</v>
@@ -49445,164 +49445,322 @@
         <v>42430</v>
       </c>
       <c r="B308" s="9">
-        <v>1.9876287489714268</v>
+        <v>1.9741508952132341</v>
       </c>
       <c r="C308" s="9">
-        <v>1.2189453024120727</v>
+        <v>1.1827901451371361</v>
       </c>
       <c r="D308" s="9">
-        <v>-0.52941176470588569</v>
+        <v>-0.47058823529412436</v>
       </c>
       <c r="E308" s="9">
-        <v>3.1235645383555317</v>
+        <v>3.0431786862655028</v>
       </c>
       <c r="F308" s="9">
-        <v>2.1704649803823353</v>
+        <v>2.2122046915435343</v>
       </c>
       <c r="G308" s="9">
-        <v>2.6465242356966261</v>
+        <v>2.6528135043175785</v>
       </c>
       <c r="H308" s="9">
-        <v>2.8137756113026593</v>
+        <v>2.8732215749217294</v>
       </c>
       <c r="I308" s="9">
-        <v>0.89788100083802236</v>
+        <v>0.93978211421046598</v>
       </c>
       <c r="J308" s="9">
-        <v>2.6221425369789308</v>
+        <v>2.7790228597041762</v>
       </c>
       <c r="K308" s="9">
-        <v>1.2947946638765337</v>
+        <v>1.2032435260266716</v>
       </c>
       <c r="L308" s="9">
-        <v>2.9234512446191188</v>
+        <v>2.9733607835797526</v>
       </c>
       <c r="M308" s="9">
-        <v>3.0739400818140972</v>
+        <v>3.1117731905133348</v>
       </c>
       <c r="N308" s="9">
-        <v>2.9319041614123615</v>
+        <v>2.6796973518284992</v>
       </c>
       <c r="O308" s="9">
-        <v>3.5938903863432166</v>
+        <v>3.5789158430668002</v>
       </c>
       <c r="P308" s="9">
-        <v>1.3475906967330562</v>
+        <v>1.3087989745492479</v>
       </c>
       <c r="Q308" s="9">
-        <v>1.2882500993509105</v>
+        <v>1.4074711882368525</v>
       </c>
       <c r="R308" s="9">
-        <v>0.98070636497661567</v>
+        <v>1.051214665726562</v>
       </c>
       <c r="S308" s="9">
-        <v>0</v>
+        <v>2.8595939376615025E-2</v>
       </c>
       <c r="T308" s="9">
-        <v>1.971785828791272</v>
+        <v>2.0038473869830074</v>
       </c>
       <c r="U308" s="9">
-        <v>-0.66288354341385247</v>
+        <v>-0.71310199367247751</v>
       </c>
       <c r="V308" s="9">
         <v>0.98586920801840283</v>
       </c>
       <c r="W308" s="9">
-        <v>2.36256247160382</v>
+        <v>2.400424049674394</v>
       </c>
       <c r="X308" s="9">
-        <v>1.7663981588032247</v>
+        <v>1.7577675489067868</v>
       </c>
       <c r="Y308" s="9">
-        <v>2.3037764886942154</v>
+        <v>2.400852373623763</v>
       </c>
       <c r="Z308" s="9">
-        <v>1.0894394658232296</v>
+        <v>1.0788965032507405</v>
       </c>
       <c r="AA308" s="9">
-        <v>1.8385291766586567</v>
+        <v>1.8829380939692528</v>
       </c>
       <c r="AB308" s="9">
-        <v>0.85417717869243404</v>
+        <v>0.95869674908094538</v>
       </c>
       <c r="AC308" s="9">
-        <v>0.73704747452850139</v>
+        <v>0.71536960763061164</v>
       </c>
       <c r="AD308" s="9">
-        <v>1.6365632172437856</v>
+        <v>1.5168146891527723</v>
       </c>
       <c r="AE308" s="9">
-        <v>2.8452352328284043</v>
+        <v>2.8051614971547645</v>
       </c>
       <c r="AF308" s="9">
-        <v>1.6059957173447537</v>
+        <v>1.6977669011930292</v>
       </c>
       <c r="AG308" s="9">
-        <v>1.9517450454738965</v>
+        <v>2.0695011650339468</v>
       </c>
       <c r="AH308" s="9">
-        <v>0.27845036319612043</v>
+        <v>0.19370460048426424</v>
       </c>
       <c r="AI308" s="9">
-        <v>1.437715304115357</v>
+        <v>1.4214146770845706</v>
       </c>
       <c r="AJ308" s="9">
-        <v>2.4807344686518928</v>
+        <v>2.5235467605365898</v>
       </c>
       <c r="AK308" s="9">
-        <v>-4.4902386117136635</v>
+        <v>-4.5553145336225596</v>
       </c>
       <c r="AL308" s="9">
-        <v>1.7539960363764298</v>
+        <v>1.7095441832897942</v>
       </c>
       <c r="AM308" s="9">
-        <v>-0.36524758996466739</v>
+        <v>-0.2454942817795287</v>
       </c>
       <c r="AN308" s="9">
-        <v>3.3206777355924468</v>
+        <v>3.3150110500368335</v>
       </c>
       <c r="AO308" s="9">
-        <v>1.3939800712478703</v>
+        <v>1.4438879997246552</v>
       </c>
       <c r="AP308" s="9">
-        <v>1.8253474382908017</v>
+        <v>1.7631196847127151</v>
       </c>
       <c r="AQ308" s="9">
-        <v>2.657004830917872</v>
+        <v>2.6368760064412169</v>
       </c>
       <c r="AR308" s="9">
         <v>1.0282776349614478</v>
       </c>
       <c r="AS308" s="9">
-        <v>3.2109129066107092</v>
+        <v>3.2423924449108013</v>
       </c>
       <c r="AT308" s="9">
-        <v>1.5712587056225584</v>
+        <v>1.5933412604042838</v>
       </c>
       <c r="AU308" s="9">
-        <v>3.2942898975109811</v>
+        <v>3.3455344070278219</v>
       </c>
       <c r="AV308" s="9">
-        <v>1.4116137311517596</v>
+        <v>1.5399422521655475</v>
       </c>
       <c r="AW308" s="9">
-        <v>2.832266862477709</v>
+        <v>2.7771950068184226</v>
       </c>
       <c r="AX308" s="9">
-        <v>3.1832694763729186</v>
+        <v>3.1449553001277137</v>
       </c>
       <c r="AY308" s="9">
-        <v>-0.67867397546333141</v>
+        <v>-0.57426259462282581</v>
       </c>
       <c r="AZ308" s="9">
-        <v>1.7758046614872462</v>
+        <v>1.8382352941176472</v>
       </c>
       <c r="BA308" s="9">
-        <v>-3.1675749318801127</v>
+        <v>-3.1335149863760368</v>
       </c>
     </row>
     <row r="309" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A309" s="7"/>
+      <c r="A309" s="7">
+        <v>42461</v>
+      </c>
+      <c r="B309" s="9">
+        <v>1.9062050799090802</v>
+      </c>
+      <c r="C309" s="9">
+        <v>1.3457076566125243</v>
+      </c>
+      <c r="D309" s="9">
+        <v>-1.0288065843621399</v>
+      </c>
+      <c r="E309" s="9">
+        <v>3.1118587047939306</v>
+      </c>
+      <c r="F309" s="9">
+        <v>2.1001750145845337</v>
+      </c>
+      <c r="G309" s="9">
+        <v>2.8258836378701093</v>
+      </c>
+      <c r="H309" s="9">
+        <v>2.6800205850916541</v>
+      </c>
+      <c r="I309" s="9">
+        <v>1.2038090674971498</v>
+      </c>
+      <c r="J309" s="9">
+        <v>3.743797925124047</v>
+      </c>
+      <c r="K309" s="9">
+        <v>1.5412748171368802</v>
+      </c>
+      <c r="L309" s="9">
+        <v>3.1696017137021451</v>
+      </c>
+      <c r="M309" s="9">
+        <v>3.3282117952960681</v>
+      </c>
+      <c r="N309" s="9">
+        <v>1.9876952200662601</v>
+      </c>
+      <c r="O309" s="9">
+        <v>3.8415545590433551</v>
+      </c>
+      <c r="P309" s="9">
+        <v>1.1354843050836052</v>
+      </c>
+      <c r="Q309" s="9">
+        <v>1.6303988359018362</v>
+      </c>
+      <c r="R309" s="9">
+        <v>1.2813941568426448</v>
+      </c>
+      <c r="S309" s="9">
+        <v>-4.2976864121474757E-2</v>
+      </c>
+      <c r="T309" s="9">
+        <v>1.8663101604278123</v>
+      </c>
+      <c r="U309" s="9">
+        <v>-0.61784207353827381</v>
+      </c>
+      <c r="V309" s="9">
+        <v>0.47556575926534783</v>
+      </c>
+      <c r="W309" s="9">
+        <v>2.1103099399750875</v>
+      </c>
+      <c r="X309" s="9">
+        <v>2.1135873472322069</v>
+      </c>
+      <c r="Y309" s="9">
+        <v>2.4726704841228528</v>
+      </c>
+      <c r="Z309" s="9">
+        <v>1.4097348856782255</v>
+      </c>
+      <c r="AA309" s="9">
+        <v>1.3639181649101135</v>
+      </c>
+      <c r="AB309" s="9">
+        <v>1.3349645568709263</v>
+      </c>
+      <c r="AC309" s="9">
+        <v>1.280659865422191</v>
+      </c>
+      <c r="AD309" s="9">
+        <v>1.5267937331603587</v>
+      </c>
+      <c r="AE309" s="9">
+        <v>2.6315789473684101</v>
+      </c>
+      <c r="AF309" s="9">
+        <v>1.3286499694563296</v>
+      </c>
+      <c r="AG309" s="9">
+        <v>1.5965021861336688</v>
+      </c>
+      <c r="AH309" s="9">
+        <v>0.20583605763410165</v>
+      </c>
+      <c r="AI309" s="9">
+        <v>1.4495428782383983</v>
+      </c>
+      <c r="AJ309" s="9">
+        <v>2.2676059678834974</v>
+      </c>
+      <c r="AK309" s="9">
+        <v>-3.8469945355191304</v>
+      </c>
+      <c r="AL309" s="9">
+        <v>1.3300283024103396</v>
+      </c>
+      <c r="AM309" s="9">
+        <v>-0.12607312241100657</v>
+      </c>
+      <c r="AN309" s="9">
+        <v>3.5265481716291283</v>
+      </c>
+      <c r="AO309" s="9">
+        <v>0.94457897538942415</v>
+      </c>
+      <c r="AP309" s="9">
+        <v>1.0537190082644676</v>
+      </c>
+      <c r="AQ309" s="9">
+        <v>2.6769989432898935</v>
+      </c>
+      <c r="AR309" s="9">
+        <v>0.95794392523365013</v>
+      </c>
+      <c r="AS309" s="9">
+        <v>2.92067475254427</v>
+      </c>
+      <c r="AT309" s="9">
+        <v>1.6094666519528396</v>
+      </c>
+      <c r="AU309" s="9">
+        <v>3.4379343135103504</v>
+      </c>
+      <c r="AV309" s="9">
+        <v>1.9280205655526992</v>
+      </c>
+      <c r="AW309" s="9">
+        <v>2.181133457122685</v>
+      </c>
+      <c r="AX309" s="9">
+        <v>3.3441724049987132</v>
+      </c>
+      <c r="AY309" s="9">
+        <v>-0.63960318496279556</v>
+      </c>
+      <c r="AZ309" s="9">
+        <v>1.4575235980011105</v>
+      </c>
+      <c r="BA309" s="9">
+        <v>-3.6923076923076961</v>
+      </c>
     </row>
     <row r="310" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A310" s="7"/>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1990 -- April 2016</t>
+    <t>Total Employment; Year/Year: January 1990 -- June 2016</t>
   </si>
 </sst>
 </file>
@@ -583,8 +583,8 @@
   <dimension ref="A1:BA590"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G278" sqref="G278"/>
+      <pane ySplit="5" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ295" sqref="AJ295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -49445,7 +49445,7 @@
         <v>42430</v>
       </c>
       <c r="B308" s="9">
-        <v>1.9741508952132341</v>
+        <v>1.9585449592826945</v>
       </c>
       <c r="C308" s="9">
         <v>1.1827901451371361</v>
@@ -49606,167 +49606,483 @@
         <v>42461</v>
       </c>
       <c r="B309" s="9">
-        <v>1.9062050799090802</v>
+        <v>1.8792972816042715</v>
       </c>
       <c r="C309" s="9">
-        <v>1.3457076566125243</v>
+        <v>1.3869554008765193</v>
       </c>
       <c r="D309" s="9">
-        <v>-1.0288065843621399</v>
+        <v>-0.79365079365079028</v>
       </c>
       <c r="E309" s="9">
-        <v>3.1118587047939306</v>
+        <v>3.104212860310414</v>
       </c>
       <c r="F309" s="9">
-        <v>2.1001750145845337</v>
+        <v>2.0918409867488883</v>
       </c>
       <c r="G309" s="9">
-        <v>2.8258836378701093</v>
+        <v>2.8911639351465492</v>
       </c>
       <c r="H309" s="9">
-        <v>2.6800205850916541</v>
+        <v>2.6483512133328091</v>
       </c>
       <c r="I309" s="9">
-        <v>1.2038090674971498</v>
+        <v>1.1858417679822695</v>
       </c>
       <c r="J309" s="9">
-        <v>3.743797925124047</v>
+        <v>3.7889039242219242</v>
       </c>
       <c r="K309" s="9">
-        <v>1.5412748171368802</v>
+        <v>1.6065830721003076</v>
       </c>
       <c r="L309" s="9">
-        <v>3.1696017137021451</v>
+        <v>3.2169277903704026</v>
       </c>
       <c r="M309" s="9">
-        <v>3.3282117952960681</v>
+        <v>3.3045739274317496</v>
       </c>
       <c r="N309" s="9">
-        <v>1.9876952200662601</v>
+        <v>2.0981227322921705</v>
       </c>
       <c r="O309" s="9">
-        <v>3.8415545590433551</v>
+        <v>3.7967115097159909</v>
       </c>
       <c r="P309" s="9">
-        <v>1.1354843050836052</v>
+        <v>1.0547387544998792</v>
       </c>
       <c r="Q309" s="9">
-        <v>1.6303988359018362</v>
+        <v>1.6899265824459258</v>
       </c>
       <c r="R309" s="9">
-        <v>1.2813941568426448</v>
+        <v>1.3646847770374138</v>
       </c>
       <c r="S309" s="9">
-        <v>-4.2976864121474757E-2</v>
+        <v>-5.0139674808381787E-2</v>
       </c>
       <c r="T309" s="9">
-        <v>1.8663101604278123</v>
+        <v>1.8128342245989353</v>
       </c>
       <c r="U309" s="9">
-        <v>-0.61784207353827381</v>
+        <v>-0.54751858549326216</v>
       </c>
       <c r="V309" s="9">
-        <v>0.47556575926534783</v>
+        <v>0.39357166284029038</v>
       </c>
       <c r="W309" s="9">
-        <v>2.1103099399750875</v>
+        <v>2.1140850919249496</v>
       </c>
       <c r="X309" s="9">
-        <v>2.1135873472322069</v>
+        <v>2.1509705248023057</v>
       </c>
       <c r="Y309" s="9">
-        <v>2.4726704841228528</v>
+        <v>2.4821352515262065</v>
       </c>
       <c r="Z309" s="9">
-        <v>1.4097348856782255</v>
+        <v>1.3641464441015603</v>
       </c>
       <c r="AA309" s="9">
-        <v>1.3639181649101135</v>
+        <v>1.3284917190682846</v>
       </c>
       <c r="AB309" s="9">
-        <v>1.3349645568709263</v>
+        <v>1.3025799719333697</v>
       </c>
       <c r="AC309" s="9">
-        <v>1.280659865422191</v>
+        <v>1.2372476665943104</v>
       </c>
       <c r="AD309" s="9">
-        <v>1.5267937331603587</v>
+        <v>1.496856601137611</v>
       </c>
       <c r="AE309" s="9">
-        <v>2.6315789473684101</v>
+        <v>2.5675891857302759</v>
       </c>
       <c r="AF309" s="9">
-        <v>1.3286499694563296</v>
+        <v>1.5729993891264611</v>
       </c>
       <c r="AG309" s="9">
-        <v>1.5965021861336688</v>
+        <v>1.7589006870705832</v>
       </c>
       <c r="AH309" s="9">
-        <v>0.20583605763410165</v>
+        <v>0.46010412882916435</v>
       </c>
       <c r="AI309" s="9">
-        <v>1.4495428782383983</v>
+        <v>1.4897174748637401</v>
       </c>
       <c r="AJ309" s="9">
-        <v>2.2676059678834974</v>
+        <v>2.2154225669489445</v>
       </c>
       <c r="AK309" s="9">
-        <v>-3.8469945355191304</v>
+        <v>-4.0437158469945356</v>
       </c>
       <c r="AL309" s="9">
-        <v>1.3300283024103396</v>
+        <v>1.3263286409293684</v>
       </c>
       <c r="AM309" s="9">
-        <v>-0.12607312241100657</v>
+        <v>-5.4031338176147622E-2</v>
       </c>
       <c r="AN309" s="9">
         <v>3.5265481716291283</v>
       </c>
       <c r="AO309" s="9">
-        <v>0.94457897538942415</v>
+        <v>1.0046885465505693</v>
       </c>
       <c r="AP309" s="9">
-        <v>1.0537190082644676</v>
+        <v>0.97107438016528702</v>
       </c>
       <c r="AQ309" s="9">
-        <v>2.6769989432898935</v>
+        <v>2.6468072258843724</v>
       </c>
       <c r="AR309" s="9">
-        <v>0.95794392523365013</v>
+        <v>1.0046728971962644</v>
       </c>
       <c r="AS309" s="9">
-        <v>2.92067475254427</v>
+        <v>2.8927924160044616</v>
       </c>
       <c r="AT309" s="9">
-        <v>1.6094666519528396</v>
+        <v>1.6400261453443525</v>
       </c>
       <c r="AU309" s="9">
-        <v>3.4379343135103504</v>
+        <v>3.5403408675298147</v>
       </c>
       <c r="AV309" s="9">
         <v>1.9280205655526992</v>
       </c>
       <c r="AW309" s="9">
-        <v>2.181133457122685</v>
+        <v>2.2177472082014851</v>
       </c>
       <c r="AX309" s="9">
-        <v>3.3441724049987132</v>
+        <v>3.2070900280540644</v>
       </c>
       <c r="AY309" s="9">
         <v>-0.63960318496279556</v>
       </c>
       <c r="AZ309" s="9">
-        <v>1.4575235980011105</v>
+        <v>1.5338700721821306</v>
       </c>
       <c r="BA309" s="9">
-        <v>-3.6923076923076961</v>
+        <v>-3.5555555555555478</v>
       </c>
     </row>
     <row r="310" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A310" s="7"/>
+      <c r="A310" s="7">
+        <v>42491</v>
+      </c>
+      <c r="B310" s="9">
+        <v>1.6905071521456438</v>
+      </c>
+      <c r="C310" s="9">
+        <v>0.8633537180738966</v>
+      </c>
+      <c r="D310" s="9">
+        <v>-0.70298769771528336</v>
+      </c>
+      <c r="E310" s="9">
+        <v>2.8165246302594977</v>
+      </c>
+      <c r="F310" s="9">
+        <v>1.8603106054314502</v>
+      </c>
+      <c r="G310" s="9">
+        <v>2.8346318611118209</v>
+      </c>
+      <c r="H310" s="9">
+        <v>2.465136491131025</v>
+      </c>
+      <c r="I310" s="9">
+        <v>0.67494922948273528</v>
+      </c>
+      <c r="J310" s="9">
+        <v>2.3697742007601086</v>
+      </c>
+      <c r="K310" s="9">
+        <v>1.8513689700130436</v>
+      </c>
+      <c r="L310" s="9">
+        <v>3.1818125411066918</v>
+      </c>
+      <c r="M310" s="9">
+        <v>3.0688428837231259</v>
+      </c>
+      <c r="N310" s="9">
+        <v>2.0012606366214833</v>
+      </c>
+      <c r="O310" s="9">
+        <v>2.9227557411273519</v>
+      </c>
+      <c r="P310" s="9">
+        <v>0.79551557465092226</v>
+      </c>
+      <c r="Q310" s="9">
+        <v>1.2348940104338668</v>
+      </c>
+      <c r="R310" s="9">
+        <v>1.0321174434258549</v>
+      </c>
+      <c r="S310" s="9">
+        <v>-7.1494959605445359E-3</v>
+      </c>
+      <c r="T310" s="9">
+        <v>1.1799723610077504</v>
+      </c>
+      <c r="U310" s="9">
+        <v>-0.91282977229411399</v>
+      </c>
+      <c r="V310" s="9">
+        <v>0.24582104228121926</v>
+      </c>
+      <c r="W310" s="9">
+        <v>1.7263427109974288</v>
+      </c>
+      <c r="X310" s="9">
+        <v>1.563350035790978</v>
+      </c>
+      <c r="Y310" s="9">
+        <v>1.7034328182139864</v>
+      </c>
+      <c r="Z310" s="9">
+        <v>0.83266277157750157</v>
+      </c>
+      <c r="AA310" s="9">
+        <v>0.83892617449664431</v>
+      </c>
+      <c r="AB310" s="9">
+        <v>0.70369439557677471</v>
+      </c>
+      <c r="AC310" s="9">
+        <v>0.62920373182903766</v>
+      </c>
+      <c r="AD310" s="9">
+        <v>1.2663276498155396</v>
+      </c>
+      <c r="AE310" s="9">
+        <v>2.2259454284346467</v>
+      </c>
+      <c r="AF310" s="9">
+        <v>0.95948827292110173</v>
+      </c>
+      <c r="AG310" s="9">
+        <v>1.2991214753241651</v>
+      </c>
+      <c r="AH310" s="9">
+        <v>0.56886952311788086</v>
+      </c>
+      <c r="AI310" s="9">
+        <v>1.0311397719157698</v>
+      </c>
+      <c r="AJ310" s="9">
+        <v>1.8961603934178128</v>
+      </c>
+      <c r="AK310" s="9">
+        <v>-3.4513079797757724</v>
+      </c>
+      <c r="AL310" s="9">
+        <v>1.2684872320390097</v>
+      </c>
+      <c r="AM310" s="9">
+        <v>-0.20397144399784575</v>
+      </c>
+      <c r="AN310" s="9">
+        <v>3.4338642268157789</v>
+      </c>
+      <c r="AO310" s="9">
+        <v>0.71333036112348591</v>
+      </c>
+      <c r="AP310" s="9">
+        <v>0.22652388797363382</v>
+      </c>
+      <c r="AQ310" s="9">
+        <v>2.4794630334602283</v>
+      </c>
+      <c r="AR310" s="9">
+        <v>1.4946286781877709</v>
+      </c>
+      <c r="AS310" s="9">
+        <v>2.2064699954828173</v>
+      </c>
+      <c r="AT310" s="9">
+        <v>1.5099263677882437</v>
+      </c>
+      <c r="AU310" s="9">
+        <v>3.2300401020780134</v>
+      </c>
+      <c r="AV310" s="9">
+        <v>1.6987179487179525</v>
+      </c>
+      <c r="AW310" s="9">
+        <v>1.8124918503064285</v>
+      </c>
+      <c r="AX310" s="9">
+        <v>3.2143197787174485</v>
+      </c>
+      <c r="AY310" s="9">
+        <v>0.31315240083507012</v>
+      </c>
+      <c r="AZ310" s="9">
+        <v>1.5085310029130254</v>
+      </c>
+      <c r="BA310" s="9">
+        <v>-2.8541953232462212</v>
+      </c>
     </row>
     <row r="311" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A311" s="7"/>
+      <c r="A311" s="7">
+        <v>42522</v>
+      </c>
+      <c r="B311" s="9">
+        <v>1.7294177415257825</v>
+      </c>
+      <c r="C311" s="9">
+        <v>1.022400328812159</v>
+      </c>
+      <c r="D311" s="9">
+        <v>0.14744913005013272</v>
+      </c>
+      <c r="E311" s="9">
+        <v>2.906888143858569</v>
+      </c>
+      <c r="F311" s="9">
+        <v>1.7330016583748002</v>
+      </c>
+      <c r="G311" s="9">
+        <v>2.8821271861287885</v>
+      </c>
+      <c r="H311" s="9">
+        <v>2.423931893425824</v>
+      </c>
+      <c r="I311" s="9">
+        <v>1.0683378096090772</v>
+      </c>
+      <c r="J311" s="9">
+        <v>3.1019861638027173</v>
+      </c>
+      <c r="K311" s="9">
+        <v>1.1474768548702658</v>
+      </c>
+      <c r="L311" s="9">
+        <v>3.0259900990099009</v>
+      </c>
+      <c r="M311" s="9">
+        <v>2.8890347997373778</v>
+      </c>
+      <c r="N311" s="9">
+        <v>2.3105941527821328</v>
+      </c>
+      <c r="O311" s="9">
+        <v>2.8414162451651159</v>
+      </c>
+      <c r="P311" s="9">
+        <v>0.69268570853529976</v>
+      </c>
+      <c r="Q311" s="9">
+        <v>1.3133579725448696</v>
+      </c>
+      <c r="R311" s="9">
+        <v>1.3590614782998793</v>
+      </c>
+      <c r="S311" s="9">
+        <v>0.20706890396287692</v>
+      </c>
+      <c r="T311" s="9">
+        <v>1.1949652132349036</v>
+      </c>
+      <c r="U311" s="9">
+        <v>-0.77270446562970851</v>
+      </c>
+      <c r="V311" s="9">
+        <v>0.65455735558828343</v>
+      </c>
+      <c r="W311" s="9">
+        <v>2.2064083738092513</v>
+      </c>
+      <c r="X311" s="9">
+        <v>1.9249470854070188</v>
+      </c>
+      <c r="Y311" s="9">
+        <v>2.1585788765953433</v>
+      </c>
+      <c r="Z311" s="9">
+        <v>1.045637349186924</v>
+      </c>
+      <c r="AA311" s="9">
+        <v>0.4860374690703429</v>
+      </c>
+      <c r="AB311" s="9">
+        <v>0.62782521346057252</v>
+      </c>
+      <c r="AC311" s="9">
+        <v>0.60711188204683686</v>
+      </c>
+      <c r="AD311" s="9">
+        <v>1.1745968544694361</v>
+      </c>
+      <c r="AE311" s="9">
+        <v>2.7423469387754991</v>
+      </c>
+      <c r="AF311" s="9">
+        <v>1.5377588306942789</v>
+      </c>
+      <c r="AG311" s="9">
+        <v>1.7157350308334991</v>
+      </c>
+      <c r="AH311" s="9">
+        <v>0.93423926231496379</v>
+      </c>
+      <c r="AI311" s="9">
+        <v>1.1133187914390035</v>
+      </c>
+      <c r="AJ311" s="9">
+        <v>2.1013655338317361</v>
+      </c>
+      <c r="AK311" s="9">
+        <v>-3.3097969991173879</v>
+      </c>
+      <c r="AL311" s="9">
+        <v>1.5068139010968788</v>
+      </c>
+      <c r="AM311" s="9">
+        <v>-7.1985602879426847E-2</v>
+      </c>
+      <c r="AN311" s="9">
+        <v>3.2475938537738531</v>
+      </c>
+      <c r="AO311" s="9">
+        <v>1.0753425832232806</v>
+      </c>
+      <c r="AP311" s="9">
+        <v>0.74257425742573546</v>
+      </c>
+      <c r="AQ311" s="9">
+        <v>2.6165699419651767</v>
+      </c>
+      <c r="AR311" s="9">
+        <v>1.7289719626168172</v>
+      </c>
+      <c r="AS311" s="9">
+        <v>2.3147827292258549</v>
+      </c>
+      <c r="AT311" s="9">
+        <v>1.448012051251659</v>
+      </c>
+      <c r="AU311" s="9">
+        <v>3.1770265358051648</v>
+      </c>
+      <c r="AV311" s="9">
+        <v>1.2499999999999929</v>
+      </c>
+      <c r="AW311" s="9">
+        <v>1.9409634473595081</v>
+      </c>
+      <c r="AX311" s="9">
+        <v>2.8746196754563984</v>
+      </c>
+      <c r="AY311" s="9">
+        <v>-0.14399790548501409</v>
+      </c>
+      <c r="AZ311" s="9">
+        <v>1.6570755044026966</v>
+      </c>
+      <c r="BA311" s="9">
+        <v>-3.0753282653766334</v>
+      </c>
     </row>
     <row r="312" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A312" s="7"/>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1990 -- June 2016</t>
+    <t>Total Employment; Year/Year: January 1990 -- July 2016</t>
   </si>
 </sst>
 </file>
@@ -583,8 +583,8 @@
   <dimension ref="A1:BA590"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ295" sqref="AJ295"/>
+      <pane ySplit="5" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI290" sqref="AI290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -49767,7 +49767,7 @@
         <v>42491</v>
       </c>
       <c r="B310" s="9">
-        <v>1.6905071521456438</v>
+        <v>1.6996946910160005</v>
       </c>
       <c r="C310" s="9">
         <v>0.8633537180738966</v>
@@ -49928,164 +49928,322 @@
         <v>42522</v>
       </c>
       <c r="B311" s="9">
-        <v>1.7294177415257825</v>
+        <v>1.7421184838136095</v>
       </c>
       <c r="C311" s="9">
-        <v>1.022400328812159</v>
+        <v>0.85285655569255592</v>
       </c>
       <c r="D311" s="9">
-        <v>0.14744913005013272</v>
+        <v>0.17693895606014917</v>
       </c>
       <c r="E311" s="9">
-        <v>2.906888143858569</v>
+        <v>2.8687900030478408</v>
       </c>
       <c r="F311" s="9">
-        <v>1.7330016583748002</v>
+        <v>1.8325041459369744</v>
       </c>
       <c r="G311" s="9">
-        <v>2.8821271861287885</v>
+        <v>2.8377483029764989</v>
       </c>
       <c r="H311" s="9">
-        <v>2.423931893425824</v>
+        <v>2.5539965316096556</v>
       </c>
       <c r="I311" s="9">
-        <v>1.0683378096090772</v>
+        <v>0.94300208892867521</v>
       </c>
       <c r="J311" s="9">
-        <v>3.1019861638027173</v>
+        <v>3.0350368221379078</v>
       </c>
       <c r="K311" s="9">
-        <v>1.1474768548702658</v>
+        <v>1.0822793062980922</v>
       </c>
       <c r="L311" s="9">
-        <v>3.0259900990099009</v>
+        <v>3.1089108910891179</v>
       </c>
       <c r="M311" s="9">
-        <v>2.8890347997373778</v>
+        <v>2.8069599474721119</v>
       </c>
       <c r="N311" s="9">
-        <v>2.3105941527821328</v>
+        <v>2.3577491354919835</v>
       </c>
       <c r="O311" s="9">
-        <v>2.8414162451651159</v>
+        <v>3.0199345432906801</v>
       </c>
       <c r="P311" s="9">
-        <v>0.69268570853529976</v>
+        <v>0.6708820421649363</v>
       </c>
       <c r="Q311" s="9">
-        <v>1.3133579725448696</v>
+        <v>0.95696937697993656</v>
       </c>
       <c r="R311" s="9">
-        <v>1.3590614782998793</v>
+        <v>1.3718828130008247</v>
       </c>
       <c r="S311" s="9">
-        <v>0.20706890396287692</v>
+        <v>5.7122456265616177E-2</v>
       </c>
       <c r="T311" s="9">
-        <v>1.1949652132349036</v>
+        <v>1.1577885177120375</v>
       </c>
       <c r="U311" s="9">
-        <v>-0.77270446562970851</v>
+        <v>-0.69744104365278936</v>
       </c>
       <c r="V311" s="9">
-        <v>0.65455735558828343</v>
+        <v>0.49091801669121254</v>
       </c>
       <c r="W311" s="9">
-        <v>2.2064083738092513</v>
+        <v>2.0972175157197115</v>
       </c>
       <c r="X311" s="9">
-        <v>1.9249470854070188</v>
+        <v>1.959270064641611</v>
       </c>
       <c r="Y311" s="9">
-        <v>2.1585788765953433</v>
+        <v>2.1538606714006034</v>
       </c>
       <c r="Z311" s="9">
-        <v>1.045637349186924</v>
+        <v>1.1295681063122989</v>
       </c>
       <c r="AA311" s="9">
-        <v>0.4860374690703429</v>
+        <v>0.6539413220219239</v>
       </c>
       <c r="AB311" s="9">
-        <v>0.62782521346057252</v>
+        <v>0.97223218770179765</v>
       </c>
       <c r="AC311" s="9">
-        <v>0.60711188204683686</v>
+        <v>0.23850823937554699</v>
       </c>
       <c r="AD311" s="9">
         <v>1.1745968544694361</v>
       </c>
       <c r="AE311" s="9">
-        <v>2.7423469387754991</v>
+        <v>2.4713010204081631</v>
       </c>
       <c r="AF311" s="9">
-        <v>1.5377588306942789</v>
+        <v>1.568209500609024</v>
       </c>
       <c r="AG311" s="9">
-        <v>1.7157350308334991</v>
+        <v>1.611298985478421</v>
       </c>
       <c r="AH311" s="9">
-        <v>0.93423926231496379</v>
+        <v>0.94637223974762852</v>
       </c>
       <c r="AI311" s="9">
-        <v>1.1133187914390035</v>
+        <v>1.0798436386411248</v>
       </c>
       <c r="AJ311" s="9">
-        <v>2.1013655338317361</v>
+        <v>2.0872149241763163</v>
       </c>
       <c r="AK311" s="9">
-        <v>-3.3097969991173879</v>
+        <v>-3.2215357458075826</v>
       </c>
       <c r="AL311" s="9">
-        <v>1.5068139010968788</v>
+        <v>1.4680356021715848</v>
       </c>
       <c r="AM311" s="9">
-        <v>-7.1985602879426847E-2</v>
+        <v>-0.15596880623874679</v>
       </c>
       <c r="AN311" s="9">
-        <v>3.2475938537738531</v>
+        <v>3.1856813192998206</v>
       </c>
       <c r="AO311" s="9">
-        <v>1.0753425832232806</v>
+        <v>0.90040646920609879</v>
       </c>
       <c r="AP311" s="9">
-        <v>0.74257425742573546</v>
+        <v>0.96947194719471719</v>
       </c>
       <c r="AQ311" s="9">
-        <v>2.6165699419651767</v>
+        <v>2.5915549329597738</v>
       </c>
       <c r="AR311" s="9">
-        <v>1.7289719626168172</v>
+        <v>2.0093457943925288</v>
       </c>
       <c r="AS311" s="9">
-        <v>2.3147827292258549</v>
+        <v>2.2697345623397323</v>
       </c>
       <c r="AT311" s="9">
-        <v>1.448012051251659</v>
+        <v>1.5377194021766634</v>
       </c>
       <c r="AU311" s="9">
-        <v>3.1770265358051648</v>
+        <v>3.097055616139579</v>
       </c>
       <c r="AV311" s="9">
-        <v>1.2499999999999929</v>
+        <v>1.1858974358974321</v>
       </c>
       <c r="AW311" s="9">
-        <v>1.9409634473595081</v>
+        <v>1.9123049266602306</v>
       </c>
       <c r="AX311" s="9">
-        <v>2.8746196754563984</v>
+        <v>2.9189908722109652</v>
       </c>
       <c r="AY311" s="9">
-        <v>-0.14399790548501409</v>
+        <v>-0.17017934284591629</v>
       </c>
       <c r="AZ311" s="9">
-        <v>1.6570755044026966</v>
+        <v>1.4352076544408268</v>
       </c>
       <c r="BA311" s="9">
-        <v>-3.0753282653766334</v>
+        <v>-2.9025570145127775</v>
       </c>
     </row>
     <row r="312" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A312" s="7"/>
+      <c r="A312" s="7">
+        <v>42552</v>
+      </c>
+      <c r="B312" s="9">
+        <v>1.7232273012161885</v>
+      </c>
+      <c r="C312" s="9">
+        <v>0.6875673456821727</v>
+      </c>
+      <c r="D312" s="9">
+        <v>0.23577954612437704</v>
+      </c>
+      <c r="E312" s="9">
+        <v>2.5531107738998551</v>
+      </c>
+      <c r="F312" s="9">
+        <v>1.3808500082685478</v>
+      </c>
+      <c r="G312" s="9">
+        <v>2.3246289033411136</v>
+      </c>
+      <c r="H312" s="9">
+        <v>2.9191911244000242</v>
+      </c>
+      <c r="I312" s="9">
+        <v>1.2075561932089938</v>
+      </c>
+      <c r="J312" s="9">
+        <v>2.2207417277370642</v>
+      </c>
+      <c r="K312" s="9">
+        <v>0.80844960229495966</v>
+      </c>
+      <c r="L312" s="9">
+        <v>3.0854225499747061</v>
+      </c>
+      <c r="M312" s="9">
+        <v>2.7211840194838608</v>
+      </c>
+      <c r="N312" s="9">
+        <v>2.2145437411653695</v>
+      </c>
+      <c r="O312" s="9">
+        <v>3.3694522784622127</v>
+      </c>
+      <c r="P312" s="9">
+        <v>0.72353325405731017</v>
+      </c>
+      <c r="Q312" s="9">
+        <v>0.93328951692409101</v>
+      </c>
+      <c r="R312" s="9">
+        <v>1.51825752722614</v>
+      </c>
+      <c r="S312" s="9">
+        <v>-0.3213826596200543</v>
+      </c>
+      <c r="T312" s="9">
+        <v>1.0293961583359914</v>
+      </c>
+      <c r="U312" s="9">
+        <v>-0.69796635701732812</v>
+      </c>
+      <c r="V312" s="9">
+        <v>0.96373734073831696</v>
+      </c>
+      <c r="W312" s="9">
+        <v>1.9990230338556274</v>
+      </c>
+      <c r="X312" s="9">
+        <v>1.8679595037786969</v>
+      </c>
+      <c r="Y312" s="9">
+        <v>2.4878554921473373</v>
+      </c>
+      <c r="Z312" s="9">
+        <v>1.4750602957111334</v>
+      </c>
+      <c r="AA312" s="9">
+        <v>0.71371927042029326</v>
+      </c>
+      <c r="AB312" s="9">
+        <v>0.76920324854209154</v>
+      </c>
+      <c r="AC312" s="9">
+        <v>0.15190972222221974</v>
+      </c>
+      <c r="AD312" s="9">
+        <v>1.2121212121212166</v>
+      </c>
+      <c r="AE312" s="9">
+        <v>2.5353679860117517</v>
+      </c>
+      <c r="AF312" s="9">
+        <v>1.2752391073326212</v>
+      </c>
+      <c r="AG312" s="9">
+        <v>1.3860254849847171</v>
+      </c>
+      <c r="AH312" s="9">
+        <v>0.92356300887106846</v>
+      </c>
+      <c r="AI312" s="9">
+        <v>1.2311768887740053</v>
+      </c>
+      <c r="AJ312" s="9">
+        <v>2.2159425409160569</v>
+      </c>
+      <c r="AK312" s="9">
+        <v>-2.1868787276341899</v>
+      </c>
+      <c r="AL312" s="9">
+        <v>1.4518654997696947</v>
+      </c>
+      <c r="AM312" s="9">
+        <v>-0.56964681897223723</v>
+      </c>
+      <c r="AN312" s="9">
+        <v>3.2716847490021821</v>
+      </c>
+      <c r="AO312" s="9">
+        <v>0.99432548730520653</v>
+      </c>
+      <c r="AP312" s="9">
+        <v>1.029018316526034</v>
+      </c>
+      <c r="AQ312" s="9">
+        <v>2.2967317656436896</v>
+      </c>
+      <c r="AR312" s="9">
+        <v>2.2227421619092187</v>
+      </c>
+      <c r="AS312" s="9">
+        <v>2.0224331320103506</v>
+      </c>
+      <c r="AT312" s="9">
+        <v>1.4601004346541757</v>
+      </c>
+      <c r="AU312" s="9">
+        <v>3.0594532041082152</v>
+      </c>
+      <c r="AV312" s="9">
+        <v>1.9839999999999964</v>
+      </c>
+      <c r="AW312" s="9">
+        <v>1.4829794405123091</v>
+      </c>
+      <c r="AX312" s="9">
+        <v>2.9916019648233272</v>
+      </c>
+      <c r="AY312" s="9">
+        <v>-0.27562672266701965</v>
+      </c>
+      <c r="AZ312" s="9">
+        <v>1.6414447484156973</v>
+      </c>
+      <c r="BA312" s="9">
+        <v>-3.3793103448275899</v>
+      </c>
     </row>
     <row r="313" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A313" s="7"/>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -20,9 +20,6 @@
   </si>
   <si>
     <t>http://www.bls.gov/lau/</t>
-  </si>
-  <si>
-    <t>United States</t>
   </si>
   <si>
     <t>Alabama</t>
@@ -178,7 +175,10 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1990 -- July 2016</t>
+    <t>Total Employment; Year/Year: January 1990 -- August 2016</t>
+  </si>
+  <si>
+    <t>Invalid data manipulation</t>
   </si>
 </sst>
 </file>
@@ -584,7 +584,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI290" sqref="AI290"/>
+      <selection pane="bottomLeft" activeCell="C305" sqref="C305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -646,7 +646,7 @@
   <sheetData>
     <row r="1" spans="1:53" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -661,170 +661,164 @@
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="V5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="W5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="X5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="Y5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Z5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="AA5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AB5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AC5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AD5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AE5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AF5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AF5" s="5" t="s">
+      <c r="AG5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AG5" s="5" t="s">
+      <c r="AH5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AH5" s="5" t="s">
+      <c r="AI5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AI5" s="5" t="s">
+      <c r="AJ5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AJ5" s="5" t="s">
+      <c r="AK5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AK5" s="5" t="s">
+      <c r="AL5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AL5" s="5" t="s">
+      <c r="AM5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AM5" s="5" t="s">
+      <c r="AN5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AN5" s="5" t="s">
+      <c r="AO5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AO5" s="5" t="s">
+      <c r="AP5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AP5" s="5" t="s">
+      <c r="AQ5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AQ5" s="5" t="s">
+      <c r="AR5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AR5" s="5" t="s">
+      <c r="AS5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AS5" s="5" t="s">
+      <c r="AT5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AT5" s="5" t="s">
+      <c r="AU5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AU5" s="5" t="s">
+      <c r="AV5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AV5" s="5" t="s">
+      <c r="AW5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AW5" s="5" t="s">
+      <c r="AX5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AX5" s="5" t="s">
+      <c r="AY5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AY5" s="5" t="s">
+      <c r="AZ5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="AZ5" s="5" t="s">
+      <c r="BA5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="BA5" s="5" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>33239</v>
-      </c>
-      <c r="B6" s="8">
-        <v>-0.13188745603751464</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="8">
         <v>0.70235968208983368</v>
       </c>
@@ -1141,8 +1135,8 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>33298</v>
+      <c r="A8" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="B8" s="8">
         <v>-0.97585889262816128</v>
@@ -49928,7 +49922,7 @@
         <v>42522</v>
       </c>
       <c r="B311" s="9">
-        <v>1.7421184838136095</v>
+        <v>1.7273009511444781</v>
       </c>
       <c r="C311" s="9">
         <v>0.85285655569255592</v>
@@ -50089,164 +50083,322 @@
         <v>42552</v>
       </c>
       <c r="B312" s="9">
-        <v>1.7232273012161885</v>
+        <v>1.7225230808233745</v>
       </c>
       <c r="C312" s="9">
-        <v>0.6875673456821727</v>
+        <v>0.87228693108933242</v>
       </c>
       <c r="D312" s="9">
-        <v>0.23577954612437704</v>
+        <v>0.20630710285882364</v>
       </c>
       <c r="E312" s="9">
-        <v>2.5531107738998551</v>
+        <v>2.5986342943854321</v>
       </c>
       <c r="F312" s="9">
-        <v>1.3808500082685478</v>
+        <v>1.3725814453447913</v>
       </c>
       <c r="G312" s="9">
-        <v>2.3246289033411136</v>
+        <v>2.2141686938390577</v>
       </c>
       <c r="H312" s="9">
-        <v>2.9191911244000242</v>
+        <v>2.8287040679833044</v>
       </c>
       <c r="I312" s="9">
-        <v>1.2075561932089938</v>
+        <v>1.0581061692969898</v>
       </c>
       <c r="J312" s="9">
-        <v>2.2207417277370642</v>
+        <v>2.3095713968465414</v>
       </c>
       <c r="K312" s="9">
-        <v>0.80844960229495966</v>
+        <v>0.79541009258052198</v>
       </c>
       <c r="L312" s="9">
-        <v>3.0854225499747061</v>
+        <v>3.191476242739629</v>
       </c>
       <c r="M312" s="9">
-        <v>2.7211840194838608</v>
+        <v>2.5642827033862581</v>
       </c>
       <c r="N312" s="9">
-        <v>2.2145437411653695</v>
+        <v>2.1360138212658879</v>
       </c>
       <c r="O312" s="9">
-        <v>3.3694522784622127</v>
+        <v>3.221018257384582</v>
       </c>
       <c r="P312" s="9">
-        <v>0.72353325405731017</v>
+        <v>0.77377861892240141</v>
       </c>
       <c r="Q312" s="9">
-        <v>0.93328951692409101</v>
+        <v>0.94643443969767271</v>
       </c>
       <c r="R312" s="9">
-        <v>1.51825752722614</v>
+        <v>1.5823190262652176</v>
       </c>
       <c r="S312" s="9">
-        <v>-0.3213826596200543</v>
+        <v>-0.33566633338094881</v>
       </c>
       <c r="T312" s="9">
-        <v>1.0293961583359914</v>
+        <v>0.99755916374828524</v>
       </c>
       <c r="U312" s="9">
-        <v>-0.69796635701732812</v>
+        <v>-0.65277429073562643</v>
       </c>
       <c r="V312" s="9">
-        <v>0.96373734073831696</v>
+        <v>0.91473374714144218</v>
       </c>
       <c r="W312" s="9">
-        <v>1.9990230338556274</v>
+        <v>1.8900537331379297</v>
       </c>
       <c r="X312" s="9">
-        <v>1.8679595037786969</v>
+        <v>1.8251818052188791</v>
       </c>
       <c r="Y312" s="9">
-        <v>2.4878554921473373</v>
+        <v>2.3675894920530025</v>
       </c>
       <c r="Z312" s="9">
-        <v>1.4750602957111334</v>
+        <v>1.4680694886224614</v>
       </c>
       <c r="AA312" s="9">
-        <v>0.71371927042029326</v>
+        <v>0.87232355273591178</v>
       </c>
       <c r="AB312" s="9">
-        <v>0.76920324854209154</v>
+        <v>0.80855783335121867</v>
       </c>
       <c r="AC312" s="9">
-        <v>0.15190972222221974</v>
+        <v>0.10850694444444445</v>
       </c>
       <c r="AD312" s="9">
-        <v>1.2121212121212166</v>
+        <v>1.1227024341778393</v>
       </c>
       <c r="AE312" s="9">
-        <v>2.5353679860117517</v>
+        <v>3.0440311556191348</v>
       </c>
       <c r="AF312" s="9">
         <v>1.2752391073326212</v>
       </c>
       <c r="AG312" s="9">
-        <v>1.3860254849847171</v>
+        <v>1.3090240691522348</v>
       </c>
       <c r="AH312" s="9">
-        <v>0.92356300887106846</v>
+        <v>0.93571515372463787</v>
       </c>
       <c r="AI312" s="9">
-        <v>1.2311768887740053</v>
+        <v>1.2193282922941115</v>
       </c>
       <c r="AJ312" s="9">
-        <v>2.2159425409160569</v>
+        <v>2.2324267043447588</v>
       </c>
       <c r="AK312" s="9">
-        <v>-2.1868787276341899</v>
+        <v>-1.9438922023415091</v>
       </c>
       <c r="AL312" s="9">
-        <v>1.4518654997696947</v>
+        <v>1.4352832795946502</v>
       </c>
       <c r="AM312" s="9">
-        <v>-0.56964681897223723</v>
+        <v>-0.47970258439767338</v>
       </c>
       <c r="AN312" s="9">
-        <v>3.2716847490021821</v>
+        <v>3.3391421665073842</v>
       </c>
       <c r="AO312" s="9">
-        <v>0.99432548730520653</v>
+        <v>1.1537604361317184</v>
       </c>
       <c r="AP312" s="9">
-        <v>1.029018316526034</v>
+        <v>1.1525005145091629</v>
       </c>
       <c r="AQ312" s="9">
-        <v>2.2967317656436896</v>
+        <v>2.3864089278596983</v>
       </c>
       <c r="AR312" s="9">
-        <v>2.2227421619092187</v>
+        <v>2.1759475900795535</v>
       </c>
       <c r="AS312" s="9">
-        <v>2.0224331320103506</v>
+        <v>2.1087144089732499</v>
       </c>
       <c r="AT312" s="9">
-        <v>1.4601004346541757</v>
+        <v>1.5487192471620881</v>
       </c>
       <c r="AU312" s="9">
-        <v>3.0594532041082152</v>
+        <v>3.1245479531317844</v>
       </c>
       <c r="AV312" s="9">
-        <v>1.9839999999999964</v>
+        <v>1.92</v>
       </c>
       <c r="AW312" s="9">
-        <v>1.4829794405123091</v>
+        <v>1.6333514816831298</v>
       </c>
       <c r="AX312" s="9">
-        <v>2.9916019648233272</v>
+        <v>2.9694184756773829</v>
       </c>
       <c r="AY312" s="9">
-        <v>-0.27562672266701965</v>
+        <v>-0.22312639453995692</v>
       </c>
       <c r="AZ312" s="9">
-        <v>1.6414447484156973</v>
+        <v>1.5895002943519094</v>
       </c>
       <c r="BA312" s="9">
-        <v>-3.3793103448275899</v>
+        <v>-3.3448275862068928</v>
       </c>
     </row>
     <row r="313" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A313" s="7"/>
+      <c r="A313" s="7">
+        <v>42583</v>
+      </c>
+      <c r="B313" s="9">
+        <v>1.7214089243128787</v>
+      </c>
+      <c r="C313" s="9">
+        <v>0.95262483994877889</v>
+      </c>
+      <c r="D313" s="9">
+        <v>0.29577048210588586</v>
+      </c>
+      <c r="E313" s="9">
+        <v>2.041742286751361</v>
+      </c>
+      <c r="F313" s="9">
+        <v>1.3770924383606866</v>
+      </c>
+      <c r="G313" s="9">
+        <v>2.3396445968445745</v>
+      </c>
+      <c r="H313" s="9">
+        <v>2.8120336187259589</v>
+      </c>
+      <c r="I313" s="9">
+        <v>1.1123071402942177</v>
+      </c>
+      <c r="J313" s="9">
+        <v>2.7833444667111999</v>
+      </c>
+      <c r="K313" s="9">
+        <v>1.7239127595664008</v>
+      </c>
+      <c r="L313" s="9">
+        <v>3.1945503283082806</v>
+      </c>
+      <c r="M313" s="9">
+        <v>2.4280911468061261</v>
+      </c>
+      <c r="N313" s="9">
+        <v>1.6859194505151349</v>
+      </c>
+      <c r="O313" s="9">
+        <v>3.2665181885671863</v>
+      </c>
+      <c r="P313" s="9">
+        <v>0.67184934490499371</v>
+      </c>
+      <c r="Q313" s="9">
+        <v>1.0449526813880186</v>
+      </c>
+      <c r="R313" s="9">
+        <v>2.0007695267410428</v>
+      </c>
+      <c r="S313" s="9">
+        <v>-0.59234941478732184</v>
+      </c>
+      <c r="T313" s="9">
+        <v>1.0290139500344821</v>
+      </c>
+      <c r="U313" s="9">
+        <v>-0.94993968636911252</v>
+      </c>
+      <c r="V313" s="9">
+        <v>0.76885326353673256</v>
+      </c>
+      <c r="W313" s="9">
+        <v>1.7557681485650041</v>
+      </c>
+      <c r="X313" s="9">
+        <v>1.941111079440182</v>
+      </c>
+      <c r="Y313" s="9">
+        <v>1.7840331387685977</v>
+      </c>
+      <c r="Z313" s="9">
+        <v>1.3518706116603303</v>
+      </c>
+      <c r="AA313" s="9">
+        <v>1.0568031704095113</v>
+      </c>
+      <c r="AB313" s="9">
+        <v>0.96965793616716422</v>
+      </c>
+      <c r="AC313" s="9">
+        <v>-0.36876355748372858</v>
+      </c>
+      <c r="AD313" s="9">
+        <v>0.82349439428515414</v>
+      </c>
+      <c r="AE313" s="9">
+        <v>2.9428051578197967</v>
+      </c>
+      <c r="AF313" s="9">
+        <v>1.9741837509491267</v>
+      </c>
+      <c r="AG313" s="9">
+        <v>1.2957354912376575</v>
+      </c>
+      <c r="AH313" s="9">
+        <v>0.19361084220716637</v>
+      </c>
+      <c r="AI313" s="9">
+        <v>1.1041213348557641</v>
+      </c>
+      <c r="AJ313" s="9">
+        <v>1.7590066785815113</v>
+      </c>
+      <c r="AK313" s="9">
+        <v>-1.6666666666666667</v>
+      </c>
+      <c r="AL313" s="9">
+        <v>1.4432913679010391</v>
+      </c>
+      <c r="AM313" s="9">
+        <v>-0.44996400287976962</v>
+      </c>
+      <c r="AN313" s="9">
+        <v>3.3131516986209295</v>
+      </c>
+      <c r="AO313" s="9">
+        <v>0.95487448020945953</v>
+      </c>
+      <c r="AP313" s="9">
+        <v>1.1958762886597962</v>
+      </c>
+      <c r="AQ313" s="9">
+        <v>2.5120628761876449</v>
+      </c>
+      <c r="AR313" s="9">
+        <v>2.384849193359829</v>
+      </c>
+      <c r="AS313" s="9">
+        <v>2.2054516006754192</v>
+      </c>
+      <c r="AT313" s="9">
+        <v>1.6067033078194051</v>
+      </c>
+      <c r="AU313" s="9">
+        <v>3.0933795894767404</v>
+      </c>
+      <c r="AV313" s="9">
+        <v>2.0853384664741741</v>
+      </c>
+      <c r="AW313" s="9">
+        <v>1.8778977905561169</v>
+      </c>
+      <c r="AX313" s="9">
+        <v>2.8074612709453111</v>
+      </c>
+      <c r="AY313" s="9">
+        <v>0.19736842105263158</v>
+      </c>
+      <c r="AZ313" s="9">
+        <v>1.4223421926910267</v>
+      </c>
+      <c r="BA313" s="9">
+        <v>-3.2503457814661054</v>
+      </c>
     </row>
     <row r="314" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A314" s="7"/>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -175,10 +175,10 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1990 -- August 2016</t>
+    <t>Invalid data manipulation</t>
   </si>
   <si>
-    <t>Invalid data manipulation</t>
+    <t>Total Employment; Year/Year: January 1990 -- September 2016</t>
   </si>
 </sst>
 </file>
@@ -584,69 +584,69 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C305" sqref="C305"/>
+      <selection pane="bottomLeft" activeCell="AI285" sqref="AI285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="7.85546875" style="6" customWidth="1"/>
-    <col min="39" max="39" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="4.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8" style="6" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="9.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9" style="6" bestFit="1" customWidth="1"/>
     <col min="54" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1136,7 +1136,7 @@
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="8">
         <v>-0.97585889262816128</v>
@@ -50083,7 +50083,7 @@
         <v>42552</v>
       </c>
       <c r="B312" s="9">
-        <v>1.7225230808233745</v>
+        <v>1.7063260117886492</v>
       </c>
       <c r="C312" s="9">
         <v>0.87228693108933242</v>
@@ -50244,164 +50244,322 @@
         <v>42583</v>
       </c>
       <c r="B313" s="9">
-        <v>1.7214089243128787</v>
+        <v>1.7228158788893499</v>
       </c>
       <c r="C313" s="9">
-        <v>0.95262483994877889</v>
+        <v>1.1011523687580027</v>
       </c>
       <c r="D313" s="9">
-        <v>0.29577048210588586</v>
+        <v>5.91540964211738E-2</v>
       </c>
       <c r="E313" s="9">
-        <v>2.041742286751361</v>
+        <v>2.1892014519056122</v>
       </c>
       <c r="F313" s="9">
-        <v>1.3770924383606866</v>
+        <v>1.3853385008658328</v>
       </c>
       <c r="G313" s="9">
-        <v>2.3396445968445745</v>
+        <v>2.2486584180783922</v>
       </c>
       <c r="H313" s="9">
-        <v>2.8120336187259589</v>
+        <v>2.965203047678894</v>
       </c>
       <c r="I313" s="9">
-        <v>1.1123071402942177</v>
+        <v>1.0764262648008611</v>
       </c>
       <c r="J313" s="9">
-        <v>2.7833444667111999</v>
+        <v>2.4938766421732326</v>
       </c>
       <c r="K313" s="9">
-        <v>1.7239127595664008</v>
+        <v>1.7630925950111009</v>
       </c>
       <c r="L313" s="9">
-        <v>3.1945503283082806</v>
+        <v>3.3494823303740455</v>
       </c>
       <c r="M313" s="9">
-        <v>2.4280911468061261</v>
+        <v>2.3837317893164074</v>
       </c>
       <c r="N313" s="9">
-        <v>1.6859194505151349</v>
+        <v>1.9356852950359</v>
       </c>
       <c r="O313" s="9">
-        <v>3.2665181885671863</v>
+        <v>3.1625835189309512</v>
       </c>
       <c r="P313" s="9">
-        <v>0.67184934490499371</v>
+        <v>0.67520021445563905</v>
       </c>
       <c r="Q313" s="9">
-        <v>1.0449526813880186</v>
+        <v>0.84450578338591853</v>
       </c>
       <c r="R313" s="9">
-        <v>2.0007695267410428</v>
+        <v>1.8789277927407946</v>
       </c>
       <c r="S313" s="9">
-        <v>-0.59234941478732184</v>
+        <v>-0.3425635169854378</v>
       </c>
       <c r="T313" s="9">
-        <v>1.0290139500344821</v>
+        <v>1.0396223412719534</v>
       </c>
       <c r="U313" s="9">
-        <v>-0.94993968636911252</v>
+        <v>-0.9901487736228296</v>
       </c>
       <c r="V313" s="9">
-        <v>0.76885326353673256</v>
+        <v>0.55619172255849691</v>
       </c>
       <c r="W313" s="9">
-        <v>1.7557681485650041</v>
+        <v>1.5644344400675227</v>
       </c>
       <c r="X313" s="9">
-        <v>1.941111079440182</v>
+        <v>1.8755522617792015</v>
       </c>
       <c r="Y313" s="9">
-        <v>1.7840331387685977</v>
+        <v>1.8263980418000247</v>
       </c>
       <c r="Z313" s="9">
-        <v>1.3518706116603303</v>
+        <v>1.4217347259580213</v>
       </c>
       <c r="AA313" s="9">
-        <v>1.0568031704095113</v>
+        <v>0.72214883311317002</v>
       </c>
       <c r="AB313" s="9">
-        <v>0.96965793616716422</v>
+        <v>0.8694718763417677</v>
       </c>
       <c r="AC313" s="9">
-        <v>-0.36876355748372858</v>
+        <v>-0.21691973969631237</v>
       </c>
       <c r="AD313" s="9">
-        <v>0.82349439428515414</v>
+        <v>0.5556106756622704</v>
       </c>
       <c r="AE313" s="9">
-        <v>2.9428051578197967</v>
+        <v>2.9269836247132348</v>
       </c>
       <c r="AF313" s="9">
-        <v>1.9741837509491267</v>
+        <v>1.9438116932422103</v>
       </c>
       <c r="AG313" s="9">
-        <v>1.2957354912376575</v>
+        <v>1.3329692697214981</v>
       </c>
       <c r="AH313" s="9">
-        <v>0.19361084220716637</v>
+        <v>2.4201355275900952E-2</v>
       </c>
       <c r="AI313" s="9">
-        <v>1.1041213348557641</v>
+        <v>1.1062757179481735</v>
       </c>
       <c r="AJ313" s="9">
-        <v>1.7590066785815113</v>
+        <v>1.768413131408163</v>
       </c>
       <c r="AK313" s="9">
-        <v>-1.6666666666666667</v>
+        <v>-1.5999999999999976</v>
       </c>
       <c r="AL313" s="9">
-        <v>1.4432913679010391</v>
+        <v>1.3990525520266841</v>
       </c>
       <c r="AM313" s="9">
-        <v>-0.44996400287976962</v>
+        <v>-0.39596832253419184</v>
       </c>
       <c r="AN313" s="9">
-        <v>3.3131516986209295</v>
+        <v>3.4140598721829853</v>
       </c>
       <c r="AO313" s="9">
-        <v>0.95487448020945953</v>
+        <v>0.97198692609134929</v>
       </c>
       <c r="AP313" s="9">
-        <v>1.1958762886597962</v>
+        <v>1.2577319587628912</v>
       </c>
       <c r="AQ313" s="9">
-        <v>2.5120628761876449</v>
+        <v>2.6264736606476622</v>
       </c>
       <c r="AR313" s="9">
-        <v>2.384849193359829</v>
+        <v>2.4082300678045385</v>
       </c>
       <c r="AS313" s="9">
-        <v>2.2054516006754192</v>
+        <v>2.1847754919190905</v>
       </c>
       <c r="AT313" s="9">
-        <v>1.6067033078194051</v>
+        <v>1.5485382877566911</v>
       </c>
       <c r="AU313" s="9">
-        <v>3.0933795894767404</v>
+        <v>2.8982364845331121</v>
       </c>
       <c r="AV313" s="9">
         <v>2.0853384664741741</v>
       </c>
       <c r="AW313" s="9">
-        <v>1.8778977905561169</v>
+        <v>1.8442251405185659</v>
       </c>
       <c r="AX313" s="9">
-        <v>2.8074612709453111</v>
+        <v>2.7062914954157415</v>
       </c>
       <c r="AY313" s="9">
-        <v>0.19736842105263158</v>
+        <v>0.14473684210526616</v>
       </c>
       <c r="AZ313" s="9">
-        <v>1.4223421926910267</v>
+        <v>1.5261627906976714</v>
       </c>
       <c r="BA313" s="9">
-        <v>-3.2503457814661054</v>
+        <v>-3.3195020746887849</v>
       </c>
     </row>
     <row r="314" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A314" s="7"/>
+      <c r="A314" s="7">
+        <v>42614</v>
+      </c>
+      <c r="B314" s="9">
+        <v>1.7505270555165142</v>
+      </c>
+      <c r="C314" s="9">
+        <v>0.83542616985291285</v>
+      </c>
+      <c r="D314" s="9">
+        <v>-0.59084194977843429</v>
+      </c>
+      <c r="E314" s="9">
+        <v>2.3209298815004904</v>
+      </c>
+      <c r="F314" s="9">
+        <v>1.5318728380826807</v>
+      </c>
+      <c r="G314" s="9">
+        <v>2.3481901557832696</v>
+      </c>
+      <c r="H314" s="9">
+        <v>2.7113862549957011</v>
+      </c>
+      <c r="I314" s="9">
+        <v>0.76545867719172078</v>
+      </c>
+      <c r="J314" s="9">
+        <v>2.8692170818505289</v>
+      </c>
+      <c r="K314" s="9">
+        <v>1.9032720636162199</v>
+      </c>
+      <c r="L314" s="9">
+        <v>3.3894770415986875</v>
+      </c>
+      <c r="M314" s="9">
+        <v>2.7703223096132708</v>
+      </c>
+      <c r="N314" s="9">
+        <v>2.4949003608975509</v>
+      </c>
+      <c r="O314" s="9">
+        <v>3.1837701762179775</v>
+      </c>
+      <c r="P314" s="9">
+        <v>0.72661521204106128</v>
+      </c>
+      <c r="Q314" s="9">
+        <v>1.4534692535350153</v>
+      </c>
+      <c r="R314" s="9">
+        <v>1.8996277756385516</v>
+      </c>
+      <c r="S314" s="9">
+        <v>-0.42091745737319619</v>
+      </c>
+      <c r="T314" s="9">
+        <v>1.3646461440812538</v>
+      </c>
+      <c r="U314" s="9">
+        <v>-0.99677809101893777</v>
+      </c>
+      <c r="V314" s="9">
+        <v>0.50794691135507497</v>
+      </c>
+      <c r="W314" s="9">
+        <v>1.73397387779612</v>
+      </c>
+      <c r="X314" s="9">
+        <v>2.2365677397240629</v>
+      </c>
+      <c r="Y314" s="9">
+        <v>1.9991052296969685</v>
+      </c>
+      <c r="Z314" s="9">
+        <v>1.6123391158366105</v>
+      </c>
+      <c r="AA314" s="9">
+        <v>0.69542253521127562</v>
+      </c>
+      <c r="AB314" s="9">
+        <v>1.1128206963180436</v>
+      </c>
+      <c r="AC314" s="9">
+        <v>0.21673168617251842</v>
+      </c>
+      <c r="AD314" s="9">
+        <v>0.95256995435602532</v>
+      </c>
+      <c r="AE314" s="9">
+        <v>2.7108195684817793</v>
+      </c>
+      <c r="AF314" s="9">
+        <v>2.1143900212960109</v>
+      </c>
+      <c r="AG314" s="9">
+        <v>1.3245361643020164</v>
+      </c>
+      <c r="AH314" s="9">
+        <v>-0.37552998182919717</v>
+      </c>
+      <c r="AI314" s="9">
+        <v>1.1489421325486937</v>
+      </c>
+      <c r="AJ314" s="9">
+        <v>1.9413824711495609</v>
+      </c>
+      <c r="AK314" s="9">
+        <v>-1.2728896828941465</v>
+      </c>
+      <c r="AL314" s="9">
+        <v>1.3531201032353146</v>
+      </c>
+      <c r="AM314" s="9">
+        <v>-0.67847493245271417</v>
+      </c>
+      <c r="AN314" s="9">
+        <v>3.4500140016801968</v>
+      </c>
+      <c r="AO314" s="9">
+        <v>0.88129096291732978</v>
+      </c>
+      <c r="AP314" s="9">
+        <v>1.0930088678077978</v>
+      </c>
+      <c r="AQ314" s="9">
+        <v>2.6993499727087711</v>
+      </c>
+      <c r="AR314" s="9">
+        <v>2.4754787482484875</v>
+      </c>
+      <c r="AS314" s="9">
+        <v>2.4511826182618166</v>
+      </c>
+      <c r="AT314" s="9">
+        <v>1.7410338440814892</v>
+      </c>
+      <c r="AU314" s="9">
+        <v>2.8674351585014377</v>
+      </c>
+      <c r="AV314" s="9">
+        <v>1.9903691813804136</v>
+      </c>
+      <c r="AW314" s="9">
+        <v>2.0987526525542251</v>
+      </c>
+      <c r="AX314" s="9">
+        <v>3.1722483507465045</v>
+      </c>
+      <c r="AY314" s="9">
+        <v>7.8916217282654577E-2</v>
+      </c>
+      <c r="AZ314" s="9">
+        <v>1.2468827930174564</v>
+      </c>
+      <c r="BA314" s="9">
+        <v>-3.1822898650985976</v>
+      </c>
     </row>
     <row r="315" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A315" s="7"/>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1990 -- October 2016</t>
+    <t>Total Employment; Year/Year: January 1990 -- December 2016</t>
   </si>
 </sst>
 </file>
@@ -580,11 +580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA315"/>
+  <dimension ref="A1:BA317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C303" sqref="C303"/>
+      <selection pane="bottomLeft" activeCell="C301" sqref="C301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -772,7 +772,7 @@
         <v>33239</v>
       </c>
       <c r="B6" s="8">
-        <v>-0.13188745603751464</v>
+        <v>-0.13097037138801115</v>
       </c>
       <c r="C6" s="8">
         <v>0.70235968208983368</v>
@@ -933,7 +933,7 @@
         <v>33270</v>
       </c>
       <c r="B7" s="8">
-        <v>-0.63783319474016065</v>
+        <v>-0.63691939360156435</v>
       </c>
       <c r="C7" s="8">
         <v>0.56127798680072394</v>
@@ -1094,7 +1094,7 @@
         <v>33298</v>
       </c>
       <c r="B8" s="8">
-        <v>-0.97585889262816128</v>
+        <v>-0.97584999270392525</v>
       </c>
       <c r="C8" s="8">
         <v>0.82685425151179137</v>
@@ -1416,7 +1416,7 @@
         <v>33359</v>
       </c>
       <c r="B10" s="8">
-        <v>-1.4539594675795262</v>
+        <v>-1.4530358069538143</v>
       </c>
       <c r="C10" s="8">
         <v>-0.10976948408342203</v>
@@ -1577,7 +1577,7 @@
         <v>33390</v>
       </c>
       <c r="B11" s="8">
-        <v>-1.3871948444412081</v>
+        <v>-1.3872074712591367</v>
       </c>
       <c r="C11" s="8">
         <v>-6.0886507549926937E-2</v>
@@ -2060,7 +2060,7 @@
         <v>33482</v>
       </c>
       <c r="B14" s="8">
-        <v>-1.081944761469984</v>
+        <v>-1.0810415981885249</v>
       </c>
       <c r="C14" s="8">
         <v>0.34648349644398796</v>
@@ -2221,7 +2221,7 @@
         <v>33512</v>
       </c>
       <c r="B15" s="8">
-        <v>-0.92259020170802619</v>
+        <v>-0.92260707362569039</v>
       </c>
       <c r="C15" s="8">
         <v>0.69520673252836263</v>
@@ -2382,7 +2382,7 @@
         <v>33543</v>
       </c>
       <c r="B16" s="8">
-        <v>-0.83962056841488419</v>
+        <v>-0.83962825619191495</v>
       </c>
       <c r="C16" s="8">
         <v>0.57909174032307231</v>
@@ -2543,7 +2543,7 @@
         <v>33573</v>
       </c>
       <c r="B17" s="8">
-        <v>-0.76493220960058628</v>
+        <v>-0.76493921710532342</v>
       </c>
       <c r="C17" s="8">
         <v>0.67109999389909103</v>
@@ -2704,7 +2704,7 @@
         <v>33604</v>
       </c>
       <c r="B18" s="8">
-        <v>-0.60803374908290531</v>
+        <v>-0.61169090809046056</v>
       </c>
       <c r="C18" s="8">
         <v>1.272560416029364</v>
@@ -2865,7 +2865,7 @@
         <v>33635</v>
       </c>
       <c r="B19" s="8">
-        <v>-0.38717984089759511</v>
+        <v>-0.38809593878752208</v>
       </c>
       <c r="C19" s="8">
         <v>1.5947006869479881</v>
@@ -3026,7 +3026,7 @@
         <v>33664</v>
       </c>
       <c r="B20" s="8">
-        <v>-0.19249012221741255</v>
+        <v>-0.19248834938937906</v>
       </c>
       <c r="C20" s="8">
         <v>1.5667074663402638</v>
@@ -3348,7 +3348,7 @@
         <v>33725</v>
       </c>
       <c r="B22" s="8">
-        <v>0.38063210798126401</v>
+        <v>0.37970122779302123</v>
       </c>
       <c r="C22" s="8">
         <v>1.9658119658119686</v>
@@ -3509,7 +3509,7 @@
         <v>33756</v>
       </c>
       <c r="B23" s="8">
-        <v>0.35352323284535436</v>
+        <v>0.35260345034475754</v>
       </c>
       <c r="C23" s="8">
         <v>1.8825392957231548</v>
@@ -4153,7 +4153,7 @@
         <v>33878</v>
       </c>
       <c r="B27" s="8">
-        <v>0.729994370460607</v>
+        <v>0.73093073692953714</v>
       </c>
       <c r="C27" s="8">
         <v>2.2529069767441885</v>
@@ -4314,7 +4314,7 @@
         <v>33909</v>
       </c>
       <c r="B28" s="8">
-        <v>0.90951901679609226</v>
+        <v>0.90952741509538493</v>
       </c>
       <c r="C28" s="8">
         <v>2.4666666666666694</v>
@@ -4475,7 +4475,7 @@
         <v>33939</v>
       </c>
       <c r="B29" s="8">
-        <v>1.0810062312485575</v>
+        <v>1.0800930541708209</v>
       </c>
       <c r="C29" s="8">
         <v>2.6483243439791559</v>
@@ -4636,7 +4636,7 @@
         <v>33970</v>
       </c>
       <c r="B30" s="8">
-        <v>1.3176227428328888</v>
+        <v>1.3185697808535179</v>
       </c>
       <c r="C30" s="8">
         <v>2.3621095873859805</v>
@@ -4958,7 +4958,7 @@
         <v>34029</v>
       </c>
       <c r="B32" s="8">
-        <v>1.5041340617156356</v>
+        <v>1.5031974088530853</v>
       </c>
       <c r="C32" s="8">
         <v>2.5367558447818834</v>
@@ -5280,7 +5280,7 @@
         <v>34090</v>
       </c>
       <c r="B34" s="8">
-        <v>1.7661730463033696</v>
+        <v>1.7661567912824194</v>
       </c>
       <c r="C34" s="8">
         <v>2.5446054364746735</v>
@@ -5441,7 +5441,7 @@
         <v>34121</v>
       </c>
       <c r="B35" s="8">
-        <v>1.8699239337386522</v>
+        <v>1.8699583329500824</v>
       </c>
       <c r="C35" s="8">
         <v>2.7925611433355289</v>
@@ -5602,7 +5602,7 @@
         <v>34151</v>
       </c>
       <c r="B36" s="8">
-        <v>2.0801161850136038</v>
+        <v>2.0791969997793958</v>
       </c>
       <c r="C36" s="8">
         <v>2.600896860986547</v>
@@ -5763,7 +5763,7 @@
         <v>34182</v>
       </c>
       <c r="B37" s="8">
-        <v>2.0940053245203338</v>
+        <v>2.094923345267603</v>
       </c>
       <c r="C37" s="8">
         <v>2.0544701006512756</v>
@@ -5924,7 +5924,7 @@
         <v>34213</v>
       </c>
       <c r="B38" s="8">
-        <v>2.2805278710790522</v>
+        <v>2.2823633059853532</v>
       </c>
       <c r="C38" s="8">
         <v>2.5602857993450434</v>
@@ -6085,7 +6085,7 @@
         <v>34243</v>
       </c>
       <c r="B39" s="8">
-        <v>2.3720086488071241</v>
+        <v>2.3720303810457457</v>
       </c>
       <c r="C39" s="8">
         <v>2.588249230040264</v>
@@ -6246,7 +6246,7 @@
         <v>34274</v>
       </c>
       <c r="B40" s="8">
-        <v>2.485267742761978</v>
+        <v>2.4852904843388268</v>
       </c>
       <c r="C40" s="8">
         <v>2.4605193115277642</v>
@@ -6407,7 +6407,7 @@
         <v>34304</v>
       </c>
       <c r="B41" s="8">
-        <v>2.5717834441440783</v>
+        <v>2.5763968801943484</v>
       </c>
       <c r="C41" s="8">
         <v>2.3792655567363297</v>
@@ -6568,7 +6568,7 @@
         <v>34335</v>
       </c>
       <c r="B42" s="8">
-        <v>2.5299394380948041</v>
+        <v>2.5345160467742525</v>
       </c>
       <c r="C42" s="8">
         <v>2.1423512747875328</v>
@@ -6890,7 +6890,7 @@
         <v>34394</v>
       </c>
       <c r="B44" s="8">
-        <v>2.9545991745304461</v>
+        <v>2.9536900670921287</v>
       </c>
       <c r="C44" s="8">
         <v>2.2389375330551751</v>
@@ -7051,7 +7051,7 @@
         <v>34425</v>
       </c>
       <c r="B45" s="8">
-        <v>2.9844251445977554</v>
+        <v>2.9835185755987887</v>
       </c>
       <c r="C45" s="8">
         <v>1.9001403180542564</v>
@@ -7212,7 +7212,7 @@
         <v>34455</v>
       </c>
       <c r="B46" s="8">
-        <v>3.0378395977281771</v>
+        <v>3.0369077442051857</v>
       </c>
       <c r="C46" s="8">
         <v>1.9676534127401206</v>
@@ -7373,7 +7373,7 @@
         <v>34486</v>
       </c>
       <c r="B47" s="8">
-        <v>3.1529335283601494</v>
+        <v>3.1538933834151983</v>
       </c>
       <c r="C47" s="8">
         <v>2.2571262361838254</v>
@@ -7534,7 +7534,7 @@
         <v>34516</v>
       </c>
       <c r="B48" s="8">
-        <v>3.2092206564314982</v>
+        <v>3.210150017108794</v>
       </c>
       <c r="C48" s="8">
         <v>2.3193473193473166</v>
@@ -7695,7 +7695,7 @@
         <v>34547</v>
       </c>
       <c r="B49" s="8">
-        <v>3.31801710262474</v>
+        <v>3.3179872675610547</v>
       </c>
       <c r="C49" s="8">
         <v>2.5120380576666443</v>
@@ -7856,7 +7856,7 @@
         <v>34578</v>
       </c>
       <c r="B50" s="8">
-        <v>3.4122618908758109</v>
+        <v>3.4122006585735694</v>
       </c>
       <c r="C50" s="8">
         <v>3.1465892597968095</v>
@@ -8017,7 +8017,7 @@
         <v>34608</v>
       </c>
       <c r="B51" s="8">
-        <v>3.3381959422572645</v>
+        <v>3.3373308512923319</v>
       </c>
       <c r="C51" s="8">
         <v>2.3901622308180874</v>
@@ -8178,7 +8178,7 @@
         <v>34639</v>
       </c>
       <c r="B52" s="8">
-        <v>3.4705357142857141</v>
+        <v>3.4705667014884063</v>
       </c>
       <c r="C52" s="8">
         <v>3.5155573514980136</v>
@@ -8339,7 +8339,7 @@
         <v>34669</v>
       </c>
       <c r="B53" s="8">
-        <v>3.4297314623548689</v>
+        <v>3.4287494991764236</v>
       </c>
       <c r="C53" s="8">
         <v>2.8545066605155411</v>
@@ -8500,7 +8500,7 @@
         <v>34700</v>
       </c>
       <c r="B54" s="8">
-        <v>3.468552090457707</v>
+        <v>3.4684288594597956</v>
       </c>
       <c r="C54" s="8">
         <v>3.368579187611946</v>
@@ -8661,7 +8661,7 @@
         <v>34731</v>
       </c>
       <c r="B55" s="8">
-        <v>3.4659478822162915</v>
+        <v>3.4668345406665897</v>
       </c>
       <c r="C55" s="8">
         <v>3.3346795130675568</v>
@@ -8822,7 +8822,7 @@
         <v>34759</v>
       </c>
       <c r="B56" s="8">
-        <v>3.2362602430064986</v>
+        <v>3.2362888200128919</v>
       </c>
       <c r="C56" s="8">
         <v>3.1555351189791985</v>
@@ -8983,7 +8983,7 @@
         <v>34790</v>
       </c>
       <c r="B57" s="8">
-        <v>3.0607933238261236</v>
+        <v>3.0617005730785145</v>
       </c>
       <c r="C57" s="8">
         <v>3.1671352343794723</v>
@@ -9144,7 +9144,7 @@
         <v>34820</v>
       </c>
       <c r="B58" s="8">
-        <v>2.7463991363193512</v>
+        <v>2.7455214120827516</v>
       </c>
       <c r="C58" s="8">
         <v>3.0462666055886287</v>
@@ -9305,7 +9305,7 @@
         <v>34851</v>
       </c>
       <c r="B59" s="8">
-        <v>2.6679271046688724</v>
+        <v>2.6679504573504311</v>
       </c>
       <c r="C59" s="8">
         <v>2.8729093184662648</v>
@@ -9466,7 +9466,7 @@
         <v>34881</v>
       </c>
       <c r="B60" s="8">
-        <v>2.4175747476421887</v>
+        <v>2.4167022919411267</v>
       </c>
       <c r="C60" s="8">
         <v>2.5287618179747176</v>
@@ -9627,7 +9627,7 @@
         <v>34912</v>
       </c>
       <c r="B61" s="8">
-        <v>2.3864022071174316</v>
+        <v>2.3863814380950723</v>
       </c>
       <c r="C61" s="8">
         <v>2.3542727787209907</v>
@@ -9788,7 +9788,7 @@
         <v>34943</v>
       </c>
       <c r="B62" s="8">
-        <v>2.2845194093046661</v>
+        <v>2.2836121329909074</v>
       </c>
       <c r="C62" s="8">
         <v>1.9136601564698597</v>
@@ -9949,7 +9949,7 @@
         <v>34973</v>
       </c>
       <c r="B63" s="8">
-        <v>2.2283422969333229</v>
+        <v>2.2292469579526264</v>
       </c>
       <c r="C63" s="8">
         <v>2.1370171976318066</v>
@@ -10110,7 +10110,7 @@
         <v>35004</v>
       </c>
       <c r="B64" s="8">
-        <v>1.98641780355001</v>
+        <v>1.98643494468702</v>
       </c>
       <c r="C64" s="8">
         <v>1.2491635065804074</v>
@@ -10271,7 +10271,7 @@
         <v>35034</v>
       </c>
       <c r="B65" s="8">
-        <v>1.8577183981267862</v>
+        <v>1.8559647401132862</v>
       </c>
       <c r="C65" s="8">
         <v>1.9511101143754306</v>
@@ -10432,7 +10432,7 @@
         <v>35065</v>
       </c>
       <c r="B66" s="8">
-        <v>1.5581004051919511</v>
+        <v>1.5580469045084639</v>
       </c>
       <c r="C66" s="8">
         <v>1.3806595863610982</v>
@@ -10593,7 +10593,7 @@
         <v>35096</v>
       </c>
       <c r="B67" s="8">
-        <v>1.7507626915298391</v>
+        <v>1.7507476883789088</v>
       </c>
       <c r="C67" s="8">
         <v>1.3678744905365419</v>
@@ -10754,7 +10754,7 @@
         <v>35125</v>
       </c>
       <c r="B68" s="8">
-        <v>1.7867987306800786</v>
+        <v>1.7868140139592172</v>
       </c>
       <c r="C68" s="8">
         <v>1.3428428149551408</v>
@@ -11076,7 +11076,7 @@
         <v>35186</v>
       </c>
       <c r="B70" s="8">
-        <v>2.0732957457713992</v>
+        <v>2.0750219974542752</v>
       </c>
       <c r="C70" s="8">
         <v>1.3058457434985553</v>
@@ -11237,7 +11237,7 @@
         <v>35217</v>
       </c>
       <c r="B71" s="8">
-        <v>2.1143451497945334</v>
+        <v>2.1143631759781059</v>
       </c>
       <c r="C71" s="8">
         <v>0.95669966266659046</v>
@@ -11398,7 +11398,7 @@
         <v>35247</v>
       </c>
       <c r="B72" s="8">
-        <v>2.2429508476020104</v>
+        <v>2.2438218231691214</v>
       </c>
       <c r="C72" s="8">
         <v>1.4553938451283217</v>
@@ -11559,7 +11559,7 @@
         <v>35278</v>
       </c>
       <c r="B73" s="8">
-        <v>2.1752250452640616</v>
+        <v>2.1752065553704396</v>
       </c>
       <c r="C73" s="8">
         <v>1.4209886099745686</v>
@@ -11720,7 +11720,7 @@
         <v>35309</v>
       </c>
       <c r="B74" s="8">
-        <v>2.1546056817121477</v>
+        <v>2.1537391422366992</v>
       </c>
       <c r="C74" s="8">
         <v>1.3862042304081243</v>
@@ -11881,7 +11881,7 @@
         <v>35339</v>
       </c>
       <c r="B75" s="8">
-        <v>2.2339884784818702</v>
+        <v>2.2340074043324663</v>
       </c>
       <c r="C75" s="8">
         <v>1.6782599094622868</v>
@@ -12042,7 +12042,7 @@
         <v>35370</v>
       </c>
       <c r="B76" s="8">
-        <v>2.3580874700691266</v>
+        <v>2.3581074220733069</v>
       </c>
       <c r="C76" s="8">
         <v>1.6909010795329396</v>
@@ -12203,7 +12203,7 @@
         <v>35400</v>
       </c>
       <c r="B77" s="8">
-        <v>2.3875526106725715</v>
+        <v>2.3867074593059616</v>
       </c>
       <c r="C77" s="8">
         <v>1.5068191816981886</v>
@@ -12364,7 +12364,7 @@
         <v>35431</v>
       </c>
       <c r="B78" s="8">
-        <v>2.6017936992299435</v>
+        <v>2.5966341805641258</v>
       </c>
       <c r="C78" s="8">
         <v>1.973865578651373</v>
@@ -12525,7 +12525,7 @@
         <v>35462</v>
       </c>
       <c r="B79" s="8">
-        <v>2.483682149324125</v>
+        <v>2.4828190270852986</v>
       </c>
       <c r="C79" s="8">
         <v>1.9332452081956455</v>
@@ -12686,7 +12686,7 @@
         <v>35490</v>
       </c>
       <c r="B80" s="8">
-        <v>2.5192853901615098</v>
+        <v>2.5193065604490719</v>
       </c>
       <c r="C80" s="8">
         <v>2.1552672091488918</v>
@@ -12847,7 +12847,7 @@
         <v>35521</v>
       </c>
       <c r="B81" s="8">
-        <v>2.6240926446523729</v>
+        <v>2.6232534720765326</v>
       </c>
       <c r="C81" s="8">
         <v>2.246635539686904</v>
@@ -13008,7 +13008,7 @@
         <v>35551</v>
       </c>
       <c r="B82" s="8">
-        <v>2.5651326085682964</v>
+        <v>2.5642742367434388</v>
       </c>
       <c r="C82" s="8">
         <v>2.2269760298392924</v>
@@ -13169,7 +13169,7 @@
         <v>35582</v>
       </c>
       <c r="B83" s="8">
-        <v>2.5414530699484028</v>
+        <v>2.5423092015729756</v>
       </c>
       <c r="C83" s="8">
         <v>2.212971078001758</v>
@@ -13491,7 +13491,7 @@
         <v>35643</v>
       </c>
       <c r="B85" s="8">
-        <v>2.4051180512803447</v>
+        <v>2.4042661164862773</v>
       </c>
       <c r="C85" s="8">
         <v>1.8154064220683614</v>
@@ -13652,7 +13652,7 @@
         <v>35674</v>
       </c>
       <c r="B86" s="8">
-        <v>2.6389430941566259</v>
+        <v>2.6381127155870363</v>
       </c>
       <c r="C86" s="8">
         <v>1.9936812288920438</v>
@@ -13813,7 +13813,7 @@
         <v>35704</v>
       </c>
       <c r="B87" s="8">
-        <v>2.7080553875220628</v>
+        <v>2.7097351586065166</v>
       </c>
       <c r="C87" s="8">
         <v>1.873167553480291</v>
@@ -13974,7 +13974,7 @@
         <v>35735</v>
       </c>
       <c r="B88" s="8">
-        <v>2.7071485253273377</v>
+        <v>2.7071709030791489</v>
       </c>
       <c r="C88" s="8">
         <v>1.8252721659535311</v>
@@ -14135,7 +14135,7 @@
         <v>35765</v>
       </c>
       <c r="B89" s="8">
-        <v>2.8122859006000973</v>
+        <v>2.8131345649051558</v>
       </c>
       <c r="C89" s="8">
         <v>1.9449561165890177</v>
@@ -14296,7 +14296,7 @@
         <v>35796</v>
       </c>
       <c r="B90" s="8">
-        <v>2.8414661273181143</v>
+        <v>2.8415129470501488</v>
       </c>
       <c r="C90" s="8">
         <v>1.7031630170316301</v>
@@ -14457,7 +14457,7 @@
         <v>35827</v>
       </c>
       <c r="B91" s="8">
-        <v>2.7464580388547386</v>
+        <v>2.7472798395844973</v>
       </c>
       <c r="C91" s="8">
         <v>1.8425460636515862</v>
@@ -14618,7 +14618,7 @@
         <v>35855</v>
       </c>
       <c r="B92" s="8">
-        <v>2.6040983606557377</v>
+        <v>2.6041197058992287</v>
       </c>
       <c r="C92" s="8">
         <v>1.5984930032292812</v>
@@ -14779,7 +14779,7 @@
         <v>35886</v>
       </c>
       <c r="B93" s="8">
-        <v>2.5880679030517122</v>
+        <v>2.588089066243632</v>
       </c>
       <c r="C93" s="8">
         <v>2.0038680563017062</v>
@@ -14940,7 +14940,7 @@
         <v>35916</v>
       </c>
       <c r="B94" s="8">
-        <v>2.7000783340949148</v>
+        <v>2.6992623539395524</v>
       </c>
       <c r="C94" s="8">
         <v>2.0550517787197484</v>
@@ -15584,7 +15584,7 @@
         <v>36039</v>
       </c>
       <c r="B98" s="8">
-        <v>2.5638121435217021</v>
+        <v>2.5638328856671304</v>
       </c>
       <c r="C98" s="8">
         <v>1.6876735740226398</v>
@@ -15745,7 +15745,7 @@
         <v>36069</v>
       </c>
       <c r="B99" s="8">
-        <v>2.4430190810440116</v>
+        <v>2.442999370693689</v>
       </c>
       <c r="C99" s="8">
         <v>1.3483984437456673</v>
@@ -15906,7 +15906,7 @@
         <v>36100</v>
       </c>
       <c r="B100" s="8">
-        <v>2.4176867791808516</v>
+        <v>2.4177062374245475</v>
       </c>
       <c r="C100" s="8">
         <v>1.2978723404255368</v>
@@ -16228,7 +16228,7 @@
         <v>36161</v>
       </c>
       <c r="B102" s="8">
-        <v>2.3207562284707204</v>
+        <v>2.3223956163681225</v>
       </c>
       <c r="C102" s="8">
         <v>1.2865497076023418</v>
@@ -16389,7 +16389,7 @@
         <v>36192</v>
       </c>
       <c r="B103" s="8">
-        <v>2.4882824372530514</v>
+        <v>2.4866628808177431</v>
       </c>
       <c r="C103" s="8">
         <v>1.3635398981324303</v>
@@ -16550,7 +16550,7 @@
         <v>36220</v>
       </c>
       <c r="B104" s="8">
-        <v>2.4501306150490905</v>
+        <v>2.4509490637182845</v>
       </c>
       <c r="C104" s="8">
         <v>1.3932298564390504</v>
@@ -16711,7 +16711,7 @@
         <v>36251</v>
       </c>
       <c r="B105" s="8">
-        <v>2.5211825565731685</v>
+        <v>2.5204055605152402</v>
       </c>
       <c r="C105" s="8">
         <v>0.81108126612944986</v>
@@ -16872,7 +16872,7 @@
         <v>36281</v>
       </c>
       <c r="B106" s="8">
-        <v>2.3597460690762033</v>
+        <v>2.3597648180518038</v>
       </c>
       <c r="C106" s="8">
         <v>0.72555205047318372</v>
@@ -17033,7 +17033,7 @@
         <v>36312</v>
       </c>
       <c r="B107" s="8">
-        <v>2.3881662436548221</v>
+        <v>2.389752538071066</v>
       </c>
       <c r="C107" s="8">
         <v>0.58626465661640581</v>
@@ -17194,7 +17194,7 @@
         <v>36342</v>
       </c>
       <c r="B108" s="8">
-        <v>2.5418155599046024</v>
+        <v>2.5394385503411008</v>
       </c>
       <c r="C108" s="8">
         <v>1.5381362651302875</v>
@@ -17355,7 +17355,7 @@
         <v>36373</v>
       </c>
       <c r="B109" s="8">
-        <v>2.3911308484326477</v>
+        <v>2.3903406531753997</v>
       </c>
       <c r="C109" s="8">
         <v>1.1150852093414709</v>
@@ -17516,7 +17516,7 @@
         <v>36404</v>
       </c>
       <c r="B110" s="8">
-        <v>2.3798255162730526</v>
+        <v>2.3814219116057833</v>
       </c>
       <c r="C110" s="8">
         <v>1.1712184873949556</v>
@@ -17677,7 +17677,7 @@
         <v>36434</v>
       </c>
       <c r="B111" s="8">
-        <v>2.534397076543832</v>
+        <v>2.5320144281506449</v>
       </c>
       <c r="C111" s="8">
         <v>1.2410601598653836</v>
@@ -17838,7 +17838,7 @@
         <v>36465</v>
       </c>
       <c r="B112" s="8">
-        <v>2.537424855604888</v>
+        <v>2.5366589655334999</v>
       </c>
       <c r="C112" s="8">
         <v>1.1342155009451749</v>
@@ -17999,7 +17999,7 @@
         <v>36495</v>
       </c>
       <c r="B113" s="8">
-        <v>2.4913597855816176</v>
+        <v>2.4921434784993846</v>
       </c>
       <c r="C113" s="8">
         <v>1.2325605790412253</v>
@@ -18160,7 +18160,7 @@
         <v>36526</v>
       </c>
       <c r="B114" s="8">
-        <v>2.5703257729375935</v>
+        <v>2.5695428531164124</v>
       </c>
       <c r="C114" s="8">
         <v>1.1074952760864953</v>
@@ -18321,7 +18321,7 @@
         <v>36557</v>
       </c>
       <c r="B115" s="8">
-        <v>2.3435853812716076</v>
+        <v>2.344384091902354</v>
       </c>
       <c r="C115" s="8">
         <v>0.78513478147081917</v>
@@ -18643,7 +18643,7 @@
         <v>36617</v>
       </c>
       <c r="B117" s="8">
-        <v>2.5462603016638159</v>
+        <v>2.5478548881183039</v>
       </c>
       <c r="C117" s="8">
         <v>0.7993312784076162</v>
@@ -18804,7 +18804,7 @@
         <v>36647</v>
       </c>
       <c r="B118" s="8">
-        <v>2.5545093960304586</v>
+        <v>2.5545292245594968</v>
       </c>
       <c r="C118" s="8">
         <v>1.1744440964610086</v>
@@ -18965,7 +18965,7 @@
         <v>36678</v>
       </c>
       <c r="B119" s="8">
-        <v>2.3115476679241778</v>
+        <v>2.311511855793885</v>
       </c>
       <c r="C119" s="8">
         <v>0.65570358034971565</v>
@@ -19126,7 +19126,7 @@
         <v>36708</v>
       </c>
       <c r="B120" s="8">
-        <v>2.1898205027160262</v>
+        <v>2.193734835489205</v>
       </c>
       <c r="C120" s="8">
         <v>0.41644976574700676</v>
@@ -19287,7 +19287,7 @@
         <v>36739</v>
       </c>
       <c r="B121" s="8">
-        <v>2.055920417975412</v>
+        <v>2.0559362844971294</v>
       </c>
       <c r="C121" s="8">
         <v>0.63462338743236668</v>
@@ -19448,7 +19448,7 @@
         <v>36770</v>
       </c>
       <c r="B122" s="8">
-        <v>1.9924339900301253</v>
+        <v>1.9901072485207099</v>
       </c>
       <c r="C122" s="8">
         <v>0.49317344131236052</v>
@@ -19609,7 +19609,7 @@
         <v>36800</v>
       </c>
       <c r="B123" s="8">
-        <v>1.6683180865036753</v>
+        <v>1.6683437156749032</v>
       </c>
       <c r="C123" s="8">
         <v>0.28568460419696651</v>
@@ -19770,7 +19770,7 @@
         <v>36831</v>
       </c>
       <c r="B124" s="8">
-        <v>1.6132246099138592</v>
+        <v>1.6147821155408408</v>
       </c>
       <c r="C124" s="8">
         <v>0.21287642782969415</v>
@@ -19931,7 +19931,7 @@
         <v>36861</v>
       </c>
       <c r="B125" s="8">
-        <v>1.4918183208441658</v>
+        <v>1.4910422767833249</v>
       </c>
       <c r="C125" s="8">
         <v>1.554323610176581E-2</v>
@@ -20092,7 +20092,7 @@
         <v>36892</v>
       </c>
       <c r="B126" s="8">
-        <v>1.2937943668422258</v>
+        <v>1.2953308551320903</v>
       </c>
       <c r="C126" s="8">
         <v>-0.46202564501894117</v>
@@ -20253,7 +20253,7 @@
         <v>36923</v>
       </c>
       <c r="B127" s="8">
-        <v>1.2482842763458899</v>
+        <v>1.2490468201921612</v>
       </c>
       <c r="C127" s="8">
         <v>-0.30641391846274169</v>
@@ -20414,7 +20414,7 @@
         <v>36951</v>
       </c>
       <c r="B128" s="8">
-        <v>0.86924807002613824</v>
+        <v>0.86848823779709439</v>
       </c>
       <c r="C128" s="8">
         <v>-0.76094833833730435</v>
@@ -20736,7 +20736,7 @@
         <v>37012</v>
       </c>
       <c r="B130" s="8">
-        <v>0.23538850456396362</v>
+        <v>0.23539028617706498</v>
       </c>
       <c r="C130" s="8">
         <v>-1.2278801011195355</v>
@@ -20897,7 +20897,7 @@
         <v>37043</v>
       </c>
       <c r="B131" s="8">
-        <v>0.17187204240015141</v>
+        <v>0.17035517160444286</v>
       </c>
       <c r="C131" s="8">
         <v>-1.178781925343809</v>
@@ -21058,7 +21058,7 @@
         <v>37073</v>
       </c>
       <c r="B132" s="8">
-        <v>-4.6124414938261332E-2</v>
+        <v>-4.6879843935487289E-2</v>
       </c>
       <c r="C132" s="8">
         <v>-1.2908242612752769</v>
@@ -21219,7 +21219,7 @@
         <v>37104</v>
       </c>
       <c r="B133" s="8">
-        <v>-0.1572885867469242</v>
+        <v>-0.15502117362371445</v>
       </c>
       <c r="C133" s="8">
         <v>-1.3542851235397404</v>
@@ -21380,7 +21380,7 @@
         <v>37135</v>
       </c>
       <c r="B134" s="8">
-        <v>-0.44116425058733766</v>
+        <v>-0.43890462700661004</v>
       </c>
       <c r="C134" s="8">
         <v>-1.5445810517615386</v>
@@ -21541,7 +21541,7 @@
         <v>37165</v>
       </c>
       <c r="B135" s="8">
-        <v>-0.67617083323889604</v>
+        <v>-0.67542554075596284</v>
       </c>
       <c r="C135" s="8">
         <v>-1.6885067592065122</v>
@@ -21702,7 +21702,7 @@
         <v>37196</v>
       </c>
       <c r="B136" s="8">
-        <v>-1.066453476532744</v>
+        <v>-1.0656992661533007</v>
       </c>
       <c r="C136" s="8">
         <v>-1.7408424433967105</v>
@@ -21863,7 +21863,7 @@
         <v>37226</v>
       </c>
       <c r="B137" s="8">
-        <v>-1.3003744415396554</v>
+        <v>-1.3011278450399681</v>
       </c>
       <c r="C137" s="8">
         <v>-1.8027351844177464</v>
@@ -22024,7 +22024,7 @@
         <v>37257</v>
       </c>
       <c r="B138" s="8">
-        <v>-1.3850269394521684</v>
+        <v>-1.3842629572136904</v>
       </c>
       <c r="C138" s="8">
         <v>-1.8201731511421766</v>
@@ -22185,7 +22185,7 @@
         <v>37288</v>
       </c>
       <c r="B139" s="8">
-        <v>-1.5394232434834347</v>
+        <v>-1.5401647863350858</v>
       </c>
       <c r="C139" s="8">
         <v>-1.870181287768278</v>
@@ -22346,7 +22346,7 @@
         <v>37316</v>
       </c>
       <c r="B140" s="8">
-        <v>-1.5359467277329155</v>
+        <v>-1.5359582978659294</v>
       </c>
       <c r="C140" s="8">
         <v>-1.6848364717542097</v>
@@ -22668,7 +22668,7 @@
         <v>37377</v>
       </c>
       <c r="B142" s="8">
-        <v>-1.3637084412495375</v>
+        <v>-1.3614534251540413</v>
       </c>
       <c r="C142" s="8">
         <v>-1.5878819535126714</v>
@@ -22829,7 +22829,7 @@
         <v>37408</v>
       </c>
       <c r="B143" s="8">
-        <v>-1.222959592447582</v>
+        <v>-1.2222037459751176</v>
       </c>
       <c r="C143" s="8">
         <v>-1.5276760489693442</v>
@@ -22990,7 +22990,7 @@
         <v>37438</v>
       </c>
       <c r="B144" s="8">
-        <v>-1.2035706180497767</v>
+        <v>-1.2028050321126249</v>
       </c>
       <c r="C144" s="8">
         <v>-1.3129562522976737</v>
@@ -23151,7 +23151,7 @@
         <v>37469</v>
       </c>
       <c r="B145" s="8">
-        <v>-1.0966955230889248</v>
+        <v>-1.0966789108948385</v>
       </c>
       <c r="C145" s="8">
         <v>-1.357157828547479</v>
@@ -23312,7 +23312,7 @@
         <v>37500</v>
       </c>
       <c r="B146" s="8">
-        <v>-0.96135606595190937</v>
+        <v>-0.96134877156774967</v>
       </c>
       <c r="C146" s="8">
         <v>-1.1018416496143553</v>
@@ -23473,7 +23473,7 @@
         <v>37530</v>
       </c>
       <c r="B147" s="8">
-        <v>-0.62068336020932846</v>
+        <v>-0.62220937573687685</v>
       </c>
       <c r="C147" s="8">
         <v>-0.68489542173752704</v>
@@ -23634,7 +23634,7 @@
         <v>37561</v>
       </c>
       <c r="B148" s="8">
-        <v>-0.39108061749571182</v>
+        <v>-0.3918399707263524</v>
       </c>
       <c r="C148" s="8">
         <v>-0.58528868969153225</v>
@@ -23795,7 +23795,7 @@
         <v>37591</v>
       </c>
       <c r="B149" s="8">
-        <v>-0.38166482195336054</v>
+        <v>-0.38166773533632564</v>
       </c>
       <c r="C149" s="8">
         <v>-0.65942181894914542</v>
@@ -23956,7 +23956,7 @@
         <v>37622</v>
       </c>
       <c r="B150" s="8">
-        <v>-0.2063163364331726</v>
+        <v>-0.20860555211700249</v>
       </c>
       <c r="C150" s="8">
         <v>-0.23373173970784017</v>
@@ -24278,7 +24278,7 @@
         <v>37681</v>
       </c>
       <c r="B152" s="8">
-        <v>-0.36339155248521571</v>
+        <v>-0.36262929187832793</v>
       </c>
       <c r="C152" s="8">
         <v>-0.4032258064516081</v>
@@ -24600,7 +24600,7 @@
         <v>37742</v>
       </c>
       <c r="B154" s="8">
-        <v>-0.33760248646910673</v>
+        <v>-0.33836284439136793</v>
       </c>
       <c r="C154" s="8">
         <v>-0.48829679953292388</v>
@@ -24761,7 +24761,7 @@
         <v>37773</v>
       </c>
       <c r="B155" s="8">
-        <v>-0.37418505708426431</v>
+        <v>-0.37341699506446802</v>
       </c>
       <c r="C155" s="8">
         <v>-0.60036127935394501</v>
@@ -24922,7 +24922,7 @@
         <v>37803</v>
       </c>
       <c r="B156" s="8">
-        <v>-0.29096700587293928</v>
+        <v>-0.29249393189944944</v>
       </c>
       <c r="C156" s="8">
         <v>-0.53216965568623276</v>
@@ -25083,7 +25083,7 @@
         <v>37834</v>
       </c>
       <c r="B157" s="8">
-        <v>-0.31244017306735078</v>
+        <v>-0.31320116091188249</v>
       </c>
       <c r="C157" s="8">
         <v>-0.56839309428951101</v>
@@ -25244,7 +25244,7 @@
         <v>37865</v>
       </c>
       <c r="B158" s="8">
-        <v>-0.18770206702112988</v>
+        <v>-0.18770062898863837</v>
       </c>
       <c r="C158" s="8">
         <v>-0.55175340866889977</v>
@@ -25405,7 +25405,7 @@
         <v>37895</v>
       </c>
       <c r="B159" s="8">
-        <v>-0.1324128218473502</v>
+        <v>-0.12552717586816586</v>
       </c>
       <c r="C159" s="8">
         <v>-0.45090446130178774</v>
@@ -25727,7 +25727,7 @@
         <v>37956</v>
       </c>
       <c r="B161" s="8">
-        <v>8.6586720815294435E-2</v>
+        <v>8.8119904370747265E-2</v>
       </c>
       <c r="C161" s="8">
         <v>-0.1274494185120208</v>
@@ -25888,7 +25888,7 @@
         <v>37987</v>
       </c>
       <c r="B162" s="8">
-        <v>0.14012573030008346</v>
+        <v>0.13936108303470243</v>
       </c>
       <c r="C162" s="8">
         <v>0.27687556573132666</v>
@@ -26210,7 +26210,7 @@
         <v>38047</v>
       </c>
       <c r="B164" s="8">
-        <v>0.70639905403952763</v>
+        <v>0.705631228980789</v>
       </c>
       <c r="C164" s="8">
         <v>0.61261453228212237</v>
@@ -26371,7 +26371,7 @@
         <v>38078</v>
       </c>
       <c r="B165" s="8">
-        <v>0.93168656005653094</v>
+        <v>0.93245464460727845</v>
       </c>
       <c r="C165" s="8">
         <v>0.91630706941559037</v>
@@ -26532,7 +26532,7 @@
         <v>38108</v>
       </c>
       <c r="B166" s="8">
-        <v>1.174473445685404</v>
+        <v>1.1736962984015302</v>
       </c>
       <c r="C166" s="8">
         <v>1.1893967678276152</v>
@@ -26693,7 +26693,7 @@
         <v>38139</v>
       </c>
       <c r="B167" s="8">
-        <v>1.2258535274012059</v>
+        <v>1.2250666297994577</v>
       </c>
       <c r="C167" s="8">
         <v>1.6890266716553481</v>
@@ -26854,7 +26854,7 @@
         <v>38169</v>
       </c>
       <c r="B168" s="8">
-        <v>1.2409863383991584</v>
+        <v>1.2425222125803455</v>
       </c>
       <c r="C168" s="8">
         <v>1.9581616820929935</v>
@@ -27015,7 +27015,7 @@
         <v>38200</v>
       </c>
       <c r="B169" s="8">
-        <v>1.3666008588306691</v>
+        <v>1.3658221819355036</v>
       </c>
       <c r="C169" s="8">
         <v>1.9286248530826018</v>
@@ -27176,7 +27176,7 @@
         <v>38231</v>
       </c>
       <c r="B170" s="8">
-        <v>1.4115642342321597</v>
+        <v>1.4092507023226539</v>
       </c>
       <c r="C170" s="8">
         <v>1.6324353160842842</v>
@@ -27337,7 +27337,7 @@
         <v>38261</v>
       </c>
       <c r="B171" s="8">
-        <v>1.52285042037416</v>
+        <v>1.5166494233053609</v>
       </c>
       <c r="C171" s="8">
         <v>1.9077054247042622</v>
@@ -27659,7 +27659,7 @@
         <v>38322</v>
       </c>
       <c r="B173" s="8">
-        <v>1.563337365447335</v>
+        <v>1.5617942259548763</v>
       </c>
       <c r="C173" s="8">
         <v>2.1587706704950236</v>
@@ -27820,7 +27820,7 @@
         <v>38353</v>
       </c>
       <c r="B174" s="8">
-        <v>1.5399908242850588</v>
+        <v>1.5423083393231278</v>
       </c>
       <c r="C174" s="8">
         <v>2.0124249986725475</v>
@@ -27981,7 +27981,7 @@
         <v>38384</v>
       </c>
       <c r="B175" s="8">
-        <v>1.6869735373702475</v>
+        <v>1.6877379114243345</v>
       </c>
       <c r="C175" s="8">
         <v>2.0095440084835681</v>
@@ -28142,7 +28142,7 @@
         <v>38412</v>
       </c>
       <c r="B176" s="8">
-        <v>1.5332652220985377</v>
+        <v>1.5340393574113467</v>
       </c>
       <c r="C176" s="8">
         <v>2.0384391380314502</v>
@@ -28303,7 +28303,7 @@
         <v>38443</v>
       </c>
       <c r="B177" s="8">
-        <v>1.6186352325218596</v>
+        <v>1.6171009375380494</v>
       </c>
       <c r="C177" s="8">
         <v>2.3121997571662329</v>
@@ -28464,7 +28464,7 @@
         <v>38473</v>
       </c>
       <c r="B178" s="8">
-        <v>1.5131154386364498</v>
+        <v>1.5146338685798884</v>
       </c>
       <c r="C178" s="8">
         <v>2.3192072527935905</v>
@@ -28625,7 +28625,7 @@
         <v>38504</v>
       </c>
       <c r="B179" s="8">
-        <v>1.641993762851788</v>
+        <v>1.6412225324754157</v>
       </c>
       <c r="C179" s="8">
         <v>1.9816031537450745</v>
@@ -28786,7 +28786,7 @@
         <v>38534</v>
       </c>
       <c r="B180" s="8">
-        <v>1.8932756855159858</v>
+        <v>1.8902129144322155</v>
       </c>
       <c r="C180" s="8">
         <v>2.1776774938342864</v>
@@ -29108,7 +29108,7 @@
         <v>38596</v>
       </c>
       <c r="B182" s="8">
-        <v>1.8717832273690584</v>
+        <v>1.872568461526817</v>
       </c>
       <c r="C182" s="8">
         <v>2.593039735446963</v>
@@ -29269,7 +29269,7 @@
         <v>38626</v>
       </c>
       <c r="B183" s="8">
-        <v>1.6698624552715413</v>
+        <v>1.6698876675927046</v>
       </c>
       <c r="C183" s="8">
         <v>2.4576448441748586</v>
@@ -29430,7 +29430,7 @@
         <v>38657</v>
       </c>
       <c r="B184" s="8">
-        <v>1.8750471591337809</v>
+        <v>1.8765562514147742</v>
       </c>
       <c r="C184" s="8">
         <v>2.5255687747860498</v>
@@ -29591,7 +29591,7 @@
         <v>38687</v>
       </c>
       <c r="B185" s="8">
-        <v>1.8950701040253279</v>
+        <v>1.8958382017051238</v>
       </c>
       <c r="C185" s="8">
         <v>2.4358507260708873</v>
@@ -29752,7 +29752,7 @@
         <v>38718</v>
       </c>
       <c r="B186" s="8">
-        <v>2.0015964576712801</v>
+        <v>2.0008283444406789</v>
       </c>
       <c r="C186" s="8">
         <v>2.3579013116801972</v>
@@ -29913,7 +29913,7 @@
         <v>38749</v>
       </c>
       <c r="B187" s="8">
-        <v>2.055880871663422</v>
+        <v>2.0543620427860549</v>
       </c>
       <c r="C187" s="8">
         <v>2.4169655387494151</v>
@@ -30235,7 +30235,7 @@
         <v>38808</v>
       </c>
       <c r="B189" s="8">
-        <v>2.0204592088906197</v>
+        <v>2.0212232182306997</v>
       </c>
       <c r="C189" s="8">
         <v>2.0122800681079407</v>
@@ -30396,7 +30396,7 @@
         <v>38838</v>
       </c>
       <c r="B190" s="8">
-        <v>1.904897238759087</v>
+        <v>1.9048687457931344</v>
       </c>
       <c r="C190" s="8">
         <v>1.8596744281887445</v>
@@ -30557,7 +30557,7 @@
         <v>38869</v>
       </c>
       <c r="B191" s="8">
-        <v>1.7782091000709193</v>
+        <v>1.7774625807174051</v>
       </c>
       <c r="C191" s="8">
         <v>2.1544170704051102</v>
@@ -30718,7 +30718,7 @@
         <v>38899</v>
       </c>
       <c r="B192" s="8">
-        <v>1.6474231562334831</v>
+        <v>1.647447684416619</v>
       </c>
       <c r="C192" s="8">
         <v>1.6741988496302336</v>
@@ -31040,7 +31040,7 @@
         <v>38961</v>
       </c>
       <c r="B194" s="8">
-        <v>1.7014257799439794</v>
+        <v>1.6984664764621971</v>
       </c>
       <c r="C194" s="8">
         <v>1.6321309797902324</v>
@@ -31201,7 +31201,7 @@
         <v>38991</v>
       </c>
       <c r="B195" s="8">
-        <v>1.6402084973046824</v>
+        <v>1.6409753779441028</v>
       </c>
       <c r="C195" s="8">
         <v>1.1789323262223084</v>
@@ -31362,7 +31362,7 @@
         <v>39022</v>
       </c>
       <c r="B196" s="8">
-        <v>1.5405695663444803</v>
+        <v>1.5390654510172792</v>
       </c>
       <c r="C196" s="8">
         <v>1.0026465798045625</v>
@@ -31845,7 +31845,7 @@
         <v>39114</v>
       </c>
       <c r="B199" s="8">
-        <v>1.3464144717459194</v>
+        <v>1.3464243888426495</v>
       </c>
       <c r="C199" s="8">
         <v>1.6138855054811181</v>
@@ -32167,7 +32167,7 @@
         <v>39173</v>
       </c>
       <c r="B201" s="8">
-        <v>1.1979564272711258</v>
+        <v>1.1986904691996008</v>
       </c>
       <c r="C201" s="8">
         <v>1.1835516665823729</v>
@@ -32328,7 +32328,7 @@
         <v>39203</v>
       </c>
       <c r="B202" s="8">
-        <v>1.2858243734174892</v>
+        <v>1.2850715926521206</v>
       </c>
       <c r="C202" s="8">
         <v>1.2542355737621989</v>
@@ -32489,7 +32489,7 @@
         <v>39234</v>
       </c>
       <c r="B203" s="8">
-        <v>1.2821171068748762</v>
+        <v>1.281393028987208</v>
       </c>
       <c r="C203" s="8">
         <v>1.1654894046417714</v>
@@ -32650,7 +32650,7 @@
         <v>39264</v>
       </c>
       <c r="B204" s="8">
-        <v>1.1044059057886102</v>
+        <v>1.1036897071963205</v>
       </c>
       <c r="C204" s="8">
         <v>1.1768865541973914</v>
@@ -32811,7 +32811,7 @@
         <v>39295</v>
       </c>
       <c r="B205" s="8">
-        <v>0.95300786249771441</v>
+        <v>0.95373925763393674</v>
       </c>
       <c r="C205" s="8">
         <v>1.0783029325808773</v>
@@ -32972,7 +32972,7 @@
         <v>39326</v>
       </c>
       <c r="B206" s="8">
-        <v>0.90076927010658736</v>
+        <v>0.90518563976679967</v>
       </c>
       <c r="C206" s="8">
         <v>1.1276681433749427</v>
@@ -33133,7 +33133,7 @@
         <v>39356</v>
       </c>
       <c r="B207" s="8">
-        <v>0.95991584299458665</v>
+        <v>0.96065339041246001</v>
       </c>
       <c r="C207" s="8">
         <v>1.4174022698612816</v>
@@ -33294,7 +33294,7 @@
         <v>39387</v>
       </c>
       <c r="B208" s="8">
-        <v>0.89062329041905242</v>
+        <v>0.88989386921477809</v>
       </c>
       <c r="C208" s="8">
         <v>1.3655832703451705</v>
@@ -33616,7 +33616,7 @@
         <v>39448</v>
       </c>
       <c r="B210" s="8">
-        <v>0.67342515962939797</v>
+        <v>0.67197067764315743</v>
       </c>
       <c r="C210" s="8">
         <v>0.62578222778473092</v>
@@ -33777,7 +33777,7 @@
         <v>39479</v>
       </c>
       <c r="B211" s="8">
-        <v>0.54507398470885782</v>
+        <v>0.54580471674116071</v>
       </c>
       <c r="C211" s="8">
         <v>0.40455498951153274</v>
@@ -34099,7 +34099,7 @@
         <v>39539</v>
       </c>
       <c r="B213" s="8">
-        <v>0.14071838913712065</v>
+        <v>0.13999202118014001</v>
       </c>
       <c r="C213" s="8">
         <v>0.38990252436890549</v>
@@ -34260,7 +34260,7 @@
         <v>39569</v>
       </c>
       <c r="B214" s="8">
-        <v>-9.7096524089357789E-2</v>
+        <v>-9.8545011883369088E-2</v>
       </c>
       <c r="C214" s="8">
         <v>0.10488986564108368</v>
@@ -34421,7 +34421,7 @@
         <v>39600</v>
       </c>
       <c r="B215" s="8">
-        <v>-0.27302024115580981</v>
+        <v>-0.27012738715120616</v>
       </c>
       <c r="C215" s="8">
         <v>-0.2194404269113692</v>
@@ -34582,7 +34582,7 @@
         <v>39630</v>
       </c>
       <c r="B216" s="8">
-        <v>-0.40057369686784694</v>
+        <v>-0.39985802142717441</v>
       </c>
       <c r="C216" s="8">
         <v>-0.25460536168937692</v>
@@ -34743,7 +34743,7 @@
         <v>39661</v>
       </c>
       <c r="B217" s="8">
-        <v>-0.57597009302460367</v>
+        <v>-0.57886386194205575</v>
       </c>
       <c r="C217" s="8">
         <v>-0.69790628115653042</v>
@@ -34904,7 +34904,7 @@
         <v>39692</v>
       </c>
       <c r="B218" s="8">
-        <v>-0.96657881780532295</v>
+        <v>-0.96801986721402866</v>
       </c>
       <c r="C218" s="8">
         <v>-1.0902031063321318</v>
@@ -35065,7 +35065,7 @@
         <v>39722</v>
       </c>
       <c r="B219" s="8">
-        <v>-1.3697440684220807</v>
+        <v>-1.3711912359534302</v>
       </c>
       <c r="C219" s="8">
         <v>-1.69103750124341</v>
@@ -35226,7 +35226,7 @@
         <v>39753</v>
       </c>
       <c r="B220" s="8">
-        <v>-2.0077214494346278</v>
+        <v>-2.0062899902396705</v>
       </c>
       <c r="C220" s="8">
         <v>-2.5054682839530655</v>
@@ -35387,7 +35387,7 @@
         <v>39783</v>
       </c>
       <c r="B221" s="8">
-        <v>-2.5785150238778152</v>
+        <v>-2.5770700728977771</v>
       </c>
       <c r="C221" s="8">
         <v>-3.0324085562559002</v>
@@ -35548,7 +35548,7 @@
         <v>39814</v>
       </c>
       <c r="B222" s="8">
-        <v>-3.1632859454461397</v>
+        <v>-3.1618868742324642</v>
       </c>
       <c r="C222" s="8">
         <v>-4.0199004975124355</v>
@@ -35709,7 +35709,7 @@
         <v>39845</v>
       </c>
       <c r="B223" s="8">
-        <v>-3.6112355977043062</v>
+        <v>-3.6105127723244617</v>
       </c>
       <c r="C223" s="8">
         <v>-4.7306372183256187</v>
@@ -35870,7 +35870,7 @@
         <v>39873</v>
       </c>
       <c r="B224" s="8">
-        <v>-4.1520814649810518</v>
+        <v>-4.1513582318396161</v>
       </c>
       <c r="C224" s="8">
         <v>-5.0904920975220689</v>
@@ -36192,7 +36192,7 @@
         <v>39934</v>
       </c>
       <c r="B226" s="8">
-        <v>-4.6296229138409988</v>
+        <v>-4.6274805616803993</v>
       </c>
       <c r="C226" s="8">
         <v>-5.6481389082925872</v>
@@ -36353,7 +36353,7 @@
         <v>39965</v>
       </c>
       <c r="B227" s="8">
-        <v>-4.8566532082377201</v>
+        <v>-4.8573088374119529</v>
       </c>
       <c r="C227" s="8">
         <v>-5.8429549657619884</v>
@@ -36514,7 +36514,7 @@
         <v>39995</v>
       </c>
       <c r="B228" s="8">
-        <v>-4.9513087367908133</v>
+        <v>-4.9491988916121805</v>
       </c>
       <c r="C228" s="8">
         <v>-5.8958958958958938</v>
@@ -36675,7 +36675,7 @@
         <v>40026</v>
       </c>
       <c r="B229" s="8">
-        <v>-4.9215567684157602</v>
+        <v>-4.9194782481964587</v>
       </c>
       <c r="C229" s="8">
         <v>-5.9287148594377461</v>
@@ -36836,7 +36836,7 @@
         <v>40057</v>
       </c>
       <c r="B230" s="8">
-        <v>-4.7674750148046874</v>
+        <v>-4.767509869864015</v>
       </c>
       <c r="C230" s="8">
         <v>-6.0043283506970742</v>
@@ -36997,7 +36997,7 @@
         <v>40087</v>
       </c>
       <c r="B231" s="8">
-        <v>-4.5837368312938347</v>
+        <v>-4.5860050181209919</v>
       </c>
       <c r="C231" s="8">
         <v>-5.661236466659914</v>
@@ -37158,7 +37158,7 @@
         <v>40118</v>
       </c>
       <c r="B232" s="8">
-        <v>-4.0475435114616456</v>
+        <v>-4.048251438689686</v>
       </c>
       <c r="C232" s="8">
         <v>-4.8643687538241931</v>
@@ -37319,7 +37319,7 @@
         <v>40148</v>
       </c>
       <c r="B233" s="8">
-        <v>-3.759900329269378</v>
+        <v>-3.7583613900301085</v>
       </c>
       <c r="C233" s="8">
         <v>-4.5859351008291496</v>
@@ -37480,7 +37480,7 @@
         <v>40179</v>
       </c>
       <c r="B234" s="8">
-        <v>-3.1711338052859688</v>
+        <v>-3.1718797788934232</v>
       </c>
       <c r="C234" s="8">
         <v>-3.4211071946921003</v>
@@ -37641,7 +37641,7 @@
         <v>40210</v>
       </c>
       <c r="B235" s="8">
-        <v>-2.7124109486314212</v>
+        <v>-2.7131405088825731</v>
       </c>
       <c r="C235" s="8">
         <v>-2.8665413533834632</v>
@@ -37802,7 +37802,7 @@
         <v>40238</v>
       </c>
       <c r="B236" s="8">
-        <v>-1.985255834660107</v>
+        <v>-1.9852408547627671</v>
       </c>
       <c r="C236" s="8">
         <v>-2.0434965328850527</v>
@@ -37963,7 +37963,7 @@
         <v>40269</v>
       </c>
       <c r="B237" s="8">
-        <v>-1.2909489460789891</v>
+        <v>-1.2901904566864633</v>
       </c>
       <c r="C237" s="8">
         <v>-1.523538404765675</v>
@@ -38124,7 +38124,7 @@
         <v>40299</v>
       </c>
       <c r="B238" s="8">
-        <v>-0.63046619514792002</v>
+        <v>-0.6296961031849847</v>
       </c>
       <c r="C238" s="8">
         <v>-0.61343204653621941</v>
@@ -38285,7 +38285,7 @@
         <v>40330</v>
       </c>
       <c r="B239" s="8">
-        <v>-0.37551518852083654</v>
+        <v>-0.37703879530762241</v>
       </c>
       <c r="C239" s="8">
         <v>-0.32912198747213323</v>
@@ -38446,7 +38446,7 @@
         <v>40360</v>
       </c>
       <c r="B240" s="8">
-        <v>-0.17828312584646228</v>
+        <v>-0.17828176169926238</v>
       </c>
       <c r="C240" s="8">
         <v>-0.23933624082544411</v>
@@ -38607,7 +38607,7 @@
         <v>40391</v>
       </c>
       <c r="B241" s="8">
-        <v>-4.2152377010859984E-2</v>
+        <v>-4.2918783865602897E-2</v>
       </c>
       <c r="C241" s="8">
         <v>-9.0719889001549994E-2</v>
@@ -38768,7 +38768,7 @@
         <v>40422</v>
       </c>
       <c r="B242" s="8">
-        <v>8.5981882389068023E-2</v>
+        <v>8.5982542473072882E-2</v>
       </c>
       <c r="C242" s="8">
         <v>0</v>
@@ -38929,7 +38929,7 @@
         <v>40452</v>
       </c>
       <c r="B243" s="8">
-        <v>0.43749038905120713</v>
+        <v>0.44442735765637614</v>
       </c>
       <c r="C243" s="8">
         <v>0.49337695071593529</v>
@@ -39251,7 +39251,7 @@
         <v>40513</v>
       </c>
       <c r="B245" s="8">
-        <v>0.82142802102115986</v>
+        <v>0.81754996994868168</v>
       </c>
       <c r="C245" s="8">
         <v>0.43986696706362222</v>
@@ -39412,7 +39412,7 @@
         <v>40544</v>
       </c>
       <c r="B246" s="8">
-        <v>0.83203648634073446</v>
+        <v>0.83281330652306229</v>
       </c>
       <c r="C246" s="8">
         <v>8.0506655216831258E-2</v>
@@ -39573,7 +39573,7 @@
         <v>40575</v>
       </c>
       <c r="B247" s="8">
-        <v>1.0305781875081899</v>
+        <v>1.0313490014105895</v>
       </c>
       <c r="C247" s="8">
         <v>0.44078912003440551</v>
@@ -39734,7 +39734,7 @@
         <v>40603</v>
       </c>
       <c r="B248" s="8">
-        <v>1.0770154585206626</v>
+        <v>1.0770071672171029</v>
       </c>
       <c r="C248" s="8">
         <v>0.24132568241540192</v>
@@ -39895,7 +39895,7 @@
         <v>40634</v>
       </c>
       <c r="B249" s="8">
-        <v>1.1541505620913024</v>
+        <v>1.1541416935607807</v>
       </c>
       <c r="C249" s="8">
         <v>0.12847965738758518</v>
@@ -40056,7 +40056,7 @@
         <v>40664</v>
       </c>
       <c r="B250" s="8">
-        <v>0.80590229678327885</v>
+        <v>0.80741443702932714</v>
       </c>
       <c r="C250" s="8">
         <v>-0.58529317867404484</v>
@@ -40217,7 +40217,7 @@
         <v>40695</v>
       </c>
       <c r="B251" s="8">
-        <v>1.0886553076734493</v>
+        <v>1.0855991480689819</v>
       </c>
       <c r="C251" s="8">
         <v>-0.60715807413718914</v>
@@ -40378,7 +40378,7 @@
         <v>40725</v>
       </c>
       <c r="B252" s="8">
-        <v>1.1965536801116068</v>
+        <v>1.1911788377957826</v>
       </c>
       <c r="C252" s="8">
         <v>-0.22391640454230666</v>
@@ -40539,7 +40539,7 @@
         <v>40756</v>
       </c>
       <c r="B253" s="8">
-        <v>1.3049745445623504</v>
+        <v>1.3034510784140836</v>
       </c>
       <c r="C253" s="8">
         <v>-6.9437025958762666E-2</v>
@@ -40700,7 +40700,7 @@
         <v>40787</v>
       </c>
       <c r="B254" s="8">
-        <v>1.5340717331942442</v>
+        <v>1.534083500164914</v>
       </c>
       <c r="C254" s="8">
         <v>0.45512957806810878</v>
@@ -40861,7 +40861,7 @@
         <v>40817</v>
       </c>
       <c r="B255" s="8">
-        <v>1.4889496206814721</v>
+        <v>1.490435035557631</v>
       </c>
       <c r="C255" s="8">
         <v>-0.13874806553178592</v>
@@ -41022,7 +41022,7 @@
         <v>40848</v>
       </c>
       <c r="B256" s="8">
-        <v>1.5051395007342145</v>
+        <v>1.5059043073910916</v>
       </c>
       <c r="C256" s="8">
         <v>5.3398835905377258E-2</v>
@@ -41183,7 +41183,7 @@
         <v>40878</v>
       </c>
       <c r="B257" s="8">
-        <v>1.5950779578110668</v>
+        <v>1.5981473413890355</v>
       </c>
       <c r="C257" s="8">
         <v>1.0681478316589301E-2</v>
@@ -41344,7 +41344,7 @@
         <v>40909</v>
       </c>
       <c r="B258" s="8">
-        <v>1.8207240109411531</v>
+        <v>1.838297092037102</v>
       </c>
       <c r="C258" s="8">
         <v>0.62744677428004747</v>
@@ -41505,7 +41505,7 @@
         <v>40940</v>
       </c>
       <c r="B259" s="8">
-        <v>1.8707560845349813</v>
+        <v>1.8722677022377183</v>
       </c>
       <c r="C259" s="8">
         <v>0.5137811078405089</v>
@@ -41666,7 +41666,7 @@
         <v>40969</v>
       </c>
       <c r="B260" s="8">
-        <v>1.8782131840511824</v>
+        <v>1.8751523275651962</v>
       </c>
       <c r="C260" s="8">
         <v>0.78643269848063579</v>
@@ -41827,7 +41827,7 @@
         <v>41000</v>
       </c>
       <c r="B261" s="8">
-        <v>1.6674136477237336</v>
+        <v>1.666641345467252</v>
       </c>
       <c r="C261" s="8">
         <v>0.78058169375534148</v>
@@ -41988,7 +41988,7 @@
         <v>41030</v>
       </c>
       <c r="B262" s="8">
-        <v>1.6983767860667811</v>
+        <v>1.6945163567898329</v>
       </c>
       <c r="C262" s="8">
         <v>0.79212160137015386</v>
@@ -42149,7 +42149,7 @@
         <v>41061</v>
       </c>
       <c r="B263" s="8">
-        <v>1.5831874436335251</v>
+        <v>1.5787000545686047</v>
       </c>
       <c r="C263" s="8">
         <v>1.0181116707748366</v>
@@ -42310,7 +42310,7 @@
         <v>41091</v>
       </c>
       <c r="B264" s="8">
-        <v>1.6376430665283028</v>
+        <v>1.6339299917432375</v>
       </c>
       <c r="C264" s="8">
         <v>0.58776382580817521</v>
@@ -42471,7 +42471,7 @@
         <v>41122</v>
       </c>
       <c r="B265" s="8">
-        <v>1.6991356735237575</v>
+        <v>1.6832799739636553</v>
       </c>
       <c r="C265" s="8">
         <v>0.79640814581216857</v>
@@ -42632,7 +42632,7 @@
         <v>41153</v>
       </c>
       <c r="B266" s="8">
-        <v>1.6468739612606895</v>
+        <v>1.6461309501325818</v>
       </c>
       <c r="C266" s="8">
         <v>0.66627578487287464</v>
@@ -42793,7 +42793,7 @@
         <v>41183</v>
       </c>
       <c r="B267" s="8">
-        <v>1.591563956733598</v>
+        <v>1.5960174988686078</v>
       </c>
       <c r="C267" s="8">
         <v>1.0260246887190747</v>
@@ -42954,7 +42954,7 @@
         <v>41214</v>
       </c>
       <c r="B268" s="8">
-        <v>1.59207353827607</v>
+        <v>1.587540781036912</v>
       </c>
       <c r="C268" s="8">
         <v>1.0193734322463526</v>
@@ -43115,7 +43115,7 @@
         <v>41244</v>
       </c>
       <c r="B269" s="8">
-        <v>1.6166768226169252</v>
+        <v>1.6113744075829384</v>
       </c>
       <c r="C269" s="8">
         <v>0.99327138737584852</v>
@@ -43276,7 +43276,7 @@
         <v>41275</v>
       </c>
       <c r="B270" s="8">
-        <v>1.5015195287584886</v>
+        <v>1.4967588980253288</v>
       </c>
       <c r="C270" s="8">
         <v>0.82072052867191769</v>
@@ -43437,7 +43437,7 @@
         <v>41306</v>
       </c>
       <c r="B271" s="8">
-        <v>1.5390722128188614</v>
+        <v>1.5307994757536043</v>
       </c>
       <c r="C271" s="8">
         <v>1.0063361908311641</v>
@@ -43598,7 +43598,7 @@
         <v>41334</v>
       </c>
       <c r="B272" s="8">
-        <v>1.4585716314919894</v>
+        <v>1.4511281568205268</v>
       </c>
       <c r="C272" s="8">
         <v>0.86522639205902396</v>
@@ -43759,7 +43759,7 @@
         <v>41365</v>
       </c>
       <c r="B273" s="8">
-        <v>1.5451746914133715</v>
+        <v>1.5391972264562599</v>
       </c>
       <c r="C273" s="8">
         <v>0.82228116710875332</v>
@@ -44081,7 +44081,7 @@
         <v>41426</v>
       </c>
       <c r="B275" s="8">
-        <v>1.6637073068831227</v>
+        <v>1.6839890469830705</v>
       </c>
       <c r="C275" s="8">
         <v>0.99193719499257615</v>
@@ -44242,7 +44242,7 @@
         <v>41456</v>
       </c>
       <c r="B276" s="8">
-        <v>1.6596984669960724</v>
+        <v>1.6665424461504061</v>
       </c>
       <c r="C276" s="8">
         <v>1.1633466135458217</v>
@@ -44403,7 +44403,7 @@
         <v>41487</v>
       </c>
       <c r="B277" s="8">
-        <v>1.7161441084757871</v>
+        <v>1.7268714597274224</v>
       </c>
       <c r="C277" s="8">
         <v>1.0075299607593595</v>
@@ -44564,7 +44564,7 @@
         <v>41518</v>
       </c>
       <c r="B278" s="8">
-        <v>1.7168083714846305</v>
+        <v>1.7146042363433669</v>
       </c>
       <c r="C278" s="8">
         <v>0.83659853860003097</v>
@@ -44725,7 +44725,7 @@
         <v>41548</v>
       </c>
       <c r="B279" s="8">
-        <v>1.7574470612693416</v>
+        <v>1.761744966442953</v>
       </c>
       <c r="C279" s="8">
         <v>0.78286167680507568</v>
@@ -44886,7 +44886,7 @@
         <v>41579</v>
       </c>
       <c r="B280" s="8">
-        <v>1.8608204223001787</v>
+        <v>1.8534725724626933</v>
       </c>
       <c r="C280" s="8">
         <v>0.77134404057481709</v>
@@ -45047,7 +45047,7 @@
         <v>41609</v>
       </c>
       <c r="B281" s="8">
-        <v>1.7108886848885074</v>
+        <v>1.7042762378583276</v>
       </c>
       <c r="C281" s="8">
         <v>1.0681049069373967</v>
@@ -45208,7 +45208,7 @@
         <v>41640</v>
       </c>
       <c r="B282" s="8">
-        <v>1.7062676504073455</v>
+        <v>1.6860950747691876</v>
       </c>
       <c r="C282" s="8">
         <v>0.95676075695105922</v>
@@ -45369,7 +45369,7 @@
         <v>41671</v>
       </c>
       <c r="B283" s="8">
-        <v>1.5968785265937437</v>
+        <v>1.5829577558291348</v>
       </c>
       <c r="C283" s="8">
         <v>0.61149182920400147</v>
@@ -45530,7 +45530,7 @@
         <v>41699</v>
       </c>
       <c r="B284" s="8">
-        <v>1.6962390945531713</v>
+        <v>1.6860846432177099</v>
       </c>
       <c r="C284" s="8">
         <v>0.63677507630775232</v>
@@ -45691,7 +45691,7 @@
         <v>41730</v>
       </c>
       <c r="B285" s="8">
-        <v>1.7806687073228162</v>
+        <v>1.7807735327014775</v>
       </c>
       <c r="C285" s="8">
         <v>0.88397790055248382</v>
@@ -45852,7 +45852,7 @@
         <v>41760</v>
       </c>
       <c r="B286" s="8">
-        <v>1.7741437827830917</v>
+        <v>1.7925096604516535</v>
       </c>
       <c r="C286" s="8">
         <v>0.87816164484408932</v>
@@ -46013,7 +46013,7 @@
         <v>41791</v>
       </c>
       <c r="B287" s="8">
-        <v>1.8896586139078873</v>
+        <v>1.8945730973555224</v>
       </c>
       <c r="C287" s="8">
         <v>0.91916592257996732</v>
@@ -46174,7 +46174,7 @@
         <v>41821</v>
       </c>
       <c r="B288" s="8">
-        <v>1.955163920004692</v>
+        <v>1.9515270589270266</v>
       </c>
       <c r="C288" s="8">
         <v>0.96618357487921991</v>
@@ -46335,7 +46335,7 @@
         <v>41852</v>
       </c>
       <c r="B289" s="8">
-        <v>1.9140016242674336</v>
+        <v>1.925117255811571</v>
       </c>
       <c r="C289" s="8">
         <v>1.1234775304493958</v>
@@ -46496,7 +46496,7 @@
         <v>41883</v>
       </c>
       <c r="B290" s="8">
-        <v>1.9852113808069443</v>
+        <v>1.9882066682741839</v>
       </c>
       <c r="C290" s="8">
         <v>1.3442554085276155</v>
@@ -46657,7 +46657,7 @@
         <v>41913</v>
       </c>
       <c r="B291" s="8">
-        <v>1.9904998869034154</v>
+        <v>1.9960749695408884</v>
       </c>
       <c r="C291" s="8">
         <v>1.4118511520495507</v>
@@ -46818,7 +46818,7 @@
         <v>41944</v>
       </c>
       <c r="B292" s="8">
-        <v>2.0154067947168381</v>
+        <v>2.0316470905211648</v>
       </c>
       <c r="C292" s="8">
         <v>1.3893257837894515</v>
@@ -46979,7 +46979,7 @@
         <v>41974</v>
       </c>
       <c r="B293" s="8">
-        <v>2.19453077802121</v>
+        <v>2.1823634748933571</v>
       </c>
       <c r="C293" s="8">
         <v>1.3497959610756489</v>
@@ -47140,7 +47140,7 @@
         <v>42005</v>
       </c>
       <c r="B294" s="8">
-        <v>2.2162617936528703</v>
+        <v>2.2113343607339129</v>
       </c>
       <c r="C294" s="8">
         <v>1.3770354468820332</v>
@@ -47301,7 +47301,7 @@
         <v>42036</v>
       </c>
       <c r="B295" s="8">
-        <v>2.2839801948570515</v>
+        <v>2.2720836510184075</v>
       </c>
       <c r="C295" s="8">
         <v>1.5613538719480342</v>
@@ -47462,7 +47462,7 @@
         <v>42064</v>
       </c>
       <c r="B296" s="8">
-        <v>2.1432608286115902</v>
+        <v>2.1328096124997282</v>
       </c>
       <c r="C296" s="8">
         <v>1.2445745960361845</v>
@@ -47623,7 +47623,7 @@
         <v>42095</v>
       </c>
       <c r="B297" s="8">
-        <v>2.0958040542494434</v>
+        <v>2.0792966829578643</v>
       </c>
       <c r="C297" s="8">
         <v>1.1578782663120037</v>
@@ -47784,7 +47784,7 @@
         <v>42125</v>
       </c>
       <c r="B298" s="8">
-        <v>2.1358914946909491</v>
+        <v>2.146331606068042</v>
       </c>
       <c r="C298" s="8">
         <v>1.4334862385321101</v>
@@ -47945,7 +47945,7 @@
         <v>42156</v>
       </c>
       <c r="B299" s="8">
-        <v>2.0750055818442412</v>
+        <v>2.071061310904037</v>
       </c>
       <c r="C299" s="8">
         <v>1.3011345893619235</v>
@@ -48106,7 +48106,7 @@
         <v>42186</v>
       </c>
       <c r="B300" s="8">
-        <v>2.1039007729642281</v>
+        <v>2.1054448183622401</v>
       </c>
       <c r="C300" s="8">
         <v>1.3573954649469595</v>
@@ -48267,7 +48267,7 @@
         <v>42217</v>
       </c>
       <c r="B301" s="8">
-        <v>2.051790111491604</v>
+        <v>2.0495628077933636</v>
       </c>
       <c r="C301" s="8">
         <v>1.3653826186273468</v>
@@ -48428,7 +48428,7 @@
         <v>42248</v>
       </c>
       <c r="B302" s="8">
-        <v>1.9494336540597081</v>
+        <v>1.9164911375718237</v>
       </c>
       <c r="C302" s="8">
         <v>1.0932642487046584</v>
@@ -48589,7 +48589,7 @@
         <v>42278</v>
       </c>
       <c r="B303" s="8">
-        <v>2.0146087752809794</v>
+        <v>1.9806158578019384</v>
       </c>
       <c r="C303" s="8">
         <v>0.99368595383500913</v>
@@ -48750,7 +48750,7 @@
         <v>42309</v>
       </c>
       <c r="B304" s="8">
-        <v>1.9734494325886802</v>
+        <v>1.9476580286474876</v>
       </c>
       <c r="C304" s="8">
         <v>1.2203319716634731</v>
@@ -48911,7 +48911,7 @@
         <v>42339</v>
       </c>
       <c r="B305" s="8">
-        <v>1.9543881141294284</v>
+        <v>1.9327216253953778</v>
       </c>
       <c r="C305" s="8">
         <v>1.0479041916167642</v>
@@ -49072,7 +49072,7 @@
         <v>42370</v>
       </c>
       <c r="B306" s="8">
-        <v>1.9136272160315171</v>
+        <v>1.8526947640925706</v>
       </c>
       <c r="C306" s="8">
         <v>0.97613882863339851</v>
@@ -49233,7 +49233,7 @@
         <v>42401</v>
       </c>
       <c r="B307" s="8">
-        <v>1.8873147464652775</v>
+        <v>1.8488540512907898</v>
       </c>
       <c r="C307" s="8">
         <v>1.052414362360703</v>
@@ -49394,7 +49394,7 @@
         <v>42430</v>
       </c>
       <c r="B308" s="8">
-        <v>1.9585449592826945</v>
+        <v>1.9463563471226848</v>
       </c>
       <c r="C308" s="8">
         <v>1.1827901451371361</v>
@@ -49555,7 +49555,7 @@
         <v>42461</v>
       </c>
       <c r="B309" s="8">
-        <v>1.8792972816042715</v>
+        <v>1.8655447900730919</v>
       </c>
       <c r="C309" s="8">
         <v>1.3869554008765193</v>
@@ -49716,7 +49716,7 @@
         <v>42491</v>
       </c>
       <c r="B310" s="8">
-        <v>1.6996946910160005</v>
+        <v>1.6483438842414651</v>
       </c>
       <c r="C310" s="8">
         <v>0.8633537180738966</v>
@@ -49877,7 +49877,7 @@
         <v>42522</v>
       </c>
       <c r="B311" s="8">
-        <v>1.7273009511444781</v>
+        <v>1.7101494264226553</v>
       </c>
       <c r="C311" s="8">
         <v>0.85285655569255592</v>
@@ -50038,7 +50038,7 @@
         <v>42552</v>
       </c>
       <c r="B312" s="8">
-        <v>1.7063260117886492</v>
+        <v>1.7331474126031718</v>
       </c>
       <c r="C312" s="8">
         <v>0.87228693108933242</v>
@@ -50199,7 +50199,7 @@
         <v>42583</v>
       </c>
       <c r="B313" s="8">
-        <v>1.7228158788893499</v>
+        <v>1.7445991291073701</v>
       </c>
       <c r="C313" s="8">
         <v>1.1011523687580027</v>
@@ -50360,7 +50360,7 @@
         <v>42614</v>
       </c>
       <c r="B314" s="8">
-        <v>1.7624736472241744</v>
+        <v>1.8481156812158621</v>
       </c>
       <c r="C314" s="8">
         <v>0.86617805340577569</v>
@@ -50521,160 +50521,482 @@
         <v>42644</v>
       </c>
       <c r="B315" s="9">
-        <v>1.6515305585749853</v>
+        <v>1.7057808576598819</v>
       </c>
       <c r="C315" s="9">
-        <v>1.188890027672431</v>
+        <v>1.1376447678589636</v>
       </c>
       <c r="D315" s="9">
-        <v>-0.11788977306219692</v>
+        <v>-1.3262599469496019</v>
       </c>
       <c r="E315" s="9">
-        <v>1.9889668630615081</v>
+        <v>1.8651255300784431</v>
       </c>
       <c r="F315" s="9">
-        <v>0.94293210888816015</v>
+        <v>0.93473269924566182</v>
       </c>
       <c r="G315" s="9">
-        <v>2.4047217746167573</v>
+        <v>2.4244781537663731</v>
       </c>
       <c r="H315" s="9">
-        <v>2.5012681937019692</v>
+        <v>2.7314941272876267</v>
       </c>
       <c r="I315" s="9">
-        <v>0.19125029882859462</v>
+        <v>0.27492230456609545</v>
       </c>
       <c r="J315" s="9">
-        <v>1.8776231499889551</v>
+        <v>1.5462778882261985</v>
       </c>
       <c r="K315" s="9">
-        <v>1.796874999999994</v>
+        <v>1.9791666666666725</v>
       </c>
       <c r="L315" s="9">
-        <v>3.0960471312978353</v>
+        <v>3.1046031241596794</v>
       </c>
       <c r="M315" s="9">
-        <v>2.2512287860521276</v>
+        <v>2.313827320782718</v>
       </c>
       <c r="N315" s="9">
         <v>2.1868166198063101</v>
       </c>
       <c r="O315" s="9">
-        <v>2.1598589479870602</v>
+        <v>2.3361739641492765</v>
       </c>
       <c r="P315" s="9">
-        <v>0.49223273431112441</v>
+        <v>0.51225576079157398</v>
       </c>
       <c r="Q315" s="9">
-        <v>0.99097621000819747</v>
+        <v>0.94831829368334997</v>
       </c>
       <c r="R315" s="9">
-        <v>1.1494986908487133</v>
+        <v>1.2069736253911401</v>
       </c>
       <c r="S315" s="9">
-        <v>-0.3780313837375146</v>
+        <v>-0.31383737517832316</v>
       </c>
       <c r="T315" s="9">
-        <v>0.97578986233451126</v>
+        <v>0.93359354396327954</v>
       </c>
       <c r="U315" s="9">
-        <v>-0.3430531732418502</v>
+        <v>-0.37836747048733732</v>
       </c>
       <c r="V315" s="9">
-        <v>-3.2803017877652198E-2</v>
+        <v>-9.8409053632937948E-2</v>
       </c>
       <c r="W315" s="9">
-        <v>1.2959850606909362</v>
+        <v>1.21755368814192</v>
       </c>
       <c r="X315" s="9">
-        <v>2.0369155279148612</v>
+        <v>2.0397683507830999</v>
       </c>
       <c r="Y315" s="9">
-        <v>2.2103462016267064</v>
+        <v>2.3205119189930383</v>
       </c>
       <c r="Z315" s="9">
-        <v>1.1219853198182421</v>
+        <v>1.1779098217406438</v>
       </c>
       <c r="AA315" s="9">
-        <v>-8.7650100797615912E-2</v>
+        <v>-2.6295030239300715E-2</v>
       </c>
       <c r="AB315" s="9">
-        <v>1.8259434639116119</v>
+        <v>1.8905151384703784</v>
       </c>
       <c r="AC315" s="9">
         <v>0.78124999999999256</v>
       </c>
       <c r="AD315" s="9">
-        <v>0.38522323192413843</v>
+        <v>0.51363097589885864</v>
       </c>
       <c r="AE315" s="9">
-        <v>2.2659323367427189</v>
+        <v>2.2108575924468852</v>
       </c>
       <c r="AF315" s="9">
-        <v>2.1221767470062147</v>
+        <v>2.000909504320135</v>
       </c>
       <c r="AG315" s="9">
-        <v>0.74542133583452186</v>
+        <v>0.65409488078195188</v>
       </c>
       <c r="AH315" s="9">
-        <v>-0.37521181312031254</v>
+        <v>-0.48414427499394819</v>
       </c>
       <c r="AI315" s="9">
-        <v>1.0773656255723507</v>
+        <v>1.2066495006410325</v>
       </c>
       <c r="AJ315" s="9">
-        <v>1.988402939174116</v>
+        <v>1.9837077728478532</v>
       </c>
       <c r="AK315" s="9">
-        <v>-1.8028043623414252</v>
+        <v>-1.7805475183618962</v>
       </c>
       <c r="AL315" s="9">
-        <v>0.92726905492003453</v>
+        <v>0.94012228934466524</v>
       </c>
       <c r="AM315" s="9">
-        <v>-0.73727746808127759</v>
+        <v>-0.65935383324342145</v>
       </c>
       <c r="AN315" s="9">
-        <v>3.3424321764804192</v>
+        <v>3.2198763300094808</v>
       </c>
       <c r="AO315" s="9">
-        <v>0.6550665301944667</v>
+        <v>0.51177072671443202</v>
       </c>
       <c r="AP315" s="9">
-        <v>1.3585837793330517</v>
+        <v>1.3379991766158914</v>
       </c>
       <c r="AQ315" s="9">
-        <v>1.979218208807521</v>
+        <v>1.8456209797130225</v>
       </c>
       <c r="AR315" s="9">
         <v>2.5204200700116712</v>
       </c>
       <c r="AS315" s="9">
-        <v>2.4229754275334936</v>
+        <v>2.327016004660889</v>
       </c>
       <c r="AT315" s="9">
-        <v>1.7446064336040628</v>
+        <v>1.7790781751837121</v>
       </c>
       <c r="AU315" s="9">
-        <v>3.0056805925073671</v>
+        <v>3.0344430862155778</v>
       </c>
       <c r="AV315" s="9">
-        <v>0.5739795918367202</v>
+        <v>0.89285714285712825</v>
       </c>
       <c r="AW315" s="9">
-        <v>1.7339104446849003</v>
+        <v>1.6978409852115239</v>
       </c>
       <c r="AX315" s="9">
-        <v>3.4568601499968432</v>
+        <v>3.4221970126677976</v>
       </c>
       <c r="AY315" s="9">
-        <v>2.6274303730942167E-2</v>
+        <v>3.9411455596420716E-2</v>
       </c>
       <c r="AZ315" s="9">
-        <v>0.97708663042730648</v>
+        <v>0.99084841395445478</v>
       </c>
       <c r="BA315" s="9">
-        <v>-3.5294117647058783</v>
+        <v>-3.3910034602076164</v>
+      </c>
+    </row>
+    <row r="316" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A316" s="7">
+        <v>42675</v>
+      </c>
+      <c r="B316" s="9">
+        <v>1.6269269002982232</v>
+      </c>
+      <c r="C316" s="9">
+        <v>0.99106002554278871</v>
+      </c>
+      <c r="D316" s="9">
+        <v>-0.97604259094942658</v>
+      </c>
+      <c r="E316" s="9">
+        <v>1.1539754266721474</v>
+      </c>
+      <c r="F316" s="9">
+        <v>0.84412391411243692</v>
+      </c>
+      <c r="G316" s="9">
+        <v>2.3202928560863891</v>
+      </c>
+      <c r="H316" s="9">
+        <v>2.5926936722679246</v>
+      </c>
+      <c r="I316" s="9">
+        <v>7.1492403932084919E-2</v>
+      </c>
+      <c r="J316" s="9">
+        <v>1.210387323943662</v>
+      </c>
+      <c r="K316" s="9">
+        <v>1.9651223321186913</v>
+      </c>
+      <c r="L316" s="9">
+        <v>3.2007901379083292</v>
+      </c>
+      <c r="M316" s="9">
+        <v>2.3888811803339389</v>
+      </c>
+      <c r="N316" s="9">
+        <v>2.40437158469945</v>
+      </c>
+      <c r="O316" s="9">
+        <v>2.5296095920456305</v>
+      </c>
+      <c r="P316" s="9">
+        <v>0.61512745507731192</v>
+      </c>
+      <c r="Q316" s="9">
+        <v>1.3409836065573799</v>
+      </c>
+      <c r="R316" s="9">
+        <v>0.64327112922744645</v>
+      </c>
+      <c r="S316" s="9">
+        <v>-0.41467076571101408</v>
+      </c>
+      <c r="T316" s="9">
+        <v>0.878069299121921</v>
+      </c>
+      <c r="U316" s="9">
+        <v>-0.41378614321037727</v>
+      </c>
+      <c r="V316" s="9">
+        <v>0.37729658792650173</v>
+      </c>
+      <c r="W316" s="9">
+        <v>1.2126865671641791</v>
+      </c>
+      <c r="X316" s="9">
+        <v>2.0298932384341688</v>
+      </c>
+      <c r="Y316" s="9">
+        <v>2.1167114957314932</v>
+      </c>
+      <c r="Z316" s="9">
+        <v>1.3808494316200539</v>
+      </c>
+      <c r="AA316" s="9">
+        <v>-0.1138254093336796</v>
+      </c>
+      <c r="AB316" s="9">
+        <v>2.1184158558041002</v>
+      </c>
+      <c r="AC316" s="9">
+        <v>1.258134490238614</v>
+      </c>
+      <c r="AD316" s="9">
+        <v>0.95679621227066936</v>
+      </c>
+      <c r="AE316" s="9">
+        <v>2.7611233827705903</v>
+      </c>
+      <c r="AF316" s="9">
+        <v>2.2417449257800595</v>
+      </c>
+      <c r="AG316" s="9">
+        <v>0.56398384395626266</v>
+      </c>
+      <c r="AH316" s="9">
+        <v>0.10866940352571568</v>
+      </c>
+      <c r="AI316" s="9">
+        <v>1.1771288385805747</v>
+      </c>
+      <c r="AJ316" s="9">
+        <v>1.9197452825771411</v>
+      </c>
+      <c r="AK316" s="9">
+        <v>-1.3628239499553223</v>
+      </c>
+      <c r="AL316" s="9">
+        <v>0.92181944800790361</v>
+      </c>
+      <c r="AM316" s="9">
+        <v>-0.74985002999400119</v>
+      </c>
+      <c r="AN316" s="9">
+        <v>3.0903240124278639</v>
+      </c>
+      <c r="AO316" s="9">
+        <v>0.76668260364730123</v>
+      </c>
+      <c r="AP316" s="9">
+        <v>1.2110016420361318</v>
+      </c>
+      <c r="AQ316" s="9">
+        <v>2.2858553443594265</v>
+      </c>
+      <c r="AR316" s="9">
+        <v>2.44299674267101</v>
+      </c>
+      <c r="AS316" s="9">
+        <v>1.8958803033408484</v>
+      </c>
+      <c r="AT316" s="9">
+        <v>1.888296756325794</v>
+      </c>
+      <c r="AU316" s="9">
+        <v>2.9344238771703326</v>
+      </c>
+      <c r="AV316" s="9">
+        <v>0.1907183725365435</v>
+      </c>
+      <c r="AW316" s="9">
+        <v>1.0625737898465195</v>
+      </c>
+      <c r="AX316" s="9">
+        <v>3.0707945171105075</v>
+      </c>
+      <c r="AY316" s="9">
+        <v>1.4454664914586071</v>
+      </c>
+      <c r="AZ316" s="9">
+        <v>1.1504942991974128</v>
+      </c>
+      <c r="BA316" s="9">
+        <v>-3.2291666666666705</v>
+      </c>
+    </row>
+    <row r="317" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A317" s="7">
+        <v>42705</v>
+      </c>
+      <c r="B317" s="9">
+        <v>1.5669007932347907</v>
+      </c>
+      <c r="C317" s="9">
+        <v>0.95530012771392314</v>
+      </c>
+      <c r="D317" s="9">
+        <v>-1.3561320754716881</v>
+      </c>
+      <c r="E317" s="9">
+        <v>1.3201073985680225</v>
+      </c>
+      <c r="F317" s="9">
+        <v>0.42379788101059868</v>
+      </c>
+      <c r="G317" s="9">
+        <v>2.0431237364892567</v>
+      </c>
+      <c r="H317" s="9">
+        <v>1.8924998060963385</v>
+      </c>
+      <c r="I317" s="9">
+        <v>-0.11904761904761905</v>
+      </c>
+      <c r="J317" s="9">
+        <v>0.54824561403508765</v>
+      </c>
+      <c r="K317" s="9">
+        <v>2.2783491732847287</v>
+      </c>
+      <c r="L317" s="9">
+        <v>3.0615600073068214</v>
+      </c>
+      <c r="M317" s="9">
+        <v>2.3856261980092666</v>
+      </c>
+      <c r="N317" s="9">
+        <v>2.0560747663551471</v>
+      </c>
+      <c r="O317" s="9">
+        <v>1.9348268839103968</v>
+      </c>
+      <c r="P317" s="9">
+        <v>0.47537745639584456</v>
+      </c>
+      <c r="Q317" s="9">
+        <v>0.78439062653201297</v>
+      </c>
+      <c r="R317" s="9">
+        <v>0.5209987928076637</v>
+      </c>
+      <c r="S317" s="9">
+        <v>-0.66348005992722803</v>
+      </c>
+      <c r="T317" s="9">
+        <v>0.57639907776147559</v>
+      </c>
+      <c r="U317" s="9">
+        <v>-0.23232323232322774</v>
+      </c>
+      <c r="V317" s="9">
+        <v>0</v>
+      </c>
+      <c r="W317" s="9">
+        <v>1.1217530652554657</v>
+      </c>
+      <c r="X317" s="9">
+        <v>2.1334698754053592</v>
+      </c>
+      <c r="Y317" s="9">
+        <v>1.748822459543907</v>
+      </c>
+      <c r="Z317" s="9">
+        <v>1.5161525889348808</v>
+      </c>
+      <c r="AA317" s="9">
+        <v>-0.96968638071111524</v>
+      </c>
+      <c r="AB317" s="9">
+        <v>2.3173930226709301</v>
+      </c>
+      <c r="AC317" s="9">
+        <v>0.91086532205595061</v>
+      </c>
+      <c r="AD317" s="9">
+        <v>0.72985501528750152</v>
+      </c>
+      <c r="AE317" s="9">
+        <v>3.0212195314348782</v>
+      </c>
+      <c r="AF317" s="9">
+        <v>1.7395250340341852</v>
+      </c>
+      <c r="AG317" s="9">
+        <v>0.33392260852484551</v>
+      </c>
+      <c r="AH317" s="9">
+        <v>0.30193236714975846</v>
+      </c>
+      <c r="AI317" s="9">
+        <v>1.2335455562247346</v>
+      </c>
+      <c r="AJ317" s="9">
+        <v>1.9929824561403469</v>
+      </c>
+      <c r="AK317" s="9">
+        <v>-1.7539914549134272</v>
+      </c>
+      <c r="AL317" s="9">
+        <v>0.76341454505607231</v>
+      </c>
+      <c r="AM317" s="9">
+        <v>-0.33672058204557209</v>
+      </c>
+      <c r="AN317" s="9">
+        <v>3.2932305815822951</v>
+      </c>
+      <c r="AO317" s="9">
+        <v>0.54532131354271396</v>
+      </c>
+      <c r="AP317" s="9">
+        <v>0.7369498464687867</v>
+      </c>
+      <c r="AQ317" s="9">
+        <v>1.7148191823899304</v>
+      </c>
+      <c r="AR317" s="9">
+        <v>1.4146567717996341</v>
+      </c>
+      <c r="AS317" s="9">
+        <v>1.6421868625051061</v>
+      </c>
+      <c r="AT317" s="9">
+        <v>1.7617822329877286</v>
+      </c>
+      <c r="AU317" s="9">
+        <v>2.789500035762821</v>
+      </c>
+      <c r="AV317" s="9">
+        <v>0.73365231259968466</v>
+      </c>
+      <c r="AW317" s="9">
+        <v>1.2711104277184058</v>
+      </c>
+      <c r="AX317" s="9">
+        <v>3.0482270835289214</v>
+      </c>
+      <c r="AY317" s="9">
+        <v>0.28890347997374205</v>
+      </c>
+      <c r="AZ317" s="9">
+        <v>0.98825798009711352</v>
+      </c>
+      <c r="BA317" s="9">
+        <v>-2.756454989532461</v>
       </c>
     </row>
   </sheetData>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -178,7 +178,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1990 -- January 2017</t>
+    <t>Total Employment; Year/Year: January 1990 -- February 2017</t>
   </si>
 </sst>
 </file>
@@ -580,11 +580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA318"/>
+  <dimension ref="A1:BA319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A310" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E319" sqref="E319"/>
+      <pane ySplit="5" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E325" sqref="E325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -51007,157 +51007,318 @@
         <v>1.6423319437752686</v>
       </c>
       <c r="C318" s="9">
-        <v>1.4438964868574844</v>
+        <v>1.4286440591794147</v>
       </c>
       <c r="D318" s="9">
-        <v>-2.6761819803746656</v>
+        <v>-2.4085637823372053</v>
       </c>
       <c r="E318" s="9">
-        <v>2.0464663848254636</v>
+        <v>2.1811515582326209</v>
       </c>
       <c r="F318" s="9">
-        <v>0.92494065646230283</v>
+        <v>1.0804616517966805</v>
       </c>
       <c r="G318" s="9">
-        <v>2.0248572058931544</v>
+        <v>2.0591768195523739</v>
       </c>
       <c r="H318" s="9">
-        <v>1.9487577639751483</v>
+        <v>2.0768633540372674</v>
       </c>
       <c r="I318" s="9">
-        <v>0.32185004172130716</v>
+        <v>0.36953152938371947</v>
       </c>
       <c r="J318" s="9">
-        <v>1.1741249446167505</v>
+        <v>0.97474523704032656</v>
       </c>
       <c r="K318" s="9">
-        <v>1.2983673994086673</v>
+        <v>1.2340917855765552</v>
       </c>
       <c r="L318" s="9">
-        <v>3.3608262383901106</v>
+        <v>3.3765479876161084</v>
       </c>
       <c r="M318" s="9">
-        <v>2.650491045638355</v>
+        <v>2.6042749855574772</v>
       </c>
       <c r="N318" s="9">
-        <v>1.1360099595393642</v>
+        <v>1.1515717398070304</v>
       </c>
       <c r="O318" s="9">
-        <v>4.0128410914927768</v>
+        <v>4.0274332409163911</v>
       </c>
       <c r="P318" s="9">
-        <v>0.26468678730168693</v>
+        <v>0.37122738093255103</v>
       </c>
       <c r="Q318" s="9">
-        <v>1.1870984574242454</v>
+        <v>1.3110263183641462</v>
       </c>
       <c r="R318" s="9">
-        <v>0.85442836192055671</v>
+        <v>0.58024612637889028</v>
       </c>
       <c r="S318" s="9">
         <v>-0.17028522775649857</v>
       </c>
       <c r="T318" s="9">
-        <v>1.6068896707451628</v>
+        <v>1.5753820301423096</v>
       </c>
       <c r="U318" s="9">
-        <v>-0.37831021437578816</v>
+        <v>-0.3430012610340456</v>
       </c>
       <c r="V318" s="9">
-        <v>1.0232255968815906</v>
+        <v>1.0069839207406093</v>
       </c>
       <c r="W318" s="9">
-        <v>1.4828544949026876</v>
+        <v>1.7238183503243742</v>
       </c>
       <c r="X318" s="9">
-        <v>1.8419489007724277</v>
+        <v>1.6750134397193168</v>
       </c>
       <c r="Y318" s="9">
-        <v>2.1842000979043972</v>
+        <v>2.067647264505017</v>
       </c>
       <c r="Z318" s="9">
-        <v>1.1212163287975467</v>
+        <v>1.273951680088858</v>
       </c>
       <c r="AA318" s="9">
-        <v>0</v>
+        <v>9.6027935399380968E-2</v>
       </c>
       <c r="AB318" s="9">
-        <v>1.8627381542602135</v>
+        <v>1.8839861179970188</v>
       </c>
       <c r="AC318" s="9">
-        <v>1.9338203695745595</v>
+        <v>1.9123334765792941</v>
       </c>
       <c r="AD318" s="9">
-        <v>0.89064819396338435</v>
+        <v>0.82137555665511663</v>
       </c>
       <c r="AE318" s="9">
-        <v>3.4744502699741657</v>
+        <v>3.4118475624070665</v>
       </c>
       <c r="AF318" s="9">
         <v>2.4853140533212836</v>
       </c>
       <c r="AG318" s="9">
-        <v>1.7224336480007973</v>
+        <v>1.7545593831858959</v>
       </c>
       <c r="AH318" s="9">
-        <v>0.62764031382016239</v>
+        <v>0.6035003017501509</v>
       </c>
       <c r="AI318" s="9">
-        <v>1.4956350564874963</v>
+        <v>1.4688890790824982</v>
       </c>
       <c r="AJ318" s="9">
-        <v>1.8431892759896842</v>
+        <v>1.8641346086713764</v>
       </c>
       <c r="AK318" s="9">
-        <v>-0.73009354323522435</v>
+        <v>-0.68446269678302529</v>
       </c>
       <c r="AL318" s="9">
-        <v>0.56850379307193799</v>
+        <v>0.6635590896627398</v>
       </c>
       <c r="AM318" s="9">
-        <v>-0.60179334416561348</v>
+        <v>-0.54161400974905216</v>
       </c>
       <c r="AN318" s="9">
-        <v>2.3897566090843836</v>
+        <v>2.2793752414592392</v>
       </c>
       <c r="AO318" s="9">
-        <v>1.1993926262092058</v>
+        <v>1.1567399723610834</v>
       </c>
       <c r="AP318" s="9">
-        <v>0.9424298299528715</v>
+        <v>1.0038926449498007</v>
       </c>
       <c r="AQ318" s="9">
-        <v>1.9896831245394251</v>
+        <v>1.9945959223777898</v>
       </c>
       <c r="AR318" s="9">
-        <v>1.1384758364312348</v>
+        <v>1.0223048327137627</v>
       </c>
       <c r="AS318" s="9">
-        <v>2.0023837902264661</v>
+        <v>2.2509790567001504</v>
       </c>
       <c r="AT318" s="9">
-        <v>1.8831809291362369</v>
+        <v>1.9032414450258341</v>
       </c>
       <c r="AU318" s="9">
-        <v>3.3010813887307977</v>
+        <v>3.2797381900967655</v>
       </c>
       <c r="AV318" s="9">
-        <v>0.92859430035221802</v>
+        <v>1.1527377521613722</v>
       </c>
       <c r="AW318" s="9">
-        <v>1.4457398181911609</v>
+        <v>1.3378871141698006</v>
       </c>
       <c r="AX318" s="9">
-        <v>2.8303954413099999</v>
+        <v>2.958765146059676</v>
       </c>
       <c r="AY318" s="9">
-        <v>-0.59864307569509112</v>
+        <v>-0.67846215245443964</v>
       </c>
       <c r="AZ318" s="9">
-        <v>0.55167214912280382</v>
+        <v>0.72985197368420118</v>
       </c>
       <c r="BA318" s="9">
-        <v>-3.1696273075583496</v>
+        <v>-3.2044583768721857</v>
+      </c>
+    </row>
+    <row r="319" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A319" s="7">
+        <v>42767</v>
+      </c>
+      <c r="B319" s="9">
+        <v>1.6382243042775084</v>
+      </c>
+      <c r="C319" s="9">
+        <v>1.4790343074968186</v>
+      </c>
+      <c r="D319" s="9">
+        <v>-1.9940476190476157</v>
+      </c>
+      <c r="E319" s="9">
+        <v>2.1709127531798953</v>
+      </c>
+      <c r="F319" s="9">
+        <v>1.3309381889442276</v>
+      </c>
+      <c r="G319" s="9">
+        <v>1.9302824520332713</v>
+      </c>
+      <c r="H319" s="9">
+        <v>1.9487060282039435</v>
+      </c>
+      <c r="I319" s="9">
+        <v>0.12497768255669442</v>
+      </c>
+      <c r="J319" s="9">
+        <v>0.6634232640424591</v>
+      </c>
+      <c r="K319" s="9">
+        <v>0.53777208706786761</v>
+      </c>
+      <c r="L319" s="9">
+        <v>2.9996865279351743</v>
+      </c>
+      <c r="M319" s="9">
+        <v>2.6278179890277071</v>
+      </c>
+      <c r="N319" s="9">
+        <v>0.77459333849728895</v>
+      </c>
+      <c r="O319" s="9">
+        <v>3.5589773387565367</v>
+      </c>
+      <c r="P319" s="9">
+        <v>0.7822902796271638</v>
+      </c>
+      <c r="Q319" s="9">
+        <v>1.281550871714809</v>
+      </c>
+      <c r="R319" s="9">
+        <v>0.69448869066582297</v>
+      </c>
+      <c r="S319" s="9">
+        <v>-2.8336639274572369E-2</v>
+      </c>
+      <c r="T319" s="9">
+        <v>1.3823437009110948</v>
+      </c>
+      <c r="U319" s="9">
+        <v>0.15156107911488331</v>
+      </c>
+      <c r="V319" s="9">
+        <v>0.46978778551759132</v>
+      </c>
+      <c r="W319" s="9">
+        <v>2.1425658894613999</v>
+      </c>
+      <c r="X319" s="9">
+        <v>1.6272314504075076</v>
+      </c>
+      <c r="Y319" s="9">
+        <v>1.9234351713859996</v>
+      </c>
+      <c r="Z319" s="9">
+        <v>1.2792955207322179</v>
+      </c>
+      <c r="AA319" s="9">
+        <v>6.9741086217433704E-2</v>
+      </c>
+      <c r="AB319" s="9">
+        <v>1.9104900053069169</v>
+      </c>
+      <c r="AC319" s="9">
+        <v>2.4248927038626631</v>
+      </c>
+      <c r="AD319" s="9">
+        <v>1.3450697260409479</v>
+      </c>
+      <c r="AE319" s="9">
+        <v>3.2102228455664497</v>
+      </c>
+      <c r="AF319" s="9">
+        <v>1.665666266506606</v>
+      </c>
+      <c r="AG319" s="9">
+        <v>1.8168371749044696</v>
+      </c>
+      <c r="AH319" s="9">
+        <v>0.70939040519417784</v>
+      </c>
+      <c r="AI319" s="9">
+        <v>1.4441821464050215</v>
+      </c>
+      <c r="AJ319" s="9">
+        <v>1.7821920033416143</v>
+      </c>
+      <c r="AK319" s="9">
+        <v>-0.68634179821551122</v>
+      </c>
+      <c r="AL319" s="9">
+        <v>0.82898148486286438</v>
+      </c>
+      <c r="AM319" s="9">
+        <v>-0.42102730662817278</v>
+      </c>
+      <c r="AN319" s="9">
+        <v>2.1905023332418385</v>
+      </c>
+      <c r="AO319" s="9">
+        <v>1.2611629967959641</v>
+      </c>
+      <c r="AP319" s="9">
+        <v>1.2058042100960509</v>
+      </c>
+      <c r="AQ319" s="9">
+        <v>1.5668608921314318</v>
+      </c>
+      <c r="AR319" s="9">
+        <v>1.3704994192799018</v>
+      </c>
+      <c r="AS319" s="9">
+        <v>2.2446346101602797</v>
+      </c>
+      <c r="AT319" s="9">
+        <v>1.8570784415237518</v>
+      </c>
+      <c r="AU319" s="9">
+        <v>3.2530120481927778</v>
+      </c>
+      <c r="AV319" s="9">
+        <v>1.0879999999999928</v>
+      </c>
+      <c r="AW319" s="9">
+        <v>1.3703191434865016</v>
+      </c>
+      <c r="AX319" s="9">
+        <v>2.741221231210631</v>
+      </c>
+      <c r="AY319" s="9">
+        <v>-0.35952063914780902</v>
+      </c>
+      <c r="AZ319" s="9">
+        <v>0.9648942722233721</v>
+      </c>
+      <c r="BA319" s="9">
+        <v>-2.52100840336136</v>
       </c>
     </row>
   </sheetData>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RAuxier\Box Sync\TPC\CENTER\SLFI\SEM\Historical\Employment\PUBLISHED\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -178,13 +183,13 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1990 -- February 2017</t>
+    <t>Total Employment; Year/Year: January 1990 -- May 2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -204,40 +209,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -262,20 +267,20 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -288,6 +293,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -336,7 +344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,9 +377,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,6 +429,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -580,11 +622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA319"/>
+  <dimension ref="A1:BA322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E325" sqref="E325"/>
+      <selection pane="bottomLeft" activeCell="C321" sqref="C321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -607,167 +649,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
+    <row r="4" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Y5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="Z5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AA5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AB5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AC5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AD5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE5" s="5" t="s">
+      <c r="AE5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AF5" s="5" t="s">
+      <c r="AF5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AG5" s="5" t="s">
+      <c r="AG5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AH5" s="5" t="s">
+      <c r="AH5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AI5" s="5" t="s">
+      <c r="AI5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ5" s="5" t="s">
+      <c r="AJ5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AK5" s="5" t="s">
+      <c r="AK5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AL5" s="5" t="s">
+      <c r="AL5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AM5" s="5" t="s">
+      <c r="AM5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AN5" s="5" t="s">
+      <c r="AN5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AO5" s="5" t="s">
+      <c r="AO5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AP5" s="5" t="s">
+      <c r="AP5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AQ5" s="5" t="s">
+      <c r="AQ5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AR5" s="5" t="s">
+      <c r="AR5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AS5" s="5" t="s">
+      <c r="AS5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AT5" s="5" t="s">
+      <c r="AT5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AU5" s="5" t="s">
+      <c r="AU5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AV5" s="5" t="s">
+      <c r="AV5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AW5" s="5" t="s">
+      <c r="AW5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AX5" s="5" t="s">
+      <c r="AX5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AY5" s="5" t="s">
+      <c r="AY5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AZ5" s="5" t="s">
+      <c r="AZ5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BA5" s="5" t="s">
+      <c r="BA5" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>33239</v>
       </c>
@@ -928,7 +970,7 @@
         <v>2.9141104294478617</v>
       </c>
     </row>
-    <row r="7" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>33270</v>
       </c>
@@ -1089,7 +1131,7 @@
         <v>2.9576746557878693</v>
       </c>
     </row>
-    <row r="8" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>33298</v>
       </c>
@@ -1250,7 +1292,7 @@
         <v>2.786220871327254</v>
       </c>
     </row>
-    <row r="9" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>33329</v>
       </c>
@@ -1411,7 +1453,7 @@
         <v>1.7042606516290755</v>
       </c>
     </row>
-    <row r="10" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>33359</v>
       </c>
@@ -1572,7 +1614,7 @@
         <v>2.8340080971659893</v>
       </c>
     </row>
-    <row r="11" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>33390</v>
       </c>
@@ -1733,7 +1775,7 @@
         <v>2.8297119757453233</v>
       </c>
     </row>
-    <row r="12" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>33420</v>
       </c>
@@ -1894,7 +1936,7 @@
         <v>2.3761375126390232</v>
       </c>
     </row>
-    <row r="13" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>33451</v>
       </c>
@@ -2055,7 +2097,7 @@
         <v>2.2635814889336014</v>
       </c>
     </row>
-    <row r="14" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>33482</v>
       </c>
@@ -2216,7 +2258,7 @@
         <v>2.4635495223730546</v>
       </c>
     </row>
-    <row r="15" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>33512</v>
       </c>
@@ -2377,7 +2419,7 @@
         <v>2.7094831911690802</v>
       </c>
     </row>
-    <row r="16" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>33543</v>
       </c>
@@ -2538,7 +2580,7 @@
         <v>1.0923535253227352</v>
       </c>
     </row>
-    <row r="17" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>33573</v>
       </c>
@@ -2699,7 +2741,7 @@
         <v>1.3923421183490858</v>
       </c>
     </row>
-    <row r="18" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>33604</v>
       </c>
@@ -2860,7 +2902,7 @@
         <v>1.6890213611524973</v>
       </c>
     </row>
-    <row r="19" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>33635</v>
       </c>
@@ -3021,7 +3063,7 @@
         <v>1.4363546310054509</v>
       </c>
     </row>
-    <row r="20" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>33664</v>
       </c>
@@ -3182,7 +3224,7 @@
         <v>1.0842779694430698</v>
       </c>
     </row>
-    <row r="21" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>33695</v>
       </c>
@@ -3343,7 +3385,7 @@
         <v>0.73928043371118779</v>
       </c>
     </row>
-    <row r="22" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>33725</v>
       </c>
@@ -3504,7 +3546,7 @@
         <v>1.2795275590551294</v>
       </c>
     </row>
-    <row r="23" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>33756</v>
       </c>
@@ -3665,7 +3707,7 @@
         <v>0.49140049140049141</v>
       </c>
     </row>
-    <row r="24" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>33786</v>
       </c>
@@ -3826,7 +3868,7 @@
         <v>0.64197530864198094</v>
       </c>
     </row>
-    <row r="25" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>33817</v>
       </c>
@@ -3987,7 +4029,7 @@
         <v>1.5248401377274934</v>
       </c>
     </row>
-    <row r="26" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>33848</v>
       </c>
@@ -4148,7 +4190,7 @@
         <v>0.83415112855740359</v>
       </c>
     </row>
-    <row r="27" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>33878</v>
       </c>
@@ -4309,7 +4351,7 @@
         <v>0.92818759159746245</v>
       </c>
     </row>
-    <row r="28" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>33909</v>
       </c>
@@ -4470,7 +4512,7 @@
         <v>2.6522593320235788</v>
       </c>
     </row>
-    <row r="29" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>33939</v>
       </c>
@@ -4631,7 +4673,7 @@
         <v>1.4713094654242274</v>
       </c>
     </row>
-    <row r="30" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>33970</v>
       </c>
@@ -4792,7 +4834,7 @@
         <v>1.5144113336590244</v>
       </c>
     </row>
-    <row r="31" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>34001</v>
       </c>
@@ -4953,7 +4995,7 @@
         <v>1.3183593749999944</v>
       </c>
     </row>
-    <row r="32" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>34029</v>
       </c>
@@ -5114,7 +5156,7 @@
         <v>1.3651877133105859</v>
       </c>
     </row>
-    <row r="33" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>34060</v>
       </c>
@@ -5275,7 +5317,7 @@
         <v>1.9569471624266144</v>
       </c>
     </row>
-    <row r="34" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>34090</v>
       </c>
@@ -5436,7 +5478,7 @@
         <v>1.6520894071914367</v>
       </c>
     </row>
-    <row r="35" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>34121</v>
       </c>
@@ -5597,7 +5639,7 @@
         <v>2.9828850855745692</v>
       </c>
     </row>
-    <row r="36" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>34151</v>
       </c>
@@ -5758,7 +5800,7 @@
         <v>3.1894013738959761</v>
       </c>
     </row>
-    <row r="37" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>34182</v>
       </c>
@@ -5919,7 +5961,7 @@
         <v>2.4709302325581368</v>
       </c>
     </row>
-    <row r="38" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>34213</v>
       </c>
@@ -6080,7 +6122,7 @@
         <v>3.3090024330900296</v>
       </c>
     </row>
-    <row r="39" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>34243</v>
       </c>
@@ -6241,7 +6283,7 @@
         <v>2.9041626331074539</v>
       </c>
     </row>
-    <row r="40" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>34274</v>
       </c>
@@ -6402,7 +6444,7 @@
         <v>1.9138755980861244</v>
       </c>
     </row>
-    <row r="41" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>34304</v>
       </c>
@@ -6563,7 +6605,7 @@
         <v>3.4316094731754441</v>
       </c>
     </row>
-    <row r="42" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>34335</v>
       </c>
@@ -6724,7 +6766,7 @@
         <v>3.0317613089509061</v>
       </c>
     </row>
-    <row r="43" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>34366</v>
       </c>
@@ -6885,7 +6927,7 @@
         <v>3.2771084337349454</v>
       </c>
     </row>
-    <row r="44" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>34394</v>
       </c>
@@ -7046,7 +7088,7 @@
         <v>3.2708032708032624</v>
       </c>
     </row>
-    <row r="45" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>34425</v>
       </c>
@@ -7207,7 +7249,7 @@
         <v>3.4548944337811847</v>
       </c>
     </row>
-    <row r="46" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>34455</v>
       </c>
@@ -7368,7 +7410,7 @@
         <v>3.3938814531548864</v>
       </c>
     </row>
-    <row r="47" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>34486</v>
       </c>
@@ -7529,7 +7571,7 @@
         <v>2.5166191832858553</v>
       </c>
     </row>
-    <row r="48" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>34516</v>
       </c>
@@ -7690,7 +7732,7 @@
         <v>2.9006181645268638</v>
       </c>
     </row>
-    <row r="49" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>34547</v>
       </c>
@@ -7851,7 +7893,7 @@
         <v>4.0661938534278939</v>
       </c>
     </row>
-    <row r="50" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>34578</v>
       </c>
@@ -8012,7 +8054,7 @@
         <v>2.4964672633066334</v>
       </c>
     </row>
-    <row r="51" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>34608</v>
       </c>
@@ -8173,7 +8215,7 @@
         <v>2.492944496707437</v>
       </c>
     </row>
-    <row r="52" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>34639</v>
       </c>
@@ -8334,7 +8376,7 @@
         <v>3.4741784037558712</v>
       </c>
     </row>
-    <row r="53" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>34669</v>
       </c>
@@ -8495,7 +8537,7 @@
         <v>2.6635514018691535</v>
       </c>
     </row>
-    <row r="54" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>34700</v>
       </c>
@@ -8656,7 +8698,7 @@
         <v>2.3820644558617441</v>
       </c>
     </row>
-    <row r="55" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>34731</v>
       </c>
@@ -8817,7 +8859,7 @@
         <v>2.4265048996733496</v>
       </c>
     </row>
-    <row r="56" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>34759</v>
       </c>
@@ -8978,7 +9020,7 @@
         <v>2.3288309268747089</v>
       </c>
     </row>
-    <row r="57" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>34790</v>
       </c>
@@ -9139,7 +9181,7 @@
         <v>1.7161410018552956</v>
       </c>
     </row>
-    <row r="58" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>34820</v>
       </c>
@@ -9300,7 +9342,7 @@
         <v>0.92464170134073043</v>
       </c>
     </row>
-    <row r="59" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7">
         <v>34851</v>
       </c>
@@ -9461,7 +9503,7 @@
         <v>1.9916628068550175</v>
       </c>
     </row>
-    <row r="60" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7">
         <v>34881</v>
       </c>
@@ -9622,7 +9664,7 @@
         <v>0.41589648798521517</v>
       </c>
     </row>
-    <row r="61" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>34912</v>
       </c>
@@ -9783,7 +9825,7 @@
         <v>-0.95411176737846182</v>
       </c>
     </row>
-    <row r="62" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>34943</v>
       </c>
@@ -9944,7 +9986,7 @@
         <v>1.1488970588235294</v>
       </c>
     </row>
-    <row r="63" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>34973</v>
       </c>
@@ -10105,7 +10147,7 @@
         <v>1.1932078935291393</v>
       </c>
     </row>
-    <row r="64" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>35004</v>
       </c>
@@ -10266,7 +10308,7 @@
         <v>-0.40834845735027481</v>
       </c>
     </row>
-    <row r="65" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7">
         <v>35034</v>
       </c>
@@ -10427,7 +10469,7 @@
         <v>0.22758306781975424</v>
       </c>
     </row>
-    <row r="66" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>35065</v>
       </c>
@@ -10588,7 +10630,7 @@
         <v>0.45620437956204385</v>
       </c>
     </row>
-    <row r="67" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>35096</v>
       </c>
@@ -10749,7 +10791,7 @@
         <v>0.5011389521640065</v>
       </c>
     </row>
-    <row r="68" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7">
         <v>35125</v>
       </c>
@@ -10910,7 +10952,7 @@
         <v>9.1033227127909455E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7">
         <v>35156</v>
       </c>
@@ -11071,7 +11113,7 @@
         <v>0.68399452804377558</v>
       </c>
     </row>
-    <row r="70" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7">
         <v>35186</v>
       </c>
@@ -11232,7 +11274,7 @@
         <v>1.3284470911589452</v>
       </c>
     </row>
-    <row r="71" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7">
         <v>35217</v>
       </c>
@@ -11393,7 +11435,7 @@
         <v>0.72661217075387052</v>
       </c>
     </row>
-    <row r="72" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7">
         <v>35247</v>
       </c>
@@ -11554,7 +11596,7 @@
         <v>0.87436723423836948</v>
       </c>
     </row>
-    <row r="73" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7">
         <v>35278</v>
       </c>
@@ -11715,7 +11757,7 @@
         <v>1.651376146788988</v>
       </c>
     </row>
-    <row r="74" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7">
         <v>35309</v>
       </c>
@@ -11876,7 +11918,7 @@
         <v>0.95411176737846182</v>
       </c>
     </row>
-    <row r="75" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7">
         <v>35339</v>
       </c>
@@ -12037,7 +12079,7 @@
         <v>0.90702947845804993</v>
       </c>
     </row>
-    <row r="76" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7">
         <v>35370</v>
       </c>
@@ -12198,7 +12240,7 @@
         <v>1.6856492027334802</v>
       </c>
     </row>
-    <row r="77" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7">
         <v>35400</v>
       </c>
@@ -12359,7 +12401,7 @@
         <v>0.49954586739328916</v>
       </c>
     </row>
-    <row r="78" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7">
         <v>35431</v>
       </c>
@@ -12520,7 +12562,7 @@
         <v>0.72661217075387052</v>
       </c>
     </row>
-    <row r="79" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7">
         <v>35462</v>
       </c>
@@ -12681,7 +12723,7 @@
         <v>0.54397098821396961</v>
       </c>
     </row>
-    <row r="80" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="7">
         <v>35490</v>
       </c>
@@ -12842,7 +12884,7 @@
         <v>1.1368804001819008</v>
       </c>
     </row>
-    <row r="81" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7">
         <v>35521</v>
       </c>
@@ -13003,7 +13045,7 @@
         <v>1.1775362318840554</v>
       </c>
     </row>
-    <row r="82" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="7">
         <v>35551</v>
       </c>
@@ -13164,7 +13206,7 @@
         <v>1.4918625678119402</v>
       </c>
     </row>
-    <row r="83" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7">
         <v>35582</v>
       </c>
@@ -13325,7 +13367,7 @@
         <v>1.0820559062218111</v>
       </c>
     </row>
-    <row r="84" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="7">
         <v>35612</v>
       </c>
@@ -13486,7 +13528,7 @@
         <v>2.8284671532846795</v>
       </c>
     </row>
-    <row r="85" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7">
         <v>35643</v>
       </c>
@@ -13647,7 +13689,7 @@
         <v>1.895306859205784</v>
       </c>
     </row>
-    <row r="86" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7">
         <v>35674</v>
       </c>
@@ -13808,7 +13850,7 @@
         <v>1.8001800180018002</v>
       </c>
     </row>
-    <row r="87" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7">
         <v>35704</v>
       </c>
@@ -13969,7 +14011,7 @@
         <v>1.7078651685393309</v>
       </c>
     </row>
-    <row r="88" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7">
         <v>35735</v>
       </c>
@@ -14130,7 +14172,7 @@
         <v>1.4784946236559191</v>
       </c>
     </row>
-    <row r="89" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7">
         <v>35765</v>
       </c>
@@ -14291,7 +14333,7 @@
         <v>2.6208766380478909</v>
       </c>
     </row>
-    <row r="90" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="7">
         <v>35796</v>
       </c>
@@ -14452,7 +14494,7 @@
         <v>2.3895401262398477</v>
       </c>
     </row>
-    <row r="91" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7">
         <v>35827</v>
       </c>
@@ -14613,7 +14655,7 @@
         <v>2.6600541027953009</v>
       </c>
     </row>
-    <row r="92" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7">
         <v>35855</v>
       </c>
@@ -14774,7 +14816,7 @@
         <v>2.0233812949640289</v>
       </c>
     </row>
-    <row r="93" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7">
         <v>35886</v>
       </c>
@@ -14935,7 +14977,7 @@
         <v>1.8352730528200512</v>
       </c>
     </row>
-    <row r="94" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7">
         <v>35916</v>
       </c>
@@ -15096,7 +15138,7 @@
         <v>2.4498886414253898</v>
       </c>
     </row>
-    <row r="95" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7">
         <v>35947</v>
       </c>
@@ -15257,7 +15299,7 @@
         <v>1.6949152542372934</v>
       </c>
     </row>
-    <row r="96" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="7">
         <v>35977</v>
       </c>
@@ -15418,7 +15460,7 @@
         <v>0.9316770186335378</v>
       </c>
     </row>
-    <row r="97" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7">
         <v>36008</v>
       </c>
@@ -15579,7 +15621,7 @@
         <v>0.93002657218777418</v>
       </c>
     </row>
-    <row r="98" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="7">
         <v>36039</v>
       </c>
@@ -15740,7 +15782,7 @@
         <v>1.0167992926613667</v>
       </c>
     </row>
-    <row r="99" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7">
         <v>36069</v>
       </c>
@@ -15901,7 +15943,7 @@
         <v>1.1489173663278807</v>
       </c>
     </row>
-    <row r="100" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="7">
         <v>36100</v>
       </c>
@@ -16062,7 +16104,7 @@
         <v>1.5894039735099312</v>
       </c>
     </row>
-    <row r="101" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7">
         <v>36130</v>
       </c>
@@ -16223,7 +16265,7 @@
         <v>1.3650374284456162</v>
       </c>
     </row>
-    <row r="102" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7">
         <v>36161</v>
       </c>
@@ -16384,7 +16426,7 @@
         <v>1.3650374284456162</v>
       </c>
     </row>
-    <row r="103" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7">
         <v>36192</v>
       </c>
@@ -16545,7 +16587,7 @@
         <v>1.1857707509881499</v>
       </c>
     </row>
-    <row r="104" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="7">
         <v>36220</v>
       </c>
@@ -16706,7 +16748,7 @@
         <v>2.1595416483032195</v>
       </c>
     </row>
-    <row r="105" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7">
         <v>36251</v>
       </c>
@@ -16867,7 +16909,7 @@
         <v>1.9340659340659365</v>
       </c>
     </row>
-    <row r="106" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7">
         <v>36281</v>
       </c>
@@ -17028,7 +17070,7 @@
         <v>1.1304347826086933</v>
       </c>
     </row>
-    <row r="107" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7">
         <v>36312</v>
       </c>
@@ -17189,7 +17231,7 @@
         <v>2.1052631578947421</v>
       </c>
     </row>
-    <row r="108" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7">
         <v>36342</v>
       </c>
@@ -17350,7 +17392,7 @@
         <v>2.6373626373626373</v>
       </c>
     </row>
-    <row r="109" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7">
         <v>36373</v>
       </c>
@@ -17511,7 +17553,7 @@
         <v>2.4572180781044293</v>
       </c>
     </row>
-    <row r="110" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7">
         <v>36404</v>
       </c>
@@ -17672,7 +17714,7 @@
         <v>2.6695842450765839</v>
       </c>
     </row>
-    <row r="111" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7">
         <v>36434</v>
       </c>
@@ -17833,7 +17875,7 @@
         <v>2.7086063783311443</v>
       </c>
     </row>
-    <row r="112" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7">
         <v>36465</v>
       </c>
@@ -17994,7 +18036,7 @@
         <v>2.4337244676227705</v>
       </c>
     </row>
-    <row r="113" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7">
         <v>36495</v>
       </c>
@@ -18155,7 +18197,7 @@
         <v>2.7801911381407498</v>
       </c>
     </row>
-    <row r="114" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7">
         <v>36526</v>
       </c>
@@ -18316,7 +18358,7 @@
         <v>3.0842745438749013</v>
       </c>
     </row>
-    <row r="115" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7">
         <v>36557</v>
       </c>
@@ -18477,7 +18519,7 @@
         <v>3.3854166666666594</v>
       </c>
     </row>
-    <row r="116" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7">
         <v>36586</v>
       </c>
@@ -18638,7 +18680,7 @@
         <v>3.4081104400345024</v>
       </c>
     </row>
-    <row r="117" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7">
         <v>36617</v>
       </c>
@@ -18799,7 +18841,7 @@
         <v>3.2341526520051747</v>
       </c>
     </row>
-    <row r="118" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7">
         <v>36647</v>
       </c>
@@ -18960,7 +19002,7 @@
         <v>2.9234737747205553</v>
       </c>
     </row>
-    <row r="119" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7">
         <v>36678</v>
       </c>
@@ -19121,7 +19163,7 @@
         <v>2.0189003436426067</v>
       </c>
     </row>
-    <row r="120" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="7">
         <v>36708</v>
       </c>
@@ -19282,7 +19324,7 @@
         <v>2.441113490364021</v>
       </c>
     </row>
-    <row r="121" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7">
         <v>36739</v>
       </c>
@@ -19443,7 +19485,7 @@
         <v>2.9978586723768736</v>
       </c>
     </row>
-    <row r="122" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="7">
         <v>36770</v>
       </c>
@@ -19604,7 +19646,7 @@
         <v>1.9607843137254877</v>
       </c>
     </row>
-    <row r="123" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7">
         <v>36800</v>
       </c>
@@ -19765,7 +19807,7 @@
         <v>2.2543598468736756</v>
       </c>
     </row>
-    <row r="124" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7">
         <v>36831</v>
       </c>
@@ -19926,7 +19968,7 @@
         <v>1.9516334323292417</v>
       </c>
     </row>
-    <row r="125" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7">
         <v>36861</v>
       </c>
@@ -20087,7 +20129,7 @@
         <v>2.1132713440405748</v>
       </c>
     </row>
-    <row r="126" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="7">
         <v>36892</v>
       </c>
@@ -20248,7 +20290,7 @@
         <v>2.2334597555836422</v>
       </c>
     </row>
-    <row r="127" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7">
         <v>36923</v>
       </c>
@@ -20409,7 +20451,7 @@
         <v>2.2250209907640688</v>
       </c>
     </row>
-    <row r="128" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="7">
         <v>36951</v>
       </c>
@@ -20570,7 +20612,7 @@
         <v>1.8356278681685465</v>
       </c>
     </row>
-    <row r="129" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7">
         <v>36982</v>
       </c>
@@ -20731,7 +20773,7 @@
         <v>2.1303258145363384</v>
       </c>
     </row>
-    <row r="130" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="7">
         <v>37012</v>
       </c>
@@ -20892,7 +20934,7 @@
         <v>2.4227234753550473</v>
       </c>
     </row>
-    <row r="131" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7">
         <v>37043</v>
       </c>
@@ -21053,7 +21095,7 @@
         <v>3.1999999999999975</v>
       </c>
     </row>
-    <row r="132" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="7">
         <v>37073</v>
       </c>
@@ -21214,7 +21256,7 @@
         <v>2.7173913043478262</v>
       </c>
     </row>
-    <row r="133" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7">
         <v>37104</v>
       </c>
@@ -21375,7 +21417,7 @@
         <v>2.7858627858627814</v>
       </c>
     </row>
-    <row r="134" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7">
         <v>37135</v>
       </c>
@@ -21536,7 +21578,7 @@
         <v>2.7173913043478262</v>
       </c>
     </row>
-    <row r="135" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7">
         <v>37165</v>
       </c>
@@ -21697,7 +21739,7 @@
         <v>2.4958402662229617</v>
       </c>
     </row>
-    <row r="136" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7">
         <v>37196</v>
       </c>
@@ -21858,7 +21900,7 @@
         <v>3.0378693300041544</v>
       </c>
     </row>
-    <row r="137" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7">
         <v>37226</v>
       </c>
@@ -22019,7 +22061,7 @@
         <v>2.4834437086092715</v>
       </c>
     </row>
-    <row r="138" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7">
         <v>37257</v>
       </c>
@@ -22180,7 +22222,7 @@
         <v>1.9373454245671959</v>
       </c>
     </row>
-    <row r="139" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7">
         <v>37288</v>
       </c>
@@ -22341,7 +22383,7 @@
         <v>1.6427104722792609</v>
       </c>
     </row>
-    <row r="140" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7">
         <v>37316</v>
       </c>
@@ -22502,7 +22544,7 @@
         <v>1.3109381401065208</v>
       </c>
     </row>
-    <row r="141" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7">
         <v>37347</v>
       </c>
@@ -22663,7 +22705,7 @@
         <v>1.2269938650306749</v>
       </c>
     </row>
-    <row r="142" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7">
         <v>37377</v>
       </c>
@@ -22824,7 +22866,7 @@
         <v>1.1827079934747169</v>
       </c>
     </row>
-    <row r="143" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7">
         <v>37408</v>
       </c>
@@ -22985,7 +23027,7 @@
         <v>1.1015911872705089</v>
       </c>
     </row>
-    <row r="144" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7">
         <v>37438</v>
       </c>
@@ -23146,7 +23188,7 @@
         <v>1.0175010175010175</v>
       </c>
     </row>
-    <row r="145" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7">
         <v>37469</v>
       </c>
@@ -23307,7 +23349,7 @@
         <v>0.28317152103560561</v>
       </c>
     </row>
-    <row r="146" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7">
         <v>37500</v>
       </c>
@@ -23468,7 +23510,7 @@
         <v>1.2210012210012211</v>
       </c>
     </row>
-    <row r="147" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7">
         <v>37530</v>
       </c>
@@ -23629,7 +23671,7 @@
         <v>0.73051948051947357</v>
       </c>
     </row>
-    <row r="148" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7">
         <v>37561</v>
       </c>
@@ -23790,7 +23832,7 @@
         <v>0.36348949919224788</v>
       </c>
     </row>
-    <row r="149" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7">
         <v>37591</v>
       </c>
@@ -23951,7 +23993,7 @@
         <v>0.32310177705977844</v>
       </c>
     </row>
-    <row r="150" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7">
         <v>37622</v>
       </c>
@@ -24112,7 +24154,7 @@
         <v>0.36393044884754433</v>
       </c>
     </row>
-    <row r="151" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="7">
         <v>37653</v>
       </c>
@@ -24273,7 +24315,7 @@
         <v>0.12121212121212581</v>
       </c>
     </row>
-    <row r="152" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7">
         <v>37681</v>
       </c>
@@ -24434,7 +24476,7 @@
         <v>-0.16174686615447054</v>
       </c>
     </row>
-    <row r="153" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7">
         <v>37712</v>
       </c>
@@ -24595,7 +24637,7 @@
         <v>0.24242424242424013</v>
       </c>
     </row>
-    <row r="154" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
         <v>37742</v>
       </c>
@@ -24756,7 +24798,7 @@
         <v>0.24183796856106182</v>
       </c>
     </row>
-    <row r="155" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
         <v>37773</v>
       </c>
@@ -24917,7 +24959,7 @@
         <v>0.88781275221952727</v>
       </c>
     </row>
-    <row r="156" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="7">
         <v>37803</v>
       </c>
@@ -25078,7 +25120,7 @@
         <v>0.76551168412570747</v>
       </c>
     </row>
-    <row r="157" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="7">
         <v>37834</v>
       </c>
@@ -25239,7 +25281,7 @@
         <v>1.4118596208148446</v>
       </c>
     </row>
-    <row r="158" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="7">
         <v>37865</v>
       </c>
@@ -25400,7 +25442,7 @@
         <v>1.36710896662646</v>
       </c>
     </row>
-    <row r="159" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
         <v>37895</v>
       </c>
@@ -25561,7 +25603,7 @@
         <v>1.8936341659951721</v>
       </c>
     </row>
-    <row r="160" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
         <v>37926</v>
       </c>
@@ -25722,7 +25764,7 @@
         <v>1.5291750503018156</v>
       </c>
     </row>
-    <row r="161" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
         <v>37956</v>
       </c>
@@ -25883,7 +25925,7 @@
         <v>1.6908212560386426</v>
       </c>
     </row>
-    <row r="162" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="7">
         <v>37987</v>
       </c>
@@ -26044,7 +26086,7 @@
         <v>2.0547945205479543</v>
       </c>
     </row>
-    <row r="163" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="7">
         <v>38018</v>
       </c>
@@ -26205,7 +26247,7 @@
         <v>2.2195318805488298</v>
       </c>
     </row>
-    <row r="164" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="7">
         <v>38047</v>
       </c>
@@ -26366,7 +26408,7 @@
         <v>2.7946537059538299</v>
       </c>
     </row>
-    <row r="165" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="7">
         <v>38078</v>
       </c>
@@ -26527,7 +26569,7 @@
         <v>2.9020556227327758</v>
       </c>
     </row>
-    <row r="166" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="7">
         <v>38108</v>
       </c>
@@ -26688,7 +26730,7 @@
         <v>2.3321270607157265</v>
       </c>
     </row>
-    <row r="167" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="7">
         <v>38139</v>
       </c>
@@ -26849,7 +26891,7 @@
         <v>2.239999999999998</v>
       </c>
     </row>
-    <row r="168" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="7">
         <v>38169</v>
       </c>
@@ -27010,7 +27052,7 @@
         <v>2.3190723710515839</v>
       </c>
     </row>
-    <row r="169" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="7">
         <v>38200</v>
       </c>
@@ -27171,7 +27213,7 @@
         <v>1.9093078758949813</v>
       </c>
     </row>
-    <row r="170" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="7">
         <v>38231</v>
       </c>
@@ -27332,7 +27374,7 @@
         <v>1.1503371677905616</v>
       </c>
     </row>
-    <row r="171" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="7">
         <v>38261</v>
       </c>
@@ -27493,7 +27535,7 @@
         <v>1.4234875444839834</v>
       </c>
     </row>
-    <row r="172" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="7">
         <v>38292</v>
       </c>
@@ -27654,7 +27696,7 @@
         <v>2.1799445105033692</v>
       </c>
     </row>
-    <row r="173" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="7">
         <v>38322</v>
       </c>
@@ -27815,7 +27857,7 @@
         <v>2.2169437846397444</v>
       </c>
     </row>
-    <row r="174" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="7">
         <v>38353</v>
       </c>
@@ -27976,7 +28018,7 @@
         <v>2.1318594551914636</v>
       </c>
     </row>
-    <row r="175" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="7">
         <v>38384</v>
       </c>
@@ -28137,7 +28179,7 @@
         <v>2.4476904855902046</v>
       </c>
     </row>
-    <row r="176" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="7">
         <v>38412</v>
       </c>
@@ -28298,7 +28340,7 @@
         <v>2.8368794326241087</v>
       </c>
     </row>
-    <row r="177" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="7">
         <v>38443</v>
       </c>
@@ -28459,7 +28501,7 @@
         <v>2.5460242851547199</v>
       </c>
     </row>
-    <row r="178" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="7">
         <v>38473</v>
       </c>
@@ -28620,7 +28662,7 @@
         <v>3.0648330058939139</v>
       </c>
     </row>
-    <row r="179" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="7">
         <v>38504</v>
       </c>
@@ -28781,7 +28823,7 @@
         <v>2.5821596244131433</v>
       </c>
     </row>
-    <row r="180" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="7">
         <v>38534</v>
       </c>
@@ -28942,7 +28984,7 @@
         <v>3.3606877686596301</v>
       </c>
     </row>
-    <row r="181" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7">
         <v>38565</v>
       </c>
@@ -29103,7 +29145,7 @@
         <v>3.8251366120218631</v>
       </c>
     </row>
-    <row r="182" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="7">
         <v>38596</v>
       </c>
@@ -29264,7 +29306,7 @@
         <v>4.5098039215686274</v>
       </c>
     </row>
-    <row r="183" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="7">
         <v>38626</v>
       </c>
@@ -29425,7 +29467,7 @@
         <v>4.2884990253411299</v>
       </c>
     </row>
-    <row r="184" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="7">
         <v>38657</v>
       </c>
@@ -29586,7 +29628,7 @@
         <v>4.0729247478665629</v>
       </c>
     </row>
-    <row r="185" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="7">
         <v>38687</v>
       </c>
@@ -29747,7 +29789,7 @@
         <v>4.2602633617350891</v>
       </c>
     </row>
-    <row r="186" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="7">
         <v>38718</v>
       </c>
@@ -29908,7 +29950,7 @@
         <v>4.9478160030923899</v>
       </c>
     </row>
-    <row r="187" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="7">
         <v>38749</v>
       </c>
@@ -30069,7 +30111,7 @@
         <v>5.1252408477842053</v>
       </c>
     </row>
-    <row r="188" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="7">
         <v>38777</v>
       </c>
@@ -30230,7 +30272,7 @@
         <v>5.0574712643678117</v>
       </c>
     </row>
-    <row r="189" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="7">
         <v>38808</v>
       </c>
@@ -30391,7 +30433,7 @@
         <v>5.2330022918258168</v>
       </c>
     </row>
-    <row r="190" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="7">
         <v>38838</v>
       </c>
@@ -30552,7 +30594,7 @@
         <v>5.4136484940907312</v>
       </c>
     </row>
-    <row r="191" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="7">
         <v>38869</v>
       </c>
@@ -30713,7 +30755,7 @@
         <v>5.8352402745995473</v>
       </c>
     </row>
-    <row r="192" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="7">
         <v>38899</v>
       </c>
@@ -30874,7 +30916,7 @@
         <v>4.9149338374291114</v>
       </c>
     </row>
-    <row r="193" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="7">
         <v>38930</v>
       </c>
@@ -31035,7 +31077,7 @@
         <v>4.9248120300751967</v>
       </c>
     </row>
-    <row r="194" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="7">
         <v>38961</v>
       </c>
@@ -31196,7 +31238,7 @@
         <v>4.9155722326454123</v>
       </c>
     </row>
-    <row r="195" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="7">
         <v>38991</v>
       </c>
@@ -31357,7 +31399,7 @@
         <v>4.6728971962616823</v>
       </c>
     </row>
-    <row r="196" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="7">
         <v>39022</v>
       </c>
@@ -31518,7 +31560,7 @@
         <v>4.7707789787551285</v>
       </c>
     </row>
-    <row r="197" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="7">
         <v>39052</v>
       </c>
@@ -31679,7 +31721,7 @@
         <v>5.3863298662704313</v>
       </c>
     </row>
-    <row r="198" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="7">
         <v>39083</v>
       </c>
@@ -31840,7 +31882,7 @@
         <v>4.8987108655616982</v>
       </c>
     </row>
-    <row r="199" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="7">
         <v>39114</v>
       </c>
@@ -32001,7 +32043,7 @@
         <v>4.7287390029325431</v>
       </c>
     </row>
-    <row r="200" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="7">
         <v>39142</v>
       </c>
@@ -32162,7 +32204,7 @@
         <v>4.7410649161196208</v>
       </c>
     </row>
-    <row r="201" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="7">
         <v>39173</v>
       </c>
@@ -32323,7 +32365,7 @@
         <v>4.13793103448275</v>
       </c>
     </row>
-    <row r="202" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="7">
         <v>39203</v>
       </c>
@@ -32484,7 +32526,7 @@
         <v>4.1229656419529759</v>
       </c>
     </row>
-    <row r="203" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="7">
         <v>39234</v>
       </c>
@@ -32645,7 +32687,7 @@
         <v>3.855855855855852</v>
       </c>
     </row>
-    <row r="204" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="7">
         <v>39264</v>
       </c>
@@ -32806,7 +32848,7 @@
         <v>4.1801801801801881</v>
       </c>
     </row>
-    <row r="205" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="7">
         <v>39295</v>
       </c>
@@ -32967,7 +33009,7 @@
         <v>3.7262629881762726</v>
       </c>
     </row>
-    <row r="206" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="7">
         <v>39326</v>
       </c>
@@ -33128,7 +33170,7 @@
         <v>3.7911301859799589</v>
       </c>
     </row>
-    <row r="207" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="7">
         <v>39356</v>
       </c>
@@ -33289,7 +33331,7 @@
         <v>4.03571428571429</v>
       </c>
     </row>
-    <row r="208" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="7">
         <v>39387</v>
       </c>
@@ -33450,7 +33492,7 @@
         <v>4.3045179651369496</v>
       </c>
     </row>
-    <row r="209" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="7">
         <v>39417</v>
       </c>
@@ -33611,7 +33653,7 @@
         <v>3.7363412054987744</v>
       </c>
     </row>
-    <row r="210" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="7">
         <v>39448</v>
       </c>
@@ -33772,7 +33814,7 @@
         <v>3.8623595505617976</v>
       </c>
     </row>
-    <row r="211" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7">
         <v>39479</v>
       </c>
@@ -33933,7 +33975,7 @@
         <v>3.7801890094504769</v>
       </c>
     </row>
-    <row r="212" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="7">
         <v>39508</v>
       </c>
@@ -34094,7 +34136,7 @@
         <v>3.3077994428969362</v>
       </c>
     </row>
-    <row r="213" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="7">
         <v>39539</v>
       </c>
@@ -34255,7 +34297,7 @@
         <v>3.485535029627048</v>
       </c>
     </row>
-    <row r="214" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="7">
         <v>39569</v>
       </c>
@@ -34416,7 +34458,7 @@
         <v>3.5081625564432173</v>
       </c>
     </row>
-    <row r="215" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="7">
         <v>39600</v>
       </c>
@@ -34577,7 +34619,7 @@
         <v>3.3657182512144308</v>
       </c>
     </row>
-    <row r="216" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="7">
         <v>39630</v>
       </c>
@@ -34738,7 +34780,7 @@
         <v>3.2514700795572384</v>
       </c>
     </row>
-    <row r="217" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="7">
         <v>39661</v>
       </c>
@@ -34899,7 +34941,7 @@
         <v>3.0051813471502551</v>
       </c>
     </row>
-    <row r="218" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="7">
         <v>39692</v>
       </c>
@@ -35060,7 +35102,7 @@
         <v>3.032391454169542</v>
       </c>
     </row>
-    <row r="219" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="7">
         <v>39722</v>
       </c>
@@ -35221,7 +35263,7 @@
         <v>2.9179539993134225</v>
       </c>
     </row>
-    <row r="220" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="7">
         <v>39753</v>
       </c>
@@ -35382,7 +35424,7 @@
         <v>2.0122783083219762</v>
       </c>
     </row>
-    <row r="221" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="7">
         <v>39783</v>
       </c>
@@ -35543,7 +35585,7 @@
         <v>1.1213047910295655</v>
       </c>
     </row>
-    <row r="222" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="7">
         <v>39814</v>
       </c>
@@ -35704,7 +35746,7 @@
         <v>-0.23664638269100358</v>
       </c>
     </row>
-    <row r="223" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="7">
         <v>39845</v>
       </c>
@@ -35865,7 +35907,7 @@
         <v>-1.2141652613828069</v>
       </c>
     </row>
-    <row r="224" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="7">
         <v>39873</v>
       </c>
@@ -36026,7 +36068,7 @@
         <v>-1.9211324570272965</v>
       </c>
     </row>
-    <row r="225" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="7">
         <v>39904</v>
       </c>
@@ -36187,7 +36229,7 @@
         <v>-3.0313236780060628</v>
       </c>
     </row>
-    <row r="226" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="7">
         <v>39934</v>
       </c>
@@ -36348,7 +36390,7 @@
         <v>-3.087248322147647</v>
       </c>
     </row>
-    <row r="227" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="7">
         <v>39965</v>
       </c>
@@ -36509,7 +36551,7 @@
         <v>-4.2631755622692138</v>
       </c>
     </row>
-    <row r="228" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="7">
         <v>39995</v>
       </c>
@@ -36670,7 +36712,7 @@
         <v>-5.025125628140704</v>
       </c>
     </row>
-    <row r="229" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="7">
         <v>40026</v>
       </c>
@@ -36831,7 +36873,7 @@
         <v>-5.3990610328638393</v>
       </c>
     </row>
-    <row r="230" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="7">
         <v>40057</v>
       </c>
@@ -36992,7 +37034,7 @@
         <v>-5.4515050167224119</v>
       </c>
     </row>
-    <row r="231" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="7">
         <v>40087</v>
       </c>
@@ -37153,7 +37195,7 @@
         <v>-6.3709139426284267</v>
       </c>
     </row>
-    <row r="232" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="7">
         <v>40118</v>
       </c>
@@ -37314,7 +37356,7 @@
         <v>-6.2186559679037181</v>
       </c>
     </row>
-    <row r="233" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="7">
         <v>40148</v>
       </c>
@@ -37475,7 +37517,7 @@
         <v>-5.9475806451613051</v>
       </c>
     </row>
-    <row r="234" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="7">
         <v>40179</v>
       </c>
@@ -37636,7 +37678,7 @@
         <v>-5.0830227041680782</v>
       </c>
     </row>
-    <row r="235" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="7">
         <v>40210</v>
       </c>
@@ -37797,7 +37839,7 @@
         <v>-4.267668146124957</v>
       </c>
     </row>
-    <row r="236" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="7">
         <v>40238</v>
       </c>
@@ -37958,7 +38000,7 @@
         <v>-3.4707903780068805</v>
       </c>
     </row>
-    <row r="237" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="7">
         <v>40269</v>
       </c>
@@ -38119,7 +38161,7 @@
         <v>-1.8409169850642428</v>
       </c>
     </row>
-    <row r="238" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="7">
         <v>40299</v>
       </c>
@@ -38280,7 +38322,7 @@
         <v>-1.835180055401666</v>
       </c>
     </row>
-    <row r="239" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="7">
         <v>40330</v>
       </c>
@@ -38441,7 +38483,7 @@
         <v>-0.73632538569423778</v>
       </c>
     </row>
-    <row r="240" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="7">
         <v>40360</v>
       </c>
@@ -38602,7 +38644,7 @@
         <v>-0.67019400352732883</v>
       </c>
     </row>
-    <row r="241" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="7">
         <v>40391</v>
       </c>
@@ -38763,7 +38805,7 @@
         <v>0.14179369018077889</v>
       </c>
     </row>
-    <row r="242" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="7">
         <v>40422</v>
       </c>
@@ -38924,7 +38966,7 @@
         <v>0.53059780686239832</v>
       </c>
     </row>
-    <row r="243" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="7">
         <v>40452</v>
       </c>
@@ -39085,7 +39127,7 @@
         <v>1.4250089063056646</v>
       </c>
     </row>
-    <row r="244" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="7">
         <v>40483</v>
       </c>
@@ -39246,7 +39288,7 @@
         <v>1.1051693404634662</v>
       </c>
     </row>
-    <row r="245" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="7">
         <v>40513</v>
       </c>
@@ -39407,7 +39449,7 @@
         <v>1.2504465880671671</v>
       </c>
     </row>
-    <row r="246" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="7">
         <v>40544</v>
       </c>
@@ -39568,7 +39610,7 @@
         <v>1.1781506604783842</v>
       </c>
     </row>
-    <row r="247" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="7">
         <v>40575</v>
       </c>
@@ -39729,7 +39771,7 @@
         <v>1.1768901569186918</v>
       </c>
     </row>
-    <row r="248" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="7">
         <v>40603</v>
       </c>
@@ -39890,7 +39932,7 @@
         <v>1.3171947312210914</v>
       </c>
     </row>
-    <row r="249" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="7">
         <v>40634</v>
       </c>
@@ -40051,7 +40093,7 @@
         <v>0.81387119603678493</v>
       </c>
     </row>
-    <row r="250" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="7">
         <v>40664</v>
       </c>
@@ -40212,7 +40254,7 @@
         <v>0.70546737213403876</v>
       </c>
     </row>
-    <row r="251" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="7">
         <v>40695</v>
       </c>
@@ -40373,7 +40415,7 @@
         <v>0.98904980572234336</v>
       </c>
     </row>
-    <row r="252" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="7">
         <v>40725</v>
       </c>
@@ -40534,7 +40576,7 @@
         <v>1.953125</v>
       </c>
     </row>
-    <row r="253" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="7">
         <v>40756</v>
       </c>
@@ -40695,7 +40737,7 @@
         <v>2.1592920353982379</v>
       </c>
     </row>
-    <row r="254" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="7">
         <v>40787</v>
       </c>
@@ -40856,7 +40898,7 @@
         <v>1.7945109078114085</v>
       </c>
     </row>
-    <row r="255" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="7">
         <v>40817</v>
       </c>
@@ -41017,7 +41059,7 @@
         <v>1.5454864769933383</v>
       </c>
     </row>
-    <row r="256" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="7">
         <v>40848</v>
       </c>
@@ -41178,7 +41220,7 @@
         <v>2.1509167842030905</v>
       </c>
     </row>
-    <row r="257" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="7">
         <v>40878</v>
       </c>
@@ -41339,7 +41381,7 @@
         <v>2.3994354269583669</v>
       </c>
     </row>
-    <row r="258" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="7">
         <v>40909</v>
       </c>
@@ -41500,7 +41542,7 @@
         <v>2.3641496118560501</v>
       </c>
     </row>
-    <row r="259" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A259" s="7">
         <v>40940</v>
       </c>
@@ -41661,7 +41703,7 @@
         <v>2.3616496298907257</v>
       </c>
     </row>
-    <row r="260" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A260" s="7">
         <v>40969</v>
       </c>
@@ -41822,7 +41864,7 @@
         <v>2.1082220660576247</v>
       </c>
     </row>
-    <row r="261" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A261" s="7">
         <v>41000</v>
       </c>
@@ -41983,7 +42025,7 @@
         <v>2.3868023868023909</v>
       </c>
     </row>
-    <row r="262" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="7">
         <v>41030</v>
       </c>
@@ -42144,7 +42186,7 @@
         <v>1.6112084063047365</v>
       </c>
     </row>
-    <row r="263" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A263" s="7">
         <v>41061</v>
       </c>
@@ -42305,7 +42347,7 @@
         <v>1.1542497376705183</v>
       </c>
     </row>
-    <row r="264" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" s="7">
         <v>41091</v>
       </c>
@@ -42466,7 +42508,7 @@
         <v>0.59212817833507081</v>
       </c>
     </row>
-    <row r="265" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A265" s="7">
         <v>41122</v>
       </c>
@@ -42627,7 +42669,7 @@
         <v>0.20790020790019606</v>
       </c>
     </row>
-    <row r="266" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="7">
         <v>41153</v>
       </c>
@@ -42788,7 +42830,7 @@
         <v>-3.4566194262019616E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267" s="7">
         <v>41183</v>
       </c>
@@ -42949,7 +42991,7 @@
         <v>6.9180214458660877E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="7">
         <v>41214</v>
       </c>
@@ -43110,7 +43152,7 @@
         <v>-3.4518467380036555E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A269" s="7">
         <v>41244</v>
       </c>
@@ -43271,7 +43313,7 @@
         <v>-3.4458993797369365E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="7">
         <v>41275</v>
       </c>
@@ -43432,7 +43474,7 @@
         <v>3.4470872113052706E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="7">
         <v>41306</v>
       </c>
@@ -43593,7 +43635,7 @@
         <v>-0.20661157024792215</v>
       </c>
     </row>
-    <row r="272" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="7">
         <v>41334</v>
       </c>
@@ -43754,7 +43796,7 @@
         <v>-0.10323468685478712</v>
       </c>
     </row>
-    <row r="273" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="7">
         <v>41365</v>
       </c>
@@ -43915,7 +43957,7 @@
         <v>-0.47994514912580644</v>
       </c>
     </row>
-    <row r="274" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="7">
         <v>41395</v>
       </c>
@@ -44076,7 +44118,7 @@
         <v>0.13788348845224999</v>
       </c>
     </row>
-    <row r="275" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="7">
         <v>41426</v>
       </c>
@@ -44237,7 +44279,7 @@
         <v>0.82987551867221099</v>
       </c>
     </row>
-    <row r="276" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="7">
         <v>41456</v>
       </c>
@@ -44398,7 +44440,7 @@
         <v>0.65789473684209732</v>
       </c>
     </row>
-    <row r="277" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="7">
         <v>41487</v>
       </c>
@@ -44559,7 +44601,7 @@
         <v>0.44951590594744517</v>
       </c>
     </row>
-    <row r="278" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="7">
         <v>41518</v>
       </c>
@@ -44720,7 +44762,7 @@
         <v>0.41493775933609567</v>
       </c>
     </row>
-    <row r="279" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="7">
         <v>41548</v>
       </c>
@@ -44881,7 +44923,7 @@
         <v>0.5530591081921763</v>
       </c>
     </row>
-    <row r="280" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="7">
         <v>41579</v>
       </c>
@@ -45042,7 +45084,7 @@
         <v>0.34530386740331492</v>
       </c>
     </row>
-    <row r="281" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="7">
         <v>41609</v>
       </c>
@@ -45203,7 +45245,7 @@
         <v>0.27576697690449997</v>
       </c>
     </row>
-    <row r="282" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="7">
         <v>41640</v>
       </c>
@@ -45364,7 +45406,7 @@
         <v>0.5513439007581058</v>
       </c>
     </row>
-    <row r="283" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="7">
         <v>41671</v>
       </c>
@@ -45525,7 +45567,7 @@
         <v>0.72463768115940852</v>
       </c>
     </row>
-    <row r="284" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="7">
         <v>41699</v>
       </c>
@@ -45686,7 +45728,7 @@
         <v>0.68894247330347913</v>
       </c>
     </row>
-    <row r="285" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="7">
         <v>41730</v>
       </c>
@@ -45847,7 +45889,7 @@
         <v>1.2056493282810885</v>
       </c>
     </row>
-    <row r="286" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="7">
         <v>41760</v>
       </c>
@@ -46008,7 +46050,7 @@
         <v>1.4802065404475082</v>
       </c>
     </row>
-    <row r="287" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="7">
         <v>41791</v>
       </c>
@@ -46169,7 +46211,7 @@
         <v>1.2345679012345561</v>
       </c>
     </row>
-    <row r="288" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="7">
         <v>41821</v>
       </c>
@@ -46330,7 +46372,7 @@
         <v>1.5479876160990713</v>
       </c>
     </row>
-    <row r="289" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="7">
         <v>41852</v>
       </c>
@@ -46491,7 +46533,7 @@
         <v>1.4457831325301165</v>
       </c>
     </row>
-    <row r="290" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="7">
         <v>41883</v>
       </c>
@@ -46652,7 +46694,7 @@
         <v>1.721763085399449</v>
       </c>
     </row>
-    <row r="291" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" s="7">
         <v>41913</v>
       </c>
@@ -46813,7 +46855,7 @@
         <v>1.7875558611206759</v>
       </c>
     </row>
-    <row r="292" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="7">
         <v>41944</v>
       </c>
@@ -46974,7 +47016,7 @@
         <v>1.6173434273915994</v>
       </c>
     </row>
-    <row r="293" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="7">
         <v>41974</v>
       </c>
@@ -47135,7 +47177,7 @@
         <v>1.6500515641113827</v>
       </c>
     </row>
-    <row r="294" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="7">
         <v>42005</v>
       </c>
@@ -47296,7 +47338,7 @@
         <v>1.5421521590130225</v>
       </c>
     </row>
-    <row r="295" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="7">
         <v>42036</v>
       </c>
@@ -47457,7 +47499,7 @@
         <v>1.301815690304903</v>
       </c>
     </row>
-    <row r="296" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="7">
         <v>42064</v>
       </c>
@@ -47618,7 +47660,7 @@
         <v>0.88949709202872584</v>
       </c>
     </row>
-    <row r="297" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="7">
         <v>42095</v>
       </c>
@@ -47779,7 +47821,7 @@
         <v>6.8073519400949148E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="7">
         <v>42125</v>
       </c>
@@ -47940,7 +47982,7 @@
         <v>-0.74626865671641396</v>
       </c>
     </row>
-    <row r="299" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="7">
         <v>42156</v>
       </c>
@@ -48101,7 +48143,7 @@
         <v>-1.2195121951219396</v>
       </c>
     </row>
-    <row r="300" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300" s="7">
         <v>42186</v>
       </c>
@@ -48262,7 +48304,7 @@
         <v>-1.1178861788617924</v>
       </c>
     </row>
-    <row r="301" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="7">
         <v>42217</v>
       </c>
@@ -48423,7 +48465,7 @@
         <v>-0.91618595181540174</v>
       </c>
     </row>
-    <row r="302" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="7">
         <v>42248</v>
       </c>
@@ -48584,7 +48626,7 @@
         <v>-1.3202437373053411</v>
       </c>
     </row>
-    <row r="303" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="7">
         <v>42278</v>
       </c>
@@ -48745,7 +48787,7 @@
         <v>-1.8237082066869414</v>
       </c>
     </row>
-    <row r="304" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="7">
         <v>42309</v>
       </c>
@@ -48906,7 +48948,7 @@
         <v>-2.031832035218422</v>
       </c>
     </row>
-    <row r="305" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:53" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="7">
         <v>42339</v>
       </c>
@@ -50520,160 +50562,160 @@
       <c r="A315" s="7">
         <v>42644</v>
       </c>
-      <c r="B315" s="9">
+      <c r="B315" s="8">
         <v>1.7057808576598819</v>
       </c>
-      <c r="C315" s="9">
+      <c r="C315" s="8">
         <v>1.2561274509803875</v>
       </c>
-      <c r="D315" s="9">
+      <c r="D315" s="8">
         <v>-2.1604024859425732</v>
       </c>
-      <c r="E315" s="9">
+      <c r="E315" s="8">
         <v>2.6498778425108065</v>
       </c>
-      <c r="F315" s="9">
+      <c r="F315" s="8">
         <v>1.2962507178603622</v>
       </c>
-      <c r="G315" s="9">
+      <c r="G315" s="8">
         <v>2.3157933656648773</v>
       </c>
-      <c r="H315" s="9">
+      <c r="H315" s="8">
         <v>2.4146284285379278</v>
       </c>
-      <c r="I315" s="9">
+      <c r="I315" s="8">
         <v>9.5374344301391065E-2</v>
       </c>
-      <c r="J315" s="9">
+      <c r="J315" s="8">
         <v>0.84425683181514211</v>
       </c>
-      <c r="K315" s="9">
+      <c r="K315" s="8">
         <v>1.3532671736048461</v>
       </c>
-      <c r="L315" s="9">
+      <c r="L315" s="8">
         <v>3.1339170304611854</v>
       </c>
-      <c r="M315" s="9">
+      <c r="M315" s="8">
         <v>2.868108862526173</v>
       </c>
-      <c r="N315" s="9">
+      <c r="N315" s="8">
         <v>1.3549291387634217</v>
       </c>
-      <c r="O315" s="9">
+      <c r="O315" s="8">
         <v>3.6430678466076762</v>
       </c>
-      <c r="P315" s="9">
+      <c r="P315" s="8">
         <v>0.390052006934267</v>
       </c>
-      <c r="Q315" s="9">
+      <c r="Q315" s="8">
         <v>1.7357351445352263</v>
       </c>
-      <c r="R315" s="9">
+      <c r="R315" s="8">
         <v>0.63327576280944742</v>
       </c>
-      <c r="S315" s="9">
+      <c r="S315" s="8">
         <v>0.42665149683566811</v>
       </c>
-      <c r="T315" s="9">
+      <c r="T315" s="8">
         <v>1.3293943870014795</v>
       </c>
-      <c r="U315" s="9">
+      <c r="U315" s="8">
         <v>-1.228932584269663</v>
       </c>
-      <c r="V315" s="9">
+      <c r="V315" s="8">
         <v>0.78534031413611816</v>
       </c>
-      <c r="W315" s="9">
+      <c r="W315" s="8">
         <v>1.1821561338290032</v>
       </c>
-      <c r="X315" s="9">
+      <c r="X315" s="8">
         <v>1.5684937345494789</v>
       </c>
-      <c r="Y315" s="9">
+      <c r="Y315" s="8">
         <v>2.3591210749712603</v>
       </c>
-      <c r="Z315" s="9">
+      <c r="Z315" s="8">
         <v>1.4617128902843219</v>
       </c>
-      <c r="AA315" s="9">
+      <c r="AA315" s="8">
         <v>0.54343062494520267</v>
       </c>
-      <c r="AB315" s="9">
+      <c r="AB315" s="8">
         <v>1.7683056998505757</v>
       </c>
-      <c r="AC315" s="9">
+      <c r="AC315" s="8">
         <v>1.2723743799870679</v>
       </c>
-      <c r="AD315" s="9">
+      <c r="AD315" s="8">
         <v>0.7624517278938554</v>
       </c>
-      <c r="AE315" s="9">
+      <c r="AE315" s="8">
         <v>3.4854445318646698</v>
       </c>
-      <c r="AF315" s="9">
+      <c r="AF315" s="8">
         <v>2.2441243366186434</v>
       </c>
-      <c r="AG315" s="9">
+      <c r="AG315" s="8">
         <v>1.4239017383982964</v>
       </c>
-      <c r="AH315" s="9">
+      <c r="AH315" s="8">
         <v>0.27761013880506391</v>
       </c>
-      <c r="AI315" s="9">
+      <c r="AI315" s="8">
         <v>1.1260318380403358</v>
       </c>
-      <c r="AJ315" s="9">
+      <c r="AJ315" s="8">
         <v>2.1774250193158666</v>
       </c>
-      <c r="AK315" s="9">
+      <c r="AK315" s="8">
         <v>-2.3547880690737837</v>
       </c>
-      <c r="AL315" s="9">
+      <c r="AL315" s="8">
         <v>0.85769908903907977</v>
       </c>
-      <c r="AM315" s="9">
+      <c r="AM315" s="8">
         <v>-0.86413826212194489</v>
       </c>
-      <c r="AN315" s="9">
+      <c r="AN315" s="8">
         <v>2.6942774437764343</v>
       </c>
-      <c r="AO315" s="9">
+      <c r="AO315" s="8">
         <v>1.0519113999828957</v>
       </c>
-      <c r="AP315" s="9">
+      <c r="AP315" s="8">
         <v>0.86242299794660959</v>
       </c>
-      <c r="AQ315" s="9">
+      <c r="AQ315" s="8">
         <v>1.7133264207771712</v>
       </c>
-      <c r="AR315" s="9">
+      <c r="AR315" s="8">
         <v>1.1646866992778944</v>
       </c>
-      <c r="AS315" s="9">
+      <c r="AS315" s="8">
         <v>2.3598314895365995</v>
       </c>
-      <c r="AT315" s="9">
+      <c r="AT315" s="8">
         <v>1.2651011494060114</v>
       </c>
-      <c r="AU315" s="9">
+      <c r="AU315" s="8">
         <v>3.5381082244868631</v>
       </c>
-      <c r="AV315" s="9">
+      <c r="AV315" s="8">
         <v>0.67350865939703841</v>
       </c>
-      <c r="AW315" s="9">
+      <c r="AW315" s="8">
         <v>1.1814866183798223</v>
       </c>
-      <c r="AX315" s="9">
+      <c r="AX315" s="8">
         <v>3.4429388167661648</v>
       </c>
-      <c r="AY315" s="9">
+      <c r="AY315" s="8">
         <v>-1.2844279661017008</v>
       </c>
-      <c r="AZ315" s="9">
+      <c r="AZ315" s="8">
         <v>0.99265846344741071</v>
       </c>
-      <c r="BA315" s="9">
+      <c r="BA315" s="8">
         <v>-4.7127622979016133</v>
       </c>
     </row>
@@ -50681,160 +50723,160 @@
       <c r="A316" s="7">
         <v>42675</v>
       </c>
-      <c r="B316" s="9">
+      <c r="B316" s="8">
         <v>1.6269269002982232</v>
       </c>
-      <c r="C316" s="9">
+      <c r="C316" s="8">
         <v>1.1731701096659015</v>
       </c>
-      <c r="D316" s="9">
+      <c r="D316" s="8">
         <v>-2.1938926771420197</v>
       </c>
-      <c r="E316" s="9">
+      <c r="E316" s="8">
         <v>2.3330832708176974</v>
       </c>
-      <c r="F316" s="9">
+      <c r="F316" s="8">
         <v>1.1065573770491803</v>
       </c>
-      <c r="G316" s="9">
+      <c r="G316" s="8">
         <v>2.3279420721391215</v>
       </c>
-      <c r="H316" s="9">
+      <c r="H316" s="8">
         <v>2.0304766358782458</v>
       </c>
-      <c r="I316" s="9">
+      <c r="I316" s="8">
         <v>-2.9784952641925301E-2</v>
       </c>
-      <c r="J316" s="9">
+      <c r="J316" s="8">
         <v>0.5985369097761003</v>
       </c>
-      <c r="K316" s="9">
+      <c r="K316" s="8">
         <v>1.1844985193768418</v>
       </c>
-      <c r="L316" s="9">
+      <c r="L316" s="8">
         <v>3.0985230657022989</v>
       </c>
-      <c r="M316" s="9">
+      <c r="M316" s="8">
         <v>2.8666341440750935</v>
       </c>
-      <c r="N316" s="9">
+      <c r="N316" s="8">
         <v>1.4795203239370815</v>
       </c>
-      <c r="O316" s="9">
+      <c r="O316" s="8">
         <v>3.644914756025877</v>
       </c>
-      <c r="P316" s="9">
+      <c r="P316" s="8">
         <v>0.33337222675978867</v>
       </c>
-      <c r="Q316" s="9">
+      <c r="Q316" s="8">
         <v>1.7779960707269216</v>
       </c>
-      <c r="R316" s="9">
+      <c r="R316" s="8">
         <v>0.40925949609925127</v>
       </c>
-      <c r="S316" s="9">
+      <c r="S316" s="8">
         <v>0.11370904697605973</v>
       </c>
-      <c r="T316" s="9">
+      <c r="T316" s="8">
         <v>1.3994107744107815</v>
       </c>
-      <c r="U316" s="9">
+      <c r="U316" s="8">
         <v>-1.1961001105638736</v>
       </c>
-      <c r="V316" s="9">
+      <c r="V316" s="8">
         <v>0.83333333333333692</v>
       </c>
-      <c r="W316" s="9">
+      <c r="W316" s="8">
         <v>1.1105746016417053</v>
       </c>
-      <c r="X316" s="9">
+      <c r="X316" s="8">
         <v>1.6307893020221786</v>
       </c>
-      <c r="Y316" s="9">
+      <c r="Y316" s="8">
         <v>2.2807099704959404</v>
       </c>
-      <c r="Z316" s="9">
+      <c r="Z316" s="8">
         <v>1.5322468310349633</v>
       </c>
-      <c r="AA316" s="9">
+      <c r="AA316" s="8">
         <v>0.52594670406732114</v>
       </c>
-      <c r="AB316" s="9">
+      <c r="AB316" s="8">
         <v>1.6972021019741417</v>
       </c>
-      <c r="AC316" s="9">
+      <c r="AC316" s="8">
         <v>1.6580534022394586</v>
       </c>
-      <c r="AD316" s="9">
+      <c r="AD316" s="8">
         <v>1.0582533873998548</v>
       </c>
-      <c r="AE316" s="9">
+      <c r="AE316" s="8">
         <v>3.4352941176470551</v>
       </c>
-      <c r="AF316" s="9">
+      <c r="AF316" s="8">
         <v>2.0121028744326712</v>
       </c>
-      <c r="AG316" s="9">
+      <c r="AG316" s="8">
         <v>1.28122681177344</v>
       </c>
-      <c r="AH316" s="9">
+      <c r="AH316" s="8">
         <v>0.71127185051235409</v>
       </c>
-      <c r="AI316" s="9">
+      <c r="AI316" s="8">
         <v>1.1708446808054265</v>
       </c>
-      <c r="AJ316" s="9">
+      <c r="AJ316" s="8">
         <v>2.2052983226650382</v>
       </c>
-      <c r="AK316" s="9">
+      <c r="AK316" s="8">
         <v>-2.2072072072072095</v>
       </c>
-      <c r="AL316" s="9">
+      <c r="AL316" s="8">
         <v>0.95982675402375128</v>
       </c>
-      <c r="AM316" s="9">
+      <c r="AM316" s="8">
         <v>-0.9370494954348817</v>
       </c>
-      <c r="AN316" s="9">
+      <c r="AN316" s="8">
         <v>2.6191665279396288</v>
       </c>
-      <c r="AO316" s="9">
+      <c r="AO316" s="8">
         <v>1.0423074294306609</v>
       </c>
-      <c r="AP316" s="9">
+      <c r="AP316" s="8">
         <v>0.8813281410125049</v>
       </c>
-      <c r="AQ316" s="9">
+      <c r="AQ316" s="8">
         <v>1.9716088328075823</v>
       </c>
-      <c r="AR316" s="9">
+      <c r="AR316" s="8">
         <v>1.2090211578702599</v>
       </c>
-      <c r="AS316" s="9">
+      <c r="AS316" s="8">
         <v>2.2707065180220263</v>
       </c>
-      <c r="AT316" s="9">
+      <c r="AT316" s="8">
         <v>1.5448060819929179</v>
       </c>
-      <c r="AU316" s="9">
+      <c r="AU316" s="8">
         <v>3.5141711995419342</v>
       </c>
-      <c r="AV316" s="9">
+      <c r="AV316" s="8">
         <v>0.19230769230769962</v>
       </c>
-      <c r="AW316" s="9">
+      <c r="AW316" s="8">
         <v>0.84361137465063429</v>
       </c>
-      <c r="AX316" s="9">
+      <c r="AX316" s="8">
         <v>3.4401285322748261</v>
       </c>
-      <c r="AY316" s="9">
+      <c r="AY316" s="8">
         <v>0.10615711252653325</v>
       </c>
-      <c r="AZ316" s="9">
+      <c r="AZ316" s="8">
         <v>1.109732561345474</v>
       </c>
-      <c r="BA316" s="9">
+      <c r="BA316" s="8">
         <v>-4.3899066712754884</v>
       </c>
     </row>
@@ -50842,160 +50884,160 @@
       <c r="A317" s="7">
         <v>42705</v>
       </c>
-      <c r="B317" s="9">
+      <c r="B317" s="8">
         <v>1.5655030226788273</v>
       </c>
-      <c r="C317" s="9">
+      <c r="C317" s="8">
         <v>1.126631321370317</v>
       </c>
-      <c r="D317" s="9">
+      <c r="D317" s="8">
         <v>-2.1971496437054734</v>
       </c>
-      <c r="E317" s="9">
+      <c r="E317" s="8">
         <v>2.6146978279626469</v>
       </c>
-      <c r="F317" s="9">
+      <c r="F317" s="8">
         <v>1.1940786783348252</v>
       </c>
-      <c r="G317" s="9">
+      <c r="G317" s="8">
         <v>2.1858494042501011</v>
       </c>
-      <c r="H317" s="9">
+      <c r="H317" s="8">
         <v>1.8873064051677171</v>
       </c>
-      <c r="I317" s="9">
+      <c r="I317" s="8">
         <v>-1.1921082434287744E-2</v>
       </c>
-      <c r="J317" s="9">
+      <c r="J317" s="8">
         <v>0.70921985815602584</v>
       </c>
-      <c r="K317" s="9">
+      <c r="K317" s="8">
         <v>1.0910024387113335</v>
       </c>
-      <c r="L317" s="9">
+      <c r="L317" s="8">
         <v>2.9631425800193942</v>
       </c>
-      <c r="M317" s="9">
+      <c r="M317" s="8">
         <v>2.6616057583261972</v>
       </c>
-      <c r="N317" s="9">
+      <c r="N317" s="8">
         <v>1.0854396030392308</v>
       </c>
-      <c r="O317" s="9">
+      <c r="O317" s="8">
         <v>3.8433328443596788</v>
       </c>
-      <c r="P317" s="9">
+      <c r="P317" s="8">
         <v>0.31487405037985716</v>
       </c>
-      <c r="Q317" s="9">
-        <v>1.4644830178810821</v>
-      </c>
-      <c r="R317" s="9">
+      <c r="Q317" s="8">
+        <v>1.6181229773462786</v>
+      </c>
+      <c r="R317" s="8">
         <v>0.40884119074995928</v>
       </c>
-      <c r="S317" s="9">
+      <c r="S317" s="8">
         <v>0.14910536779323408</v>
       </c>
-      <c r="T317" s="9">
+      <c r="T317" s="8">
         <v>1.6313213703099512</v>
       </c>
-      <c r="U317" s="9">
+      <c r="U317" s="8">
         <v>-0.8310249307479225</v>
       </c>
-      <c r="V317" s="9">
+      <c r="V317" s="8">
         <v>0.70112506114463857</v>
       </c>
-      <c r="W317" s="9">
+      <c r="W317" s="8">
         <v>1.3133486681012128</v>
       </c>
-      <c r="X317" s="9">
+      <c r="X317" s="8">
         <v>1.5862225243598458</v>
       </c>
-      <c r="Y317" s="9">
+      <c r="Y317" s="8">
         <v>2.1606453875832954</v>
       </c>
-      <c r="Z317" s="9">
+      <c r="Z317" s="8">
         <v>1.7271397729646878</v>
       </c>
-      <c r="AA317" s="9">
+      <c r="AA317" s="8">
         <v>0.15745276417074477</v>
       </c>
-      <c r="AB317" s="9">
+      <c r="AB317" s="8">
         <v>1.8369445725025615</v>
       </c>
-      <c r="AC317" s="9">
+      <c r="AC317" s="8">
         <v>1.4626801462680172</v>
       </c>
-      <c r="AD317" s="9">
+      <c r="AD317" s="8">
         <v>0.98823994465856313</v>
       </c>
-      <c r="AE317" s="9">
+      <c r="AE317" s="8">
         <v>3.2184985548004099</v>
       </c>
-      <c r="AF317" s="9">
+      <c r="AF317" s="8">
         <v>1.8137847642079805</v>
       </c>
-      <c r="AG317" s="9">
+      <c r="AG317" s="8">
         <v>1.4561906645569529</v>
       </c>
-      <c r="AH317" s="9">
+      <c r="AH317" s="8">
         <v>1.0755287009063417</v>
       </c>
-      <c r="AI317" s="9">
+      <c r="AI317" s="8">
         <v>1.343633811569819</v>
       </c>
-      <c r="AJ317" s="9">
+      <c r="AJ317" s="8">
         <v>2.1918063748921588</v>
       </c>
-      <c r="AK317" s="9">
+      <c r="AK317" s="8">
         <v>-1.9217725525661316</v>
       </c>
-      <c r="AL317" s="9">
+      <c r="AL317" s="8">
         <v>0.91125779244590788</v>
       </c>
-      <c r="AM317" s="9">
+      <c r="AM317" s="8">
         <v>-0.75775799855664605</v>
       </c>
-      <c r="AN317" s="9">
+      <c r="AN317" s="8">
         <v>2.5520372010628822</v>
       </c>
-      <c r="AO317" s="9">
+      <c r="AO317" s="8">
         <v>1.0400655804898136</v>
       </c>
-      <c r="AP317" s="9">
+      <c r="AP317" s="8">
         <v>0.55259926320098007</v>
       </c>
-      <c r="AQ317" s="9">
+      <c r="AQ317" s="8">
         <v>1.7893132772943945</v>
       </c>
-      <c r="AR317" s="9">
+      <c r="AR317" s="8">
         <v>1.1147236414305512</v>
       </c>
-      <c r="AS317" s="9">
+      <c r="AS317" s="8">
         <v>2.1493637201050801</v>
       </c>
-      <c r="AT317" s="9">
+      <c r="AT317" s="8">
         <v>1.6225720026791635</v>
       </c>
-      <c r="AU317" s="9">
+      <c r="AU317" s="8">
         <v>3.5063914875383948</v>
       </c>
-      <c r="AV317" s="9">
+      <c r="AV317" s="8">
         <v>0.70580686557587058</v>
       </c>
-      <c r="AW317" s="9">
+      <c r="AW317" s="8">
         <v>0.85835810187557637</v>
       </c>
-      <c r="AX317" s="9">
+      <c r="AX317" s="8">
         <v>3.4412319296040224</v>
       </c>
-      <c r="AY317" s="9">
+      <c r="AY317" s="8">
         <v>-0.79702444208289058</v>
       </c>
-      <c r="AZ317" s="9">
+      <c r="AZ317" s="8">
         <v>0.90787165996079955</v>
       </c>
-      <c r="BA317" s="9">
+      <c r="BA317" s="8">
         <v>-3.9555863983344821</v>
       </c>
     </row>
@@ -51003,160 +51045,160 @@
       <c r="A318" s="7">
         <v>42736</v>
       </c>
-      <c r="B318" s="9">
-        <v>1.6423319437752686</v>
-      </c>
-      <c r="C318" s="9">
+      <c r="B318" s="8">
+        <v>1.6269699953215884</v>
+      </c>
+      <c r="C318" s="8">
         <v>1.4286440591794147</v>
       </c>
-      <c r="D318" s="9">
+      <c r="D318" s="8">
         <v>-2.4085637823372053</v>
       </c>
-      <c r="E318" s="9">
+      <c r="E318" s="8">
         <v>2.1811515582326209</v>
       </c>
-      <c r="F318" s="9">
+      <c r="F318" s="8">
         <v>1.0804616517966805</v>
       </c>
-      <c r="G318" s="9">
+      <c r="G318" s="8">
         <v>2.0591768195523739</v>
       </c>
-      <c r="H318" s="9">
+      <c r="H318" s="8">
         <v>2.0768633540372674</v>
       </c>
-      <c r="I318" s="9">
+      <c r="I318" s="8">
         <v>0.36953152938371947</v>
       </c>
-      <c r="J318" s="9">
+      <c r="J318" s="8">
         <v>0.97474523704032656</v>
       </c>
-      <c r="K318" s="9">
+      <c r="K318" s="8">
         <v>1.2340917855765552</v>
       </c>
-      <c r="L318" s="9">
+      <c r="L318" s="8">
         <v>3.3765479876161084</v>
       </c>
-      <c r="M318" s="9">
+      <c r="M318" s="8">
         <v>2.6042749855574772</v>
       </c>
-      <c r="N318" s="9">
+      <c r="N318" s="8">
         <v>1.1515717398070304</v>
       </c>
-      <c r="O318" s="9">
+      <c r="O318" s="8">
         <v>4.0274332409163911</v>
       </c>
-      <c r="P318" s="9">
+      <c r="P318" s="8">
         <v>0.37122738093255103</v>
       </c>
-      <c r="Q318" s="9">
-        <v>1.3110263183641462</v>
-      </c>
-      <c r="R318" s="9">
+      <c r="Q318" s="8">
+        <v>1.4675667742882301</v>
+      </c>
+      <c r="R318" s="8">
         <v>0.58024612637889028</v>
       </c>
-      <c r="S318" s="9">
+      <c r="S318" s="8">
         <v>-0.17028522775649857</v>
       </c>
-      <c r="T318" s="9">
+      <c r="T318" s="8">
         <v>1.5753820301423096</v>
       </c>
-      <c r="U318" s="9">
+      <c r="U318" s="8">
         <v>-0.3430012610340456</v>
       </c>
-      <c r="V318" s="9">
+      <c r="V318" s="8">
         <v>1.0069839207406093</v>
       </c>
-      <c r="W318" s="9">
+      <c r="W318" s="8">
         <v>1.7238183503243742</v>
       </c>
-      <c r="X318" s="9">
+      <c r="X318" s="8">
         <v>1.6750134397193168</v>
       </c>
-      <c r="Y318" s="9">
+      <c r="Y318" s="8">
         <v>2.067647264505017</v>
       </c>
-      <c r="Z318" s="9">
+      <c r="Z318" s="8">
         <v>1.273951680088858</v>
       </c>
-      <c r="AA318" s="9">
+      <c r="AA318" s="8">
         <v>9.6027935399380968E-2</v>
       </c>
-      <c r="AB318" s="9">
+      <c r="AB318" s="8">
         <v>1.8839861179970188</v>
       </c>
-      <c r="AC318" s="9">
+      <c r="AC318" s="8">
         <v>1.9123334765792941</v>
       </c>
-      <c r="AD318" s="9">
+      <c r="AD318" s="8">
         <v>0.82137555665511663</v>
       </c>
-      <c r="AE318" s="9">
+      <c r="AE318" s="8">
         <v>3.4118475624070665</v>
       </c>
-      <c r="AF318" s="9">
+      <c r="AF318" s="8">
         <v>2.4853140533212836</v>
       </c>
-      <c r="AG318" s="9">
+      <c r="AG318" s="8">
         <v>1.7545593831858959</v>
       </c>
-      <c r="AH318" s="9">
+      <c r="AH318" s="8">
         <v>0.6035003017501509</v>
       </c>
-      <c r="AI318" s="9">
+      <c r="AI318" s="8">
         <v>1.4688890790824982</v>
       </c>
-      <c r="AJ318" s="9">
+      <c r="AJ318" s="8">
         <v>1.8641346086713764</v>
       </c>
-      <c r="AK318" s="9">
+      <c r="AK318" s="8">
         <v>-0.68446269678302529</v>
       </c>
-      <c r="AL318" s="9">
+      <c r="AL318" s="8">
         <v>0.6635590896627398</v>
       </c>
-      <c r="AM318" s="9">
+      <c r="AM318" s="8">
         <v>-0.54161400974905216</v>
       </c>
-      <c r="AN318" s="9">
+      <c r="AN318" s="8">
         <v>2.2793752414592392</v>
       </c>
-      <c r="AO318" s="9">
+      <c r="AO318" s="8">
         <v>1.1567399723610834</v>
       </c>
-      <c r="AP318" s="9">
+      <c r="AP318" s="8">
         <v>1.0038926449498007</v>
       </c>
-      <c r="AQ318" s="9">
+      <c r="AQ318" s="8">
         <v>1.9945959223777898</v>
       </c>
-      <c r="AR318" s="9">
+      <c r="AR318" s="8">
         <v>1.0223048327137627</v>
       </c>
-      <c r="AS318" s="9">
+      <c r="AS318" s="8">
         <v>2.2509790567001504</v>
       </c>
-      <c r="AT318" s="9">
+      <c r="AT318" s="8">
         <v>1.9032414450258341</v>
       </c>
-      <c r="AU318" s="9">
+      <c r="AU318" s="8">
         <v>3.2797381900967655</v>
       </c>
-      <c r="AV318" s="9">
+      <c r="AV318" s="8">
         <v>1.1527377521613722</v>
       </c>
-      <c r="AW318" s="9">
+      <c r="AW318" s="8">
         <v>1.3378871141698006</v>
       </c>
-      <c r="AX318" s="9">
+      <c r="AX318" s="8">
         <v>2.958765146059676</v>
       </c>
-      <c r="AY318" s="9">
+      <c r="AY318" s="8">
         <v>-0.67846215245443964</v>
       </c>
-      <c r="AZ318" s="9">
+      <c r="AZ318" s="8">
         <v>0.72985197368420118</v>
       </c>
-      <c r="BA318" s="9">
+      <c r="BA318" s="8">
         <v>-3.2044583768721857</v>
       </c>
     </row>
@@ -51164,161 +51206,644 @@
       <c r="A319" s="7">
         <v>42767</v>
       </c>
-      <c r="B319" s="9">
-        <v>1.6382243042775084</v>
-      </c>
-      <c r="C319" s="9">
-        <v>1.4790343074968186</v>
-      </c>
-      <c r="D319" s="9">
-        <v>-1.9940476190476157</v>
-      </c>
-      <c r="E319" s="9">
-        <v>2.1709127531798953</v>
-      </c>
-      <c r="F319" s="9">
-        <v>1.3309381889442276</v>
-      </c>
-      <c r="G319" s="9">
-        <v>1.9302824520332713</v>
-      </c>
-      <c r="H319" s="9">
-        <v>1.9487060282039435</v>
-      </c>
-      <c r="I319" s="9">
-        <v>0.12497768255669442</v>
-      </c>
-      <c r="J319" s="9">
-        <v>0.6634232640424591</v>
-      </c>
-      <c r="K319" s="9">
-        <v>0.53777208706786761</v>
-      </c>
-      <c r="L319" s="9">
-        <v>2.9996865279351743</v>
-      </c>
-      <c r="M319" s="9">
-        <v>2.6278179890277071</v>
-      </c>
-      <c r="N319" s="9">
-        <v>0.77459333849728895</v>
-      </c>
-      <c r="O319" s="9">
-        <v>3.5589773387565367</v>
-      </c>
-      <c r="P319" s="9">
-        <v>0.7822902796271638</v>
-      </c>
-      <c r="Q319" s="9">
-        <v>1.281550871714809</v>
-      </c>
-      <c r="R319" s="9">
-        <v>0.69448869066582297</v>
-      </c>
-      <c r="S319" s="9">
-        <v>-2.8336639274572369E-2</v>
-      </c>
-      <c r="T319" s="9">
+      <c r="B319" s="8">
+        <v>1.6207963861468964</v>
+      </c>
+      <c r="C319" s="8">
+        <v>1.5146124523506965</v>
+      </c>
+      <c r="D319" s="8">
+        <v>-1.755952380952374</v>
+      </c>
+      <c r="E319" s="8">
+        <v>2.2007534783095228</v>
+      </c>
+      <c r="F319" s="8">
+        <v>1.2982771290928279</v>
+      </c>
+      <c r="G319" s="8">
+        <v>1.9217251517392804</v>
+      </c>
+      <c r="H319" s="8">
+        <v>2.0610568727723648</v>
+      </c>
+      <c r="I319" s="8">
+        <v>0.22615009224542965</v>
+      </c>
+      <c r="J319" s="8">
+        <v>0.95090667846086052</v>
+      </c>
+      <c r="K319" s="8">
+        <v>0.93469910371318243</v>
+      </c>
+      <c r="L319" s="8">
+        <v>3.0575582937474204</v>
+      </c>
+      <c r="M319" s="8">
+        <v>2.729242542990193</v>
+      </c>
+      <c r="N319" s="8">
+        <v>0.74360960495739026</v>
+      </c>
+      <c r="O319" s="8">
+        <v>3.3265543288785562</v>
+      </c>
+      <c r="P319" s="8">
+        <v>0.60252996005325932</v>
+      </c>
+      <c r="Q319" s="8">
+        <v>1.466952901379128</v>
+      </c>
+      <c r="R319" s="8">
+        <v>0.73908888180948762</v>
+      </c>
+      <c r="S319" s="8">
+        <v>7.0841598186455093E-2</v>
+      </c>
+      <c r="T319" s="8">
         <v>1.3823437009110948</v>
       </c>
-      <c r="U319" s="9">
-        <v>0.15156107911488331</v>
-      </c>
-      <c r="V319" s="9">
-        <v>0.46978778551759132</v>
-      </c>
-      <c r="W319" s="9">
-        <v>2.1425658894613999</v>
-      </c>
-      <c r="X319" s="9">
-        <v>1.6272314504075076</v>
-      </c>
-      <c r="Y319" s="9">
-        <v>1.9234351713859996</v>
-      </c>
-      <c r="Z319" s="9">
-        <v>1.2792955207322179</v>
-      </c>
-      <c r="AA319" s="9">
-        <v>6.9741086217433704E-2</v>
-      </c>
-      <c r="AB319" s="9">
-        <v>1.9104900053069169</v>
-      </c>
-      <c r="AC319" s="9">
-        <v>2.4248927038626631</v>
-      </c>
-      <c r="AD319" s="9">
-        <v>1.3450697260409479</v>
-      </c>
-      <c r="AE319" s="9">
-        <v>3.2102228455664497</v>
-      </c>
-      <c r="AF319" s="9">
-        <v>1.665666266506606</v>
-      </c>
-      <c r="AG319" s="9">
-        <v>1.8168371749044696</v>
-      </c>
-      <c r="AH319" s="9">
-        <v>0.70939040519417784</v>
-      </c>
-      <c r="AI319" s="9">
-        <v>1.4441821464050215</v>
-      </c>
-      <c r="AJ319" s="9">
-        <v>1.7821920033416143</v>
-      </c>
-      <c r="AK319" s="9">
-        <v>-0.68634179821551122</v>
-      </c>
-      <c r="AL319" s="9">
-        <v>0.82898148486286438</v>
-      </c>
-      <c r="AM319" s="9">
-        <v>-0.42102730662817278</v>
-      </c>
-      <c r="AN319" s="9">
-        <v>2.1905023332418385</v>
-      </c>
-      <c r="AO319" s="9">
-        <v>1.2611629967959641</v>
-      </c>
-      <c r="AP319" s="9">
-        <v>1.2058042100960509</v>
-      </c>
-      <c r="AQ319" s="9">
-        <v>1.5668608921314318</v>
-      </c>
-      <c r="AR319" s="9">
-        <v>1.3704994192799018</v>
-      </c>
-      <c r="AS319" s="9">
-        <v>2.2446346101602797</v>
-      </c>
-      <c r="AT319" s="9">
-        <v>1.8570784415237518</v>
-      </c>
-      <c r="AU319" s="9">
-        <v>3.2530120481927778</v>
-      </c>
-      <c r="AV319" s="9">
-        <v>1.0879999999999928</v>
-      </c>
-      <c r="AW319" s="9">
-        <v>1.3703191434865016</v>
-      </c>
-      <c r="AX319" s="9">
-        <v>2.741221231210631</v>
-      </c>
-      <c r="AY319" s="9">
-        <v>-0.35952063914780902</v>
-      </c>
-      <c r="AZ319" s="9">
+      <c r="U319" s="8">
+        <v>0.21218551076082739</v>
+      </c>
+      <c r="V319" s="8">
+        <v>0.43738862789568206</v>
+      </c>
+      <c r="W319" s="8">
+        <v>2.0684286614523555</v>
+      </c>
+      <c r="X319" s="8">
+        <v>1.6582531938294856</v>
+      </c>
+      <c r="Y319" s="8">
+        <v>1.900149031296581</v>
+      </c>
+      <c r="Z319" s="8">
+        <v>1.3625017334627558</v>
+      </c>
+      <c r="AA319" s="8">
+        <v>-7.8458721994583189E-2</v>
+      </c>
+      <c r="AB319" s="8">
+        <v>1.9140279497611854</v>
+      </c>
+      <c r="AC319" s="8">
+        <v>2.3605150214592276</v>
+      </c>
+      <c r="AD319" s="8">
+        <v>1.3747403817624346</v>
+      </c>
+      <c r="AE319" s="8">
+        <v>3.3115162848683184</v>
+      </c>
+      <c r="AF319" s="8">
+        <v>1.740696278511408</v>
+      </c>
+      <c r="AG319" s="8">
+        <v>1.7749291260939233</v>
+      </c>
+      <c r="AH319" s="8">
+        <v>0.63724900805578388</v>
+      </c>
+      <c r="AI319" s="8">
+        <v>1.4559321490754804</v>
+      </c>
+      <c r="AJ319" s="8">
+        <v>1.8053976283851247</v>
+      </c>
+      <c r="AK319" s="8">
+        <v>-0.66346373827500205</v>
+      </c>
+      <c r="AL319" s="8">
+        <v>0.84358908812036326</v>
+      </c>
+      <c r="AM319" s="8">
+        <v>-0.39696860339227169</v>
+      </c>
+      <c r="AN319" s="8">
+        <v>2.1575624485314275</v>
+      </c>
+      <c r="AO319" s="8">
+        <v>1.4094348626354867</v>
+      </c>
+      <c r="AP319" s="8">
+        <v>1.226241569589209</v>
+      </c>
+      <c r="AQ319" s="8">
+        <v>1.6647896978896455</v>
+      </c>
+      <c r="AR319" s="8">
+        <v>1.4634146341463441</v>
+      </c>
+      <c r="AS319" s="8">
+        <v>2.0816354251561981</v>
+      </c>
+      <c r="AT319" s="8">
+        <v>1.9188697206032259</v>
+      </c>
+      <c r="AU319" s="8">
+        <v>3.2175761871013528</v>
+      </c>
+      <c r="AV319" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="AW319" s="8">
+        <v>1.4369140925157615</v>
+      </c>
+      <c r="AX319" s="8">
+        <v>2.7536955030250168</v>
+      </c>
+      <c r="AY319" s="8">
+        <v>-0.41278295605859155</v>
+      </c>
+      <c r="AZ319" s="8">
         <v>0.9648942722233721</v>
       </c>
-      <c r="BA319" s="9">
-        <v>-2.52100840336136</v>
+      <c r="BA319" s="8">
+        <v>-2.7661064425770423</v>
+      </c>
+    </row>
+    <row r="320" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A320" s="7">
+        <v>42795</v>
+      </c>
+      <c r="B320" s="8">
+        <v>1.496453752618794</v>
+      </c>
+      <c r="C320" s="8">
+        <v>1.5246226558926665</v>
+      </c>
+      <c r="D320" s="8">
+        <v>-2.0578586340590617</v>
+      </c>
+      <c r="E320" s="8">
+        <v>1.9031657355679668</v>
+      </c>
+      <c r="F320" s="8">
+        <v>1.108846310640025</v>
+      </c>
+      <c r="G320" s="8">
+        <v>2.14037534561648</v>
+      </c>
+      <c r="H320" s="8">
+        <v>1.8875952500676796</v>
+      </c>
+      <c r="I320" s="8">
+        <v>5.3450528566343442E-2</v>
+      </c>
+      <c r="J320" s="8">
+        <v>0.61769247738804578</v>
+      </c>
+      <c r="K320" s="8">
+        <v>0.96006144393241155</v>
+      </c>
+      <c r="L320" s="8">
+        <v>2.8129852309247911</v>
+      </c>
+      <c r="M320" s="8">
+        <v>3.100274503471653</v>
+      </c>
+      <c r="N320" s="8">
+        <v>0.69702602230483268</v>
+      </c>
+      <c r="O320" s="8">
+        <v>2.6506373117033704</v>
+      </c>
+      <c r="P320" s="8">
+        <v>0.44427435189190684</v>
+      </c>
+      <c r="Q320" s="8">
+        <v>1.4182551558129064</v>
+      </c>
+      <c r="R320" s="8">
+        <v>0.48966613672496317</v>
+      </c>
+      <c r="S320" s="8">
+        <v>0.22688598979011756</v>
+      </c>
+      <c r="T320" s="8">
+        <v>1.5875510845646117</v>
+      </c>
+      <c r="U320" s="8">
+        <v>-0.15680323722811881</v>
+      </c>
+      <c r="V320" s="8">
+        <v>0.8418326048243373</v>
+      </c>
+      <c r="W320" s="8">
+        <v>1.609858998556678</v>
+      </c>
+      <c r="X320" s="8">
+        <v>1.4033015551618462</v>
+      </c>
+      <c r="Y320" s="8">
+        <v>1.8563751831949238</v>
+      </c>
+      <c r="Z320" s="8">
+        <v>1.5460879814192243</v>
+      </c>
+      <c r="AA320" s="8">
+        <v>-6.1082024432813749E-2</v>
+      </c>
+      <c r="AB320" s="8">
+        <v>1.3150917382543315</v>
+      </c>
+      <c r="AC320" s="8">
+        <v>2.2084048027444276</v>
+      </c>
+      <c r="AD320" s="8">
+        <v>0.86785009861932494</v>
+      </c>
+      <c r="AE320" s="8">
+        <v>3.1271878646441111</v>
+      </c>
+      <c r="AF320" s="8">
+        <v>1.5183403487672742</v>
+      </c>
+      <c r="AG320" s="8">
+        <v>1.346859380001473</v>
+      </c>
+      <c r="AH320" s="8">
+        <v>0.92815814850529554</v>
+      </c>
+      <c r="AI320" s="8">
+        <v>1.0778826163441586</v>
+      </c>
+      <c r="AJ320" s="8">
+        <v>1.6118946710206437</v>
+      </c>
+      <c r="AK320" s="8">
+        <v>-0.27535566773749165</v>
+      </c>
+      <c r="AL320" s="8">
+        <v>0.66214293531794133</v>
+      </c>
+      <c r="AM320" s="8">
+        <v>-0.13874645593291637</v>
+      </c>
+      <c r="AN320" s="8">
+        <v>2.1056094752426309</v>
+      </c>
+      <c r="AO320" s="8">
+        <v>0.95682375374557016</v>
+      </c>
+      <c r="AP320" s="8">
+        <v>0.85609457806766986</v>
+      </c>
+      <c r="AQ320" s="8">
+        <v>1.5916548312845877</v>
+      </c>
+      <c r="AR320" s="8">
+        <v>1.6705336426914126</v>
+      </c>
+      <c r="AS320" s="8">
+        <v>2.2092708050962413</v>
+      </c>
+      <c r="AT320" s="8">
+        <v>2.1026065301142425</v>
+      </c>
+      <c r="AU320" s="8">
+        <v>3.1375874496502081</v>
+      </c>
+      <c r="AV320" s="8">
+        <v>0.9939083039435791</v>
+      </c>
+      <c r="AW320" s="8">
+        <v>1.1715053075840949</v>
+      </c>
+      <c r="AX320" s="8">
+        <v>2.9067596165816041</v>
+      </c>
+      <c r="AY320" s="8">
+        <v>-0.73157754722000534</v>
+      </c>
+      <c r="AZ320" s="8">
+        <v>0.82449538145740364</v>
+      </c>
+      <c r="BA320" s="8">
+        <v>-2.2136331693605098</v>
+      </c>
+    </row>
+    <row r="321" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A321" s="7">
+        <v>42826</v>
+      </c>
+      <c r="B321" s="8">
+        <v>1.5094628231335085</v>
+      </c>
+      <c r="C321" s="8">
+        <v>1.2981744421906649</v>
+      </c>
+      <c r="D321" s="8">
+        <v>-1.9994031632348686</v>
+      </c>
+      <c r="E321" s="8">
+        <v>1.8569412463789645</v>
+      </c>
+      <c r="F321" s="8">
+        <v>1.5098343262874399</v>
+      </c>
+      <c r="G321" s="8">
+        <v>1.4314816503998387</v>
+      </c>
+      <c r="H321" s="8">
+        <v>1.7295961701799158</v>
+      </c>
+      <c r="I321" s="8">
+        <v>0.23246110746855003</v>
+      </c>
+      <c r="J321" s="8">
+        <v>0.59602649006622266</v>
+      </c>
+      <c r="K321" s="8">
+        <v>0.51105148843746007</v>
+      </c>
+      <c r="L321" s="8">
+        <v>2.5824327404013294</v>
+      </c>
+      <c r="M321" s="8">
+        <v>2.6647676368564928</v>
+      </c>
+      <c r="N321" s="8">
+        <v>1.3186472230840831</v>
+      </c>
+      <c r="O321" s="8">
+        <v>2.6604973973394994</v>
+      </c>
+      <c r="P321" s="8">
+        <v>0.36622719403382609</v>
+      </c>
+      <c r="Q321" s="8">
+        <v>1.1575729986343211</v>
+      </c>
+      <c r="R321" s="8">
+        <v>0.37538970541451061</v>
+      </c>
+      <c r="S321" s="8">
+        <v>-0.12045631687097325</v>
+      </c>
+      <c r="T321" s="8">
+        <v>1.6349630561232535</v>
+      </c>
+      <c r="U321" s="8">
+        <v>-0.15184491572607178</v>
+      </c>
+      <c r="V321" s="8">
+        <v>0.63106796116504482</v>
+      </c>
+      <c r="W321" s="8">
+        <v>1.5347065567101807</v>
+      </c>
+      <c r="X321" s="8">
+        <v>1.5178395426769196</v>
+      </c>
+      <c r="Y321" s="8">
+        <v>1.7308494369525886</v>
+      </c>
+      <c r="Z321" s="8">
+        <v>1.7477807329625887</v>
+      </c>
+      <c r="AA321" s="8">
+        <v>7.8657577346605806E-2</v>
+      </c>
+      <c r="AB321" s="8">
+        <v>1.3062665489849956</v>
+      </c>
+      <c r="AC321" s="8">
+        <v>1.7112299465240641</v>
+      </c>
+      <c r="AD321" s="8">
+        <v>1.2055335968379493</v>
+      </c>
+      <c r="AE321" s="8">
+        <v>3.3157731639293426</v>
+      </c>
+      <c r="AF321" s="8">
+        <v>1.8004501125281318</v>
+      </c>
+      <c r="AG321" s="8">
+        <v>1.2942594916463648</v>
+      </c>
+      <c r="AH321" s="8">
+        <v>1.1438892233594222</v>
+      </c>
+      <c r="AI321" s="8">
+        <v>1.0289293170295297</v>
+      </c>
+      <c r="AJ321" s="8">
+        <v>1.1993899057127138</v>
+      </c>
+      <c r="AK321" s="8">
+        <v>0.34443168771526977</v>
+      </c>
+      <c r="AL321" s="8">
+        <v>0.58792382552175004</v>
+      </c>
+      <c r="AM321" s="8">
+        <v>-0.16318143357910178</v>
+      </c>
+      <c r="AN321" s="8">
+        <v>2.3101768215908494</v>
+      </c>
+      <c r="AO321" s="8">
+        <v>0.79263832899592546</v>
+      </c>
+      <c r="AP321" s="8">
+        <v>1.0620915032679714</v>
+      </c>
+      <c r="AQ321" s="8">
+        <v>1.2600732600732689</v>
+      </c>
+      <c r="AR321" s="8">
+        <v>1.6913809082483675</v>
+      </c>
+      <c r="AS321" s="8">
+        <v>1.9603859827323544</v>
+      </c>
+      <c r="AT321" s="8">
+        <v>2.1477663230240549</v>
+      </c>
+      <c r="AU321" s="8">
+        <v>3.1708004509582861</v>
+      </c>
+      <c r="AV321" s="8">
+        <v>1.0262989095574049</v>
+      </c>
+      <c r="AW321" s="8">
+        <v>1.0918202971183057</v>
+      </c>
+      <c r="AX321" s="8">
+        <v>2.5758655962307402</v>
+      </c>
+      <c r="AY321" s="8">
+        <v>-0.32021347565043057</v>
+      </c>
+      <c r="AZ321" s="8">
+        <v>1.2276442225489737</v>
+      </c>
+      <c r="BA321" s="8">
+        <v>-1.3069586718474195</v>
+      </c>
+    </row>
+    <row r="322" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A322" s="7">
+        <v>42856</v>
+      </c>
+      <c r="B322" s="8">
+        <v>1.5750439636057803</v>
+      </c>
+      <c r="C322" s="8">
+        <v>1.8159683473673507</v>
+      </c>
+      <c r="D322" s="8">
+        <v>-0.86930455635492632</v>
+      </c>
+      <c r="E322" s="8">
+        <v>1.8291099321040227</v>
+      </c>
+      <c r="F322" s="8">
+        <v>1.7963582918265699</v>
+      </c>
+      <c r="G322" s="8">
+        <v>1.4743328734905623</v>
+      </c>
+      <c r="H322" s="8">
+        <v>2.3997522836352378</v>
+      </c>
+      <c r="I322" s="8">
+        <v>0.65581589459249989</v>
+      </c>
+      <c r="J322" s="8">
+        <v>0.8855435023245517</v>
+      </c>
+      <c r="K322" s="8">
+        <v>1.4329580348004007</v>
+      </c>
+      <c r="L322" s="8">
+        <v>2.7292315058654539</v>
+      </c>
+      <c r="M322" s="8">
+        <v>2.3634863142451139</v>
+      </c>
+      <c r="N322" s="8">
+        <v>1.2538699690402511</v>
+      </c>
+      <c r="O322" s="8">
+        <v>2.4277456647398781</v>
+      </c>
+      <c r="P322" s="8">
+        <v>0.57863229335157718</v>
+      </c>
+      <c r="Q322" s="8">
+        <v>1.3570243092843834</v>
+      </c>
+      <c r="R322" s="8">
+        <v>0.96944958224375388</v>
+      </c>
+      <c r="S322" s="8">
+        <v>-0.2627281119079774</v>
+      </c>
+      <c r="T322" s="8">
+        <v>1.3814033802522157</v>
+      </c>
+      <c r="U322" s="8">
+        <v>0.47623872732800138</v>
+      </c>
+      <c r="V322" s="8">
+        <v>0.55185846453497445</v>
+      </c>
+      <c r="W322" s="8">
+        <v>1.5957643748380137</v>
+      </c>
+      <c r="X322" s="8">
+        <v>1.6424385846292591</v>
+      </c>
+      <c r="Y322" s="8">
+        <v>1.7269393250081366</v>
+      </c>
+      <c r="Z322" s="8">
+        <v>1.6500622665006164</v>
+      </c>
+      <c r="AA322" s="8">
+        <v>0.22769069095366573</v>
+      </c>
+      <c r="AB322" s="8">
+        <v>1.6603080401299986</v>
+      </c>
+      <c r="AC322" s="8">
+        <v>1.5828877005347544</v>
+      </c>
+      <c r="AD322" s="8">
+        <v>1.1543014996053602</v>
+      </c>
+      <c r="AE322" s="8">
+        <v>2.7087686711554837</v>
+      </c>
+      <c r="AF322" s="8">
+        <v>1.428141912206855</v>
+      </c>
+      <c r="AG322" s="8">
+        <v>1.0614456347740517</v>
+      </c>
+      <c r="AH322" s="8">
+        <v>0.89210367691380066</v>
+      </c>
+      <c r="AI322" s="8">
+        <v>1.5923362809175996</v>
+      </c>
+      <c r="AJ322" s="8">
+        <v>1.598632383856581</v>
+      </c>
+      <c r="AK322" s="8">
+        <v>1.1062456787278201</v>
+      </c>
+      <c r="AL322" s="8">
+        <v>0.75078092176167643</v>
+      </c>
+      <c r="AM322" s="8">
+        <v>0.1454369167373569</v>
+      </c>
+      <c r="AN322" s="8">
+        <v>2.368061252392669</v>
+      </c>
+      <c r="AO322" s="8">
+        <v>0.92029244848918657</v>
+      </c>
+      <c r="AP322" s="8">
+        <v>1.4540241654720387</v>
+      </c>
+      <c r="AQ322" s="8">
+        <v>1.5965237769749181</v>
+      </c>
+      <c r="AR322" s="8">
+        <v>1.2508686587908349</v>
+      </c>
+      <c r="AS322" s="8">
+        <v>1.946710904966652</v>
+      </c>
+      <c r="AT322" s="8">
+        <v>2.222611276459165</v>
+      </c>
+      <c r="AU322" s="8">
+        <v>3.2775355183570221</v>
+      </c>
+      <c r="AV322" s="8">
+        <v>0.54487179487179116</v>
+      </c>
+      <c r="AW322" s="8">
+        <v>1.1363927209439251</v>
+      </c>
+      <c r="AX322" s="8">
+        <v>2.3554868624420346</v>
+      </c>
+      <c r="AY322" s="8">
+        <v>-0.97294415567105896</v>
+      </c>
+      <c r="AZ322" s="8">
+        <v>1.3851270271196932</v>
+      </c>
+      <c r="BA322" s="8">
+        <v>-1.3839602555003669</v>
       </c>
     </row>
   </sheetData>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1990 -- May 2017</t>
+    <t>Total Employment; Year/Year: January 1990 -- July 2017</t>
   </si>
 </sst>
 </file>
@@ -622,11 +622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA322"/>
+  <dimension ref="A1:BA324"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C321" sqref="C321"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN324" sqref="AN324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -829,7 +829,7 @@
         <v>1.1705502680231847</v>
       </c>
       <c r="G6" s="8">
-        <v>0.20920334404732616</v>
+        <v>0.21432284377623473</v>
       </c>
       <c r="H6" s="8">
         <v>2.3552894211576905</v>
@@ -990,7 +990,7 @@
         <v>1.5987735435829948</v>
       </c>
       <c r="G7" s="8">
-        <v>-0.24241939355147832</v>
+        <v>-0.24300948056723237</v>
       </c>
       <c r="H7" s="8">
         <v>1.9243530192435303</v>
@@ -1151,7 +1151,7 @@
         <v>1.6262824710761816</v>
       </c>
       <c r="G8" s="8">
-        <v>-0.59355951972008503</v>
+        <v>-0.59199961651847</v>
       </c>
       <c r="H8" s="8">
         <v>1.7207147584381206</v>
@@ -1312,7 +1312,7 @@
         <v>1.4155052264808363</v>
       </c>
       <c r="G9" s="8">
-        <v>-0.73240785064623648</v>
+        <v>-0.73190566549201186</v>
       </c>
       <c r="H9" s="8">
         <v>1.5379537953795348</v>
@@ -1473,7 +1473,7 @@
         <v>0.94360086767896378</v>
       </c>
       <c r="G10" s="8">
-        <v>-1.0918683700875886</v>
+        <v>-1.0904196004715299</v>
       </c>
       <c r="H10" s="8">
         <v>1.0104986876640478</v>
@@ -1634,7 +1634,7 @@
         <v>1.0811979673478214</v>
       </c>
       <c r="G11" s="8">
-        <v>-1.2577965062093364</v>
+        <v>-1.2339876362245845</v>
       </c>
       <c r="H11" s="8">
         <v>1.4123365959403535</v>
@@ -1795,7 +1795,7 @@
         <v>1.0345942450695143</v>
       </c>
       <c r="G12" s="8">
-        <v>-1.3840637893615528</v>
+        <v>-1.3844269855911477</v>
       </c>
       <c r="H12" s="8">
         <v>1.451559934318549</v>
@@ -1956,7 +1956,7 @@
         <v>1.2925463162429989</v>
       </c>
       <c r="G13" s="8">
-        <v>-1.2787010627957744</v>
+        <v>-1.2802525429673828</v>
       </c>
       <c r="H13" s="8">
         <v>1.1146079202727512</v>
@@ -2117,7 +2117,7 @@
         <v>1.1050316489646983</v>
       </c>
       <c r="G14" s="8">
-        <v>-1.3329084173206331</v>
+        <v>-1.3355446231372141</v>
       </c>
       <c r="H14" s="8">
         <v>1.2815483196024524</v>
@@ -2278,7 +2278,7 @@
         <v>1.8183774478157926</v>
       </c>
       <c r="G15" s="8">
-        <v>-1.4890469145229714</v>
+        <v>-1.4859798950979435</v>
       </c>
       <c r="H15" s="8">
         <v>1.7549603824242148</v>
@@ -2439,7 +2439,7 @@
         <v>1.5579671215214355</v>
       </c>
       <c r="G16" s="8">
-        <v>-1.6325652548044718</v>
+        <v>-1.6313838057648637</v>
       </c>
       <c r="H16" s="8">
         <v>1.5966112740306289</v>
@@ -2600,7 +2600,7 @@
         <v>1.8926766318959052</v>
       </c>
       <c r="G17" s="8">
-        <v>-1.8245848870191543</v>
+        <v>-1.8238973638858778</v>
       </c>
       <c r="H17" s="8">
         <v>2.0096567923789759</v>
@@ -2761,7 +2761,7 @@
         <v>2.8762975778546735</v>
       </c>
       <c r="G18" s="8">
-        <v>-1.8269076947688339</v>
+        <v>-2.0564506475784552</v>
       </c>
       <c r="H18" s="8">
         <v>1.9435777431097152</v>
@@ -2922,7 +2922,7 @@
         <v>2.7053244233671077</v>
       </c>
       <c r="G19" s="8">
-        <v>-1.8085285555029793</v>
+        <v>-1.8927192012436409</v>
       </c>
       <c r="H19" s="8">
         <v>2.3307291666666634</v>
@@ -3083,7 +3083,7 @@
         <v>2.6098163462571105</v>
       </c>
       <c r="G20" s="8">
-        <v>-1.413600784351541</v>
+        <v>-1.4088468833381496</v>
       </c>
       <c r="H20" s="8">
         <v>2.5309043591411902</v>
@@ -3244,7 +3244,7 @@
         <v>2.8988619282800085</v>
       </c>
       <c r="G21" s="8">
-        <v>-1.4418671939046266</v>
+        <v>-1.5099431361840203</v>
       </c>
       <c r="H21" s="8">
         <v>2.8277969186764609</v>
@@ -3405,7 +3405,7 @@
         <v>3.4275276673471557</v>
       </c>
       <c r="G22" s="8">
-        <v>-1.3198713971459133</v>
+        <v>-1.3802655843580609</v>
       </c>
       <c r="H22" s="8">
         <v>3.4039236065999652</v>
@@ -3566,7 +3566,7 @@
         <v>3.0591507113060246</v>
       </c>
       <c r="G23" s="8">
-        <v>-1.465819067748745</v>
+        <v>-1.4825091346115009</v>
       </c>
       <c r="H23" s="8">
         <v>3.2387614976033166</v>
@@ -3727,7 +3727,7 @@
         <v>2.7093333333333312</v>
       </c>
       <c r="G24" s="8">
-        <v>-1.5324713014316922</v>
+        <v>-1.5062694028948052</v>
       </c>
       <c r="H24" s="8">
         <v>3.7096983037679774</v>
@@ -3888,7 +3888,7 @@
         <v>2.5095703955763531</v>
       </c>
       <c r="G25" s="8">
-        <v>-1.722983060695811</v>
+        <v>-1.6634635572279917</v>
       </c>
       <c r="H25" s="8">
         <v>4.0526520555051224</v>
@@ -4049,7 +4049,7 @@
         <v>2.5148556876061172</v>
       </c>
       <c r="G26" s="8">
-        <v>-1.8563976679963297</v>
+        <v>-1.7770845792051322</v>
       </c>
       <c r="H26" s="8">
         <v>3.9251129761136183</v>
@@ -4210,7 +4210,7 @@
         <v>2.4622212828912677</v>
       </c>
       <c r="G27" s="8">
-        <v>-1.7545984529173417</v>
+        <v>-1.6974485756297799</v>
       </c>
       <c r="H27" s="8">
         <v>3.9899607439346161</v>
@@ -4371,7 +4371,7 @@
         <v>2.8565382987727461</v>
       </c>
       <c r="G28" s="8">
-        <v>-1.5308725973805071</v>
+        <v>-1.4590375215815967</v>
       </c>
       <c r="H28" s="8">
         <v>3.932007697241819</v>
@@ -4532,7 +4532,7 @@
         <v>2.8601583113456486</v>
       </c>
       <c r="G29" s="8">
-        <v>-1.6961807528120894</v>
+        <v>-1.5619666802113021</v>
       </c>
       <c r="H29" s="8">
         <v>3.7738262760649866</v>
@@ -51529,7 +51529,7 @@
         <v>42826</v>
       </c>
       <c r="B321" s="8">
-        <v>1.5094628231335085</v>
+        <v>1.5324072142728018</v>
       </c>
       <c r="C321" s="8">
         <v>1.2981744421906649</v>
@@ -51690,160 +51690,482 @@
         <v>42856</v>
       </c>
       <c r="B322" s="8">
-        <v>1.5750439636057803</v>
+        <v>1.6028470344549555</v>
       </c>
       <c r="C322" s="8">
-        <v>1.8159683473673507</v>
+        <v>1.6029217814750889</v>
       </c>
       <c r="D322" s="8">
-        <v>-0.86930455635492632</v>
+        <v>-0.80935251798562502</v>
       </c>
       <c r="E322" s="8">
-        <v>1.8291099321040227</v>
+        <v>1.851370904908531</v>
       </c>
       <c r="F322" s="8">
-        <v>1.7963582918265699</v>
+        <v>1.6657140524209899</v>
       </c>
       <c r="G322" s="8">
-        <v>1.4743328734905623</v>
+        <v>1.5180888367598664</v>
       </c>
       <c r="H322" s="8">
-        <v>2.3997522836352378</v>
+        <v>2.2023533054652455</v>
       </c>
       <c r="I322" s="8">
-        <v>0.65581589459249989</v>
+        <v>0.59023430513325525</v>
       </c>
       <c r="J322" s="8">
-        <v>0.8855435023245517</v>
+        <v>0.95195926499889549</v>
       </c>
       <c r="K322" s="8">
-        <v>1.4329580348004007</v>
+        <v>1.2154554759467757</v>
       </c>
       <c r="L322" s="8">
-        <v>2.7292315058654539</v>
+        <v>2.7447929135743272</v>
       </c>
       <c r="M322" s="8">
-        <v>2.3634863142451139</v>
+        <v>2.4391362156710046</v>
       </c>
       <c r="N322" s="8">
-        <v>1.2538699690402511</v>
+        <v>1.2229102167182628</v>
       </c>
       <c r="O322" s="8">
         <v>2.4277456647398781</v>
       </c>
       <c r="P322" s="8">
-        <v>0.57863229335157718</v>
+        <v>0.72704230519102142</v>
       </c>
       <c r="Q322" s="8">
-        <v>1.3570243092843834</v>
+        <v>1.2268541117511087</v>
       </c>
       <c r="R322" s="8">
-        <v>0.96944958224375388</v>
+        <v>0.81000063779576614</v>
       </c>
       <c r="S322" s="8">
-        <v>-0.2627281119079774</v>
+        <v>-9.9410636938142699E-2</v>
       </c>
       <c r="T322" s="8">
-        <v>1.3814033802522157</v>
+        <v>1.5122180942912506</v>
       </c>
       <c r="U322" s="8">
-        <v>0.47623872732800138</v>
+        <v>0.53703516060391809</v>
       </c>
       <c r="V322" s="8">
-        <v>0.55185846453497445</v>
+        <v>0.71416977763349732</v>
       </c>
       <c r="W322" s="8">
-        <v>1.5957643748380137</v>
+        <v>1.5994668443851983</v>
       </c>
       <c r="X322" s="8">
-        <v>1.6424385846292591</v>
+        <v>1.6170836150552199</v>
       </c>
       <c r="Y322" s="8">
-        <v>1.7269393250081366</v>
+        <v>1.743187410055252</v>
       </c>
       <c r="Z322" s="8">
-        <v>1.6500622665006164</v>
+        <v>1.7988100179881001</v>
       </c>
       <c r="AA322" s="8">
-        <v>0.22769069095366573</v>
+        <v>0.23644802522110675</v>
       </c>
       <c r="AB322" s="8">
-        <v>1.6603080401299986</v>
+        <v>1.5402006499929315</v>
       </c>
       <c r="AC322" s="8">
-        <v>1.5828877005347544</v>
+        <v>1.4759358288770004</v>
       </c>
       <c r="AD322" s="8">
-        <v>1.1543014996053602</v>
+        <v>1.07537490134175</v>
       </c>
       <c r="AE322" s="8">
-        <v>2.7087686711554837</v>
+        <v>3.0492995898150372</v>
       </c>
       <c r="AF322" s="8">
-        <v>1.428141912206855</v>
+        <v>1.5033072760072157</v>
       </c>
       <c r="AG322" s="8">
-        <v>1.0614456347740517</v>
+        <v>1.1599556704839395</v>
       </c>
       <c r="AH322" s="8">
-        <v>0.89210367691380066</v>
+        <v>0.98854731766124715</v>
       </c>
       <c r="AI322" s="8">
-        <v>1.5923362809175996</v>
+        <v>1.5079670212311387</v>
       </c>
       <c r="AJ322" s="8">
-        <v>1.598632383856581</v>
+        <v>1.5154665372975804</v>
       </c>
       <c r="AK322" s="8">
-        <v>1.1062456787278201</v>
+        <v>1.3136667434892939</v>
       </c>
       <c r="AL322" s="8">
-        <v>0.75078092176167643</v>
+        <v>0.78548855561441644</v>
       </c>
       <c r="AM322" s="8">
-        <v>0.1454369167373569</v>
+        <v>9.695794449157126E-2</v>
       </c>
       <c r="AN322" s="8">
-        <v>2.368061252392669</v>
+        <v>2.3516543614984959</v>
       </c>
       <c r="AO322" s="8">
-        <v>0.92029244848918657</v>
+        <v>1.0668575421374706</v>
       </c>
       <c r="AP322" s="8">
-        <v>1.4540241654720387</v>
+        <v>1.6588163014540172</v>
       </c>
       <c r="AQ322" s="8">
-        <v>1.5965237769749181</v>
+        <v>1.5281710770432664</v>
       </c>
       <c r="AR322" s="8">
         <v>1.2508686587908349</v>
       </c>
       <c r="AS322" s="8">
-        <v>1.946710904966652</v>
+        <v>1.9839523309747222</v>
       </c>
       <c r="AT322" s="8">
-        <v>2.222611276459165</v>
+        <v>2.2609609083860702</v>
       </c>
       <c r="AU322" s="8">
-        <v>3.2775355183570221</v>
+        <v>3.3689689126459483</v>
       </c>
       <c r="AV322" s="8">
-        <v>0.54487179487179116</v>
+        <v>0.6089743589743517</v>
       </c>
       <c r="AW322" s="8">
-        <v>1.1363927209439251</v>
+        <v>1.1619871515958151</v>
       </c>
       <c r="AX322" s="8">
-        <v>2.3554868624420346</v>
+        <v>2.4018547140649096</v>
       </c>
       <c r="AY322" s="8">
-        <v>-0.97294415567105896</v>
+        <v>-1.0262561642009771</v>
       </c>
       <c r="AZ322" s="8">
-        <v>1.3851270271196932</v>
+        <v>1.3645558336476218</v>
       </c>
       <c r="BA322" s="8">
-        <v>-1.3839602555003669</v>
+        <v>-0.99361249112846395</v>
+      </c>
+    </row>
+    <row r="323" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A323" s="7">
+        <v>42887</v>
+      </c>
+      <c r="B323" s="9">
+        <v>1.5391978691230943</v>
+      </c>
+      <c r="C323" s="9">
+        <v>2.0151261357291532</v>
+      </c>
+      <c r="D323" s="9">
+        <v>0.33202535466343669</v>
+      </c>
+      <c r="E323" s="9">
+        <v>2.024847023919893</v>
+      </c>
+      <c r="F323" s="9">
+        <v>2.3512123438648014</v>
+      </c>
+      <c r="G323" s="9">
+        <v>1.5788929503281159</v>
+      </c>
+      <c r="H323" s="9">
+        <v>2.0331005748235129</v>
+      </c>
+      <c r="I323" s="9">
+        <v>0.83392899690254951</v>
+      </c>
+      <c r="J323" s="9">
+        <v>0.39743872819607234</v>
+      </c>
+      <c r="K323" s="9">
+        <v>1.4856557377049211</v>
+      </c>
+      <c r="L323" s="9">
+        <v>2.839516505063306</v>
+      </c>
+      <c r="M323" s="9">
+        <v>2.7552933644304205</v>
+      </c>
+      <c r="N323" s="9">
+        <v>1.394700139470014</v>
+      </c>
+      <c r="O323" s="9">
+        <v>2.1325648414985525</v>
+      </c>
+      <c r="P323" s="9">
+        <v>0.86572143452876782</v>
+      </c>
+      <c r="Q323" s="9">
+        <v>1.3554804316733786</v>
+      </c>
+      <c r="R323" s="9">
+        <v>1.3089005235602094</v>
+      </c>
+      <c r="S323" s="9">
+        <v>-0.54000284212023142</v>
+      </c>
+      <c r="T323" s="9">
+        <v>1.4460861364350905</v>
+      </c>
+      <c r="U323" s="9">
+        <v>1.016208525989533</v>
+      </c>
+      <c r="V323" s="9">
+        <v>1.1194029850746232</v>
+      </c>
+      <c r="W323" s="9">
+        <v>2.1989412505090002</v>
+      </c>
+      <c r="X323" s="9">
+        <v>1.8811072625383736</v>
+      </c>
+      <c r="Y323" s="9">
+        <v>1.478413770764901</v>
+      </c>
+      <c r="Z323" s="9">
+        <v>2.3400124800665605</v>
+      </c>
+      <c r="AA323" s="9">
+        <v>0.77024070021881441</v>
+      </c>
+      <c r="AB323" s="9">
+        <v>1.7360988836849027</v>
+      </c>
+      <c r="AC323" s="9">
+        <v>1.4129736673089202</v>
+      </c>
+      <c r="AD323" s="9">
+        <v>1.4781237682301933</v>
+      </c>
+      <c r="AE323" s="9">
+        <v>3.4018865006958401</v>
+      </c>
+      <c r="AF323" s="9">
+        <v>1.60612428700089</v>
+      </c>
+      <c r="AG323" s="9">
+        <v>1.2924150470527509</v>
+      </c>
+      <c r="AH323" s="9">
+        <v>0.68790731354090406</v>
+      </c>
+      <c r="AI323" s="9">
+        <v>1.606181721289643</v>
+      </c>
+      <c r="AJ323" s="9">
+        <v>1.6356379910951286</v>
+      </c>
+      <c r="AK323" s="9">
+        <v>1.4539579967689849</v>
+      </c>
+      <c r="AL323" s="9">
+        <v>1.1787280701754386</v>
+      </c>
+      <c r="AM323" s="9">
+        <v>0.61334790793708072</v>
+      </c>
+      <c r="AN323" s="9">
+        <v>2.7543993879112523</v>
+      </c>
+      <c r="AO323" s="9">
+        <v>1.0644104803493544</v>
+      </c>
+      <c r="AP323" s="9">
+        <v>1.2655644008981517</v>
+      </c>
+      <c r="AQ323" s="9">
+        <v>1.6582939082085548</v>
+      </c>
+      <c r="AR323" s="9">
+        <v>0.69300069300069311</v>
+      </c>
+      <c r="AS323" s="9">
+        <v>1.9365304674034176</v>
+      </c>
+      <c r="AT323" s="9">
+        <v>2.6670559773087574</v>
+      </c>
+      <c r="AU323" s="9">
+        <v>3.1024075243911029</v>
+      </c>
+      <c r="AV323" s="9">
+        <v>0.76775431861803489</v>
+      </c>
+      <c r="AW323" s="9">
+        <v>1.4238605281321051</v>
+      </c>
+      <c r="AX323" s="9">
+        <v>2.4113869334321323</v>
+      </c>
+      <c r="AY323" s="9">
+        <v>0.14753218884120475</v>
+      </c>
+      <c r="AZ323" s="9">
+        <v>1.1759462424574783</v>
+      </c>
+      <c r="BA323" s="9">
+        <v>-1.3532763532763572</v>
+      </c>
+    </row>
+    <row r="324" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A324" s="7">
+        <v>42917</v>
+      </c>
+      <c r="B324" s="9">
+        <v>1.4654879998892403</v>
+      </c>
+      <c r="C324" s="9">
+        <v>1.5885060960186099</v>
+      </c>
+      <c r="D324" s="9">
+        <v>-0.33122553447757386</v>
+      </c>
+      <c r="E324" s="9">
+        <v>1.227876106194697</v>
+      </c>
+      <c r="F324" s="9">
+        <v>2.6648194931138498</v>
+      </c>
+      <c r="G324" s="9">
+        <v>1.6743701424183732</v>
+      </c>
+      <c r="H324" s="9">
+        <v>1.666026871401155</v>
+      </c>
+      <c r="I324" s="9">
+        <v>0.69022967987624284</v>
+      </c>
+      <c r="J324" s="9">
+        <v>0.28602860286028853</v>
+      </c>
+      <c r="K324" s="9">
+        <v>2.4023638232271387</v>
+      </c>
+      <c r="L324" s="9">
+        <v>2.690262960716439</v>
+      </c>
+      <c r="M324" s="9">
+        <v>2.1945432977461405</v>
+      </c>
+      <c r="N324" s="9">
+        <v>1.248843663274749</v>
+      </c>
+      <c r="O324" s="9">
+        <v>2.2512188127330148</v>
+      </c>
+      <c r="P324" s="9">
+        <v>0.55188004920376044</v>
+      </c>
+      <c r="Q324" s="9">
+        <v>0.88406735751295917</v>
+      </c>
+      <c r="R324" s="9">
+        <v>1.0111930806410496</v>
+      </c>
+      <c r="S324" s="9">
+        <v>-0.76492669452512085</v>
+      </c>
+      <c r="T324" s="9">
+        <v>1.2131625533687485</v>
+      </c>
+      <c r="U324" s="9">
+        <v>0.59886317498984742</v>
+      </c>
+      <c r="V324" s="9">
+        <v>1.0192525481313628</v>
+      </c>
+      <c r="W324" s="9">
+        <v>1.8815716657443278</v>
+      </c>
+      <c r="X324" s="9">
+        <v>1.2652204338698338</v>
+      </c>
+      <c r="Y324" s="9">
+        <v>1.4406094886297964</v>
+      </c>
+      <c r="Z324" s="9">
+        <v>2.0831896254397493</v>
+      </c>
+      <c r="AA324" s="9">
+        <v>0.50553473372264923</v>
+      </c>
+      <c r="AB324" s="9">
+        <v>2.0457661077717955</v>
+      </c>
+      <c r="AC324" s="9">
+        <v>1.1115861479264619</v>
+      </c>
+      <c r="AD324" s="9">
+        <v>1.2396694214876056</v>
+      </c>
+      <c r="AE324" s="9">
+        <v>2.7314460596786572</v>
+      </c>
+      <c r="AF324" s="9">
+        <v>1.7814371257484998</v>
+      </c>
+      <c r="AG324" s="9">
+        <v>1.1578947368421098</v>
+      </c>
+      <c r="AH324" s="9">
+        <v>0.24090580582992049</v>
+      </c>
+      <c r="AI324" s="9">
+        <v>1.4665434812619975</v>
+      </c>
+      <c r="AJ324" s="9">
+        <v>1.480459770114934</v>
+      </c>
+      <c r="AK324" s="9">
+        <v>1.517939282428695</v>
+      </c>
+      <c r="AL324" s="9">
+        <v>0.86511492368775722</v>
+      </c>
+      <c r="AM324" s="9">
+        <v>1.1038330907326568</v>
+      </c>
+      <c r="AN324" s="9">
+        <v>2.9137338353249231</v>
+      </c>
+      <c r="AO324" s="9">
+        <v>1.0454499168392175</v>
+      </c>
+      <c r="AP324" s="9">
+        <v>1.7322192785816184</v>
+      </c>
+      <c r="AQ324" s="9">
+        <v>1.4450586752012504</v>
+      </c>
+      <c r="AR324" s="9">
+        <v>0.36883356385430288</v>
+      </c>
+      <c r="AS324" s="9">
+        <v>1.6521973214886569</v>
+      </c>
+      <c r="AT324" s="9">
+        <v>2.4383149531700559</v>
+      </c>
+      <c r="AU324" s="9">
+        <v>2.5342083216978466</v>
+      </c>
+      <c r="AV324" s="9">
+        <v>0.2532446976891457</v>
+      </c>
+      <c r="AW324" s="9">
+        <v>1.5399938706711662</v>
+      </c>
+      <c r="AX324" s="9">
+        <v>2.1957378664695795</v>
+      </c>
+      <c r="AY324" s="9">
+        <v>0.21462105969148526</v>
+      </c>
+      <c r="AZ324" s="9">
+        <v>0.90499282835871875</v>
+      </c>
+      <c r="BA324" s="9">
+        <v>-1.0714285714285714</v>
       </c>
     </row>
   </sheetData>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1990 -- July 2017</t>
+    <t>Total Employment; Year/Year: January 1990 -- August 2017</t>
   </si>
 </sst>
 </file>
@@ -622,11 +622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA324"/>
+  <dimension ref="A1:BA325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN324" sqref="AN324"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A324" sqref="A324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -52015,157 +52015,318 @@
         <v>1.4654879998892403</v>
       </c>
       <c r="C324" s="9">
-        <v>1.5885060960186099</v>
+        <v>1.5682703495725199</v>
       </c>
       <c r="D324" s="9">
-        <v>-0.33122553447757386</v>
+        <v>-0.12044564890094371</v>
       </c>
       <c r="E324" s="9">
-        <v>1.227876106194697</v>
+        <v>1.1762536873156375</v>
       </c>
       <c r="F324" s="9">
-        <v>2.6648194931138498</v>
+        <v>2.6077744275120205</v>
       </c>
       <c r="G324" s="9">
-        <v>1.6743701424183732</v>
+        <v>1.6858799227027341</v>
       </c>
       <c r="H324" s="9">
-        <v>1.666026871401155</v>
+        <v>1.7619961612284105</v>
       </c>
       <c r="I324" s="9">
-        <v>0.69022967987624284</v>
+        <v>0.62477686540521249</v>
       </c>
       <c r="J324" s="9">
-        <v>0.28602860286028853</v>
+        <v>0.39603960396039856</v>
       </c>
       <c r="K324" s="9">
-        <v>2.4023638232271387</v>
+        <v>2.3252826310380299</v>
       </c>
       <c r="L324" s="9">
-        <v>2.690262960716439</v>
+        <v>2.6367431405430346</v>
       </c>
       <c r="M324" s="9">
-        <v>2.1945432977461405</v>
+        <v>2.4363536819052665</v>
       </c>
       <c r="N324" s="9">
-        <v>1.248843663274749</v>
+        <v>1.4801110083256279</v>
       </c>
       <c r="O324" s="9">
-        <v>2.2512188127330148</v>
+        <v>2.0504731861198837</v>
       </c>
       <c r="P324" s="9">
-        <v>0.55188004920376044</v>
+        <v>0.52694570963130127</v>
       </c>
       <c r="Q324" s="9">
-        <v>0.88406735751295917</v>
+        <v>1.2499999999999971</v>
       </c>
       <c r="R324" s="9">
-        <v>1.0111930806410496</v>
+        <v>0.97939455609258852</v>
       </c>
       <c r="S324" s="9">
         <v>-0.76492669452512085</v>
       </c>
       <c r="T324" s="9">
-        <v>1.2131625533687485</v>
+        <v>0.95803394772467421</v>
       </c>
       <c r="U324" s="9">
-        <v>0.59886317498984742</v>
+        <v>0.57856272838001743</v>
       </c>
       <c r="V324" s="9">
-        <v>1.0192525481313628</v>
+        <v>1.0354311600064676</v>
       </c>
       <c r="W324" s="9">
-        <v>1.8815716657443278</v>
+        <v>1.9774949271352114</v>
       </c>
       <c r="X324" s="9">
-        <v>1.2652204338698338</v>
+        <v>1.3407977606718011</v>
       </c>
       <c r="Y324" s="9">
-        <v>1.4406094886297964</v>
+        <v>1.3759667551656554</v>
       </c>
       <c r="Z324" s="9">
-        <v>2.0831896254397493</v>
+        <v>1.9072911636890295</v>
       </c>
       <c r="AA324" s="9">
-        <v>0.50553473372264923</v>
+        <v>0.54039919811732284</v>
       </c>
       <c r="AB324" s="9">
-        <v>2.0457661077717955</v>
+        <v>1.9508594326689868</v>
       </c>
       <c r="AC324" s="9">
-        <v>1.1115861479264619</v>
+        <v>1.1543394613082465</v>
       </c>
       <c r="AD324" s="9">
-        <v>1.2396694214876056</v>
+        <v>1.298701298701292</v>
       </c>
       <c r="AE324" s="9">
-        <v>2.7314460596786572</v>
+        <v>2.9227237949502713</v>
       </c>
       <c r="AF324" s="9">
-        <v>1.7814371257484998</v>
+        <v>1.8562874251496972</v>
       </c>
       <c r="AG324" s="9">
-        <v>1.1578947368421098</v>
+        <v>1.0820073439412441</v>
       </c>
       <c r="AH324" s="9">
-        <v>0.24090580582992049</v>
+        <v>0.39749457961936335</v>
       </c>
       <c r="AI324" s="9">
-        <v>1.4665434812619975</v>
+        <v>1.392207461212511</v>
       </c>
       <c r="AJ324" s="9">
-        <v>1.480459770114934</v>
+        <v>1.4850574712643763</v>
       </c>
       <c r="AK324" s="9">
-        <v>1.517939282428695</v>
+        <v>1.4949402023919043</v>
       </c>
       <c r="AL324" s="9">
-        <v>0.86511492368775722</v>
+        <v>0.89971952063526084</v>
       </c>
       <c r="AM324" s="9">
-        <v>1.1038330907326568</v>
+        <v>0.98859776807374788</v>
       </c>
       <c r="AN324" s="9">
-        <v>2.9137338353249231</v>
+        <v>2.995580291373376</v>
       </c>
       <c r="AO324" s="9">
-        <v>1.0454499168392175</v>
+        <v>1.1795254743559282</v>
       </c>
       <c r="AP324" s="9">
-        <v>1.7322192785816184</v>
+        <v>1.8341145302628896</v>
       </c>
       <c r="AQ324" s="9">
-        <v>1.4450586752012504</v>
+        <v>1.2850353990883523</v>
       </c>
       <c r="AR324" s="9">
-        <v>0.36883356385430288</v>
+        <v>0.43798985707698873</v>
       </c>
       <c r="AS324" s="9">
-        <v>1.6521973214886569</v>
+        <v>1.601722861565378</v>
       </c>
       <c r="AT324" s="9">
-        <v>2.4383149531700559</v>
+        <v>2.4557671051866135</v>
       </c>
       <c r="AU324" s="9">
-        <v>2.5342083216978466</v>
+        <v>2.5132644512705946</v>
       </c>
       <c r="AV324" s="9">
-        <v>0.2532446976891457</v>
+        <v>0.2215891104780138</v>
       </c>
       <c r="AW324" s="9">
-        <v>1.5399938706711662</v>
+        <v>1.6191643681683545</v>
       </c>
       <c r="AX324" s="9">
-        <v>2.1957378664695795</v>
+        <v>2.3066026114806633</v>
       </c>
       <c r="AY324" s="9">
-        <v>0.21462105969148526</v>
+        <v>0.24144869215291137</v>
       </c>
       <c r="AZ324" s="9">
-        <v>0.90499282835871875</v>
+        <v>0.98012430844888576</v>
       </c>
       <c r="BA324" s="9">
         <v>-1.0714285714285714</v>
+      </c>
+    </row>
+    <row r="325" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A325" s="7">
+        <v>42948</v>
+      </c>
+      <c r="B325" s="9">
+        <v>1.4498765841820331</v>
+      </c>
+      <c r="C325" s="9">
+        <v>1.3600283128570636</v>
+      </c>
+      <c r="D325" s="9">
+        <v>9.0415913200726755E-2</v>
+      </c>
+      <c r="E325" s="9">
+        <v>1.2774260050066197</v>
+      </c>
+      <c r="F325" s="9">
+        <v>1.9047619047619122</v>
+      </c>
+      <c r="G325" s="9">
+        <v>1.6054309713129804</v>
+      </c>
+      <c r="H325" s="9">
+        <v>1.7551255029699244</v>
+      </c>
+      <c r="I325" s="9">
+        <v>0.35688793718772305</v>
+      </c>
+      <c r="J325" s="9">
+        <v>0.61606160616061856</v>
+      </c>
+      <c r="K325" s="9">
+        <v>1.6766926916677365</v>
+      </c>
+      <c r="L325" s="9">
+        <v>2.6268019220501824</v>
+      </c>
+      <c r="M325" s="9">
+        <v>2.6515237726745111</v>
+      </c>
+      <c r="N325" s="9">
+        <v>0.5829114894922639</v>
+      </c>
+      <c r="O325" s="9">
+        <v>2.1748461868650804</v>
+      </c>
+      <c r="P325" s="9">
+        <v>0.39201355436697066</v>
+      </c>
+      <c r="Q325" s="9">
+        <v>1.0212655936914343</v>
+      </c>
+      <c r="R325" s="9">
+        <v>1.0935215207578242</v>
+      </c>
+      <c r="S325" s="9">
+        <v>-0.63789070805868586</v>
+      </c>
+      <c r="T325" s="9">
+        <v>1.591193656093489</v>
+      </c>
+      <c r="U325" s="9">
+        <v>1.2340642529321797</v>
+      </c>
+      <c r="V325" s="9">
+        <v>0.43682252062771904</v>
+      </c>
+      <c r="W325" s="9">
+        <v>2.3428003094264698</v>
+      </c>
+      <c r="X325" s="9">
+        <v>1.6061335273378374</v>
+      </c>
+      <c r="Y325" s="9">
+        <v>1.3918703690880174</v>
+      </c>
+      <c r="Z325" s="9">
+        <v>1.5150993423091492</v>
+      </c>
+      <c r="AA325" s="9">
+        <v>0.60177917320775265</v>
+      </c>
+      <c r="AB325" s="9">
+        <v>1.836182986342721</v>
+      </c>
+      <c r="AC325" s="9">
+        <v>1.6253207869974264</v>
+      </c>
+      <c r="AD325" s="9">
+        <v>1.3318863456984891</v>
+      </c>
+      <c r="AE325" s="9">
+        <v>2.9638683064701081</v>
+      </c>
+      <c r="AF325" s="9">
+        <v>2.1333731165150036</v>
+      </c>
+      <c r="AG325" s="9">
+        <v>0.93124434776231146</v>
+      </c>
+      <c r="AH325" s="9">
+        <v>1.0597302504817039</v>
+      </c>
+      <c r="AI325" s="9">
+        <v>1.3649776041777271</v>
+      </c>
+      <c r="AJ325" s="9">
+        <v>1.6197587593337164</v>
+      </c>
+      <c r="AK325" s="9">
+        <v>1.310043668122268</v>
+      </c>
+      <c r="AL325" s="9">
+        <v>1.0404329367176155</v>
+      </c>
+      <c r="AM325" s="9">
+        <v>1.2067188163240612</v>
+      </c>
+      <c r="AN325" s="9">
+        <v>2.2651783283419498</v>
+      </c>
+      <c r="AO325" s="9">
+        <v>1.0077532531428606</v>
+      </c>
+      <c r="AP325" s="9">
+        <v>1.8964110929853204</v>
+      </c>
+      <c r="AQ325" s="9">
+        <v>1.7287427766716799</v>
+      </c>
+      <c r="AR325" s="9">
+        <v>0.7612456747404871</v>
+      </c>
+      <c r="AS325" s="9">
+        <v>1.7543859649122746</v>
+      </c>
+      <c r="AT325" s="9">
+        <v>2.4810349555058901</v>
+      </c>
+      <c r="AU325" s="9">
+        <v>2.5998466578378721</v>
+      </c>
+      <c r="AV325" s="9">
+        <v>0.60451797645560834</v>
+      </c>
+      <c r="AW325" s="9">
+        <v>1.4964945825366429</v>
+      </c>
+      <c r="AX325" s="9">
+        <v>2.0664455907639314</v>
+      </c>
+      <c r="AY325" s="9">
+        <v>0.12088650100738445</v>
+      </c>
+      <c r="AZ325" s="9">
+        <v>0.64866341196954691</v>
+      </c>
+      <c r="BA325" s="9">
+        <v>-0.85867620751340856</v>
       </c>
     </row>
   </sheetData>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1990 -- August 2017</t>
+    <t>Total Employment; Year/Year: January 1990 -- September 2017</t>
   </si>
 </sst>
 </file>
@@ -622,11 +622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA325"/>
+  <dimension ref="A1:BA326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A324" sqref="A324"/>
+      <pane ySplit="5" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A327" sqref="A327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -52012,7 +52012,7 @@
         <v>42917</v>
       </c>
       <c r="B324" s="9">
-        <v>1.4654879998892403</v>
+        <v>1.4301833763680543</v>
       </c>
       <c r="C324" s="9">
         <v>1.5682703495725199</v>
@@ -52173,160 +52173,321 @@
         <v>42948</v>
       </c>
       <c r="B325" s="9">
-        <v>1.4498765841820331</v>
+        <v>1.4236031887605181</v>
       </c>
       <c r="C325" s="9">
-        <v>1.3600283128570636</v>
+        <v>1.3853076495272696</v>
       </c>
       <c r="D325" s="9">
-        <v>9.0415913200726755E-2</v>
+        <v>6.0277275467145459E-2</v>
       </c>
       <c r="E325" s="9">
-        <v>1.2774260050066197</v>
+        <v>1.4062730083934554</v>
       </c>
       <c r="F325" s="9">
-        <v>1.9047619047619122</v>
+        <v>2.035002035002035</v>
       </c>
       <c r="G325" s="9">
-        <v>1.6054309713129804</v>
+        <v>1.608458943722096</v>
       </c>
       <c r="H325" s="9">
-        <v>1.7551255029699244</v>
+        <v>1.6363287986204185</v>
       </c>
       <c r="I325" s="9">
-        <v>0.35688793718772305</v>
+        <v>0.33904354032833961</v>
       </c>
       <c r="J325" s="9">
-        <v>0.61606160616061856</v>
+        <v>0.52805280528052301</v>
       </c>
       <c r="K325" s="9">
-        <v>1.6766926916677365</v>
+        <v>1.6254959682580374</v>
       </c>
       <c r="L325" s="9">
-        <v>2.6268019220501824</v>
+        <v>2.5864625971406539</v>
       </c>
       <c r="M325" s="9">
-        <v>2.6515237726745111</v>
+        <v>2.3670255138038558</v>
       </c>
       <c r="N325" s="9">
-        <v>0.5829114894922639</v>
+        <v>0.59825126553151975</v>
       </c>
       <c r="O325" s="9">
-        <v>2.1748461868650804</v>
+        <v>2.2177707826584636</v>
       </c>
       <c r="P325" s="9">
-        <v>0.39201355436697066</v>
+        <v>0.41028537257898112</v>
       </c>
       <c r="Q325" s="9">
-        <v>1.0212655936914343</v>
+        <v>0.92107814620903639</v>
       </c>
       <c r="R325" s="9">
-        <v>1.0935215207578242</v>
+        <v>1.1253099370589241</v>
       </c>
       <c r="S325" s="9">
-        <v>-0.63789070805868586</v>
+        <v>-0.38273442483521797</v>
       </c>
       <c r="T325" s="9">
-        <v>1.591193656093489</v>
+        <v>1.5755425709515885</v>
       </c>
       <c r="U325" s="9">
-        <v>1.2340642529321797</v>
+        <v>1.1320754716981156</v>
       </c>
       <c r="V325" s="9">
-        <v>0.43682252062771904</v>
+        <v>0.61478725125383504</v>
       </c>
       <c r="W325" s="9">
-        <v>2.3428003094264698</v>
+        <v>2.3501676059969863</v>
       </c>
       <c r="X325" s="9">
-        <v>1.6061335273378374</v>
+        <v>1.5277855503945355</v>
       </c>
       <c r="Y325" s="9">
-        <v>1.3918703690880174</v>
+        <v>1.3987950972924186</v>
       </c>
       <c r="Z325" s="9">
-        <v>1.5150993423091492</v>
+        <v>1.5426466030784127</v>
       </c>
       <c r="AA325" s="9">
-        <v>0.60177917320775265</v>
+        <v>0.4796790511076226</v>
       </c>
       <c r="AB325" s="9">
-        <v>1.836182986342721</v>
+        <v>1.794052592774634</v>
       </c>
       <c r="AC325" s="9">
-        <v>1.6253207869974264</v>
+        <v>1.4970059880239521</v>
       </c>
       <c r="AD325" s="9">
-        <v>1.3318863456984891</v>
+        <v>1.4009471191791567</v>
       </c>
       <c r="AE325" s="9">
-        <v>2.9638683064701081</v>
+        <v>2.95622947062868</v>
       </c>
       <c r="AF325" s="9">
-        <v>2.1333731165150036</v>
+        <v>2.0140235715351338</v>
       </c>
       <c r="AG325" s="9">
-        <v>0.93124434776231146</v>
+        <v>0.95813066751398868</v>
       </c>
       <c r="AH325" s="9">
-        <v>1.0597302504817039</v>
+        <v>1.1078998073217783</v>
       </c>
       <c r="AI325" s="9">
-        <v>1.3649776041777271</v>
+        <v>1.4042498991657408</v>
       </c>
       <c r="AJ325" s="9">
-        <v>1.6197587593337164</v>
+        <v>1.5508328546812178</v>
       </c>
       <c r="AK325" s="9">
-        <v>1.310043668122268</v>
+        <v>1.3560101126177837</v>
       </c>
       <c r="AL325" s="9">
-        <v>1.0404329367176155</v>
+        <v>1.0641205517392109</v>
       </c>
       <c r="AM325" s="9">
-        <v>1.2067188163240612</v>
+        <v>1.1945909890243191</v>
       </c>
       <c r="AN325" s="9">
-        <v>2.2651783283419498</v>
+        <v>2.4013068336509615</v>
       </c>
       <c r="AO325" s="9">
-        <v>1.0077532531428606</v>
+        <v>1.1163327282289701</v>
       </c>
       <c r="AP325" s="9">
-        <v>1.8964110929853204</v>
+        <v>1.7128874388254556</v>
       </c>
       <c r="AQ325" s="9">
-        <v>1.7287427766716799</v>
+        <v>1.7773029670276261</v>
       </c>
       <c r="AR325" s="9">
-        <v>0.7612456747404871</v>
+        <v>0.55363321799307441</v>
       </c>
       <c r="AS325" s="9">
-        <v>1.7543859649122746</v>
+        <v>1.693889897156688</v>
       </c>
       <c r="AT325" s="9">
-        <v>2.4810349555058901</v>
+        <v>2.4353360531104364</v>
       </c>
       <c r="AU325" s="9">
-        <v>2.5998466578378721</v>
+        <v>2.6207569526730263</v>
       </c>
       <c r="AV325" s="9">
-        <v>0.60451797645560834</v>
+        <v>0.69996818326439347</v>
       </c>
       <c r="AW325" s="9">
-        <v>1.4964945825366429</v>
+        <v>1.4149139579349905</v>
       </c>
       <c r="AX325" s="9">
-        <v>2.0664455907639314</v>
+        <v>2.1002210759027156</v>
       </c>
       <c r="AY325" s="9">
-        <v>0.12088650100738445</v>
+        <v>0.18804566823371086</v>
       </c>
       <c r="AZ325" s="9">
-        <v>0.64866341196954691</v>
+        <v>0.70670171725104214</v>
       </c>
       <c r="BA325" s="9">
-        <v>-0.85867620751340856</v>
+        <v>-0.64400715563506661</v>
+      </c>
+    </row>
+    <row r="326" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A326" s="7">
+        <v>42979</v>
+      </c>
+      <c r="B326" s="9">
+        <v>1.2265153711296088</v>
+      </c>
+      <c r="C326" s="9">
+        <v>1.5107113985448597</v>
+      </c>
+      <c r="D326" s="9">
+        <v>0.21218551076085043</v>
+      </c>
+      <c r="E326" s="9">
+        <v>1.270689907719343</v>
+      </c>
+      <c r="F326" s="9">
+        <v>1.983417330515352</v>
+      </c>
+      <c r="G326" s="9">
+        <v>1.6936351222341679</v>
+      </c>
+      <c r="H326" s="9">
+        <v>1.579410302497217</v>
+      </c>
+      <c r="I326" s="9">
+        <v>0.20815986677768525</v>
+      </c>
+      <c r="J326" s="9">
+        <v>0.61646851607221742</v>
+      </c>
+      <c r="K326" s="9">
+        <v>0.88077610416134511</v>
+      </c>
+      <c r="L326" s="9">
+        <v>0.7378764766398197</v>
+      </c>
+      <c r="M326" s="9">
+        <v>1.9056898778636207</v>
+      </c>
+      <c r="N326" s="9">
+        <v>1.2446220036877724</v>
+      </c>
+      <c r="O326" s="9">
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="P326" s="9">
+        <v>6.1355797293723924E-2</v>
+      </c>
+      <c r="Q326" s="9">
+        <v>1.0478462728914109</v>
+      </c>
+      <c r="R326" s="9">
+        <v>0.9030780971762794</v>
+      </c>
+      <c r="S326" s="9">
+        <v>-0.36027126306865709</v>
+      </c>
+      <c r="T326" s="9">
+        <v>1.5729985936767443</v>
+      </c>
+      <c r="U326" s="9">
+        <v>0.74782520221804172</v>
+      </c>
+      <c r="V326" s="9">
+        <v>0.55033991583038055</v>
+      </c>
+      <c r="W326" s="9">
+        <v>2.3593934040047082</v>
+      </c>
+      <c r="X326" s="9">
+        <v>1.7424623818313958</v>
+      </c>
+      <c r="Y326" s="9">
+        <v>1.4283081459638776</v>
+      </c>
+      <c r="Z326" s="9">
+        <v>1.7980779167097334</v>
+      </c>
+      <c r="AA326" s="9">
+        <v>0.56669572798605061</v>
+      </c>
+      <c r="AB326" s="9">
+        <v>1.3435767908510552</v>
+      </c>
+      <c r="AC326" s="9">
+        <v>1.2374653296351634</v>
+      </c>
+      <c r="AD326" s="9">
+        <v>1.5130674002751123</v>
+      </c>
+      <c r="AE326" s="9">
+        <v>2.4549669377517636</v>
+      </c>
+      <c r="AF326" s="9">
+        <v>1.3283582089552204</v>
+      </c>
+      <c r="AG326" s="9">
+        <v>0.69585174695412266</v>
+      </c>
+      <c r="AH326" s="9">
+        <v>0.95111967252588214</v>
+      </c>
+      <c r="AI326" s="9">
+        <v>0.98764122420835265</v>
+      </c>
+      <c r="AJ326" s="9">
+        <v>1.407901676182606</v>
+      </c>
+      <c r="AK326" s="9">
+        <v>1.358820819898672</v>
+      </c>
+      <c r="AL326" s="9">
+        <v>1.120937511373155</v>
+      </c>
+      <c r="AM326" s="9">
+        <v>1.073703366697</v>
+      </c>
+      <c r="AN326" s="9">
+        <v>1.8947825614854152</v>
+      </c>
+      <c r="AO326" s="9">
+        <v>1.1280869948168883</v>
+      </c>
+      <c r="AP326" s="9">
+        <v>0.91724419078679165</v>
+      </c>
+      <c r="AQ326" s="9">
+        <v>1.3618959918576992</v>
+      </c>
+      <c r="AR326" s="9">
+        <v>0.73766712770861886</v>
+      </c>
+      <c r="AS326" s="9">
+        <v>1.4820278969957019</v>
+      </c>
+      <c r="AT326" s="9">
+        <v>2.1226688769167041</v>
+      </c>
+      <c r="AU326" s="9">
+        <v>2.5290071562565202</v>
+      </c>
+      <c r="AV326" s="9">
+        <v>1.0499522748965993</v>
+      </c>
+      <c r="AW326" s="9">
+        <v>1.0792374067757806</v>
+      </c>
+      <c r="AX326" s="9">
+        <v>2.1819628484867089</v>
+      </c>
+      <c r="AY326" s="9">
+        <v>0.40333422963162141</v>
+      </c>
+      <c r="AZ326" s="9">
+        <v>1.1833914768451981</v>
+      </c>
+      <c r="BA326" s="9">
+        <v>-1.1139058569888691</v>
       </c>
     </row>
   </sheetData>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1990 -- September 2017</t>
+    <t>Total Employment; Year/Year: January 1990 -- October 2017</t>
   </si>
 </sst>
 </file>
@@ -217,32 +217,32 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -272,15 +272,15 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,11 +622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA326"/>
+  <dimension ref="A1:BA327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A315" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A327" sqref="A327"/>
+      <pane ySplit="5" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J327" sqref="J327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -51850,160 +51850,160 @@
       <c r="A323" s="7">
         <v>42887</v>
       </c>
-      <c r="B323" s="9">
+      <c r="B323" s="8">
         <v>1.5391978691230943</v>
       </c>
-      <c r="C323" s="9">
+      <c r="C323" s="8">
         <v>2.0151261357291532</v>
       </c>
-      <c r="D323" s="9">
+      <c r="D323" s="8">
         <v>0.33202535466343669</v>
       </c>
-      <c r="E323" s="9">
+      <c r="E323" s="8">
         <v>2.024847023919893</v>
       </c>
-      <c r="F323" s="9">
+      <c r="F323" s="8">
         <v>2.3512123438648014</v>
       </c>
-      <c r="G323" s="9">
+      <c r="G323" s="8">
         <v>1.5788929503281159</v>
       </c>
-      <c r="H323" s="9">
+      <c r="H323" s="8">
         <v>2.0331005748235129</v>
       </c>
-      <c r="I323" s="9">
+      <c r="I323" s="8">
         <v>0.83392899690254951</v>
       </c>
-      <c r="J323" s="9">
+      <c r="J323" s="8">
         <v>0.39743872819607234</v>
       </c>
-      <c r="K323" s="9">
+      <c r="K323" s="8">
         <v>1.4856557377049211</v>
       </c>
-      <c r="L323" s="9">
+      <c r="L323" s="8">
         <v>2.839516505063306</v>
       </c>
-      <c r="M323" s="9">
+      <c r="M323" s="8">
         <v>2.7552933644304205</v>
       </c>
-      <c r="N323" s="9">
+      <c r="N323" s="8">
         <v>1.394700139470014</v>
       </c>
-      <c r="O323" s="9">
+      <c r="O323" s="8">
         <v>2.1325648414985525</v>
       </c>
-      <c r="P323" s="9">
+      <c r="P323" s="8">
         <v>0.86572143452876782</v>
       </c>
-      <c r="Q323" s="9">
+      <c r="Q323" s="8">
         <v>1.3554804316733786</v>
       </c>
-      <c r="R323" s="9">
+      <c r="R323" s="8">
         <v>1.3089005235602094</v>
       </c>
-      <c r="S323" s="9">
+      <c r="S323" s="8">
         <v>-0.54000284212023142</v>
       </c>
-      <c r="T323" s="9">
+      <c r="T323" s="8">
         <v>1.4460861364350905</v>
       </c>
-      <c r="U323" s="9">
+      <c r="U323" s="8">
         <v>1.016208525989533</v>
       </c>
-      <c r="V323" s="9">
+      <c r="V323" s="8">
         <v>1.1194029850746232</v>
       </c>
-      <c r="W323" s="9">
+      <c r="W323" s="8">
         <v>2.1989412505090002</v>
       </c>
-      <c r="X323" s="9">
+      <c r="X323" s="8">
         <v>1.8811072625383736</v>
       </c>
-      <c r="Y323" s="9">
+      <c r="Y323" s="8">
         <v>1.478413770764901</v>
       </c>
-      <c r="Z323" s="9">
+      <c r="Z323" s="8">
         <v>2.3400124800665605</v>
       </c>
-      <c r="AA323" s="9">
+      <c r="AA323" s="8">
         <v>0.77024070021881441</v>
       </c>
-      <c r="AB323" s="9">
+      <c r="AB323" s="8">
         <v>1.7360988836849027</v>
       </c>
-      <c r="AC323" s="9">
+      <c r="AC323" s="8">
         <v>1.4129736673089202</v>
       </c>
-      <c r="AD323" s="9">
+      <c r="AD323" s="8">
         <v>1.4781237682301933</v>
       </c>
-      <c r="AE323" s="9">
+      <c r="AE323" s="8">
         <v>3.4018865006958401</v>
       </c>
-      <c r="AF323" s="9">
+      <c r="AF323" s="8">
         <v>1.60612428700089</v>
       </c>
-      <c r="AG323" s="9">
+      <c r="AG323" s="8">
         <v>1.2924150470527509</v>
       </c>
-      <c r="AH323" s="9">
+      <c r="AH323" s="8">
         <v>0.68790731354090406</v>
       </c>
-      <c r="AI323" s="9">
+      <c r="AI323" s="8">
         <v>1.606181721289643</v>
       </c>
-      <c r="AJ323" s="9">
+      <c r="AJ323" s="8">
         <v>1.6356379910951286</v>
       </c>
-      <c r="AK323" s="9">
+      <c r="AK323" s="8">
         <v>1.4539579967689849</v>
       </c>
-      <c r="AL323" s="9">
+      <c r="AL323" s="8">
         <v>1.1787280701754386</v>
       </c>
-      <c r="AM323" s="9">
+      <c r="AM323" s="8">
         <v>0.61334790793708072</v>
       </c>
-      <c r="AN323" s="9">
+      <c r="AN323" s="8">
         <v>2.7543993879112523</v>
       </c>
-      <c r="AO323" s="9">
+      <c r="AO323" s="8">
         <v>1.0644104803493544</v>
       </c>
-      <c r="AP323" s="9">
+      <c r="AP323" s="8">
         <v>1.2655644008981517</v>
       </c>
-      <c r="AQ323" s="9">
+      <c r="AQ323" s="8">
         <v>1.6582939082085548</v>
       </c>
-      <c r="AR323" s="9">
+      <c r="AR323" s="8">
         <v>0.69300069300069311</v>
       </c>
-      <c r="AS323" s="9">
+      <c r="AS323" s="8">
         <v>1.9365304674034176</v>
       </c>
-      <c r="AT323" s="9">
+      <c r="AT323" s="8">
         <v>2.6670559773087574</v>
       </c>
-      <c r="AU323" s="9">
+      <c r="AU323" s="8">
         <v>3.1024075243911029</v>
       </c>
-      <c r="AV323" s="9">
+      <c r="AV323" s="8">
         <v>0.76775431861803489</v>
       </c>
-      <c r="AW323" s="9">
+      <c r="AW323" s="8">
         <v>1.4238605281321051</v>
       </c>
-      <c r="AX323" s="9">
+      <c r="AX323" s="8">
         <v>2.4113869334321323</v>
       </c>
-      <c r="AY323" s="9">
+      <c r="AY323" s="8">
         <v>0.14753218884120475</v>
       </c>
-      <c r="AZ323" s="9">
+      <c r="AZ323" s="8">
         <v>1.1759462424574783</v>
       </c>
-      <c r="BA323" s="9">
+      <c r="BA323" s="8">
         <v>-1.3532763532763572</v>
       </c>
     </row>
@@ -52011,160 +52011,160 @@
       <c r="A324" s="7">
         <v>42917</v>
       </c>
-      <c r="B324" s="9">
+      <c r="B324" s="8">
         <v>1.4301833763680543</v>
       </c>
-      <c r="C324" s="9">
+      <c r="C324" s="8">
         <v>1.5682703495725199</v>
       </c>
-      <c r="D324" s="9">
+      <c r="D324" s="8">
         <v>-0.12044564890094371</v>
       </c>
-      <c r="E324" s="9">
+      <c r="E324" s="8">
         <v>1.1762536873156375</v>
       </c>
-      <c r="F324" s="9">
+      <c r="F324" s="8">
         <v>2.6077744275120205</v>
       </c>
-      <c r="G324" s="9">
+      <c r="G324" s="8">
         <v>1.6858799227027341</v>
       </c>
-      <c r="H324" s="9">
+      <c r="H324" s="8">
         <v>1.7619961612284105</v>
       </c>
-      <c r="I324" s="9">
+      <c r="I324" s="8">
         <v>0.62477686540521249</v>
       </c>
-      <c r="J324" s="9">
+      <c r="J324" s="8">
         <v>0.39603960396039856</v>
       </c>
-      <c r="K324" s="9">
+      <c r="K324" s="8">
         <v>2.3252826310380299</v>
       </c>
-      <c r="L324" s="9">
+      <c r="L324" s="8">
         <v>2.6367431405430346</v>
       </c>
-      <c r="M324" s="9">
+      <c r="M324" s="8">
         <v>2.4363536819052665</v>
       </c>
-      <c r="N324" s="9">
+      <c r="N324" s="8">
         <v>1.4801110083256279</v>
       </c>
-      <c r="O324" s="9">
+      <c r="O324" s="8">
         <v>2.0504731861198837</v>
       </c>
-      <c r="P324" s="9">
+      <c r="P324" s="8">
         <v>0.52694570963130127</v>
       </c>
-      <c r="Q324" s="9">
+      <c r="Q324" s="8">
         <v>1.2499999999999971</v>
       </c>
-      <c r="R324" s="9">
+      <c r="R324" s="8">
         <v>0.97939455609258852</v>
       </c>
-      <c r="S324" s="9">
+      <c r="S324" s="8">
         <v>-0.76492669452512085</v>
       </c>
-      <c r="T324" s="9">
+      <c r="T324" s="8">
         <v>0.95803394772467421</v>
       </c>
-      <c r="U324" s="9">
+      <c r="U324" s="8">
         <v>0.57856272838001743</v>
       </c>
-      <c r="V324" s="9">
+      <c r="V324" s="8">
         <v>1.0354311600064676</v>
       </c>
-      <c r="W324" s="9">
+      <c r="W324" s="8">
         <v>1.9774949271352114</v>
       </c>
-      <c r="X324" s="9">
+      <c r="X324" s="8">
         <v>1.3407977606718011</v>
       </c>
-      <c r="Y324" s="9">
+      <c r="Y324" s="8">
         <v>1.3759667551656554</v>
       </c>
-      <c r="Z324" s="9">
+      <c r="Z324" s="8">
         <v>1.9072911636890295</v>
       </c>
-      <c r="AA324" s="9">
+      <c r="AA324" s="8">
         <v>0.54039919811732284</v>
       </c>
-      <c r="AB324" s="9">
+      <c r="AB324" s="8">
         <v>1.9508594326689868</v>
       </c>
-      <c r="AC324" s="9">
+      <c r="AC324" s="8">
         <v>1.1543394613082465</v>
       </c>
-      <c r="AD324" s="9">
+      <c r="AD324" s="8">
         <v>1.298701298701292</v>
       </c>
-      <c r="AE324" s="9">
+      <c r="AE324" s="8">
         <v>2.9227237949502713</v>
       </c>
-      <c r="AF324" s="9">
+      <c r="AF324" s="8">
         <v>1.8562874251496972</v>
       </c>
-      <c r="AG324" s="9">
+      <c r="AG324" s="8">
         <v>1.0820073439412441</v>
       </c>
-      <c r="AH324" s="9">
+      <c r="AH324" s="8">
         <v>0.39749457961936335</v>
       </c>
-      <c r="AI324" s="9">
+      <c r="AI324" s="8">
         <v>1.392207461212511</v>
       </c>
-      <c r="AJ324" s="9">
+      <c r="AJ324" s="8">
         <v>1.4850574712643763</v>
       </c>
-      <c r="AK324" s="9">
+      <c r="AK324" s="8">
         <v>1.4949402023919043</v>
       </c>
-      <c r="AL324" s="9">
+      <c r="AL324" s="8">
         <v>0.89971952063526084</v>
       </c>
-      <c r="AM324" s="9">
+      <c r="AM324" s="8">
         <v>0.98859776807374788</v>
       </c>
-      <c r="AN324" s="9">
+      <c r="AN324" s="8">
         <v>2.995580291373376</v>
       </c>
-      <c r="AO324" s="9">
+      <c r="AO324" s="8">
         <v>1.1795254743559282</v>
       </c>
-      <c r="AP324" s="9">
+      <c r="AP324" s="8">
         <v>1.8341145302628896</v>
       </c>
-      <c r="AQ324" s="9">
+      <c r="AQ324" s="8">
         <v>1.2850353990883523</v>
       </c>
-      <c r="AR324" s="9">
+      <c r="AR324" s="8">
         <v>0.43798985707698873</v>
       </c>
-      <c r="AS324" s="9">
+      <c r="AS324" s="8">
         <v>1.601722861565378</v>
       </c>
-      <c r="AT324" s="9">
+      <c r="AT324" s="8">
         <v>2.4557671051866135</v>
       </c>
-      <c r="AU324" s="9">
+      <c r="AU324" s="8">
         <v>2.5132644512705946</v>
       </c>
-      <c r="AV324" s="9">
+      <c r="AV324" s="8">
         <v>0.2215891104780138</v>
       </c>
-      <c r="AW324" s="9">
+      <c r="AW324" s="8">
         <v>1.6191643681683545</v>
       </c>
-      <c r="AX324" s="9">
+      <c r="AX324" s="8">
         <v>2.3066026114806633</v>
       </c>
-      <c r="AY324" s="9">
+      <c r="AY324" s="8">
         <v>0.24144869215291137</v>
       </c>
-      <c r="AZ324" s="9">
+      <c r="AZ324" s="8">
         <v>0.98012430844888576</v>
       </c>
-      <c r="BA324" s="9">
+      <c r="BA324" s="8">
         <v>-1.0714285714285714</v>
       </c>
     </row>
@@ -52172,160 +52172,160 @@
       <c r="A325" s="7">
         <v>42948</v>
       </c>
-      <c r="B325" s="9">
-        <v>1.4236031887605181</v>
-      </c>
-      <c r="C325" s="9">
+      <c r="B325" s="8">
+        <v>1.4505679893247045</v>
+      </c>
+      <c r="C325" s="8">
         <v>1.3853076495272696</v>
       </c>
-      <c r="D325" s="9">
+      <c r="D325" s="8">
         <v>6.0277275467145459E-2</v>
       </c>
-      <c r="E325" s="9">
+      <c r="E325" s="8">
         <v>1.4062730083934554</v>
       </c>
-      <c r="F325" s="9">
+      <c r="F325" s="8">
         <v>2.035002035002035</v>
       </c>
-      <c r="G325" s="9">
+      <c r="G325" s="8">
         <v>1.608458943722096</v>
       </c>
-      <c r="H325" s="9">
+      <c r="H325" s="8">
         <v>1.6363287986204185</v>
       </c>
-      <c r="I325" s="9">
+      <c r="I325" s="8">
         <v>0.33904354032833961</v>
       </c>
-      <c r="J325" s="9">
+      <c r="J325" s="8">
         <v>0.52805280528052301</v>
       </c>
-      <c r="K325" s="9">
+      <c r="K325" s="8">
         <v>1.6254959682580374</v>
       </c>
-      <c r="L325" s="9">
+      <c r="L325" s="8">
         <v>2.5864625971406539</v>
       </c>
-      <c r="M325" s="9">
+      <c r="M325" s="8">
         <v>2.3670255138038558</v>
       </c>
-      <c r="N325" s="9">
+      <c r="N325" s="8">
         <v>0.59825126553151975</v>
       </c>
-      <c r="O325" s="9">
+      <c r="O325" s="8">
         <v>2.2177707826584636</v>
       </c>
-      <c r="P325" s="9">
+      <c r="P325" s="8">
         <v>0.41028537257898112</v>
       </c>
-      <c r="Q325" s="9">
+      <c r="Q325" s="8">
         <v>0.92107814620903639</v>
       </c>
-      <c r="R325" s="9">
+      <c r="R325" s="8">
         <v>1.1253099370589241</v>
       </c>
-      <c r="S325" s="9">
+      <c r="S325" s="8">
         <v>-0.38273442483521797</v>
       </c>
-      <c r="T325" s="9">
+      <c r="T325" s="8">
         <v>1.5755425709515885</v>
       </c>
-      <c r="U325" s="9">
+      <c r="U325" s="8">
         <v>1.1320754716981156</v>
       </c>
-      <c r="V325" s="9">
+      <c r="V325" s="8">
         <v>0.61478725125383504</v>
       </c>
-      <c r="W325" s="9">
+      <c r="W325" s="8">
         <v>2.3501676059969863</v>
       </c>
-      <c r="X325" s="9">
+      <c r="X325" s="8">
         <v>1.5277855503945355</v>
       </c>
-      <c r="Y325" s="9">
+      <c r="Y325" s="8">
         <v>1.3987950972924186</v>
       </c>
-      <c r="Z325" s="9">
+      <c r="Z325" s="8">
         <v>1.5426466030784127</v>
       </c>
-      <c r="AA325" s="9">
+      <c r="AA325" s="8">
         <v>0.4796790511076226</v>
       </c>
-      <c r="AB325" s="9">
+      <c r="AB325" s="8">
         <v>1.794052592774634</v>
       </c>
-      <c r="AC325" s="9">
+      <c r="AC325" s="8">
         <v>1.4970059880239521</v>
       </c>
-      <c r="AD325" s="9">
+      <c r="AD325" s="8">
         <v>1.4009471191791567</v>
       </c>
-      <c r="AE325" s="9">
+      <c r="AE325" s="8">
         <v>2.95622947062868</v>
       </c>
-      <c r="AF325" s="9">
+      <c r="AF325" s="8">
         <v>2.0140235715351338</v>
       </c>
-      <c r="AG325" s="9">
+      <c r="AG325" s="8">
         <v>0.95813066751398868</v>
       </c>
-      <c r="AH325" s="9">
+      <c r="AH325" s="8">
         <v>1.1078998073217783</v>
       </c>
-      <c r="AI325" s="9">
+      <c r="AI325" s="8">
         <v>1.4042498991657408</v>
       </c>
-      <c r="AJ325" s="9">
+      <c r="AJ325" s="8">
         <v>1.5508328546812178</v>
       </c>
-      <c r="AK325" s="9">
+      <c r="AK325" s="8">
         <v>1.3560101126177837</v>
       </c>
-      <c r="AL325" s="9">
+      <c r="AL325" s="8">
         <v>1.0641205517392109</v>
       </c>
-      <c r="AM325" s="9">
+      <c r="AM325" s="8">
         <v>1.1945909890243191</v>
       </c>
-      <c r="AN325" s="9">
+      <c r="AN325" s="8">
         <v>2.4013068336509615</v>
       </c>
-      <c r="AO325" s="9">
+      <c r="AO325" s="8">
         <v>1.1163327282289701</v>
       </c>
-      <c r="AP325" s="9">
+      <c r="AP325" s="8">
         <v>1.7128874388254556</v>
       </c>
-      <c r="AQ325" s="9">
+      <c r="AQ325" s="8">
         <v>1.7773029670276261</v>
       </c>
-      <c r="AR325" s="9">
+      <c r="AR325" s="8">
         <v>0.55363321799307441</v>
       </c>
-      <c r="AS325" s="9">
+      <c r="AS325" s="8">
         <v>1.693889897156688</v>
       </c>
-      <c r="AT325" s="9">
+      <c r="AT325" s="8">
         <v>2.4353360531104364</v>
       </c>
-      <c r="AU325" s="9">
+      <c r="AU325" s="8">
         <v>2.6207569526730263</v>
       </c>
-      <c r="AV325" s="9">
+      <c r="AV325" s="8">
         <v>0.69996818326439347</v>
       </c>
-      <c r="AW325" s="9">
+      <c r="AW325" s="8">
         <v>1.4149139579349905</v>
       </c>
-      <c r="AX325" s="9">
+      <c r="AX325" s="8">
         <v>2.1002210759027156</v>
       </c>
-      <c r="AY325" s="9">
+      <c r="AY325" s="8">
         <v>0.18804566823371086</v>
       </c>
-      <c r="AZ325" s="9">
+      <c r="AZ325" s="8">
         <v>0.70670171725104214</v>
       </c>
-      <c r="BA325" s="9">
+      <c r="BA325" s="8">
         <v>-0.64400715563506661</v>
       </c>
     </row>
@@ -52333,161 +52333,322 @@
       <c r="A326" s="7">
         <v>42979</v>
       </c>
-      <c r="B326" s="9">
-        <v>1.2265153711296088</v>
-      </c>
-      <c r="C326" s="9">
-        <v>1.5107113985448597</v>
-      </c>
-      <c r="D326" s="9">
-        <v>0.21218551076085043</v>
-      </c>
-      <c r="E326" s="9">
-        <v>1.270689907719343</v>
-      </c>
-      <c r="F326" s="9">
-        <v>1.983417330515352</v>
-      </c>
-      <c r="G326" s="9">
-        <v>1.6936351222341679</v>
-      </c>
-      <c r="H326" s="9">
-        <v>1.579410302497217</v>
-      </c>
-      <c r="I326" s="9">
-        <v>0.20815986677768525</v>
-      </c>
-      <c r="J326" s="9">
-        <v>0.61646851607221742</v>
-      </c>
-      <c r="K326" s="9">
-        <v>0.88077610416134511</v>
-      </c>
-      <c r="L326" s="9">
-        <v>0.7378764766398197</v>
-      </c>
-      <c r="M326" s="9">
-        <v>1.9056898778636207</v>
-      </c>
-      <c r="N326" s="9">
-        <v>1.2446220036877724</v>
-      </c>
-      <c r="O326" s="9">
-        <v>2.1428571428571428</v>
-      </c>
-      <c r="P326" s="9">
-        <v>6.1355797293723924E-2</v>
-      </c>
-      <c r="Q326" s="9">
-        <v>1.0478462728914109</v>
-      </c>
-      <c r="R326" s="9">
-        <v>0.9030780971762794</v>
-      </c>
-      <c r="S326" s="9">
-        <v>-0.36027126306865709</v>
-      </c>
-      <c r="T326" s="9">
-        <v>1.5729985936767443</v>
-      </c>
-      <c r="U326" s="9">
-        <v>0.74782520221804172</v>
-      </c>
-      <c r="V326" s="9">
-        <v>0.55033991583038055</v>
-      </c>
-      <c r="W326" s="9">
-        <v>2.3593934040047082</v>
-      </c>
-      <c r="X326" s="9">
-        <v>1.7424623818313958</v>
-      </c>
-      <c r="Y326" s="9">
-        <v>1.4283081459638776</v>
-      </c>
-      <c r="Z326" s="9">
-        <v>1.7980779167097334</v>
-      </c>
-      <c r="AA326" s="9">
-        <v>0.56669572798605061</v>
-      </c>
-      <c r="AB326" s="9">
-        <v>1.3435767908510552</v>
-      </c>
-      <c r="AC326" s="9">
-        <v>1.2374653296351634</v>
-      </c>
-      <c r="AD326" s="9">
-        <v>1.5130674002751123</v>
-      </c>
-      <c r="AE326" s="9">
-        <v>2.4549669377517636</v>
-      </c>
-      <c r="AF326" s="9">
-        <v>1.3283582089552204</v>
-      </c>
-      <c r="AG326" s="9">
-        <v>0.69585174695412266</v>
-      </c>
-      <c r="AH326" s="9">
-        <v>0.95111967252588214</v>
-      </c>
-      <c r="AI326" s="9">
-        <v>0.98764122420835265</v>
-      </c>
-      <c r="AJ326" s="9">
-        <v>1.407901676182606</v>
-      </c>
-      <c r="AK326" s="9">
-        <v>1.358820819898672</v>
-      </c>
-      <c r="AL326" s="9">
-        <v>1.120937511373155</v>
-      </c>
-      <c r="AM326" s="9">
-        <v>1.073703366697</v>
-      </c>
-      <c r="AN326" s="9">
-        <v>1.8947825614854152</v>
-      </c>
-      <c r="AO326" s="9">
-        <v>1.1280869948168883</v>
-      </c>
-      <c r="AP326" s="9">
-        <v>0.91724419078679165</v>
-      </c>
-      <c r="AQ326" s="9">
-        <v>1.3618959918576992</v>
-      </c>
-      <c r="AR326" s="9">
-        <v>0.73766712770861886</v>
-      </c>
-      <c r="AS326" s="9">
-        <v>1.4820278969957019</v>
-      </c>
-      <c r="AT326" s="9">
-        <v>2.1226688769167041</v>
-      </c>
-      <c r="AU326" s="9">
-        <v>2.5290071562565202</v>
-      </c>
-      <c r="AV326" s="9">
+      <c r="B326" s="8">
+        <v>1.2886348890821495</v>
+      </c>
+      <c r="C326" s="8">
+        <v>1.6673403395311235</v>
+      </c>
+      <c r="D326" s="8">
+        <v>0.36374658987573372</v>
+      </c>
+      <c r="E326" s="8">
+        <v>1.3292807968360818</v>
+      </c>
+      <c r="F326" s="8">
+        <v>2.0240611282718146</v>
+      </c>
+      <c r="G326" s="8">
+        <v>1.6821548984302173</v>
+      </c>
+      <c r="H326" s="8">
+        <v>1.6329496347852621</v>
+      </c>
+      <c r="I326" s="8">
+        <v>0.34495063637444712</v>
+      </c>
+      <c r="J326" s="8">
+        <v>0.6384852487890873</v>
+      </c>
+      <c r="K326" s="8">
+        <v>1.3658412050038353</v>
+      </c>
+      <c r="L326" s="8">
+        <v>0.86440337247387922</v>
+      </c>
+      <c r="M326" s="8">
+        <v>1.8399764337993656</v>
+      </c>
+      <c r="N326" s="8">
+        <v>1.1677934849416138</v>
+      </c>
+      <c r="O326" s="8">
+        <v>2.2571428571428505</v>
+      </c>
+      <c r="P326" s="8">
+        <v>0.10944547625365422</v>
+      </c>
+      <c r="Q326" s="8">
+        <v>0.88663915398504001</v>
+      </c>
+      <c r="R326" s="8">
+        <v>0.90943780208598024</v>
+      </c>
+      <c r="S326" s="8">
+        <v>-0.48036168409154806</v>
+      </c>
+      <c r="T326" s="8">
+        <v>1.6355018490546311</v>
+      </c>
+      <c r="U326" s="8">
+        <v>0.75291244849162919</v>
+      </c>
+      <c r="V326" s="8">
+        <v>0.58271285205568524</v>
+      </c>
+      <c r="W326" s="8">
+        <v>2.3888398115429781</v>
+      </c>
+      <c r="X326" s="8">
+        <v>1.7704312804161695</v>
+      </c>
+      <c r="Y326" s="8">
+        <v>1.5250645042388458</v>
+      </c>
+      <c r="Z326" s="8">
+        <v>1.804967104130071</v>
+      </c>
+      <c r="AA326" s="8">
+        <v>0.39232781168265041</v>
+      </c>
+      <c r="AB326" s="8">
+        <v>1.3821651582123093</v>
+      </c>
+      <c r="AC326" s="8">
+        <v>1.1521228931086056</v>
+      </c>
+      <c r="AD326" s="8">
+        <v>1.5916683041855026</v>
+      </c>
+      <c r="AE326" s="8">
+        <v>2.5385726229383492</v>
+      </c>
+      <c r="AF326" s="8">
+        <v>1.2089552238806005</v>
+      </c>
+      <c r="AG326" s="8">
+        <v>0.69096857680006307</v>
+      </c>
+      <c r="AH326" s="8">
+        <v>1.4447387430772936</v>
+      </c>
+      <c r="AI326" s="8">
+        <v>1.1828356229777754</v>
+      </c>
+      <c r="AJ326" s="8">
+        <v>1.5317236477035443</v>
+      </c>
+      <c r="AK326" s="8">
+        <v>1.3818516812528789</v>
+      </c>
+      <c r="AL326" s="8">
+        <v>0.9316883211413316</v>
+      </c>
+      <c r="AM326" s="8">
+        <v>1.1828935395814377</v>
+      </c>
+      <c r="AN326" s="8">
+        <v>2.0413703241218255</v>
+      </c>
+      <c r="AO326" s="8">
+        <v>1.2585114671906259</v>
+      </c>
+      <c r="AP326" s="8">
+        <v>1.1006930289441452</v>
+      </c>
+      <c r="AQ326" s="8">
+        <v>1.4103620413900018</v>
+      </c>
+      <c r="AR326" s="8">
+        <v>0.80682342093130466</v>
+      </c>
+      <c r="AS326" s="8">
+        <v>1.4518508583690894</v>
+      </c>
+      <c r="AT326" s="8">
+        <v>2.141732283464564</v>
+      </c>
+      <c r="AU326" s="8">
+        <v>2.8208156742861208</v>
+      </c>
+      <c r="AV326" s="8">
         <v>1.0499522748965993</v>
       </c>
-      <c r="AW326" s="9">
-        <v>1.0792374067757806</v>
-      </c>
-      <c r="AX326" s="9">
-        <v>2.1819628484867089</v>
-      </c>
-      <c r="AY326" s="9">
-        <v>0.40333422963162141</v>
-      </c>
-      <c r="AZ326" s="9">
-        <v>1.1833914768451981</v>
-      </c>
-      <c r="BA326" s="9">
-        <v>-1.1139058569888691</v>
+      <c r="AW326" s="8">
+        <v>1.27777636368265</v>
+      </c>
+      <c r="AX326" s="8">
+        <v>2.1054564372494471</v>
+      </c>
+      <c r="AY326" s="8">
+        <v>0.41677870395267858</v>
+      </c>
+      <c r="AZ326" s="8">
+        <v>1.3065189137423838</v>
+      </c>
+      <c r="BA326" s="8">
+        <v>-1.006108515989943</v>
+      </c>
+    </row>
+    <row r="327" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A327" s="7">
+        <v>43009</v>
+      </c>
+      <c r="B327" s="8">
+        <v>1.3820117788229451</v>
+      </c>
+      <c r="C327" s="8">
+        <v>1.4725163893091298</v>
+      </c>
+      <c r="D327" s="8">
+        <v>9.0744101633380064E-2</v>
+      </c>
+      <c r="E327" s="8">
+        <v>1.1534236543390699</v>
+      </c>
+      <c r="F327" s="8">
+        <v>1.9032963472908397</v>
+      </c>
+      <c r="G327" s="8">
+        <v>1.5466618484054524</v>
+      </c>
+      <c r="H327" s="8">
+        <v>1.4420875934686475</v>
+      </c>
+      <c r="I327" s="8">
+        <v>8.3373034778457811E-2</v>
+      </c>
+      <c r="J327" s="8">
+        <v>0.70500110156423124</v>
+      </c>
+      <c r="K327" s="8">
+        <v>0.94099694811800327</v>
+      </c>
+      <c r="L327" s="8">
+        <v>2.3351778282255009</v>
+      </c>
+      <c r="M327" s="8">
+        <v>1.9853922167198106</v>
+      </c>
+      <c r="N327" s="8">
+        <v>1.0909649661954552</v>
+      </c>
+      <c r="O327" s="8">
+        <v>2.376547602106152</v>
+      </c>
+      <c r="P327" s="8">
+        <v>0.29555341546839026</v>
+      </c>
+      <c r="Q327" s="8">
+        <v>0.94820357350190576</v>
+      </c>
+      <c r="R327" s="8">
+        <v>0.85812356979405036</v>
+      </c>
+      <c r="S327" s="8">
+        <v>-0.36819372654535476</v>
+      </c>
+      <c r="T327" s="8">
+        <v>1.4889629321116271</v>
+      </c>
+      <c r="U327" s="8">
+        <v>0.43674775278046507</v>
+      </c>
+      <c r="V327" s="8">
+        <v>0.84415584415585154</v>
+      </c>
+      <c r="W327" s="8">
+        <v>1.9986773458740403</v>
+      </c>
+      <c r="X327" s="8">
+        <v>1.9303399076793955</v>
+      </c>
+      <c r="Y327" s="8">
+        <v>1.0332424568718725</v>
+      </c>
+      <c r="Z327" s="8">
+        <v>1.4647228716820213</v>
+      </c>
+      <c r="AA327" s="8">
+        <v>0.56664632551651994</v>
+      </c>
+      <c r="AB327" s="8">
+        <v>1.0733139880432059</v>
+      </c>
+      <c r="AC327" s="8">
+        <v>1.2350936967631929</v>
+      </c>
+      <c r="AD327" s="8">
+        <v>0.96305031446541556</v>
+      </c>
+      <c r="AE327" s="8">
+        <v>2.7826351402721916</v>
+      </c>
+      <c r="AF327" s="8">
+        <v>0.93430223935934575</v>
+      </c>
+      <c r="AG327" s="8">
+        <v>0.73247552310960284</v>
+      </c>
+      <c r="AH327" s="8">
+        <v>1.5888300433317342</v>
+      </c>
+      <c r="AI327" s="8">
+        <v>1.0890794836956561</v>
+      </c>
+      <c r="AJ327" s="8">
+        <v>1.7231502486194132</v>
+      </c>
+      <c r="AK327" s="8">
+        <v>0.59715204409738698</v>
+      </c>
+      <c r="AL327" s="8">
+        <v>1.0816716744058934</v>
+      </c>
+      <c r="AM327" s="8">
+        <v>1.2227602905569035</v>
+      </c>
+      <c r="AN327" s="8">
+        <v>2.5097571552471791</v>
+      </c>
+      <c r="AO327" s="8">
+        <v>1.1137440758293868</v>
+      </c>
+      <c r="AP327" s="8">
+        <v>0.93648208469055838</v>
+      </c>
+      <c r="AQ327" s="8">
+        <v>2.063106796116505</v>
+      </c>
+      <c r="AR327" s="8">
+        <v>0.13815335021873495</v>
+      </c>
+      <c r="AS327" s="8">
+        <v>1.1644248142943245</v>
+      </c>
+      <c r="AT327" s="8">
+        <v>2.616981819386035</v>
+      </c>
+      <c r="AU327" s="8">
+        <v>2.7032647119983362</v>
+      </c>
+      <c r="AV327" s="8">
+        <v>1.019432940426902</v>
+      </c>
+      <c r="AW327" s="8">
+        <v>0.85546022236888397</v>
+      </c>
+      <c r="AX327" s="8">
+        <v>2.0916669211273624</v>
+      </c>
+      <c r="AY327" s="8">
+        <v>0.42924211938297052</v>
+      </c>
+      <c r="AZ327" s="8">
+        <v>1.4470495887512405</v>
+      </c>
+      <c r="BA327" s="8">
+        <v>-0.50541516245486551</v>
       </c>
     </row>
   </sheetData>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1990 -- October 2017</t>
+    <t>Total Employment; Year/Year: January 1990 -- November 2017</t>
   </si>
 </sst>
 </file>
@@ -622,11 +622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA327"/>
+  <dimension ref="A1:BA328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J327" sqref="J327"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -52334,7 +52334,7 @@
         <v>42979</v>
       </c>
       <c r="B326" s="8">
-        <v>1.2886348890821495</v>
+        <v>1.3024392264049365</v>
       </c>
       <c r="C326" s="8">
         <v>1.6673403395311235</v>
@@ -52495,160 +52495,321 @@
         <v>43009</v>
       </c>
       <c r="B327" s="8">
-        <v>1.3820117788229451</v>
+        <v>1.3613229797387696</v>
       </c>
       <c r="C327" s="8">
-        <v>1.4725163893091298</v>
+        <v>1.5683308119011554</v>
       </c>
       <c r="D327" s="8">
-        <v>9.0744101633380064E-2</v>
+        <v>-6.0496067755609638E-2</v>
       </c>
       <c r="E327" s="8">
-        <v>1.1534236543390699</v>
+        <v>1.1351153423654339</v>
       </c>
       <c r="F327" s="8">
-        <v>1.9032963472908397</v>
+        <v>1.7413136794363002</v>
       </c>
       <c r="G327" s="8">
-        <v>1.5466618484054524</v>
+        <v>1.6291745716264645</v>
       </c>
       <c r="H327" s="8">
-        <v>1.4420875934686475</v>
+        <v>1.5374637570578431</v>
       </c>
       <c r="I327" s="8">
-        <v>8.3373034778457811E-2</v>
+        <v>0.10719390185802491</v>
       </c>
       <c r="J327" s="8">
-        <v>0.70500110156423124</v>
+        <v>0.37453183520600253</v>
       </c>
       <c r="K327" s="8">
-        <v>0.94099694811800327</v>
+        <v>1.0172939979654121</v>
       </c>
       <c r="L327" s="8">
-        <v>2.3351778282255009</v>
+        <v>2.4321320469163696</v>
       </c>
       <c r="M327" s="8">
-        <v>1.9853922167198106</v>
+        <v>1.9921760170047136</v>
       </c>
       <c r="N327" s="8">
-        <v>1.0909649661954552</v>
+        <v>1.0755992624462201</v>
       </c>
       <c r="O327" s="8">
-        <v>2.376547602106152</v>
+        <v>2.5330866657179385</v>
       </c>
       <c r="P327" s="8">
-        <v>0.29555341546839026</v>
+        <v>0.39351774980904947</v>
       </c>
       <c r="Q327" s="8">
-        <v>0.94820357350190576</v>
+        <v>1.070760497968144</v>
       </c>
       <c r="R327" s="8">
-        <v>0.85812356979405036</v>
+        <v>0.85176709890667834</v>
       </c>
       <c r="S327" s="8">
-        <v>-0.36819372654535476</v>
+        <v>-0.26906464632159988</v>
       </c>
       <c r="T327" s="8">
-        <v>1.4889629321116271</v>
+        <v>1.457725947521866</v>
       </c>
       <c r="U327" s="8">
-        <v>0.43674775278046507</v>
+        <v>0.45198313950536245</v>
       </c>
       <c r="V327" s="8">
-        <v>0.84415584415585154</v>
+        <v>0.51948051948052687</v>
       </c>
       <c r="W327" s="8">
-        <v>1.9986773458740403</v>
+        <v>2.0464398559776549</v>
       </c>
       <c r="X327" s="8">
-        <v>1.9303399076793955</v>
+        <v>1.8855784025737892</v>
       </c>
       <c r="Y327" s="8">
-        <v>1.0332424568718725</v>
+        <v>0.94389333088961325</v>
       </c>
       <c r="Z327" s="8">
-        <v>1.4647228716820213</v>
+        <v>1.5369275202860617</v>
       </c>
       <c r="AA327" s="8">
-        <v>0.56664632551651994</v>
+        <v>0.74099904106006453</v>
       </c>
       <c r="AB327" s="8">
-        <v>1.0733139880432059</v>
+        <v>1.1047792189630428</v>
       </c>
       <c r="AC327" s="8">
-        <v>1.2350936967631929</v>
+        <v>1.4267461669505936</v>
       </c>
       <c r="AD327" s="8">
-        <v>0.96305031446541556</v>
+        <v>1.0908018867924549</v>
       </c>
       <c r="AE327" s="8">
-        <v>2.7826351402721916</v>
+        <v>2.7978407967763972</v>
       </c>
       <c r="AF327" s="8">
-        <v>0.93430223935934575</v>
+        <v>1.0084532107370707</v>
       </c>
       <c r="AG327" s="8">
-        <v>0.73247552310960284</v>
+        <v>0.84478843665308412</v>
       </c>
       <c r="AH327" s="8">
-        <v>1.5888300433317342</v>
+        <v>1.6249398170438134</v>
       </c>
       <c r="AI327" s="8">
-        <v>1.0890794836956561</v>
+        <v>1.1347231657608849</v>
       </c>
       <c r="AJ327" s="8">
-        <v>1.7231502486194132</v>
+        <v>1.8216814463463256</v>
       </c>
       <c r="AK327" s="8">
-        <v>0.59715204409738698</v>
+        <v>0.71198897565457575</v>
       </c>
       <c r="AL327" s="8">
-        <v>1.0816716744058934</v>
+        <v>0.98151688973868045</v>
       </c>
       <c r="AM327" s="8">
-        <v>1.2227602905569035</v>
+        <v>1.2167070217917619</v>
       </c>
       <c r="AN327" s="8">
-        <v>2.5097571552471791</v>
+        <v>2.3091934084995738</v>
       </c>
       <c r="AO327" s="8">
-        <v>1.1137440758293868</v>
+        <v>1.1120514556533483</v>
       </c>
       <c r="AP327" s="8">
-        <v>0.93648208469055838</v>
+        <v>1.2011400651465867</v>
       </c>
       <c r="AQ327" s="8">
-        <v>2.063106796116505</v>
+        <v>2.2184466019417388</v>
       </c>
       <c r="AR327" s="8">
-        <v>0.13815335021873495</v>
+        <v>0.27630670043748301</v>
       </c>
       <c r="AS327" s="8">
-        <v>1.1644248142943245</v>
+        <v>1.2179615873653247</v>
       </c>
       <c r="AT327" s="8">
-        <v>2.616981819386035</v>
+        <v>2.5822101533265016</v>
       </c>
       <c r="AU327" s="8">
-        <v>2.7032647119983362</v>
+        <v>2.7448533998752276</v>
       </c>
       <c r="AV327" s="8">
-        <v>1.019432940426902</v>
+        <v>0.89200382287353031</v>
       </c>
       <c r="AW327" s="8">
-        <v>0.85546022236888397</v>
+        <v>0.83261410367060273</v>
       </c>
       <c r="AX327" s="8">
-        <v>2.0916669211273624</v>
+        <v>2.0733457510153008</v>
       </c>
       <c r="AY327" s="8">
-        <v>0.42924211938297052</v>
+        <v>0.48289738430583806</v>
       </c>
       <c r="AZ327" s="8">
-        <v>1.4470495887512405</v>
+        <v>1.4265724719292918</v>
       </c>
       <c r="BA327" s="8">
-        <v>-0.50541516245486551</v>
+        <v>-0.5776173285198638</v>
+      </c>
+    </row>
+    <row r="328" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A328" s="7">
+        <v>43040</v>
+      </c>
+      <c r="B328" s="9">
+        <v>1.4204036646690086</v>
+      </c>
+      <c r="C328" s="9">
+        <v>1.6838921099067352</v>
+      </c>
+      <c r="D328" s="9">
+        <v>-0.75780539557441662</v>
+      </c>
+      <c r="E328" s="9">
+        <v>1.513818634997441</v>
+      </c>
+      <c r="F328" s="9">
+        <v>1.6700445885691049</v>
+      </c>
+      <c r="G328" s="9">
+        <v>1.7332908477674214</v>
+      </c>
+      <c r="H328" s="9">
+        <v>1.7303284950343845</v>
+      </c>
+      <c r="I328" s="9">
+        <v>-4.1711357406748036E-2</v>
+      </c>
+      <c r="J328" s="9">
+        <v>6.6108417805203032E-2</v>
+      </c>
+      <c r="K328" s="9">
+        <v>1.0052169487212084</v>
+      </c>
+      <c r="L328" s="9">
+        <v>2.2991487254462708</v>
+      </c>
+      <c r="M328" s="9">
+        <v>1.9240757887129878</v>
+      </c>
+      <c r="N328" s="9">
+        <v>0.75199508901166012</v>
+      </c>
+      <c r="O328" s="9">
+        <v>2.2972206466250609</v>
+      </c>
+      <c r="P328" s="9">
+        <v>0.43028259099894733</v>
+      </c>
+      <c r="Q328" s="9">
+        <v>0.67561046231058774</v>
+      </c>
+      <c r="R328" s="9">
+        <v>1.445675710100627</v>
+      </c>
+      <c r="S328" s="9">
+        <v>0.20586356214948986</v>
+      </c>
+      <c r="T328" s="9">
+        <v>1.3282141745356391</v>
+      </c>
+      <c r="U328" s="9">
+        <v>0.45269582909461292</v>
+      </c>
+      <c r="V328" s="9">
+        <v>0.34030140982013007</v>
+      </c>
+      <c r="W328" s="9">
+        <v>2.2298141209316098</v>
+      </c>
+      <c r="X328" s="9">
+        <v>1.8195010325389245</v>
+      </c>
+      <c r="Y328" s="9">
+        <v>1.0599816849816892</v>
+      </c>
+      <c r="Z328" s="9">
+        <v>1.1489916312251338</v>
+      </c>
+      <c r="AA328" s="9">
+        <v>1.0638297872340465</v>
+      </c>
+      <c r="AB328" s="9">
+        <v>1.0543956427623866</v>
+      </c>
+      <c r="AC328" s="9">
+        <v>0.82609616606650649</v>
+      </c>
+      <c r="AD328" s="9">
+        <v>0.98845175181054379</v>
+      </c>
+      <c r="AE328" s="9">
+        <v>2.6615104640582454</v>
+      </c>
+      <c r="AF328" s="9">
+        <v>1.2902269019724226</v>
+      </c>
+      <c r="AG328" s="9">
+        <v>1.0232489987300877</v>
+      </c>
+      <c r="AH328" s="9">
+        <v>1.2209719894661295</v>
+      </c>
+      <c r="AI328" s="9">
+        <v>1.2378388689883328</v>
+      </c>
+      <c r="AJ328" s="9">
+        <v>1.6342857142857141</v>
+      </c>
+      <c r="AK328" s="9">
+        <v>0.36849378166743962</v>
+      </c>
+      <c r="AL328" s="9">
+        <v>0.70166509125282428</v>
+      </c>
+      <c r="AM328" s="9">
+        <v>1.1581372786805668</v>
+      </c>
+      <c r="AN328" s="9">
+        <v>1.9629048829286733</v>
+      </c>
+      <c r="AO328" s="9">
+        <v>1.0586126424730335</v>
+      </c>
+      <c r="AP328" s="9">
+        <v>1.1174319382364892</v>
+      </c>
+      <c r="AQ328" s="9">
+        <v>2.1655065738592287</v>
+      </c>
+      <c r="AR328" s="9">
+        <v>0.22972662531587409</v>
+      </c>
+      <c r="AS328" s="9">
+        <v>1.2104594395773514</v>
+      </c>
+      <c r="AT328" s="9">
+        <v>2.7289386360259549</v>
+      </c>
+      <c r="AU328" s="9">
+        <v>2.8486482749083901</v>
+      </c>
+      <c r="AV328" s="9">
+        <v>1.599488163787588</v>
+      </c>
+      <c r="AW328" s="9">
+        <v>0.85689585028477977</v>
+      </c>
+      <c r="AX328" s="9">
+        <v>2.1044617024516494</v>
+      </c>
+      <c r="AY328" s="9">
+        <v>-0.8351007423117649</v>
+      </c>
+      <c r="AZ328" s="9">
+        <v>1.3838707478355683</v>
+      </c>
+      <c r="BA328" s="9">
+        <v>-0.61460592913956802</v>
       </c>
     </row>
   </sheetData>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RAuxier\Box Sync\TPC\CENTER\SLFI\SEM\Historical\Employment\PUBLISHED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\AppData\Local\Box\Box Edit\Documents\XU0jYT9yuUGehU4BhgrPXQ==\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -622,11 +622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA328"/>
+  <dimension ref="A1:BA330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="5" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A331" sqref="A331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -52812,6 +52812,328 @@
         <v>-0.61460592913956802</v>
       </c>
     </row>
+    <row r="329" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A329" s="7">
+        <v>43070</v>
+      </c>
+      <c r="B329" s="9">
+        <v>1.5826595561672114</v>
+      </c>
+      <c r="C329" s="9">
+        <v>1.8399959671321267</v>
+      </c>
+      <c r="D329" s="9">
+        <v>-0.88038858530661113</v>
+      </c>
+      <c r="E329" s="9">
+        <v>2.1824961614389053</v>
+      </c>
+      <c r="F329" s="9">
+        <v>0.13739594277863457</v>
+      </c>
+      <c r="G329" s="9">
+        <v>2.1937864754566379</v>
+      </c>
+      <c r="H329" s="9">
+        <v>2.6162013520223044</v>
+      </c>
+      <c r="I329" s="9">
+        <v>0.48286140089418234</v>
+      </c>
+      <c r="J329" s="9">
+        <v>0.2420774647887374</v>
+      </c>
+      <c r="K329" s="9">
+        <v>0.81259522600304435</v>
+      </c>
+      <c r="L329" s="9">
+        <v>1.9735292732325418</v>
+      </c>
+      <c r="M329" s="9">
+        <v>1.1610343350542194</v>
+      </c>
+      <c r="N329" s="9">
+        <v>0.78232857800276456</v>
+      </c>
+      <c r="O329" s="9">
+        <v>2.8535103828224391</v>
+      </c>
+      <c r="P329" s="9">
+        <v>0.99480178698951449</v>
+      </c>
+      <c r="Q329" s="9">
+        <v>0.20266357845976266</v>
+      </c>
+      <c r="R329" s="9">
+        <v>0.68711031937905298</v>
+      </c>
+      <c r="S329" s="9">
+        <v>5.6717476072311562E-2</v>
+      </c>
+      <c r="T329" s="9">
+        <v>-0.3779837415212528</v>
+      </c>
+      <c r="U329" s="9">
+        <v>6.6023362112745274E-2</v>
+      </c>
+      <c r="V329" s="9">
+        <v>1.0038860103626832</v>
+      </c>
+      <c r="W329" s="9">
+        <v>-0.53830379376008031</v>
+      </c>
+      <c r="X329" s="9">
+        <v>1.1766674102163679</v>
+      </c>
+      <c r="Y329" s="9">
+        <v>0.59282656961707858</v>
+      </c>
+      <c r="Z329" s="9">
+        <v>0.76333264873005158</v>
+      </c>
+      <c r="AA329" s="9">
+        <v>1.4847161572052401</v>
+      </c>
+      <c r="AB329" s="9">
+        <v>0.30992095274576353</v>
+      </c>
+      <c r="AC329" s="9">
+        <v>1.0599957600169601</v>
+      </c>
+      <c r="AD329" s="9">
+        <v>-7.8285546530967268E-2</v>
+      </c>
+      <c r="AE329" s="9">
+        <v>2.9137970180882466</v>
+      </c>
+      <c r="AF329" s="9">
+        <v>0.63836104513063452</v>
+      </c>
+      <c r="AG329" s="9">
+        <v>1.0502717060214042</v>
+      </c>
+      <c r="AH329" s="9">
+        <v>-7.1736011477764566E-2</v>
+      </c>
+      <c r="AI329" s="9">
+        <v>1.2126914984722492</v>
+      </c>
+      <c r="AJ329" s="9">
+        <v>1.5173295000798595</v>
+      </c>
+      <c r="AK329" s="9">
+        <v>-1.7519594283079813</v>
+      </c>
+      <c r="AL329" s="9">
+        <v>0.55598960699166677</v>
+      </c>
+      <c r="AM329" s="9">
+        <v>1.6785844140104256</v>
+      </c>
+      <c r="AN329" s="9">
+        <v>2.391363022941968</v>
+      </c>
+      <c r="AO329" s="9">
+        <v>1.3065598431452119</v>
+      </c>
+      <c r="AP329" s="9">
+        <v>1.3433747201302597</v>
+      </c>
+      <c r="AQ329" s="9">
+        <v>1.8979089196890029</v>
+      </c>
+      <c r="AR329" s="9">
+        <v>0.64308681672025991</v>
+      </c>
+      <c r="AS329" s="9">
+        <v>1.0988276944657858</v>
+      </c>
+      <c r="AT329" s="9">
+        <v>1.7672065777982833</v>
+      </c>
+      <c r="AU329" s="9">
+        <v>2.8218573202704471</v>
+      </c>
+      <c r="AV329" s="9">
+        <v>-0.1274291175533537</v>
+      </c>
+      <c r="AW329" s="9">
+        <v>0.45220130579477491</v>
+      </c>
+      <c r="AX329" s="9">
+        <v>2.3818927540634993</v>
+      </c>
+      <c r="AY329" s="9">
+        <v>0.24102838778790417</v>
+      </c>
+      <c r="AZ329" s="9">
+        <v>0.64751388746890226</v>
+      </c>
+      <c r="BA329" s="9">
+        <v>2.348265895953757</v>
+      </c>
+    </row>
+    <row r="330" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A330" s="7">
+        <v>43101</v>
+      </c>
+      <c r="B330" s="9">
+        <v>1.5961138098542678</v>
+      </c>
+      <c r="C330" s="9">
+        <v>1.5087719298245568</v>
+      </c>
+      <c r="D330" s="9">
+        <v>-0.30469226081657524</v>
+      </c>
+      <c r="E330" s="9">
+        <v>2.5739601640304697</v>
+      </c>
+      <c r="F330" s="9">
+        <v>0.4372823710421786</v>
+      </c>
+      <c r="G330" s="9">
+        <v>2.3130689597194576</v>
+      </c>
+      <c r="H330" s="9">
+        <v>2.4491348165050426</v>
+      </c>
+      <c r="I330" s="9">
+        <v>0.29691211401425177</v>
+      </c>
+      <c r="J330" s="9">
+        <v>0.39491004826678622</v>
+      </c>
+      <c r="K330" s="9">
+        <v>0.81269841269840992</v>
+      </c>
+      <c r="L330" s="9">
+        <v>1.433083762283575</v>
+      </c>
+      <c r="M330" s="9">
+        <v>1.0449979730642887</v>
+      </c>
+      <c r="N330" s="9">
+        <v>1.3692307692307659</v>
+      </c>
+      <c r="O330" s="9">
+        <v>2.2022724084724428</v>
+      </c>
+      <c r="P330" s="9">
+        <v>0.86244070720138</v>
+      </c>
+      <c r="Q330" s="9">
+        <v>0.15106225693439457</v>
+      </c>
+      <c r="R330" s="9">
+        <v>0.3867123113984981</v>
+      </c>
+      <c r="S330" s="9">
+        <v>0.31982942430703626</v>
+      </c>
+      <c r="T330" s="9">
+        <v>-0.62554929431835338</v>
+      </c>
+      <c r="U330" s="9">
+        <v>-0.25813635673432894</v>
+      </c>
+      <c r="V330" s="9">
+        <v>0.1768773114648694</v>
+      </c>
+      <c r="W330" s="9">
+        <v>-0.54664723032069973</v>
+      </c>
+      <c r="X330" s="9">
+        <v>0.80701266175038266</v>
+      </c>
+      <c r="Y330" s="9">
+        <v>0.49559219841958196</v>
+      </c>
+      <c r="Z330" s="9">
+        <v>0.98371893744643757</v>
+      </c>
+      <c r="AA330" s="9">
+        <v>1.3954299668585386</v>
+      </c>
+      <c r="AB330" s="9">
+        <v>0.29544664581160929</v>
+      </c>
+      <c r="AC330" s="9">
+        <v>0.50600885515496041</v>
+      </c>
+      <c r="AD330" s="9">
+        <v>0.28464860620338545</v>
+      </c>
+      <c r="AE330" s="9">
+        <v>2.9965947786606062</v>
+      </c>
+      <c r="AF330" s="9">
+        <v>-4.4091710758370747E-2</v>
+      </c>
+      <c r="AG330" s="9">
+        <v>1.0248688556440602</v>
+      </c>
+      <c r="AH330" s="9">
+        <v>0.50389922015597433</v>
+      </c>
+      <c r="AI330" s="9">
+        <v>0.90357952448732914</v>
+      </c>
+      <c r="AJ330" s="9">
+        <v>1.8482979209504142</v>
+      </c>
+      <c r="AK330" s="9">
+        <v>-2.6878015161957243</v>
+      </c>
+      <c r="AL330" s="9">
+        <v>0.71911091741119071</v>
+      </c>
+      <c r="AM330" s="9">
+        <v>1.2827494403097988</v>
+      </c>
+      <c r="AN330" s="9">
+        <v>2.6224908266781735</v>
+      </c>
+      <c r="AO330" s="9">
+        <v>0.98159923091193957</v>
+      </c>
+      <c r="AP330" s="9">
+        <v>0.95334685598377056</v>
+      </c>
+      <c r="AQ330" s="9">
+        <v>1.7821877558884449</v>
+      </c>
+      <c r="AR330" s="9">
+        <v>1.0809567617295281</v>
+      </c>
+      <c r="AS330" s="9">
+        <v>0.76267235062945749</v>
+      </c>
+      <c r="AT330" s="9">
+        <v>1.450190706639866</v>
+      </c>
+      <c r="AU330" s="9">
+        <v>2.9964868774540196</v>
+      </c>
+      <c r="AV330" s="9">
+        <v>-0.56980056980055538</v>
+      </c>
+      <c r="AW330" s="9">
+        <v>0.34969465068544531</v>
+      </c>
+      <c r="AX330" s="9">
+        <v>2.6851964481206583</v>
+      </c>
+      <c r="AY330" s="9">
+        <v>0.29466916688989175</v>
+      </c>
+      <c r="AZ330" s="9">
+        <v>0.77558934585162376</v>
+      </c>
+      <c r="BA330" s="9">
+        <v>2.3029866858582348</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1991 -- February 2018</t>
+    <t>Total Employment; Year/Year: January 1991 -- April 2018</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA331"/>
+  <dimension ref="A1:BA333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -53139,7 +53139,7 @@
         <v>43132</v>
       </c>
       <c r="B331" s="9">
-        <v>1.5291714646049239</v>
+        <v>1.5278006251028129</v>
       </c>
       <c r="C331" s="9">
         <v>0.85967004571655503</v>
@@ -53293,6 +53293,328 @@
       </c>
       <c r="BA331" s="9">
         <v>1.7106200997861563</v>
+      </c>
+    </row>
+    <row r="332" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A332" s="7">
+        <v>43160</v>
+      </c>
+      <c r="B332" s="9">
+        <v>1.5695113345984422</v>
+      </c>
+      <c r="C332" s="9">
+        <v>0.8343680158927218</v>
+      </c>
+      <c r="D332" s="9">
+        <v>-0.36341611144760411</v>
+      </c>
+      <c r="E332" s="9">
+        <v>2.2901317460893513</v>
+      </c>
+      <c r="F332" s="9">
+        <v>0.4276607762446506</v>
+      </c>
+      <c r="G332" s="9">
+        <v>1.9946426863101636</v>
+      </c>
+      <c r="H332" s="9">
+        <v>2.4266706985183051</v>
+      </c>
+      <c r="I332" s="9">
+        <v>0.37450957080013997</v>
+      </c>
+      <c r="J332" s="9">
+        <v>0.5250492233646854</v>
+      </c>
+      <c r="K332" s="9">
+        <v>0.36685641998734692</v>
+      </c>
+      <c r="L332" s="9">
+        <v>2.0728724089094719</v>
+      </c>
+      <c r="M332" s="9">
+        <v>1.5283695137620719</v>
+      </c>
+      <c r="N332" s="9">
+        <v>1.2555504516919203</v>
+      </c>
+      <c r="O332" s="9">
+        <v>3.2357906584130562</v>
+      </c>
+      <c r="P332" s="9">
+        <v>0.72350055336229846</v>
+      </c>
+      <c r="Q332" s="9">
+        <v>0.97031043486670021</v>
+      </c>
+      <c r="R332" s="9">
+        <v>0.75723830734967168</v>
+      </c>
+      <c r="S332" s="9">
+        <v>0.71143995446784292</v>
+      </c>
+      <c r="T332" s="9">
+        <v>0.22877346227838047</v>
+      </c>
+      <c r="U332" s="9">
+        <v>0.5524581855043128</v>
+      </c>
+      <c r="V332" s="9">
+        <v>0.64092292901778558</v>
+      </c>
+      <c r="W332" s="9">
+        <v>0.41509018109685658</v>
+      </c>
+      <c r="X332" s="9">
+        <v>1.114167430746573</v>
+      </c>
+      <c r="Y332" s="9">
+        <v>1.3889525555810305</v>
+      </c>
+      <c r="Z332" s="9">
+        <v>0.64163822525597891</v>
+      </c>
+      <c r="AA332" s="9">
+        <v>1.2860618700034721</v>
+      </c>
+      <c r="AB332" s="9">
+        <v>0.98754231077922261</v>
+      </c>
+      <c r="AC332" s="9">
+        <v>0.8688281415554191</v>
+      </c>
+      <c r="AD332" s="9">
+        <v>0.66732090284592294</v>
+      </c>
+      <c r="AE332" s="9">
+        <v>2.7952637889688212</v>
+      </c>
+      <c r="AF332" s="9">
+        <v>1.1422637590861788</v>
+      </c>
+      <c r="AG332" s="9">
+        <v>1.6605076339589657</v>
+      </c>
+      <c r="AH332" s="9">
+        <v>1.2171607616293112</v>
+      </c>
+      <c r="AI332" s="9">
+        <v>1.156026724555828</v>
+      </c>
+      <c r="AJ332" s="9">
+        <v>1.6891354263759788</v>
+      </c>
+      <c r="AK332" s="9">
+        <v>-1.4345210550670959</v>
+      </c>
+      <c r="AL332" s="9">
+        <v>0.95750072400810227</v>
+      </c>
+      <c r="AM332" s="9">
+        <v>1.5956482320942937</v>
+      </c>
+      <c r="AN332" s="9">
+        <v>2.2405660377358592</v>
+      </c>
+      <c r="AO332" s="9">
+        <v>1.445799412221725</v>
+      </c>
+      <c r="AP332" s="9">
+        <v>1.3214067899979671</v>
+      </c>
+      <c r="AQ332" s="9">
+        <v>1.5619011115370049</v>
+      </c>
+      <c r="AR332" s="9">
+        <v>1.2678653757491931</v>
+      </c>
+      <c r="AS332" s="9">
+        <v>1.5965070159650578</v>
+      </c>
+      <c r="AT332" s="9">
+        <v>2.4511898501183218</v>
+      </c>
+      <c r="AU332" s="9">
+        <v>3.3189330041829592</v>
+      </c>
+      <c r="AV332" s="9">
+        <v>0.19114367633004867</v>
+      </c>
+      <c r="AW332" s="9">
+        <v>1.0461787876485087</v>
+      </c>
+      <c r="AX332" s="9">
+        <v>2.8104179285281701</v>
+      </c>
+      <c r="AY332" s="9">
+        <v>0.60265166733627962</v>
+      </c>
+      <c r="AZ332" s="9">
+        <v>0.99517695808709272</v>
+      </c>
+      <c r="BA332" s="9">
+        <v>1.3167259786476828</v>
+      </c>
+    </row>
+    <row r="333" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A333" s="7">
+        <v>43191</v>
+      </c>
+      <c r="B333" s="9">
+        <v>1.5601051018173857</v>
+      </c>
+      <c r="C333" s="9">
+        <v>1.2037405491444397</v>
+      </c>
+      <c r="D333" s="9">
+        <v>-0.21244309559938956</v>
+      </c>
+      <c r="E333" s="9">
+        <v>2.2341311511025919</v>
+      </c>
+      <c r="F333" s="9">
+        <v>0.24999999999999267</v>
+      </c>
+      <c r="G333" s="9">
+        <v>2.1313071579186258</v>
+      </c>
+      <c r="H333" s="9">
+        <v>2.6328712272881734</v>
+      </c>
+      <c r="I333" s="9">
+        <v>0.51835081029550867</v>
+      </c>
+      <c r="J333" s="9">
+        <v>0.87815587266739847</v>
+      </c>
+      <c r="K333" s="9">
+        <v>0.68406384595895331</v>
+      </c>
+      <c r="L333" s="9">
+        <v>2.0860617399438683</v>
+      </c>
+      <c r="M333" s="9">
+        <v>1.5133062697338828</v>
+      </c>
+      <c r="N333" s="9">
+        <v>1.3180076628352526</v>
+      </c>
+      <c r="O333" s="9">
+        <v>3.3042744656917882</v>
+      </c>
+      <c r="P333" s="9">
+        <v>0.87611994577974672</v>
+      </c>
+      <c r="Q333" s="9">
+        <v>0.98840401821763979</v>
+      </c>
+      <c r="R333" s="9">
+        <v>0.65529965644483745</v>
+      </c>
+      <c r="S333" s="9">
+        <v>1.3655537284621369</v>
+      </c>
+      <c r="T333" s="9">
+        <v>0.40106255534141455</v>
+      </c>
+      <c r="U333" s="9">
+        <v>1.0085140887897761</v>
+      </c>
+      <c r="V333" s="9">
+        <v>0.86774867427287339</v>
+      </c>
+      <c r="W333" s="9">
+        <v>0.33822285945370661</v>
+      </c>
+      <c r="X333" s="9">
+        <v>1.3230675153570439</v>
+      </c>
+      <c r="Y333" s="9">
+        <v>1.0439799445958096</v>
+      </c>
+      <c r="Z333" s="9">
+        <v>0.7559432187446522</v>
+      </c>
+      <c r="AA333" s="9">
+        <v>1.2961029923451715</v>
+      </c>
+      <c r="AB333" s="9">
+        <v>1.1779921700223648</v>
+      </c>
+      <c r="AC333" s="9">
+        <v>0.63572790845518123</v>
+      </c>
+      <c r="AD333" s="9">
+        <v>0.82539058661686771</v>
+      </c>
+      <c r="AE333" s="9">
+        <v>3.4042233410986666</v>
+      </c>
+      <c r="AF333" s="9">
+        <v>1.3806413301662639</v>
+      </c>
+      <c r="AG333" s="9">
+        <v>1.4238161187647391</v>
+      </c>
+      <c r="AH333" s="9">
+        <v>1.3497228247770603</v>
+      </c>
+      <c r="AI333" s="9">
+        <v>1.235153392983221</v>
+      </c>
+      <c r="AJ333" s="9">
+        <v>1.9122328331059657</v>
+      </c>
+      <c r="AK333" s="9">
+        <v>-1.822376009227215</v>
+      </c>
+      <c r="AL333" s="9">
+        <v>1.0308344505235629</v>
+      </c>
+      <c r="AM333" s="9">
+        <v>1.8415650283782152</v>
+      </c>
+      <c r="AN333" s="9">
+        <v>1.9921812242274968</v>
+      </c>
+      <c r="AO333" s="9">
+        <v>1.4093767385403908</v>
+      </c>
+      <c r="AP333" s="9">
+        <v>1.4631172525909344</v>
+      </c>
+      <c r="AQ333" s="9">
+        <v>1.7032097106942379</v>
+      </c>
+      <c r="AR333" s="9">
+        <v>0.68997240110395586</v>
+      </c>
+      <c r="AS333" s="9">
+        <v>1.4984516000133195</v>
+      </c>
+      <c r="AT333" s="9">
+        <v>2.729318614889277</v>
+      </c>
+      <c r="AU333" s="9">
+        <v>3.301595999725996</v>
+      </c>
+      <c r="AV333" s="9">
+        <v>0.22278803309993275</v>
+      </c>
+      <c r="AW333" s="9">
+        <v>1.1729239499417268</v>
+      </c>
+      <c r="AX333" s="9">
+        <v>2.8416820339188003</v>
+      </c>
+      <c r="AY333" s="9">
+        <v>0.87459634015069965</v>
+      </c>
+      <c r="AZ333" s="9">
+        <v>0.94749711336005205</v>
+      </c>
+      <c r="BA333" s="9">
+        <v>1.9572953736654803</v>
       </c>
     </row>
   </sheetData>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\aboddupalli\Box Sync\TPC\CENTER\SLFI\SEM\Historical\Employment\PUBLISHED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\Box Sync\TPC\CENTER\SLFI\SEM\Historical\Employment\PUBLISHED\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="TABLE" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
@@ -183,7 +186,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1991 -- April 2018</t>
+    <t>Total Employment; Year/Year: January 1991 -- June 2018</t>
   </si>
 </sst>
 </file>
@@ -299,6 +302,668 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TABLE"/>
+      <sheetName val="FRED"/>
+      <sheetName val="fred1"/>
+      <sheetName val="fred2"/>
+      <sheetName val="fred3"/>
+      <sheetName val="fred4"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="336">
+          <cell r="B336">
+            <v>146299</v>
+          </cell>
+          <cell r="D336">
+            <v>329.9</v>
+          </cell>
+          <cell r="F336">
+            <v>2011.8</v>
+          </cell>
+          <cell r="H336">
+            <v>1238.5999999999999</v>
+          </cell>
+          <cell r="J336">
+            <v>2765.2</v>
+          </cell>
+          <cell r="L336">
+            <v>16783.5</v>
+          </cell>
+          <cell r="N336">
+            <v>2650.6</v>
+          </cell>
+          <cell r="P336">
+            <v>1679.2</v>
+          </cell>
+          <cell r="R336">
+            <v>454.5</v>
+          </cell>
+          <cell r="T336">
+            <v>789.7</v>
+          </cell>
+          <cell r="V336">
+            <v>8566.6</v>
+          </cell>
+          <cell r="X336">
+            <v>4438.3</v>
+          </cell>
+          <cell r="Z336">
+            <v>652.1</v>
+          </cell>
+          <cell r="AB336">
+            <v>1569.3</v>
+          </cell>
+          <cell r="AD336">
+            <v>713.3</v>
+          </cell>
+          <cell r="AF336">
+            <v>6048.7</v>
+          </cell>
+          <cell r="AH336">
+            <v>3100.2</v>
+          </cell>
+          <cell r="AJ336">
+            <v>1397</v>
+          </cell>
+          <cell r="AL336">
+            <v>1917.4</v>
+          </cell>
+          <cell r="AN336">
+            <v>1973.1</v>
+          </cell>
+          <cell r="AP336">
+            <v>3596</v>
+          </cell>
+          <cell r="AR336">
+            <v>2721.3</v>
+          </cell>
+          <cell r="AT336">
+            <v>621.70000000000005</v>
+          </cell>
+          <cell r="AV336">
+            <v>4367.6000000000004</v>
+          </cell>
+          <cell r="AX336">
+            <v>2925.2</v>
+          </cell>
+          <cell r="AZ336">
+            <v>2860.6</v>
+          </cell>
+          <cell r="BB336">
+            <v>1148.8</v>
+          </cell>
+          <cell r="BD336">
+            <v>472.3</v>
+          </cell>
+          <cell r="BF336">
+            <v>4402.5</v>
+          </cell>
+          <cell r="BH336">
+            <v>432.3</v>
+          </cell>
+          <cell r="BJ336">
+            <v>1017</v>
+          </cell>
+          <cell r="BL336">
+            <v>673</v>
+          </cell>
+          <cell r="BN336">
+            <v>4122</v>
+          </cell>
+          <cell r="BP336">
+            <v>828.5</v>
+          </cell>
+          <cell r="BR336">
+            <v>1336.8</v>
+          </cell>
+          <cell r="BT336">
+            <v>9506.4</v>
+          </cell>
+          <cell r="BV336">
+            <v>5522.4</v>
+          </cell>
+          <cell r="BX336">
+            <v>1657.7</v>
+          </cell>
+          <cell r="BZ336">
+            <v>1869.3</v>
+          </cell>
+          <cell r="CB336">
+            <v>5936.2</v>
+          </cell>
+          <cell r="CD336">
+            <v>492.8</v>
+          </cell>
+          <cell r="CF336">
+            <v>2083.9</v>
+          </cell>
+          <cell r="CH336">
+            <v>434.3</v>
+          </cell>
+          <cell r="CJ336">
+            <v>3003.7</v>
+          </cell>
+          <cell r="CL336">
+            <v>12190.2</v>
+          </cell>
+          <cell r="CN336">
+            <v>1463.1</v>
+          </cell>
+          <cell r="CP336">
+            <v>3947.5</v>
+          </cell>
+          <cell r="CR336">
+            <v>313.2</v>
+          </cell>
+          <cell r="CT336">
+            <v>3315.7</v>
+          </cell>
+          <cell r="CV336">
+            <v>2943.7</v>
+          </cell>
+          <cell r="CX336">
+            <v>743.2</v>
+          </cell>
+          <cell r="CZ336">
+            <v>281.7</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="B337">
+            <v>146538</v>
+          </cell>
+          <cell r="D337">
+            <v>330.1</v>
+          </cell>
+          <cell r="F337">
+            <v>2015.5</v>
+          </cell>
+          <cell r="H337">
+            <v>1240.5999999999999</v>
+          </cell>
+          <cell r="J337">
+            <v>2774.9</v>
+          </cell>
+          <cell r="L337">
+            <v>16822.900000000001</v>
+          </cell>
+          <cell r="N337">
+            <v>2655</v>
+          </cell>
+          <cell r="P337">
+            <v>1683.9</v>
+          </cell>
+          <cell r="R337">
+            <v>455.9</v>
+          </cell>
+          <cell r="T337">
+            <v>790.7</v>
+          </cell>
+          <cell r="V337">
+            <v>8588.9</v>
+          </cell>
+          <cell r="X337">
+            <v>4456</v>
+          </cell>
+          <cell r="Z337">
+            <v>653.29999999999995</v>
+          </cell>
+          <cell r="AB337">
+            <v>1572.5</v>
+          </cell>
+          <cell r="AD337">
+            <v>716.2</v>
+          </cell>
+          <cell r="AF337">
+            <v>6067.8</v>
+          </cell>
+          <cell r="AH337">
+            <v>3109.7</v>
+          </cell>
+          <cell r="AJ337">
+            <v>1399.9</v>
+          </cell>
+          <cell r="AL337">
+            <v>1921.6</v>
+          </cell>
+          <cell r="AN337">
+            <v>1971.9</v>
+          </cell>
+          <cell r="AP337">
+            <v>3612.3</v>
+          </cell>
+          <cell r="AR337">
+            <v>2726.5</v>
+          </cell>
+          <cell r="AT337">
+            <v>623</v>
+          </cell>
+          <cell r="AV337">
+            <v>4375.6000000000004</v>
+          </cell>
+          <cell r="AX337">
+            <v>2929</v>
+          </cell>
+          <cell r="AZ337">
+            <v>2869.2</v>
+          </cell>
+          <cell r="BB337">
+            <v>1150.8</v>
+          </cell>
+          <cell r="BD337">
+            <v>473.1</v>
+          </cell>
+          <cell r="BF337">
+            <v>4414.8999999999996</v>
+          </cell>
+          <cell r="BH337">
+            <v>432.4</v>
+          </cell>
+          <cell r="BJ337">
+            <v>1017.3</v>
+          </cell>
+          <cell r="BL337">
+            <v>675.3</v>
+          </cell>
+          <cell r="BN337">
+            <v>4135.6000000000004</v>
+          </cell>
+          <cell r="BP337">
+            <v>828.9</v>
+          </cell>
+          <cell r="BR337">
+            <v>1340.2</v>
+          </cell>
+          <cell r="BT337">
+            <v>9527.2000000000007</v>
+          </cell>
+          <cell r="BV337">
+            <v>5532.4</v>
+          </cell>
+          <cell r="BX337">
+            <v>1663.5</v>
+          </cell>
+          <cell r="BZ337">
+            <v>1873.8</v>
+          </cell>
+          <cell r="CB337">
+            <v>5939.4</v>
+          </cell>
+          <cell r="CD337">
+            <v>494.9</v>
+          </cell>
+          <cell r="CF337">
+            <v>2090.5</v>
+          </cell>
+          <cell r="CH337">
+            <v>434.2</v>
+          </cell>
+          <cell r="CJ337">
+            <v>3010.3</v>
+          </cell>
+          <cell r="CL337">
+            <v>12216</v>
+          </cell>
+          <cell r="CN337">
+            <v>1469</v>
+          </cell>
+          <cell r="CP337">
+            <v>3958.1</v>
+          </cell>
+          <cell r="CR337">
+            <v>315.39999999999998</v>
+          </cell>
+          <cell r="CT337">
+            <v>3325.8</v>
+          </cell>
+          <cell r="CV337">
+            <v>2946.1</v>
+          </cell>
+          <cell r="CX337">
+            <v>744.2</v>
+          </cell>
+          <cell r="CZ337">
+            <v>281.39999999999998</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="A348">
+            <v>43221</v>
+          </cell>
+          <cell r="B348">
+            <v>148699</v>
+          </cell>
+          <cell r="D348">
+            <v>328.7</v>
+          </cell>
+          <cell r="F348">
+            <v>2036.2</v>
+          </cell>
+          <cell r="H348">
+            <v>1246.3</v>
+          </cell>
+          <cell r="J348">
+            <v>2837.4</v>
+          </cell>
+          <cell r="L348">
+            <v>17091.2</v>
+          </cell>
+          <cell r="N348">
+            <v>2725.4</v>
+          </cell>
+          <cell r="P348">
+            <v>1692.7</v>
+          </cell>
+          <cell r="R348">
+            <v>460.5</v>
+          </cell>
+          <cell r="T348">
+            <v>795.9</v>
+          </cell>
+          <cell r="V348">
+            <v>8745.1</v>
+          </cell>
+          <cell r="X348">
+            <v>4519.1000000000004</v>
+          </cell>
+          <cell r="Z348">
+            <v>663.6</v>
+          </cell>
+          <cell r="AB348">
+            <v>1585</v>
+          </cell>
+          <cell r="AD348">
+            <v>735.9</v>
+          </cell>
+          <cell r="AF348">
+            <v>6108</v>
+          </cell>
+          <cell r="AH348">
+            <v>3128.7</v>
+          </cell>
+          <cell r="AJ348">
+            <v>1422.8</v>
+          </cell>
+          <cell r="AL348">
+            <v>1929.3</v>
+          </cell>
+          <cell r="AN348">
+            <v>1992</v>
+          </cell>
+          <cell r="AP348">
+            <v>3654.1</v>
+          </cell>
+          <cell r="AR348">
+            <v>2737.4</v>
+          </cell>
+          <cell r="AT348">
+            <v>630.1</v>
+          </cell>
+          <cell r="AV348">
+            <v>4421.8</v>
+          </cell>
+          <cell r="AX348">
+            <v>2955.7</v>
+          </cell>
+          <cell r="AZ348">
+            <v>2895.6</v>
+          </cell>
+          <cell r="BB348">
+            <v>1165.5</v>
+          </cell>
+          <cell r="BD348">
+            <v>475.6</v>
+          </cell>
+          <cell r="BF348">
+            <v>4505.1000000000004</v>
+          </cell>
+          <cell r="BH348">
+            <v>431.2</v>
+          </cell>
+          <cell r="BJ348">
+            <v>1030.0999999999999</v>
+          </cell>
+          <cell r="BL348">
+            <v>685.9</v>
+          </cell>
+          <cell r="BN348">
+            <v>4180</v>
+          </cell>
+          <cell r="BP348">
+            <v>838.7</v>
+          </cell>
+          <cell r="BR348">
+            <v>1375.8</v>
+          </cell>
+          <cell r="BT348">
+            <v>9619.4</v>
+          </cell>
+          <cell r="BV348">
+            <v>5596.8</v>
+          </cell>
+          <cell r="BX348">
+            <v>1686.8</v>
+          </cell>
+          <cell r="BZ348">
+            <v>1909.9</v>
+          </cell>
+          <cell r="CB348">
+            <v>6012.9</v>
+          </cell>
+          <cell r="CD348">
+            <v>499.9</v>
+          </cell>
+          <cell r="CF348">
+            <v>2122.3000000000002</v>
+          </cell>
+          <cell r="CH348">
+            <v>441.1</v>
+          </cell>
+          <cell r="CJ348">
+            <v>3056.8</v>
+          </cell>
+          <cell r="CL348">
+            <v>12548.3</v>
+          </cell>
+          <cell r="CN348">
+            <v>1507.6</v>
+          </cell>
+          <cell r="CP348">
+            <v>4000.6</v>
+          </cell>
+          <cell r="CR348">
+            <v>314.89999999999998</v>
+          </cell>
+          <cell r="CT348">
+            <v>3411.7</v>
+          </cell>
+          <cell r="CV348">
+            <v>2968.7</v>
+          </cell>
+          <cell r="CX348">
+            <v>759</v>
+          </cell>
+          <cell r="CZ348">
+            <v>285.60000000000002</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="A349">
+            <v>43252</v>
+          </cell>
+          <cell r="B349">
+            <v>148912</v>
+          </cell>
+          <cell r="D349">
+            <v>326.89999999999998</v>
+          </cell>
+          <cell r="F349">
+            <v>2042.2</v>
+          </cell>
+          <cell r="H349">
+            <v>1247.8</v>
+          </cell>
+          <cell r="J349">
+            <v>2841</v>
+          </cell>
+          <cell r="L349">
+            <v>17092</v>
+          </cell>
+          <cell r="N349">
+            <v>2729.6</v>
+          </cell>
+          <cell r="P349">
+            <v>1698.8</v>
+          </cell>
+          <cell r="R349">
+            <v>459.9</v>
+          </cell>
+          <cell r="T349">
+            <v>793.5</v>
+          </cell>
+          <cell r="V349">
+            <v>8759.4</v>
+          </cell>
+          <cell r="X349">
+            <v>4533.3</v>
+          </cell>
+          <cell r="Z349">
+            <v>663.1</v>
+          </cell>
+          <cell r="AB349">
+            <v>1588.4</v>
+          </cell>
+          <cell r="AD349">
+            <v>737.9</v>
+          </cell>
+          <cell r="AF349">
+            <v>6126.1</v>
+          </cell>
+          <cell r="AH349">
+            <v>3127</v>
+          </cell>
+          <cell r="AJ349">
+            <v>1424.7</v>
+          </cell>
+          <cell r="AL349">
+            <v>1924.7</v>
+          </cell>
+          <cell r="AN349">
+            <v>1989.1</v>
+          </cell>
+          <cell r="AP349">
+            <v>3675.5</v>
+          </cell>
+          <cell r="AR349">
+            <v>2731.9</v>
+          </cell>
+          <cell r="AT349">
+            <v>629.79999999999995</v>
+          </cell>
+          <cell r="AV349">
+            <v>4427.2</v>
+          </cell>
+          <cell r="AX349">
+            <v>2962.3</v>
+          </cell>
+          <cell r="AZ349">
+            <v>2903.5</v>
+          </cell>
+          <cell r="BB349">
+            <v>1168.3</v>
+          </cell>
+          <cell r="BD349">
+            <v>476</v>
+          </cell>
+          <cell r="BF349">
+            <v>4518.3</v>
+          </cell>
+          <cell r="BH349">
+            <v>432</v>
+          </cell>
+          <cell r="BJ349">
+            <v>1030.9000000000001</v>
+          </cell>
+          <cell r="BL349">
+            <v>687.6</v>
+          </cell>
+          <cell r="BN349">
+            <v>4179.5</v>
+          </cell>
+          <cell r="BP349">
+            <v>841.5</v>
+          </cell>
+          <cell r="BR349">
+            <v>1377.8</v>
+          </cell>
+          <cell r="BT349">
+            <v>9634.9</v>
+          </cell>
+          <cell r="BV349">
+            <v>5604.7</v>
+          </cell>
+          <cell r="BX349">
+            <v>1690.7</v>
+          </cell>
+          <cell r="BZ349">
+            <v>1911.8</v>
+          </cell>
+          <cell r="CB349">
+            <v>6016.9</v>
+          </cell>
+          <cell r="CD349">
+            <v>502.4</v>
+          </cell>
+          <cell r="CF349">
+            <v>2125.6999999999998</v>
+          </cell>
+          <cell r="CH349">
+            <v>440.7</v>
+          </cell>
+          <cell r="CJ349">
+            <v>3069.8</v>
+          </cell>
+          <cell r="CL349">
+            <v>12575.5</v>
+          </cell>
+          <cell r="CN349">
+            <v>1512.9</v>
+          </cell>
+          <cell r="CP349">
+            <v>4001.9</v>
+          </cell>
+          <cell r="CR349">
+            <v>315.8</v>
+          </cell>
+          <cell r="CT349">
+            <v>3415.8</v>
+          </cell>
+          <cell r="CV349">
+            <v>2976.1</v>
+          </cell>
+          <cell r="CX349">
+            <v>751</v>
+          </cell>
+          <cell r="CZ349">
+            <v>286.3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -622,11 +1287,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA333"/>
+  <dimension ref="A1:BA335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="5" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C337" sqref="C337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -53617,6 +54282,434 @@
         <v>1.9572953736654803</v>
       </c>
     </row>
+    <row r="334" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A334" s="7">
+        <f>[1]FRED!A348</f>
+        <v>43221</v>
+      </c>
+      <c r="B334" s="8">
+        <f>(([1]FRED!B348-[1]FRED!B336)/[1]FRED!B336)*100</f>
+        <v>1.6404760114559909</v>
+      </c>
+      <c r="C334" s="8">
+        <f>(([1]FRED!F348-[1]FRED!F336)/[1]FRED!F336)*100</f>
+        <v>1.2128442191072717</v>
+      </c>
+      <c r="D334" s="8">
+        <f>(([1]FRED!D348-[1]FRED!D336)/[1]FRED!D336)*100</f>
+        <v>-0.36374658987571651</v>
+      </c>
+      <c r="E334" s="8">
+        <f>(([1]FRED!J348-[1]FRED!J336)/[1]FRED!J336)*100</f>
+        <v>2.6110227108346691</v>
+      </c>
+      <c r="F334" s="8">
+        <f>(([1]FRED!H348-[1]FRED!H336)/[1]FRED!H336)*100</f>
+        <v>0.62166962699822748</v>
+      </c>
+      <c r="G334" s="8">
+        <f>(([1]FRED!L348-[1]FRED!L336)/[1]FRED!L336)*100</f>
+        <v>1.8333482289153082</v>
+      </c>
+      <c r="H334" s="8">
+        <f>(([1]FRED!N348-[1]FRED!N336)/[1]FRED!N336)*100</f>
+        <v>2.8220025654568848</v>
+      </c>
+      <c r="I334" s="8">
+        <f>(([1]FRED!P348-[1]FRED!P336)/[1]FRED!P336)*100</f>
+        <v>0.80395426393520719</v>
+      </c>
+      <c r="J334" s="8">
+        <f>(([1]FRED!R348-[1]FRED!R336)/[1]FRED!R336)*100</f>
+        <v>1.3201320132013201</v>
+      </c>
+      <c r="K334" s="8">
+        <f>(([1]FRED!T348-[1]FRED!T336)/[1]FRED!T336)*100</f>
+        <v>0.78510826896288854</v>
+      </c>
+      <c r="L334" s="8">
+        <f>(([1]FRED!V348-[1]FRED!V336)/[1]FRED!V336)*100</f>
+        <v>2.0836738029089719</v>
+      </c>
+      <c r="M334" s="8">
+        <f>(([1]FRED!X348-[1]FRED!X336)/[1]FRED!X336)*100</f>
+        <v>1.8205168645652654</v>
+      </c>
+      <c r="N334" s="8">
+        <f>(([1]FRED!Z348-[1]FRED!Z336)/[1]FRED!Z336)*100</f>
+        <v>1.7635332004293818</v>
+      </c>
+      <c r="O334" s="8">
+        <f>(([1]FRED!AD348-[1]FRED!AD336)/[1]FRED!AD336)*100</f>
+        <v>3.1683723538483144</v>
+      </c>
+      <c r="P334" s="8">
+        <f>(([1]FRED!AF348-[1]FRED!AF336)/[1]FRED!AF336)*100</f>
+        <v>0.98037594855093135</v>
+      </c>
+      <c r="Q334" s="8">
+        <f>(([1]FRED!AH348-[1]FRED!AH336)/[1]FRED!AH336)*100</f>
+        <v>0.91929552932068903</v>
+      </c>
+      <c r="R334" s="8">
+        <f>(([1]FRED!AB348-[1]FRED!AB336)/[1]FRED!AB336)*100</f>
+        <v>1.000446058752313</v>
+      </c>
+      <c r="S334" s="8">
+        <f>(([1]FRED!AJ348-[1]FRED!AJ336)/[1]FRED!AJ336)*100</f>
+        <v>1.8468146027201113</v>
+      </c>
+      <c r="T334" s="8">
+        <f>(([1]FRED!AL348-[1]FRED!AL336)/[1]FRED!AL336)*100</f>
+        <v>0.62063210597683649</v>
+      </c>
+      <c r="U334" s="8">
+        <f>(([1]FRED!AN348-[1]FRED!AN336)/[1]FRED!AN336)*100</f>
+        <v>0.95788353352592825</v>
+      </c>
+      <c r="V334" s="8">
+        <f>(([1]FRED!AT348-[1]FRED!AT336)/[1]FRED!AT336)*100</f>
+        <v>1.351133987453752</v>
+      </c>
+      <c r="W334" s="8">
+        <f>(([1]FRED!AR348-[1]FRED!AR336)/[1]FRED!AR336)*100</f>
+        <v>0.59162900084518089</v>
+      </c>
+      <c r="X334" s="8">
+        <f>(([1]FRED!AP348-[1]FRED!AP336)/[1]FRED!AP336)*100</f>
+        <v>1.6156840934371499</v>
+      </c>
+      <c r="Y334" s="8">
+        <f>(([1]FRED!AV348-[1]FRED!AV336)/[1]FRED!AV336)*100</f>
+        <v>1.2409561315138706</v>
+      </c>
+      <c r="Z334" s="8">
+        <f>(([1]FRED!AX348-[1]FRED!AX336)/[1]FRED!AX336)*100</f>
+        <v>1.0426637494872146</v>
+      </c>
+      <c r="AA334" s="8">
+        <f>(([1]FRED!BB348-[1]FRED!BB336)/[1]FRED!BB336)*100</f>
+        <v>1.453690807799447</v>
+      </c>
+      <c r="AB334" s="8">
+        <f>(([1]FRED!AZ348-[1]FRED!AZ336)/[1]FRED!AZ336)*100</f>
+        <v>1.2235195413549604</v>
+      </c>
+      <c r="AC334" s="8">
+        <f>(([1]FRED!BD348-[1]FRED!BD336)/[1]FRED!BD336)*100</f>
+        <v>0.6987084480203285</v>
+      </c>
+      <c r="AD334" s="8">
+        <f>(([1]FRED!BJ348-[1]FRED!BJ336)/[1]FRED!BJ336)*100</f>
+        <v>1.28810226155358</v>
+      </c>
+      <c r="AE334" s="8">
+        <f>(([1]FRED!BR348-[1]FRED!BR336)/[1]FRED!BR336)*100</f>
+        <v>2.9174147217235191</v>
+      </c>
+      <c r="AF334" s="8">
+        <f>(([1]FRED!BL348-[1]FRED!BL336)/[1]FRED!BL336)*100</f>
+        <v>1.9167904903417501</v>
+      </c>
+      <c r="AG334" s="8">
+        <f>(([1]FRED!BN348-[1]FRED!BN336)/[1]FRED!BN336)*100</f>
+        <v>1.4070839398350317</v>
+      </c>
+      <c r="AH334" s="8">
+        <f>(([1]FRED!BP348-[1]FRED!BP336)/[1]FRED!BP336)*100</f>
+        <v>1.2311406155703133</v>
+      </c>
+      <c r="AI334" s="8">
+        <f>(([1]FRED!BT348-[1]FRED!BT336)/[1]FRED!BT336)*100</f>
+        <v>1.1886728940503239</v>
+      </c>
+      <c r="AJ334" s="8">
+        <f>(([1]FRED!BF348-[1]FRED!BF336)/[1]FRED!BF336)*100</f>
+        <v>2.3304940374787133</v>
+      </c>
+      <c r="AK334" s="8">
+        <f>(([1]FRED!BH348-[1]FRED!BH336)/[1]FRED!BH336)*100</f>
+        <v>-0.25445292620865667</v>
+      </c>
+      <c r="AL334" s="8">
+        <f>(([1]FRED!BV348-[1]FRED!BV336)/[1]FRED!BV336)*100</f>
+        <v>1.3472403302911877</v>
+      </c>
+      <c r="AM334" s="8">
+        <f>(([1]FRED!BX348-[1]FRED!BX336)/[1]FRED!BX336)*100</f>
+        <v>1.7554442902817102</v>
+      </c>
+      <c r="AN334" s="8">
+        <f>(([1]FRED!BZ348-[1]FRED!BZ336)/[1]FRED!BZ336)*100</f>
+        <v>2.1719360188305856</v>
+      </c>
+      <c r="AO334" s="8">
+        <f>(([1]FRED!CB348-[1]FRED!CB336)/[1]FRED!CB336)*100</f>
+        <v>1.2920723695293255</v>
+      </c>
+      <c r="AP334" s="8">
+        <f>(([1]FRED!CD348-[1]FRED!CD336)/[1]FRED!CD336)*100</f>
+        <v>1.4407467532467462</v>
+      </c>
+      <c r="AQ334" s="8">
+        <f>(([1]FRED!CF348-[1]FRED!CF336)/[1]FRED!CF336)*100</f>
+        <v>1.8426987859302313</v>
+      </c>
+      <c r="AR334" s="8">
+        <f>(([1]FRED!CH348-[1]FRED!CH336)/[1]FRED!CH336)*100</f>
+        <v>1.5657379691457542</v>
+      </c>
+      <c r="AS334" s="8">
+        <f>(([1]FRED!CJ348-[1]FRED!CJ336)/[1]FRED!CJ336)*100</f>
+        <v>1.7678196890501836</v>
+      </c>
+      <c r="AT334" s="8">
+        <f>(([1]FRED!CL348-[1]FRED!CL336)/[1]FRED!CL336)*100</f>
+        <v>2.9376056176272622</v>
+      </c>
+      <c r="AU334" s="8">
+        <f>(([1]FRED!CN348-[1]FRED!CN336)/[1]FRED!CN336)*100</f>
+        <v>3.0414872530927486</v>
+      </c>
+      <c r="AV334" s="8">
+        <f>(([1]FRED!CR348-[1]FRED!CR336)/[1]FRED!CR336)*100</f>
+        <v>0.54278416347381497</v>
+      </c>
+      <c r="AW334" s="8">
+        <f>(([1]FRED!CP348-[1]FRED!CP336)/[1]FRED!CP336)*100</f>
+        <v>1.3451551614946144</v>
+      </c>
+      <c r="AX334" s="8">
+        <f>(([1]FRED!CT348-[1]FRED!CT336)/[1]FRED!CT336)*100</f>
+        <v>2.8953162228187113</v>
+      </c>
+      <c r="AY334" s="8">
+        <f>(([1]FRED!CX348-[1]FRED!CX336)/[1]FRED!CX336)*100</f>
+        <v>2.1259418729816946</v>
+      </c>
+      <c r="AZ334" s="8">
+        <f>(([1]FRED!CV348-[1]FRED!CV336)/[1]FRED!CV336)*100</f>
+        <v>0.84927132520297588</v>
+      </c>
+      <c r="BA334" s="8">
+        <f>(([1]FRED!CZ348-[1]FRED!CZ336)/[1]FRED!CZ336)*100</f>
+        <v>1.3844515441959653</v>
+      </c>
+    </row>
+    <row r="335" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A335" s="7">
+        <f>[1]FRED!A349</f>
+        <v>43252</v>
+      </c>
+      <c r="B335" s="8">
+        <f>(([1]FRED!B349-[1]FRED!B337)/[1]FRED!B337)*100</f>
+        <v>1.6200575959819294</v>
+      </c>
+      <c r="C335" s="8">
+        <f>(([1]FRED!F349-[1]FRED!F337)/[1]FRED!F337)*100</f>
+        <v>1.3247333167948423</v>
+      </c>
+      <c r="D335" s="8">
+        <f>(([1]FRED!D349-[1]FRED!D337)/[1]FRED!D337)*100</f>
+        <v>-0.96940321114815065</v>
+      </c>
+      <c r="E335" s="8">
+        <f>(([1]FRED!J349-[1]FRED!J337)/[1]FRED!J337)*100</f>
+        <v>2.382067822263862</v>
+      </c>
+      <c r="F335" s="8">
+        <f>(([1]FRED!H349-[1]FRED!H337)/[1]FRED!H337)*100</f>
+        <v>0.58036433983556712</v>
+      </c>
+      <c r="G335" s="8">
+        <f>(([1]FRED!L349-[1]FRED!L337)/[1]FRED!L337)*100</f>
+        <v>1.5996052999185546</v>
+      </c>
+      <c r="H335" s="8">
+        <f>(([1]FRED!N349-[1]FRED!N337)/[1]FRED!N337)*100</f>
+        <v>2.8097928436911452</v>
+      </c>
+      <c r="I335" s="8">
+        <f>(([1]FRED!P349-[1]FRED!P337)/[1]FRED!P337)*100</f>
+        <v>0.88485064433754157</v>
+      </c>
+      <c r="J335" s="8">
+        <f>(([1]FRED!R349-[1]FRED!R337)/[1]FRED!R337)*100</f>
+        <v>0.87738539153323103</v>
+      </c>
+      <c r="K335" s="8">
+        <f>(([1]FRED!T349-[1]FRED!T337)/[1]FRED!T337)*100</f>
+        <v>0.35411660553938973</v>
+      </c>
+      <c r="L335" s="8">
+        <f>(([1]FRED!V349-[1]FRED!V337)/[1]FRED!V337)*100</f>
+        <v>1.9851203297279048</v>
+      </c>
+      <c r="M335" s="8">
+        <f>(([1]FRED!X349-[1]FRED!X337)/[1]FRED!X337)*100</f>
+        <v>1.7347396768402195</v>
+      </c>
+      <c r="N335" s="8">
+        <f>(([1]FRED!Z349-[1]FRED!Z337)/[1]FRED!Z337)*100</f>
+        <v>1.5000765345170777</v>
+      </c>
+      <c r="O335" s="8">
+        <f>(([1]FRED!AD349-[1]FRED!AD337)/[1]FRED!AD337)*100</f>
+        <v>3.0298799218095409</v>
+      </c>
+      <c r="P335" s="8">
+        <f>(([1]FRED!AF349-[1]FRED!AF337)/[1]FRED!AF337)*100</f>
+        <v>0.96080951910083034</v>
+      </c>
+      <c r="Q335" s="8">
+        <f>(([1]FRED!AH349-[1]FRED!AH337)/[1]FRED!AH337)*100</f>
+        <v>0.55632376113452053</v>
+      </c>
+      <c r="R335" s="8">
+        <f>(([1]FRED!AB349-[1]FRED!AB337)/[1]FRED!AB337)*100</f>
+        <v>1.0111287758346639</v>
+      </c>
+      <c r="S335" s="8">
+        <f>(([1]FRED!AJ349-[1]FRED!AJ337)/[1]FRED!AJ337)*100</f>
+        <v>1.7715551110793597</v>
+      </c>
+      <c r="T335" s="8">
+        <f>(([1]FRED!AL349-[1]FRED!AL337)/[1]FRED!AL337)*100</f>
+        <v>0.16132389675271319</v>
+      </c>
+      <c r="U335" s="8">
+        <f>(([1]FRED!AN349-[1]FRED!AN337)/[1]FRED!AN337)*100</f>
+        <v>0.87225518535421764</v>
+      </c>
+      <c r="V335" s="8">
+        <f>(([1]FRED!AT349-[1]FRED!AT337)/[1]FRED!AT337)*100</f>
+        <v>1.0914927768860281</v>
+      </c>
+      <c r="W335" s="8">
+        <f>(([1]FRED!AR349-[1]FRED!AR337)/[1]FRED!AR337)*100</f>
+        <v>0.19805611589950819</v>
+      </c>
+      <c r="X335" s="8">
+        <f>(([1]FRED!AP349-[1]FRED!AP337)/[1]FRED!AP337)*100</f>
+        <v>1.7495778312986134</v>
+      </c>
+      <c r="Y335" s="8">
+        <f>(([1]FRED!AV349-[1]FRED!AV337)/[1]FRED!AV337)*100</f>
+        <v>1.1792668434043205</v>
+      </c>
+      <c r="Z335" s="8">
+        <f>(([1]FRED!AX349-[1]FRED!AX337)/[1]FRED!AX337)*100</f>
+        <v>1.1369067941276949</v>
+      </c>
+      <c r="AA335" s="8">
+        <f>(([1]FRED!BB349-[1]FRED!BB337)/[1]FRED!BB337)*100</f>
+        <v>1.5206812652068127</v>
+      </c>
+      <c r="AB335" s="8">
+        <f>(([1]FRED!AZ349-[1]FRED!AZ337)/[1]FRED!AZ337)*100</f>
+        <v>1.1954551791440187</v>
+      </c>
+      <c r="AC335" s="8">
+        <f>(([1]FRED!BD349-[1]FRED!BD337)/[1]FRED!BD337)*100</f>
+        <v>0.61297822870428598</v>
+      </c>
+      <c r="AD335" s="8">
+        <f>(([1]FRED!BJ349-[1]FRED!BJ337)/[1]FRED!BJ337)*100</f>
+        <v>1.3368721124545502</v>
+      </c>
+      <c r="AE335" s="8">
+        <f>(([1]FRED!BR349-[1]FRED!BR337)/[1]FRED!BR337)*100</f>
+        <v>2.8055514102372712</v>
+      </c>
+      <c r="AF335" s="8">
+        <f>(([1]FRED!BL349-[1]FRED!BL337)/[1]FRED!BL337)*100</f>
+        <v>1.8214127054642486</v>
+      </c>
+      <c r="AG335" s="8">
+        <f>(([1]FRED!BN349-[1]FRED!BN337)/[1]FRED!BN337)*100</f>
+        <v>1.0615146532546578</v>
+      </c>
+      <c r="AH335" s="8">
+        <f>(([1]FRED!BP349-[1]FRED!BP337)/[1]FRED!BP337)*100</f>
+        <v>1.5200868621064088</v>
+      </c>
+      <c r="AI335" s="8">
+        <f>(([1]FRED!BT349-[1]FRED!BT337)/[1]FRED!BT337)*100</f>
+        <v>1.1304475606683906</v>
+      </c>
+      <c r="AJ335" s="8">
+        <f>(([1]FRED!BF349-[1]FRED!BF337)/[1]FRED!BF337)*100</f>
+        <v>2.3420689030329238</v>
+      </c>
+      <c r="AK335" s="8">
+        <f>(([1]FRED!BH349-[1]FRED!BH337)/[1]FRED!BH337)*100</f>
+        <v>-9.2506938020346277E-2</v>
+      </c>
+      <c r="AL335" s="8">
+        <f>(([1]FRED!BV349-[1]FRED!BV337)/[1]FRED!BV337)*100</f>
+        <v>1.3068469380377448</v>
+      </c>
+      <c r="AM335" s="8">
+        <f>(([1]FRED!BX349-[1]FRED!BX337)/[1]FRED!BX337)*100</f>
+        <v>1.6351067027351995</v>
+      </c>
+      <c r="AN335" s="8">
+        <f>(([1]FRED!BZ349-[1]FRED!BZ337)/[1]FRED!BZ337)*100</f>
+        <v>2.0279645639876187</v>
+      </c>
+      <c r="AO335" s="8">
+        <f>(([1]FRED!CB349-[1]FRED!CB337)/[1]FRED!CB337)*100</f>
+        <v>1.3048456073004007</v>
+      </c>
+      <c r="AP335" s="8">
+        <f>(([1]FRED!CD349-[1]FRED!CD337)/[1]FRED!CD337)*100</f>
+        <v>1.5154576682158012</v>
+      </c>
+      <c r="AQ335" s="8">
+        <f>(([1]FRED!CF349-[1]FRED!CF337)/[1]FRED!CF337)*100</f>
+        <v>1.6838077015068078</v>
+      </c>
+      <c r="AR335" s="8">
+        <f>(([1]FRED!CH349-[1]FRED!CH337)/[1]FRED!CH337)*100</f>
+        <v>1.4970059880239521</v>
+      </c>
+      <c r="AS335" s="8">
+        <f>(([1]FRED!CJ349-[1]FRED!CJ337)/[1]FRED!CJ337)*100</f>
+        <v>1.976547187987908</v>
+      </c>
+      <c r="AT335" s="8">
+        <f>(([1]FRED!CL349-[1]FRED!CL337)/[1]FRED!CL337)*100</f>
+        <v>2.9428618205631958</v>
+      </c>
+      <c r="AU335" s="8">
+        <f>(([1]FRED!CN349-[1]FRED!CN337)/[1]FRED!CN337)*100</f>
+        <v>2.9884275017018442</v>
+      </c>
+      <c r="AV335" s="8">
+        <f>(([1]FRED!CR349-[1]FRED!CR337)/[1]FRED!CR337)*100</f>
+        <v>0.12682308180089857</v>
+      </c>
+      <c r="AW335" s="8">
+        <f>(([1]FRED!CP349-[1]FRED!CP337)/[1]FRED!CP337)*100</f>
+        <v>1.1065915464490583</v>
+      </c>
+      <c r="AX335" s="8">
+        <f>(([1]FRED!CT349-[1]FRED!CT337)/[1]FRED!CT337)*100</f>
+        <v>2.7061158217571708</v>
+      </c>
+      <c r="AY335" s="8">
+        <f>(([1]FRED!CX349-[1]FRED!CX337)/[1]FRED!CX337)*100</f>
+        <v>0.91373286750872795</v>
+      </c>
+      <c r="AZ335" s="8">
+        <f>(([1]FRED!CV349-[1]FRED!CV337)/[1]FRED!CV337)*100</f>
+        <v>1.0182953735446862</v>
+      </c>
+      <c r="BA335" s="8">
+        <f>(([1]FRED!CZ349-[1]FRED!CZ337)/[1]FRED!CZ337)*100</f>
+        <v>1.7412935323383207</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\Box Sync\TPC\CENTER\SLFI\SEM\Historical\Employment\PUBLISHED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\AppData\Local\Box\Box Edit\Documents\j8l7e8+bHk24Y8rjeJeEaA==\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="TABLE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
@@ -186,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1991 -- June 2018</t>
+    <t>Total Employment; Year/Year: January 1991 -- July 2018</t>
   </si>
 </sst>
 </file>
@@ -302,668 +299,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="TABLE"/>
-      <sheetName val="FRED"/>
-      <sheetName val="fred1"/>
-      <sheetName val="fred2"/>
-      <sheetName val="fred3"/>
-      <sheetName val="fred4"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="336">
-          <cell r="B336">
-            <v>146299</v>
-          </cell>
-          <cell r="D336">
-            <v>329.9</v>
-          </cell>
-          <cell r="F336">
-            <v>2011.8</v>
-          </cell>
-          <cell r="H336">
-            <v>1238.5999999999999</v>
-          </cell>
-          <cell r="J336">
-            <v>2765.2</v>
-          </cell>
-          <cell r="L336">
-            <v>16783.5</v>
-          </cell>
-          <cell r="N336">
-            <v>2650.6</v>
-          </cell>
-          <cell r="P336">
-            <v>1679.2</v>
-          </cell>
-          <cell r="R336">
-            <v>454.5</v>
-          </cell>
-          <cell r="T336">
-            <v>789.7</v>
-          </cell>
-          <cell r="V336">
-            <v>8566.6</v>
-          </cell>
-          <cell r="X336">
-            <v>4438.3</v>
-          </cell>
-          <cell r="Z336">
-            <v>652.1</v>
-          </cell>
-          <cell r="AB336">
-            <v>1569.3</v>
-          </cell>
-          <cell r="AD336">
-            <v>713.3</v>
-          </cell>
-          <cell r="AF336">
-            <v>6048.7</v>
-          </cell>
-          <cell r="AH336">
-            <v>3100.2</v>
-          </cell>
-          <cell r="AJ336">
-            <v>1397</v>
-          </cell>
-          <cell r="AL336">
-            <v>1917.4</v>
-          </cell>
-          <cell r="AN336">
-            <v>1973.1</v>
-          </cell>
-          <cell r="AP336">
-            <v>3596</v>
-          </cell>
-          <cell r="AR336">
-            <v>2721.3</v>
-          </cell>
-          <cell r="AT336">
-            <v>621.70000000000005</v>
-          </cell>
-          <cell r="AV336">
-            <v>4367.6000000000004</v>
-          </cell>
-          <cell r="AX336">
-            <v>2925.2</v>
-          </cell>
-          <cell r="AZ336">
-            <v>2860.6</v>
-          </cell>
-          <cell r="BB336">
-            <v>1148.8</v>
-          </cell>
-          <cell r="BD336">
-            <v>472.3</v>
-          </cell>
-          <cell r="BF336">
-            <v>4402.5</v>
-          </cell>
-          <cell r="BH336">
-            <v>432.3</v>
-          </cell>
-          <cell r="BJ336">
-            <v>1017</v>
-          </cell>
-          <cell r="BL336">
-            <v>673</v>
-          </cell>
-          <cell r="BN336">
-            <v>4122</v>
-          </cell>
-          <cell r="BP336">
-            <v>828.5</v>
-          </cell>
-          <cell r="BR336">
-            <v>1336.8</v>
-          </cell>
-          <cell r="BT336">
-            <v>9506.4</v>
-          </cell>
-          <cell r="BV336">
-            <v>5522.4</v>
-          </cell>
-          <cell r="BX336">
-            <v>1657.7</v>
-          </cell>
-          <cell r="BZ336">
-            <v>1869.3</v>
-          </cell>
-          <cell r="CB336">
-            <v>5936.2</v>
-          </cell>
-          <cell r="CD336">
-            <v>492.8</v>
-          </cell>
-          <cell r="CF336">
-            <v>2083.9</v>
-          </cell>
-          <cell r="CH336">
-            <v>434.3</v>
-          </cell>
-          <cell r="CJ336">
-            <v>3003.7</v>
-          </cell>
-          <cell r="CL336">
-            <v>12190.2</v>
-          </cell>
-          <cell r="CN336">
-            <v>1463.1</v>
-          </cell>
-          <cell r="CP336">
-            <v>3947.5</v>
-          </cell>
-          <cell r="CR336">
-            <v>313.2</v>
-          </cell>
-          <cell r="CT336">
-            <v>3315.7</v>
-          </cell>
-          <cell r="CV336">
-            <v>2943.7</v>
-          </cell>
-          <cell r="CX336">
-            <v>743.2</v>
-          </cell>
-          <cell r="CZ336">
-            <v>281.7</v>
-          </cell>
-        </row>
-        <row r="337">
-          <cell r="B337">
-            <v>146538</v>
-          </cell>
-          <cell r="D337">
-            <v>330.1</v>
-          </cell>
-          <cell r="F337">
-            <v>2015.5</v>
-          </cell>
-          <cell r="H337">
-            <v>1240.5999999999999</v>
-          </cell>
-          <cell r="J337">
-            <v>2774.9</v>
-          </cell>
-          <cell r="L337">
-            <v>16822.900000000001</v>
-          </cell>
-          <cell r="N337">
-            <v>2655</v>
-          </cell>
-          <cell r="P337">
-            <v>1683.9</v>
-          </cell>
-          <cell r="R337">
-            <v>455.9</v>
-          </cell>
-          <cell r="T337">
-            <v>790.7</v>
-          </cell>
-          <cell r="V337">
-            <v>8588.9</v>
-          </cell>
-          <cell r="X337">
-            <v>4456</v>
-          </cell>
-          <cell r="Z337">
-            <v>653.29999999999995</v>
-          </cell>
-          <cell r="AB337">
-            <v>1572.5</v>
-          </cell>
-          <cell r="AD337">
-            <v>716.2</v>
-          </cell>
-          <cell r="AF337">
-            <v>6067.8</v>
-          </cell>
-          <cell r="AH337">
-            <v>3109.7</v>
-          </cell>
-          <cell r="AJ337">
-            <v>1399.9</v>
-          </cell>
-          <cell r="AL337">
-            <v>1921.6</v>
-          </cell>
-          <cell r="AN337">
-            <v>1971.9</v>
-          </cell>
-          <cell r="AP337">
-            <v>3612.3</v>
-          </cell>
-          <cell r="AR337">
-            <v>2726.5</v>
-          </cell>
-          <cell r="AT337">
-            <v>623</v>
-          </cell>
-          <cell r="AV337">
-            <v>4375.6000000000004</v>
-          </cell>
-          <cell r="AX337">
-            <v>2929</v>
-          </cell>
-          <cell r="AZ337">
-            <v>2869.2</v>
-          </cell>
-          <cell r="BB337">
-            <v>1150.8</v>
-          </cell>
-          <cell r="BD337">
-            <v>473.1</v>
-          </cell>
-          <cell r="BF337">
-            <v>4414.8999999999996</v>
-          </cell>
-          <cell r="BH337">
-            <v>432.4</v>
-          </cell>
-          <cell r="BJ337">
-            <v>1017.3</v>
-          </cell>
-          <cell r="BL337">
-            <v>675.3</v>
-          </cell>
-          <cell r="BN337">
-            <v>4135.6000000000004</v>
-          </cell>
-          <cell r="BP337">
-            <v>828.9</v>
-          </cell>
-          <cell r="BR337">
-            <v>1340.2</v>
-          </cell>
-          <cell r="BT337">
-            <v>9527.2000000000007</v>
-          </cell>
-          <cell r="BV337">
-            <v>5532.4</v>
-          </cell>
-          <cell r="BX337">
-            <v>1663.5</v>
-          </cell>
-          <cell r="BZ337">
-            <v>1873.8</v>
-          </cell>
-          <cell r="CB337">
-            <v>5939.4</v>
-          </cell>
-          <cell r="CD337">
-            <v>494.9</v>
-          </cell>
-          <cell r="CF337">
-            <v>2090.5</v>
-          </cell>
-          <cell r="CH337">
-            <v>434.2</v>
-          </cell>
-          <cell r="CJ337">
-            <v>3010.3</v>
-          </cell>
-          <cell r="CL337">
-            <v>12216</v>
-          </cell>
-          <cell r="CN337">
-            <v>1469</v>
-          </cell>
-          <cell r="CP337">
-            <v>3958.1</v>
-          </cell>
-          <cell r="CR337">
-            <v>315.39999999999998</v>
-          </cell>
-          <cell r="CT337">
-            <v>3325.8</v>
-          </cell>
-          <cell r="CV337">
-            <v>2946.1</v>
-          </cell>
-          <cell r="CX337">
-            <v>744.2</v>
-          </cell>
-          <cell r="CZ337">
-            <v>281.39999999999998</v>
-          </cell>
-        </row>
-        <row r="348">
-          <cell r="A348">
-            <v>43221</v>
-          </cell>
-          <cell r="B348">
-            <v>148699</v>
-          </cell>
-          <cell r="D348">
-            <v>328.7</v>
-          </cell>
-          <cell r="F348">
-            <v>2036.2</v>
-          </cell>
-          <cell r="H348">
-            <v>1246.3</v>
-          </cell>
-          <cell r="J348">
-            <v>2837.4</v>
-          </cell>
-          <cell r="L348">
-            <v>17091.2</v>
-          </cell>
-          <cell r="N348">
-            <v>2725.4</v>
-          </cell>
-          <cell r="P348">
-            <v>1692.7</v>
-          </cell>
-          <cell r="R348">
-            <v>460.5</v>
-          </cell>
-          <cell r="T348">
-            <v>795.9</v>
-          </cell>
-          <cell r="V348">
-            <v>8745.1</v>
-          </cell>
-          <cell r="X348">
-            <v>4519.1000000000004</v>
-          </cell>
-          <cell r="Z348">
-            <v>663.6</v>
-          </cell>
-          <cell r="AB348">
-            <v>1585</v>
-          </cell>
-          <cell r="AD348">
-            <v>735.9</v>
-          </cell>
-          <cell r="AF348">
-            <v>6108</v>
-          </cell>
-          <cell r="AH348">
-            <v>3128.7</v>
-          </cell>
-          <cell r="AJ348">
-            <v>1422.8</v>
-          </cell>
-          <cell r="AL348">
-            <v>1929.3</v>
-          </cell>
-          <cell r="AN348">
-            <v>1992</v>
-          </cell>
-          <cell r="AP348">
-            <v>3654.1</v>
-          </cell>
-          <cell r="AR348">
-            <v>2737.4</v>
-          </cell>
-          <cell r="AT348">
-            <v>630.1</v>
-          </cell>
-          <cell r="AV348">
-            <v>4421.8</v>
-          </cell>
-          <cell r="AX348">
-            <v>2955.7</v>
-          </cell>
-          <cell r="AZ348">
-            <v>2895.6</v>
-          </cell>
-          <cell r="BB348">
-            <v>1165.5</v>
-          </cell>
-          <cell r="BD348">
-            <v>475.6</v>
-          </cell>
-          <cell r="BF348">
-            <v>4505.1000000000004</v>
-          </cell>
-          <cell r="BH348">
-            <v>431.2</v>
-          </cell>
-          <cell r="BJ348">
-            <v>1030.0999999999999</v>
-          </cell>
-          <cell r="BL348">
-            <v>685.9</v>
-          </cell>
-          <cell r="BN348">
-            <v>4180</v>
-          </cell>
-          <cell r="BP348">
-            <v>838.7</v>
-          </cell>
-          <cell r="BR348">
-            <v>1375.8</v>
-          </cell>
-          <cell r="BT348">
-            <v>9619.4</v>
-          </cell>
-          <cell r="BV348">
-            <v>5596.8</v>
-          </cell>
-          <cell r="BX348">
-            <v>1686.8</v>
-          </cell>
-          <cell r="BZ348">
-            <v>1909.9</v>
-          </cell>
-          <cell r="CB348">
-            <v>6012.9</v>
-          </cell>
-          <cell r="CD348">
-            <v>499.9</v>
-          </cell>
-          <cell r="CF348">
-            <v>2122.3000000000002</v>
-          </cell>
-          <cell r="CH348">
-            <v>441.1</v>
-          </cell>
-          <cell r="CJ348">
-            <v>3056.8</v>
-          </cell>
-          <cell r="CL348">
-            <v>12548.3</v>
-          </cell>
-          <cell r="CN348">
-            <v>1507.6</v>
-          </cell>
-          <cell r="CP348">
-            <v>4000.6</v>
-          </cell>
-          <cell r="CR348">
-            <v>314.89999999999998</v>
-          </cell>
-          <cell r="CT348">
-            <v>3411.7</v>
-          </cell>
-          <cell r="CV348">
-            <v>2968.7</v>
-          </cell>
-          <cell r="CX348">
-            <v>759</v>
-          </cell>
-          <cell r="CZ348">
-            <v>285.60000000000002</v>
-          </cell>
-        </row>
-        <row r="349">
-          <cell r="A349">
-            <v>43252</v>
-          </cell>
-          <cell r="B349">
-            <v>148912</v>
-          </cell>
-          <cell r="D349">
-            <v>326.89999999999998</v>
-          </cell>
-          <cell r="F349">
-            <v>2042.2</v>
-          </cell>
-          <cell r="H349">
-            <v>1247.8</v>
-          </cell>
-          <cell r="J349">
-            <v>2841</v>
-          </cell>
-          <cell r="L349">
-            <v>17092</v>
-          </cell>
-          <cell r="N349">
-            <v>2729.6</v>
-          </cell>
-          <cell r="P349">
-            <v>1698.8</v>
-          </cell>
-          <cell r="R349">
-            <v>459.9</v>
-          </cell>
-          <cell r="T349">
-            <v>793.5</v>
-          </cell>
-          <cell r="V349">
-            <v>8759.4</v>
-          </cell>
-          <cell r="X349">
-            <v>4533.3</v>
-          </cell>
-          <cell r="Z349">
-            <v>663.1</v>
-          </cell>
-          <cell r="AB349">
-            <v>1588.4</v>
-          </cell>
-          <cell r="AD349">
-            <v>737.9</v>
-          </cell>
-          <cell r="AF349">
-            <v>6126.1</v>
-          </cell>
-          <cell r="AH349">
-            <v>3127</v>
-          </cell>
-          <cell r="AJ349">
-            <v>1424.7</v>
-          </cell>
-          <cell r="AL349">
-            <v>1924.7</v>
-          </cell>
-          <cell r="AN349">
-            <v>1989.1</v>
-          </cell>
-          <cell r="AP349">
-            <v>3675.5</v>
-          </cell>
-          <cell r="AR349">
-            <v>2731.9</v>
-          </cell>
-          <cell r="AT349">
-            <v>629.79999999999995</v>
-          </cell>
-          <cell r="AV349">
-            <v>4427.2</v>
-          </cell>
-          <cell r="AX349">
-            <v>2962.3</v>
-          </cell>
-          <cell r="AZ349">
-            <v>2903.5</v>
-          </cell>
-          <cell r="BB349">
-            <v>1168.3</v>
-          </cell>
-          <cell r="BD349">
-            <v>476</v>
-          </cell>
-          <cell r="BF349">
-            <v>4518.3</v>
-          </cell>
-          <cell r="BH349">
-            <v>432</v>
-          </cell>
-          <cell r="BJ349">
-            <v>1030.9000000000001</v>
-          </cell>
-          <cell r="BL349">
-            <v>687.6</v>
-          </cell>
-          <cell r="BN349">
-            <v>4179.5</v>
-          </cell>
-          <cell r="BP349">
-            <v>841.5</v>
-          </cell>
-          <cell r="BR349">
-            <v>1377.8</v>
-          </cell>
-          <cell r="BT349">
-            <v>9634.9</v>
-          </cell>
-          <cell r="BV349">
-            <v>5604.7</v>
-          </cell>
-          <cell r="BX349">
-            <v>1690.7</v>
-          </cell>
-          <cell r="BZ349">
-            <v>1911.8</v>
-          </cell>
-          <cell r="CB349">
-            <v>6016.9</v>
-          </cell>
-          <cell r="CD349">
-            <v>502.4</v>
-          </cell>
-          <cell r="CF349">
-            <v>2125.6999999999998</v>
-          </cell>
-          <cell r="CH349">
-            <v>440.7</v>
-          </cell>
-          <cell r="CJ349">
-            <v>3069.8</v>
-          </cell>
-          <cell r="CL349">
-            <v>12575.5</v>
-          </cell>
-          <cell r="CN349">
-            <v>1512.9</v>
-          </cell>
-          <cell r="CP349">
-            <v>4001.9</v>
-          </cell>
-          <cell r="CR349">
-            <v>315.8</v>
-          </cell>
-          <cell r="CT349">
-            <v>3415.8</v>
-          </cell>
-          <cell r="CV349">
-            <v>2976.1</v>
-          </cell>
-          <cell r="CX349">
-            <v>751</v>
-          </cell>
-          <cell r="CZ349">
-            <v>286.3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1287,11 +622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA335"/>
+  <dimension ref="A1:BA336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C337" sqref="C337"/>
+      <selection pane="bottomLeft" activeCell="C336" sqref="C336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -53965,7 +53300,7 @@
         <v>43160</v>
       </c>
       <c r="B332" s="9">
-        <v>1.5695113345984422</v>
+        <v>1.58321287396639</v>
       </c>
       <c r="C332" s="9">
         <v>0.8343680158927218</v>
@@ -54126,588 +53461,643 @@
         <v>43191</v>
       </c>
       <c r="B333" s="9">
-        <v>1.5601051018173857</v>
+        <v>1.5813170571491133</v>
       </c>
       <c r="C333" s="9">
-        <v>1.2037405491444397</v>
+        <v>1.0296458416235483</v>
       </c>
       <c r="D333" s="9">
-        <v>-0.21244309559938956</v>
+        <v>-9.1047040971171889E-2</v>
       </c>
       <c r="E333" s="9">
-        <v>2.2341311511025919</v>
+        <v>2.3246551037404597</v>
       </c>
       <c r="F333" s="9">
-        <v>0.24999999999999267</v>
+        <v>0.20967741935483136</v>
       </c>
       <c r="G333" s="9">
-        <v>2.1313071579186258</v>
+        <v>2.0494716532563872</v>
       </c>
       <c r="H333" s="9">
-        <v>2.6328712272881734</v>
+        <v>2.583764590337311</v>
       </c>
       <c r="I333" s="9">
-        <v>0.51835081029550867</v>
+        <v>0.48856053384174314</v>
       </c>
       <c r="J333" s="9">
-        <v>0.87815587266739847</v>
+        <v>0.98792535675082327</v>
       </c>
       <c r="K333" s="9">
-        <v>0.68406384595895331</v>
+        <v>0.74740309095515289</v>
       </c>
       <c r="L333" s="9">
-        <v>2.0860617399438683</v>
+        <v>2.1012628624883156</v>
       </c>
       <c r="M333" s="9">
-        <v>1.5133062697338828</v>
+        <v>1.6734325665313445</v>
       </c>
       <c r="N333" s="9">
-        <v>1.3180076628352526</v>
+        <v>1.394636015325674</v>
       </c>
       <c r="O333" s="9">
         <v>3.3042744656917882</v>
       </c>
       <c r="P333" s="9">
-        <v>0.87611994577974672</v>
+        <v>0.84140575924886019</v>
       </c>
       <c r="Q333" s="9">
-        <v>0.98840401821763979</v>
+        <v>1.078846215963051</v>
       </c>
       <c r="R333" s="9">
-        <v>0.65529965644483745</v>
+        <v>0.71892098231326851</v>
       </c>
       <c r="S333" s="9">
         <v>1.3655537284621369</v>
       </c>
       <c r="T333" s="9">
-        <v>0.40106255534141455</v>
+        <v>0.46356581071930114</v>
       </c>
       <c r="U333" s="9">
-        <v>1.0085140887897761</v>
+        <v>0.96290289884451652</v>
       </c>
       <c r="V333" s="9">
         <v>0.86774867427287339</v>
       </c>
       <c r="W333" s="9">
-        <v>0.33822285945370661</v>
+        <v>0.34189919488254777</v>
       </c>
       <c r="X333" s="9">
-        <v>1.3230675153570439</v>
+        <v>1.3397448369791887</v>
       </c>
       <c r="Y333" s="9">
-        <v>1.0439799445958096</v>
+        <v>1.0462693742988789</v>
       </c>
       <c r="Z333" s="9">
-        <v>0.7559432187446522</v>
+        <v>0.73541987343937065</v>
       </c>
       <c r="AA333" s="9">
-        <v>1.2961029923451715</v>
+        <v>1.3395963813500429</v>
       </c>
       <c r="AB333" s="9">
         <v>1.1779921700223648</v>
       </c>
       <c r="AC333" s="9">
-        <v>0.63572790845518123</v>
+        <v>0.48739139648230806</v>
       </c>
       <c r="AD333" s="9">
-        <v>0.82539058661686771</v>
+        <v>0.85486882185320279</v>
       </c>
       <c r="AE333" s="9">
-        <v>3.4042233410986666</v>
+        <v>3.3215600811602948</v>
       </c>
       <c r="AF333" s="9">
-        <v>1.3806413301662639</v>
+        <v>1.4845605700712587</v>
       </c>
       <c r="AG333" s="9">
-        <v>1.4238161187647391</v>
+        <v>1.4432538814782552</v>
       </c>
       <c r="AH333" s="9">
-        <v>1.3497228247770603</v>
+        <v>1.2894673415280846</v>
       </c>
       <c r="AI333" s="9">
-        <v>1.235153392983221</v>
+        <v>1.1993212979649399</v>
       </c>
       <c r="AJ333" s="9">
-        <v>1.9122328331059657</v>
+        <v>1.8758526603001364</v>
       </c>
       <c r="AK333" s="9">
-        <v>-1.822376009227215</v>
+        <v>-1.7070357554786568</v>
       </c>
       <c r="AL333" s="9">
-        <v>1.0308344505235629</v>
+        <v>1.0181528316243309</v>
       </c>
       <c r="AM333" s="9">
-        <v>1.8415650283782152</v>
+        <v>1.6302378939741575</v>
       </c>
       <c r="AN333" s="9">
-        <v>1.9921812242274968</v>
+        <v>2.1099983934022437</v>
       </c>
       <c r="AO333" s="9">
-        <v>1.4093767385403908</v>
+        <v>1.3554293035723408</v>
       </c>
       <c r="AP333" s="9">
-        <v>1.4631172525909344</v>
+        <v>1.4224751066856329</v>
       </c>
       <c r="AQ333" s="9">
-        <v>1.7032097106942379</v>
+        <v>1.7367941275248198</v>
       </c>
       <c r="AR333" s="9">
-        <v>0.68997240110395586</v>
+        <v>0.78196872125114469</v>
       </c>
       <c r="AS333" s="9">
-        <v>1.4984516000133195</v>
+        <v>1.5384103093470172</v>
       </c>
       <c r="AT333" s="9">
-        <v>2.729318614889277</v>
+        <v>2.7301399566331526</v>
       </c>
       <c r="AU333" s="9">
-        <v>3.301595999725996</v>
+        <v>3.281046647030609</v>
       </c>
       <c r="AV333" s="9">
-        <v>0.22278803309993275</v>
+        <v>0.28644175684278617</v>
       </c>
       <c r="AW333" s="9">
-        <v>1.1729239499417268</v>
+        <v>1.1881238283427087</v>
       </c>
       <c r="AX333" s="9">
-        <v>2.8416820339188003</v>
+        <v>2.8749357598476348</v>
       </c>
       <c r="AY333" s="9">
         <v>0.87459634015069965</v>
       </c>
       <c r="AZ333" s="9">
-        <v>0.94749711336005205</v>
+        <v>0.81505128030971952</v>
       </c>
       <c r="BA333" s="9">
-        <v>1.9572953736654803</v>
+        <v>1.7437722419928743</v>
       </c>
     </row>
     <row r="334" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A334" s="7">
-        <f>[1]FRED!A348</f>
         <v>43221</v>
       </c>
       <c r="B334" s="8">
-        <f>(([1]FRED!B348-[1]FRED!B336)/[1]FRED!B336)*100</f>
-        <v>1.6404760114559909</v>
+        <v>1.6568807715705507</v>
       </c>
       <c r="C334" s="8">
-        <f>(([1]FRED!F348-[1]FRED!F336)/[1]FRED!F336)*100</f>
         <v>1.2128442191072717</v>
       </c>
       <c r="D334" s="8">
-        <f>(([1]FRED!D348-[1]FRED!D336)/[1]FRED!D336)*100</f>
         <v>-0.36374658987571651</v>
       </c>
       <c r="E334" s="8">
-        <f>(([1]FRED!J348-[1]FRED!J336)/[1]FRED!J336)*100</f>
         <v>2.6110227108346691</v>
       </c>
       <c r="F334" s="8">
-        <f>(([1]FRED!H348-[1]FRED!H336)/[1]FRED!H336)*100</f>
         <v>0.62166962699822748</v>
       </c>
       <c r="G334" s="8">
-        <f>(([1]FRED!L348-[1]FRED!L336)/[1]FRED!L336)*100</f>
         <v>1.8333482289153082</v>
       </c>
       <c r="H334" s="8">
-        <f>(([1]FRED!N348-[1]FRED!N336)/[1]FRED!N336)*100</f>
         <v>2.8220025654568848</v>
       </c>
       <c r="I334" s="8">
-        <f>(([1]FRED!P348-[1]FRED!P336)/[1]FRED!P336)*100</f>
         <v>0.80395426393520719</v>
       </c>
       <c r="J334" s="8">
-        <f>(([1]FRED!R348-[1]FRED!R336)/[1]FRED!R336)*100</f>
         <v>1.3201320132013201</v>
       </c>
       <c r="K334" s="8">
-        <f>(([1]FRED!T348-[1]FRED!T336)/[1]FRED!T336)*100</f>
         <v>0.78510826896288854</v>
       </c>
       <c r="L334" s="8">
-        <f>(([1]FRED!V348-[1]FRED!V336)/[1]FRED!V336)*100</f>
         <v>2.0836738029089719</v>
       </c>
       <c r="M334" s="8">
-        <f>(([1]FRED!X348-[1]FRED!X336)/[1]FRED!X336)*100</f>
         <v>1.8205168645652654</v>
       </c>
       <c r="N334" s="8">
-        <f>(([1]FRED!Z348-[1]FRED!Z336)/[1]FRED!Z336)*100</f>
         <v>1.7635332004293818</v>
       </c>
       <c r="O334" s="8">
-        <f>(([1]FRED!AD348-[1]FRED!AD336)/[1]FRED!AD336)*100</f>
         <v>3.1683723538483144</v>
       </c>
       <c r="P334" s="8">
-        <f>(([1]FRED!AF348-[1]FRED!AF336)/[1]FRED!AF336)*100</f>
         <v>0.98037594855093135</v>
       </c>
       <c r="Q334" s="8">
-        <f>(([1]FRED!AH348-[1]FRED!AH336)/[1]FRED!AH336)*100</f>
         <v>0.91929552932068903</v>
       </c>
       <c r="R334" s="8">
-        <f>(([1]FRED!AB348-[1]FRED!AB336)/[1]FRED!AB336)*100</f>
         <v>1.000446058752313</v>
       </c>
       <c r="S334" s="8">
-        <f>(([1]FRED!AJ348-[1]FRED!AJ336)/[1]FRED!AJ336)*100</f>
         <v>1.8468146027201113</v>
       </c>
       <c r="T334" s="8">
-        <f>(([1]FRED!AL348-[1]FRED!AL336)/[1]FRED!AL336)*100</f>
         <v>0.62063210597683649</v>
       </c>
       <c r="U334" s="8">
-        <f>(([1]FRED!AN348-[1]FRED!AN336)/[1]FRED!AN336)*100</f>
         <v>0.95788353352592825</v>
       </c>
       <c r="V334" s="8">
-        <f>(([1]FRED!AT348-[1]FRED!AT336)/[1]FRED!AT336)*100</f>
         <v>1.351133987453752</v>
       </c>
       <c r="W334" s="8">
-        <f>(([1]FRED!AR348-[1]FRED!AR336)/[1]FRED!AR336)*100</f>
         <v>0.59162900084518089</v>
       </c>
       <c r="X334" s="8">
-        <f>(([1]FRED!AP348-[1]FRED!AP336)/[1]FRED!AP336)*100</f>
         <v>1.6156840934371499</v>
       </c>
       <c r="Y334" s="8">
-        <f>(([1]FRED!AV348-[1]FRED!AV336)/[1]FRED!AV336)*100</f>
         <v>1.2409561315138706</v>
       </c>
       <c r="Z334" s="8">
-        <f>(([1]FRED!AX348-[1]FRED!AX336)/[1]FRED!AX336)*100</f>
         <v>1.0426637494872146</v>
       </c>
       <c r="AA334" s="8">
-        <f>(([1]FRED!BB348-[1]FRED!BB336)/[1]FRED!BB336)*100</f>
         <v>1.453690807799447</v>
       </c>
       <c r="AB334" s="8">
-        <f>(([1]FRED!AZ348-[1]FRED!AZ336)/[1]FRED!AZ336)*100</f>
         <v>1.2235195413549604</v>
       </c>
       <c r="AC334" s="8">
-        <f>(([1]FRED!BD348-[1]FRED!BD336)/[1]FRED!BD336)*100</f>
         <v>0.6987084480203285</v>
       </c>
       <c r="AD334" s="8">
-        <f>(([1]FRED!BJ348-[1]FRED!BJ336)/[1]FRED!BJ336)*100</f>
         <v>1.28810226155358</v>
       </c>
       <c r="AE334" s="8">
-        <f>(([1]FRED!BR348-[1]FRED!BR336)/[1]FRED!BR336)*100</f>
         <v>2.9174147217235191</v>
       </c>
       <c r="AF334" s="8">
-        <f>(([1]FRED!BL348-[1]FRED!BL336)/[1]FRED!BL336)*100</f>
         <v>1.9167904903417501</v>
       </c>
       <c r="AG334" s="8">
-        <f>(([1]FRED!BN348-[1]FRED!BN336)/[1]FRED!BN336)*100</f>
         <v>1.4070839398350317</v>
       </c>
       <c r="AH334" s="8">
-        <f>(([1]FRED!BP348-[1]FRED!BP336)/[1]FRED!BP336)*100</f>
         <v>1.2311406155703133</v>
       </c>
       <c r="AI334" s="8">
-        <f>(([1]FRED!BT348-[1]FRED!BT336)/[1]FRED!BT336)*100</f>
         <v>1.1886728940503239</v>
       </c>
       <c r="AJ334" s="8">
-        <f>(([1]FRED!BF348-[1]FRED!BF336)/[1]FRED!BF336)*100</f>
         <v>2.3304940374787133</v>
       </c>
       <c r="AK334" s="8">
-        <f>(([1]FRED!BH348-[1]FRED!BH336)/[1]FRED!BH336)*100</f>
         <v>-0.25445292620865667</v>
       </c>
       <c r="AL334" s="8">
-        <f>(([1]FRED!BV348-[1]FRED!BV336)/[1]FRED!BV336)*100</f>
         <v>1.3472403302911877</v>
       </c>
       <c r="AM334" s="8">
-        <f>(([1]FRED!BX348-[1]FRED!BX336)/[1]FRED!BX336)*100</f>
         <v>1.7554442902817102</v>
       </c>
       <c r="AN334" s="8">
-        <f>(([1]FRED!BZ348-[1]FRED!BZ336)/[1]FRED!BZ336)*100</f>
         <v>2.1719360188305856</v>
       </c>
       <c r="AO334" s="8">
-        <f>(([1]FRED!CB348-[1]FRED!CB336)/[1]FRED!CB336)*100</f>
         <v>1.2920723695293255</v>
       </c>
       <c r="AP334" s="8">
-        <f>(([1]FRED!CD348-[1]FRED!CD336)/[1]FRED!CD336)*100</f>
         <v>1.4407467532467462</v>
       </c>
       <c r="AQ334" s="8">
-        <f>(([1]FRED!CF348-[1]FRED!CF336)/[1]FRED!CF336)*100</f>
         <v>1.8426987859302313</v>
       </c>
       <c r="AR334" s="8">
-        <f>(([1]FRED!CH348-[1]FRED!CH336)/[1]FRED!CH336)*100</f>
         <v>1.5657379691457542</v>
       </c>
       <c r="AS334" s="8">
-        <f>(([1]FRED!CJ348-[1]FRED!CJ336)/[1]FRED!CJ336)*100</f>
         <v>1.7678196890501836</v>
       </c>
       <c r="AT334" s="8">
-        <f>(([1]FRED!CL348-[1]FRED!CL336)/[1]FRED!CL336)*100</f>
         <v>2.9376056176272622</v>
       </c>
       <c r="AU334" s="8">
-        <f>(([1]FRED!CN348-[1]FRED!CN336)/[1]FRED!CN336)*100</f>
         <v>3.0414872530927486</v>
       </c>
       <c r="AV334" s="8">
-        <f>(([1]FRED!CR348-[1]FRED!CR336)/[1]FRED!CR336)*100</f>
         <v>0.54278416347381497</v>
       </c>
       <c r="AW334" s="8">
-        <f>(([1]FRED!CP348-[1]FRED!CP336)/[1]FRED!CP336)*100</f>
         <v>1.3451551614946144</v>
       </c>
       <c r="AX334" s="8">
-        <f>(([1]FRED!CT348-[1]FRED!CT336)/[1]FRED!CT336)*100</f>
         <v>2.8953162228187113</v>
       </c>
       <c r="AY334" s="8">
-        <f>(([1]FRED!CX348-[1]FRED!CX336)/[1]FRED!CX336)*100</f>
         <v>2.1259418729816946</v>
       </c>
       <c r="AZ334" s="8">
-        <f>(([1]FRED!CV348-[1]FRED!CV336)/[1]FRED!CV336)*100</f>
         <v>0.84927132520297588</v>
       </c>
       <c r="BA334" s="8">
-        <f>(([1]FRED!CZ348-[1]FRED!CZ336)/[1]FRED!CZ336)*100</f>
         <v>1.3844515441959653</v>
       </c>
     </row>
     <row r="335" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A335" s="7">
-        <f>[1]FRED!A349</f>
         <v>43252</v>
       </c>
       <c r="B335" s="8">
-        <f>(([1]FRED!B349-[1]FRED!B337)/[1]FRED!B337)*100</f>
-        <v>1.6200575959819294</v>
+        <v>1.6603201899848503</v>
       </c>
       <c r="C335" s="8">
-        <f>(([1]FRED!F349-[1]FRED!F337)/[1]FRED!F337)*100</f>
-        <v>1.3247333167948423</v>
+        <v>1.0915405606549242</v>
       </c>
       <c r="D335" s="8">
-        <f>(([1]FRED!D349-[1]FRED!D337)/[1]FRED!D337)*100</f>
-        <v>-0.96940321114815065</v>
+        <v>-0.87852166010300936</v>
       </c>
       <c r="E335" s="8">
-        <f>(([1]FRED!J349-[1]FRED!J337)/[1]FRED!J337)*100</f>
-        <v>2.382067822263862</v>
+        <v>2.2955782190349137</v>
       </c>
       <c r="F335" s="8">
-        <f>(([1]FRED!H349-[1]FRED!H337)/[1]FRED!H337)*100</f>
         <v>0.58036433983556712</v>
       </c>
       <c r="G335" s="8">
-        <f>(([1]FRED!L349-[1]FRED!L337)/[1]FRED!L337)*100</f>
-        <v>1.5996052999185546</v>
+        <v>1.7226518614507562</v>
       </c>
       <c r="H335" s="8">
-        <f>(([1]FRED!N349-[1]FRED!N337)/[1]FRED!N337)*100</f>
-        <v>2.8097928436911452</v>
+        <v>2.9943502824858759</v>
       </c>
       <c r="I335" s="8">
-        <f>(([1]FRED!P349-[1]FRED!P337)/[1]FRED!P337)*100</f>
-        <v>0.88485064433754157</v>
+        <v>0.83734188491002493</v>
       </c>
       <c r="J335" s="8">
-        <f>(([1]FRED!R349-[1]FRED!R337)/[1]FRED!R337)*100</f>
-        <v>0.87738539153323103</v>
+        <v>0.92125466110990262</v>
       </c>
       <c r="K335" s="8">
-        <f>(([1]FRED!T349-[1]FRED!T337)/[1]FRED!T337)*100</f>
-        <v>0.35411660553938973</v>
+        <v>0.36676362716579958</v>
       </c>
       <c r="L335" s="8">
-        <f>(([1]FRED!V349-[1]FRED!V337)/[1]FRED!V337)*100</f>
-        <v>1.9851203297279048</v>
+        <v>2.1469571190722867</v>
       </c>
       <c r="M335" s="8">
-        <f>(([1]FRED!X349-[1]FRED!X337)/[1]FRED!X337)*100</f>
-        <v>1.7347396768402195</v>
+        <v>1.6876122082585239</v>
       </c>
       <c r="N335" s="8">
-        <f>(([1]FRED!Z349-[1]FRED!Z337)/[1]FRED!Z337)*100</f>
-        <v>1.5000765345170777</v>
+        <v>1.4541558242767489</v>
       </c>
       <c r="O335" s="8">
-        <f>(([1]FRED!AD349-[1]FRED!AD337)/[1]FRED!AD337)*100</f>
-        <v>3.0298799218095409</v>
+        <v>3.099692823233724</v>
       </c>
       <c r="P335" s="8">
-        <f>(([1]FRED!AF349-[1]FRED!AF337)/[1]FRED!AF337)*100</f>
-        <v>0.96080951910083034</v>
+        <v>0.94597712515243804</v>
       </c>
       <c r="Q335" s="8">
-        <f>(([1]FRED!AH349-[1]FRED!AH337)/[1]FRED!AH337)*100</f>
-        <v>0.55632376113452053</v>
+        <v>0.36016335980963676</v>
       </c>
       <c r="R335" s="8">
-        <f>(([1]FRED!AB349-[1]FRED!AB337)/[1]FRED!AB337)*100</f>
-        <v>1.0111287758346639</v>
+        <v>1.2527821939586674</v>
       </c>
       <c r="S335" s="8">
-        <f>(([1]FRED!AJ349-[1]FRED!AJ337)/[1]FRED!AJ337)*100</f>
-        <v>1.7715551110793597</v>
+        <v>1.7501250089292091</v>
       </c>
       <c r="T335" s="8">
-        <f>(([1]FRED!AL349-[1]FRED!AL337)/[1]FRED!AL337)*100</f>
-        <v>0.16132389675271319</v>
+        <v>0.43713572023314384</v>
       </c>
       <c r="U335" s="8">
-        <f>(([1]FRED!AN349-[1]FRED!AN337)/[1]FRED!AN337)*100</f>
-        <v>0.87225518535421764</v>
+        <v>0.81647142350017277</v>
       </c>
       <c r="V335" s="8">
-        <f>(([1]FRED!AT349-[1]FRED!AT337)/[1]FRED!AT337)*100</f>
-        <v>1.0914927768860281</v>
+        <v>1.0593900481540968</v>
       </c>
       <c r="W335" s="8">
-        <f>(([1]FRED!AR349-[1]FRED!AR337)/[1]FRED!AR337)*100</f>
-        <v>0.19805611589950819</v>
+        <v>0.44379240784888718</v>
       </c>
       <c r="X335" s="8">
-        <f>(([1]FRED!AP349-[1]FRED!AP337)/[1]FRED!AP337)*100</f>
-        <v>1.7495778312986134</v>
+        <v>1.7440411925919774</v>
       </c>
       <c r="Y335" s="8">
-        <f>(([1]FRED!AV349-[1]FRED!AV337)/[1]FRED!AV337)*100</f>
-        <v>1.1792668434043205</v>
+        <v>1.2364018648870887</v>
       </c>
       <c r="Z335" s="8">
-        <f>(([1]FRED!AX349-[1]FRED!AX337)/[1]FRED!AX337)*100</f>
-        <v>1.1369067941276949</v>
+        <v>1.2495732331853844</v>
       </c>
       <c r="AA335" s="8">
-        <f>(([1]FRED!BB349-[1]FRED!BB337)/[1]FRED!BB337)*100</f>
-        <v>1.5206812652068127</v>
+        <v>1.3990267639902796</v>
       </c>
       <c r="AB335" s="8">
-        <f>(([1]FRED!AZ349-[1]FRED!AZ337)/[1]FRED!AZ337)*100</f>
-        <v>1.1954551791440187</v>
+        <v>1.2233375156838271</v>
       </c>
       <c r="AC335" s="8">
-        <f>(([1]FRED!BD349-[1]FRED!BD337)/[1]FRED!BD337)*100</f>
-        <v>0.61297822870428598</v>
+        <v>0.76093849080531928</v>
       </c>
       <c r="AD335" s="8">
-        <f>(([1]FRED!BJ349-[1]FRED!BJ337)/[1]FRED!BJ337)*100</f>
-        <v>1.3368721124545502</v>
+        <v>1.3761918804679052</v>
       </c>
       <c r="AE335" s="8">
-        <f>(([1]FRED!BR349-[1]FRED!BR337)/[1]FRED!BR337)*100</f>
-        <v>2.8055514102372712</v>
+        <v>2.9622444411281932</v>
       </c>
       <c r="AF335" s="8">
-        <f>(([1]FRED!BL349-[1]FRED!BL337)/[1]FRED!BL337)*100</f>
-        <v>1.8214127054642486</v>
+        <v>1.880645638975277</v>
       </c>
       <c r="AG335" s="8">
-        <f>(([1]FRED!BN349-[1]FRED!BN337)/[1]FRED!BN337)*100</f>
-        <v>1.0615146532546578</v>
+        <v>1.2549569590869434</v>
       </c>
       <c r="AH335" s="8">
-        <f>(([1]FRED!BP349-[1]FRED!BP337)/[1]FRED!BP337)*100</f>
-        <v>1.5200868621064088</v>
+        <v>1.6648570394498816</v>
       </c>
       <c r="AI335" s="8">
-        <f>(([1]FRED!BT349-[1]FRED!BT337)/[1]FRED!BT337)*100</f>
-        <v>1.1304475606683906</v>
+        <v>1.1168024183390675</v>
       </c>
       <c r="AJ335" s="8">
-        <f>(([1]FRED!BF349-[1]FRED!BF337)/[1]FRED!BF337)*100</f>
-        <v>2.3420689030329238</v>
+        <v>2.3465990169652851</v>
       </c>
       <c r="AK335" s="8">
-        <f>(([1]FRED!BH349-[1]FRED!BH337)/[1]FRED!BH337)*100</f>
-        <v>-9.2506938020346277E-2</v>
+        <v>2.312673450509314E-2</v>
       </c>
       <c r="AL335" s="8">
-        <f>(([1]FRED!BV349-[1]FRED!BV337)/[1]FRED!BV337)*100</f>
-        <v>1.3068469380377448</v>
+        <v>1.3755332224712669</v>
       </c>
       <c r="AM335" s="8">
-        <f>(([1]FRED!BX349-[1]FRED!BX337)/[1]FRED!BX337)*100</f>
-        <v>1.6351067027351995</v>
+        <v>1.7132551848512172</v>
       </c>
       <c r="AN335" s="8">
-        <f>(([1]FRED!BZ349-[1]FRED!BZ337)/[1]FRED!BZ337)*100</f>
-        <v>2.0279645639876187</v>
+        <v>2.2787917600597738</v>
       </c>
       <c r="AO335" s="8">
-        <f>(([1]FRED!CB349-[1]FRED!CB337)/[1]FRED!CB337)*100</f>
-        <v>1.3048456073004007</v>
+        <v>1.3301006835707312</v>
       </c>
       <c r="AP335" s="8">
-        <f>(([1]FRED!CD349-[1]FRED!CD337)/[1]FRED!CD337)*100</f>
-        <v>1.5154576682158012</v>
+        <v>1.5558698727015652</v>
       </c>
       <c r="AQ335" s="8">
-        <f>(([1]FRED!CF349-[1]FRED!CF337)/[1]FRED!CF337)*100</f>
-        <v>1.6838077015068078</v>
+        <v>1.7172925137526951</v>
       </c>
       <c r="AR335" s="8">
-        <f>(([1]FRED!CH349-[1]FRED!CH337)/[1]FRED!CH337)*100</f>
-        <v>1.4970059880239521</v>
+        <v>1.2897282358360256</v>
       </c>
       <c r="AS335" s="8">
-        <f>(([1]FRED!CJ349-[1]FRED!CJ337)/[1]FRED!CJ337)*100</f>
-        <v>1.976547187987908</v>
+        <v>1.8170946417300538</v>
       </c>
       <c r="AT335" s="8">
-        <f>(([1]FRED!CL349-[1]FRED!CL337)/[1]FRED!CL337)*100</f>
-        <v>2.9428618205631958</v>
+        <v>2.9240340537000713</v>
       </c>
       <c r="AU335" s="8">
-        <f>(([1]FRED!CN349-[1]FRED!CN337)/[1]FRED!CN337)*100</f>
-        <v>2.9884275017018442</v>
+        <v>3.0428863172226035</v>
       </c>
       <c r="AV335" s="8">
-        <f>(([1]FRED!CR349-[1]FRED!CR337)/[1]FRED!CR337)*100</f>
-        <v>0.12682308180089857</v>
+        <v>6.3411540900458307E-2</v>
       </c>
       <c r="AW335" s="8">
-        <f>(([1]FRED!CP349-[1]FRED!CP337)/[1]FRED!CP337)*100</f>
-        <v>1.1065915464490583</v>
+        <v>1.195017811576266</v>
       </c>
       <c r="AX335" s="8">
-        <f>(([1]FRED!CT349-[1]FRED!CT337)/[1]FRED!CT337)*100</f>
-        <v>2.7061158217571708</v>
+        <v>2.7963196824824101</v>
       </c>
       <c r="AY335" s="8">
-        <f>(([1]FRED!CX349-[1]FRED!CX337)/[1]FRED!CX337)*100</f>
-        <v>0.91373286750872795</v>
+        <v>0.92717011556033013</v>
       </c>
       <c r="AZ335" s="8">
-        <f>(([1]FRED!CV349-[1]FRED!CV337)/[1]FRED!CV337)*100</f>
-        <v>1.0182953735446862</v>
+        <v>1.0250840093683267</v>
       </c>
       <c r="BA335" s="8">
-        <f>(([1]FRED!CZ349-[1]FRED!CZ337)/[1]FRED!CZ337)*100</f>
-        <v>1.7412935323383207</v>
+        <v>1.7768301350390905</v>
+      </c>
+    </row>
+    <row r="336" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A336" s="7">
+        <v>43282</v>
+      </c>
+      <c r="B336" s="9">
+        <v>1.6356796248841394</v>
+      </c>
+      <c r="C336" s="9">
+        <v>1.1415525114155252</v>
+      </c>
+      <c r="D336" s="9">
+        <v>-0.60771801883925847</v>
+      </c>
+      <c r="E336" s="9">
+        <v>2.1987117204649289</v>
+      </c>
+      <c r="F336" s="9">
+        <v>0.85497660913051599</v>
+      </c>
+      <c r="G336" s="9">
+        <v>1.9772147836474216</v>
+      </c>
+      <c r="H336" s="9">
+        <v>2.921491953677255</v>
+      </c>
+      <c r="I336" s="9">
+        <v>0.98797762171169556</v>
+      </c>
+      <c r="J336" s="9">
+        <v>1.4270032930845227</v>
+      </c>
+      <c r="K336" s="9">
+        <v>0.92686642965971988</v>
+      </c>
+      <c r="L336" s="9">
+        <v>2.4516594684578799</v>
+      </c>
+      <c r="M336" s="9">
+        <v>1.8682774571665914</v>
+      </c>
+      <c r="N336" s="9">
+        <v>1.9484504449217621</v>
+      </c>
+      <c r="O336" s="9">
+        <v>3.3952773508453196</v>
+      </c>
+      <c r="P336" s="9">
+        <v>1.0835862250956561</v>
+      </c>
+      <c r="Q336" s="9">
+        <v>0.60869565217391597</v>
+      </c>
+      <c r="R336" s="9">
+        <v>1.2082670906200319</v>
+      </c>
+      <c r="S336" s="9">
+        <v>1.6676168757126471</v>
+      </c>
+      <c r="T336" s="9">
+        <v>0.83320314534187367</v>
+      </c>
+      <c r="U336" s="9">
+        <v>1.0571791613722976</v>
+      </c>
+      <c r="V336" s="9">
+        <v>0.91522157996147169</v>
+      </c>
+      <c r="W336" s="9">
+        <v>0.60497176798416075</v>
+      </c>
+      <c r="X336" s="9">
+        <v>1.8487255417485324</v>
+      </c>
+      <c r="Y336" s="9">
+        <v>1.5191439635222186</v>
+      </c>
+      <c r="Z336" s="9">
+        <v>1.4691345400006943</v>
+      </c>
+      <c r="AA336" s="9">
+        <v>1.1820947414167675</v>
+      </c>
+      <c r="AB336" s="9">
+        <v>1.2091856291598522</v>
+      </c>
+      <c r="AC336" s="9">
+        <v>1.0793650793650842</v>
+      </c>
+      <c r="AD336" s="9">
+        <v>1.7231193383221628</v>
+      </c>
+      <c r="AE336" s="9">
+        <v>3.4241476849784123</v>
+      </c>
+      <c r="AF336" s="9">
+        <v>1.8968583283936085</v>
+      </c>
+      <c r="AG336" s="9">
+        <v>1.8303030303030303</v>
+      </c>
+      <c r="AH336" s="9">
+        <v>1.6156257535567855</v>
+      </c>
+      <c r="AI336" s="9">
+        <v>1.2282948747559159</v>
+      </c>
+      <c r="AJ336" s="9">
+        <v>2.417458163726812</v>
+      </c>
+      <c r="AK336" s="9">
+        <v>0.57950857672693556</v>
+      </c>
+      <c r="AL336" s="9">
+        <v>1.4853900504165369</v>
+      </c>
+      <c r="AM336" s="9">
+        <v>1.774115949001684</v>
+      </c>
+      <c r="AN336" s="9">
+        <v>2.5450859033187516</v>
+      </c>
+      <c r="AO336" s="9">
+        <v>1.2086877584641702</v>
+      </c>
+      <c r="AP336" s="9">
+        <v>1.8600889607763824</v>
+      </c>
+      <c r="AQ336" s="9">
+        <v>1.6617324037818828</v>
+      </c>
+      <c r="AR336" s="9">
+        <v>1.3610149942329821</v>
+      </c>
+      <c r="AS336" s="9">
+        <v>1.8696865037194537</v>
+      </c>
+      <c r="AT336" s="9">
+        <v>3.0860257291564399</v>
+      </c>
+      <c r="AU336" s="9">
+        <v>3.4809264305177048</v>
+      </c>
+      <c r="AV336" s="9">
+        <v>-0.3497615262321217</v>
+      </c>
+      <c r="AW336" s="9">
+        <v>1.5828866187923512</v>
+      </c>
+      <c r="AX336" s="9">
+        <v>3.0792801994772736</v>
+      </c>
+      <c r="AY336" s="9">
+        <v>0.96670247046187519</v>
+      </c>
+      <c r="AZ336" s="9">
+        <v>1.3169506482927225</v>
+      </c>
+      <c r="BA336" s="9">
+        <v>1.9524316648917288</v>
       </c>
     </row>
   </sheetData>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\AppData\Local\Box\Box Edit\Documents\j8l7e8+bHk24Y8rjeJeEaA==\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\AppData\Local\Box\Box Edit\Documents\gb96AIB1b0m4gLVXVQD_kA==\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1991 -- July 2018</t>
+    <t>Total Employment; Year/Year: January 1991 -- August 2018</t>
   </si>
 </sst>
 </file>
@@ -622,11 +622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA336"/>
+  <dimension ref="A1:BA337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C336" sqref="C336"/>
+      <pane ySplit="5" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A338" sqref="A338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -53783,7 +53783,7 @@
         <v>43252</v>
       </c>
       <c r="B335" s="8">
-        <v>1.6603201899848503</v>
+        <v>1.6330235160845652</v>
       </c>
       <c r="C335" s="8">
         <v>1.0915405606549242</v>
@@ -53944,160 +53944,321 @@
         <v>43282</v>
       </c>
       <c r="B336" s="9">
-        <v>1.6356796248841394</v>
+        <v>1.6016029660323867</v>
       </c>
       <c r="C336" s="9">
-        <v>1.1415525114155252</v>
+        <v>1.2011117728806853</v>
       </c>
       <c r="D336" s="9">
-        <v>-0.60771801883925847</v>
+        <v>-0.85080522637496547</v>
       </c>
       <c r="E336" s="9">
-        <v>2.1987117204649289</v>
+        <v>2.3066681060851382</v>
       </c>
       <c r="F336" s="9">
-        <v>0.85497660913051599</v>
+        <v>0.80658170672689133</v>
       </c>
       <c r="G336" s="9">
-        <v>1.9772147836474216</v>
+        <v>1.9041166717181492</v>
       </c>
       <c r="H336" s="9">
-        <v>2.921491953677255</v>
+        <v>2.9854113400511388</v>
       </c>
       <c r="I336" s="9">
-        <v>0.98797762171169556</v>
+        <v>1.0891560528508484</v>
       </c>
       <c r="J336" s="9">
-        <v>1.4270032930845227</v>
+        <v>1.4050493962678325</v>
       </c>
       <c r="K336" s="9">
-        <v>0.92686642965971988</v>
+        <v>1.1427120365667851</v>
       </c>
       <c r="L336" s="9">
-        <v>2.4516594684578799</v>
+        <v>2.4633007764752488</v>
       </c>
       <c r="M336" s="9">
-        <v>1.8682774571665914</v>
+        <v>1.9738171692901811</v>
       </c>
       <c r="N336" s="9">
         <v>1.9484504449217621</v>
       </c>
       <c r="O336" s="9">
-        <v>3.3952773508453196</v>
+        <v>3.5350006986167326</v>
       </c>
       <c r="P336" s="9">
-        <v>1.0835862250956561</v>
+        <v>1.0225623433170603</v>
       </c>
       <c r="Q336" s="9">
-        <v>0.60869565217391597</v>
+        <v>0.81803542673108187</v>
       </c>
       <c r="R336" s="9">
-        <v>1.2082670906200319</v>
+        <v>1.1764705882352942</v>
       </c>
       <c r="S336" s="9">
-        <v>1.6676168757126471</v>
+        <v>1.6747434435575828</v>
       </c>
       <c r="T336" s="9">
-        <v>0.83320314534187367</v>
+        <v>0.64052491798156308</v>
       </c>
       <c r="U336" s="9">
-        <v>1.0571791613722976</v>
+        <v>0.95044472681067582</v>
       </c>
       <c r="V336" s="9">
-        <v>0.91522157996147169</v>
+        <v>0.93127809890816771</v>
       </c>
       <c r="W336" s="9">
-        <v>0.60497176798416075</v>
+        <v>0.64896971474663845</v>
       </c>
       <c r="X336" s="9">
-        <v>1.8487255417485324</v>
+        <v>1.8182824564802209</v>
       </c>
       <c r="Y336" s="9">
-        <v>1.5191439635222186</v>
+        <v>1.4847741905918517</v>
       </c>
       <c r="Z336" s="9">
-        <v>1.4691345400006943</v>
+        <v>1.4657258751746942</v>
       </c>
       <c r="AA336" s="9">
-        <v>1.1820947414167675</v>
+        <v>1.3037809647979139</v>
       </c>
       <c r="AB336" s="9">
-        <v>1.2091856291598522</v>
+        <v>1.2196396835906194</v>
       </c>
       <c r="AC336" s="9">
-        <v>1.0793650793650842</v>
+        <v>1.2275132275132301</v>
       </c>
       <c r="AD336" s="9">
-        <v>1.7231193383221628</v>
+        <v>1.6640409610082687</v>
       </c>
       <c r="AE336" s="9">
-        <v>3.4241476849784123</v>
+        <v>3.3348220931963635</v>
       </c>
       <c r="AF336" s="9">
-        <v>1.8968583283936085</v>
+        <v>1.9857735625370618</v>
       </c>
       <c r="AG336" s="9">
-        <v>1.8303030303030303</v>
+        <v>1.6751515151515239</v>
       </c>
       <c r="AH336" s="9">
-        <v>1.6156257535567855</v>
+        <v>1.7361948396431131</v>
       </c>
       <c r="AI336" s="9">
-        <v>1.2282948747559159</v>
+        <v>1.0183299389002036</v>
       </c>
       <c r="AJ336" s="9">
-        <v>2.417458163726812</v>
+        <v>2.3518769787426503</v>
       </c>
       <c r="AK336" s="9">
-        <v>0.57950857672693556</v>
+        <v>0.62586926286510092</v>
       </c>
       <c r="AL336" s="9">
-        <v>1.4853900504165369</v>
+        <v>1.407687164567494</v>
       </c>
       <c r="AM336" s="9">
-        <v>1.774115949001684</v>
+        <v>1.9004089487611342</v>
       </c>
       <c r="AN336" s="9">
-        <v>2.5450859033187516</v>
+        <v>2.4383737061146111</v>
       </c>
       <c r="AO336" s="9">
-        <v>1.2086877584641702</v>
+        <v>1.2574387250781573</v>
       </c>
       <c r="AP336" s="9">
-        <v>1.8600889607763824</v>
+        <v>1.9611807521229252</v>
       </c>
       <c r="AQ336" s="9">
-        <v>1.6617324037818828</v>
+        <v>1.5280297965810334</v>
       </c>
       <c r="AR336" s="9">
-        <v>1.3610149942329821</v>
+        <v>1.4532871972318366</v>
       </c>
       <c r="AS336" s="9">
-        <v>1.8696865037194537</v>
+        <v>1.8796493092454958</v>
       </c>
       <c r="AT336" s="9">
-        <v>3.0860257291564399</v>
+        <v>3.0680218665095391</v>
       </c>
       <c r="AU336" s="9">
-        <v>3.4809264305177048</v>
+        <v>3.5762942779291556</v>
       </c>
       <c r="AV336" s="9">
-        <v>-0.3497615262321217</v>
+        <v>-0.25437201907790502</v>
       </c>
       <c r="AW336" s="9">
-        <v>1.5828866187923512</v>
+        <v>1.2921007383432765</v>
       </c>
       <c r="AX336" s="9">
-        <v>3.0792801994772736</v>
+        <v>3.0612551446510676</v>
       </c>
       <c r="AY336" s="9">
-        <v>0.96670247046187519</v>
+        <v>0.91299677765844112</v>
       </c>
       <c r="AZ336" s="9">
-        <v>1.3169506482927225</v>
+        <v>1.30676804018736</v>
       </c>
       <c r="BA336" s="9">
         <v>1.9524316648917288</v>
+      </c>
+    </row>
+    <row r="337" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A337" s="7">
+        <v>43313</v>
+      </c>
+      <c r="B337" s="9">
+        <v>1.585584114216497</v>
+      </c>
+      <c r="C337" s="9">
+        <v>1.1199762128945889</v>
+      </c>
+      <c r="D337" s="9">
+        <v>-0.94110503946568491</v>
+      </c>
+      <c r="E337" s="9">
+        <v>2.8615539279046485</v>
+      </c>
+      <c r="F337" s="9">
+        <v>0.68526281844566261</v>
+      </c>
+      <c r="G337" s="9">
+        <v>2.071483702428317</v>
+      </c>
+      <c r="H337" s="9">
+        <v>2.7058426713637824</v>
+      </c>
+      <c r="I337" s="9">
+        <v>1.11851499286054</v>
+      </c>
+      <c r="J337" s="9">
+        <v>1.4705882352941151</v>
+      </c>
+      <c r="K337" s="9">
+        <v>0.73371283997469383</v>
+      </c>
+      <c r="L337" s="9">
+        <v>2.5598697977214684</v>
+      </c>
+      <c r="M337" s="9">
+        <v>1.9913536276683832</v>
+      </c>
+      <c r="N337" s="9">
+        <v>2.7264325323474941</v>
+      </c>
+      <c r="O337" s="9">
+        <v>3.0662020905923346</v>
+      </c>
+      <c r="P337" s="9">
+        <v>0.7822149032523672</v>
+      </c>
+      <c r="Q337" s="9">
+        <v>0.86836265397356316</v>
+      </c>
+      <c r="R337" s="9">
+        <v>1.3420684391298758</v>
+      </c>
+      <c r="S337" s="9">
+        <v>1.89499180736624</v>
+      </c>
+      <c r="T337" s="9">
+        <v>0.44233971690258123</v>
+      </c>
+      <c r="U337" s="9">
+        <v>0.80702466754643509</v>
+      </c>
+      <c r="V337" s="9">
+        <v>0.81835686777918948</v>
+      </c>
+      <c r="W337" s="9">
+        <v>0.74375320583277382</v>
+      </c>
+      <c r="X337" s="9">
+        <v>1.8827757810340036</v>
+      </c>
+      <c r="Y337" s="9">
+        <v>1.2859165867251423</v>
+      </c>
+      <c r="Z337" s="9">
+        <v>1.5142730466218783</v>
+      </c>
+      <c r="AA337" s="9">
+        <v>1.6072980017376195</v>
+      </c>
+      <c r="AB337" s="9">
+        <v>1.2297937569676605</v>
+      </c>
+      <c r="AC337" s="9">
+        <v>1.3113367174280857</v>
+      </c>
+      <c r="AD337" s="9">
+        <v>1.4047151277013707</v>
+      </c>
+      <c r="AE337" s="9">
+        <v>3.3318459021270406</v>
+      </c>
+      <c r="AF337" s="9">
+        <v>1.7567168585769084</v>
+      </c>
+      <c r="AG337" s="9">
+        <v>1.4875913114992019</v>
+      </c>
+      <c r="AH337" s="9">
+        <v>1.9638554216867417</v>
+      </c>
+      <c r="AI337" s="9">
+        <v>0.94533411587154037</v>
+      </c>
+      <c r="AJ337" s="9">
+        <v>2.3232688483095321</v>
+      </c>
+      <c r="AK337" s="9">
+        <v>1.0448107731599721</v>
+      </c>
+      <c r="AL337" s="9">
+        <v>1.6294824315779932</v>
+      </c>
+      <c r="AM337" s="9">
+        <v>1.9904985266702691</v>
+      </c>
+      <c r="AN337" s="9">
+        <v>2.3716889623194586</v>
+      </c>
+      <c r="AO337" s="9">
+        <v>1.0985872906552827</v>
+      </c>
+      <c r="AP337" s="9">
+        <v>1.2916246215943445</v>
+      </c>
+      <c r="AQ337" s="9">
+        <v>1.9427696430280366</v>
+      </c>
+      <c r="AR337" s="9">
+        <v>1.4509442653155256</v>
+      </c>
+      <c r="AS337" s="9">
+        <v>1.8577494692144374</v>
+      </c>
+      <c r="AT337" s="9">
+        <v>3.2251471550032704</v>
+      </c>
+      <c r="AU337" s="9">
+        <v>3.5272529563680752</v>
+      </c>
+      <c r="AV337" s="9">
+        <v>-0.57197330791230105</v>
+      </c>
+      <c r="AW337" s="9">
+        <v>1.3852726307540566</v>
+      </c>
+      <c r="AX337" s="9">
+        <v>3.2663844606562709</v>
+      </c>
+      <c r="AY337" s="9">
+        <v>0.99395567494962767</v>
+      </c>
+      <c r="AZ337" s="9">
+        <v>1.5016137251571198</v>
+      </c>
+      <c r="BA337" s="9">
+        <v>2.3016997167138808</v>
       </c>
     </row>
   </sheetData>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\AppData\Local\Box\Box Edit\Documents\gb96AIB1b0m4gLVXVQD_kA==\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\Box Sync\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Historical\Employment\PUBLISHED\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1991 -- August 2018</t>
+    <t>Total Employment; Year/Year: January 1991 -- September 2018</t>
   </si>
 </sst>
 </file>
@@ -622,11 +622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA337"/>
+  <dimension ref="A1:BA338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A325" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A338" sqref="A338"/>
+      <pane ySplit="5" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C338" sqref="C338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -53944,7 +53944,7 @@
         <v>43282</v>
       </c>
       <c r="B336" s="9">
-        <v>1.6016029660323867</v>
+        <v>1.6138705632190176</v>
       </c>
       <c r="C336" s="9">
         <v>1.2011117728806853</v>
@@ -54105,160 +54105,321 @@
         <v>43313</v>
       </c>
       <c r="B337" s="9">
-        <v>1.585584114216497</v>
+        <v>1.6447883279232931</v>
       </c>
       <c r="C337" s="9">
-        <v>1.1199762128945889</v>
+        <v>1.0852866841766124</v>
       </c>
       <c r="D337" s="9">
-        <v>-0.94110503946568491</v>
+        <v>-0.9714632665452303</v>
       </c>
       <c r="E337" s="9">
-        <v>2.8615539279046485</v>
+        <v>3.0374838431710605</v>
       </c>
       <c r="F337" s="9">
-        <v>0.68526281844566261</v>
+        <v>0.81425346662366249</v>
       </c>
       <c r="G337" s="9">
-        <v>2.071483702428317</v>
+        <v>2.0584218963367613</v>
       </c>
       <c r="H337" s="9">
-        <v>2.7058426713637824</v>
+        <v>2.7995352846381523</v>
       </c>
       <c r="I337" s="9">
-        <v>1.11851499286054</v>
+        <v>1.2494050452165637</v>
       </c>
       <c r="J337" s="9">
-        <v>1.4705882352941151</v>
+        <v>1.5364354697102722</v>
       </c>
       <c r="K337" s="9">
-        <v>0.73371283997469383</v>
+        <v>0.79696394686906447</v>
       </c>
       <c r="L337" s="9">
-        <v>2.5598697977214684</v>
+        <v>2.598232969076959</v>
       </c>
       <c r="M337" s="9">
-        <v>1.9913536276683832</v>
+        <v>2.029433505812769</v>
       </c>
       <c r="N337" s="9">
-        <v>2.7264325323474941</v>
+        <v>2.7572396796056649</v>
       </c>
       <c r="O337" s="9">
-        <v>3.0662020905923346</v>
+        <v>3.1219512195121921</v>
       </c>
       <c r="P337" s="9">
-        <v>0.7822149032523672</v>
+        <v>0.81679703581721463</v>
       </c>
       <c r="Q337" s="9">
-        <v>0.86836265397356316</v>
+        <v>0.93590197150483723</v>
       </c>
       <c r="R337" s="9">
-        <v>1.3420684391298758</v>
+        <v>1.3547894669889298</v>
       </c>
       <c r="S337" s="9">
-        <v>1.89499180736624</v>
+        <v>1.9306119541212443</v>
       </c>
       <c r="T337" s="9">
-        <v>0.44233971690258123</v>
+        <v>0.76498751040799573</v>
       </c>
       <c r="U337" s="9">
-        <v>0.80702466754643509</v>
+        <v>0.86793218962541407</v>
       </c>
       <c r="V337" s="9">
         <v>0.81835686777918948</v>
       </c>
       <c r="W337" s="9">
-        <v>0.74375320583277382</v>
+        <v>0.80603795706015968</v>
       </c>
       <c r="X337" s="9">
-        <v>1.8827757810340036</v>
+        <v>1.8413049488526376</v>
       </c>
       <c r="Y337" s="9">
-        <v>1.2859165867251423</v>
+        <v>1.3430176784980172</v>
       </c>
       <c r="Z337" s="9">
-        <v>1.5142730466218783</v>
+        <v>1.4358309743869551</v>
       </c>
       <c r="AA337" s="9">
         <v>1.6072980017376195</v>
       </c>
       <c r="AB337" s="9">
-        <v>1.2297937569676605</v>
+        <v>1.2925027870680013</v>
       </c>
       <c r="AC337" s="9">
-        <v>1.3113367174280857</v>
+        <v>1.3747884940778341</v>
       </c>
       <c r="AD337" s="9">
-        <v>1.4047151277013707</v>
+        <v>1.4833005893909539</v>
       </c>
       <c r="AE337" s="9">
-        <v>3.3318459021270406</v>
+        <v>3.4731518667261674</v>
       </c>
       <c r="AF337" s="9">
-        <v>1.7567168585769084</v>
+        <v>1.7862415116622412</v>
       </c>
       <c r="AG337" s="9">
-        <v>1.4875913114992019</v>
+        <v>1.468240530211403</v>
       </c>
       <c r="AH337" s="9">
-        <v>1.9638554216867417</v>
+        <v>2.1807228915662678</v>
       </c>
       <c r="AI337" s="9">
-        <v>0.94533411587154037</v>
+        <v>0.970487130041087</v>
       </c>
       <c r="AJ337" s="9">
-        <v>2.3232688483095321</v>
+        <v>2.3006689567890115</v>
       </c>
       <c r="AK337" s="9">
-        <v>1.0448107731599721</v>
+        <v>1.114464824703973</v>
       </c>
       <c r="AL337" s="9">
-        <v>1.6294824315779932</v>
+        <v>1.7902628488844794</v>
       </c>
       <c r="AM337" s="9">
-        <v>1.9904985266702691</v>
+        <v>2.1167839316855983</v>
       </c>
       <c r="AN337" s="9">
-        <v>2.3716889623194586</v>
+        <v>2.4516335340830357</v>
       </c>
       <c r="AO337" s="9">
-        <v>1.0985872906552827</v>
+        <v>1.2564882162234678</v>
       </c>
       <c r="AP337" s="9">
-        <v>1.2916246215943445</v>
+        <v>1.3319878910191771</v>
       </c>
       <c r="AQ337" s="9">
-        <v>1.9427696430280366</v>
+        <v>1.8040003828117435</v>
       </c>
       <c r="AR337" s="9">
         <v>1.4509442653155256</v>
       </c>
       <c r="AS337" s="9">
-        <v>1.8577494692144374</v>
+        <v>1.9174628450106066</v>
       </c>
       <c r="AT337" s="9">
-        <v>3.2251471550032704</v>
+        <v>3.1957161543492449</v>
       </c>
       <c r="AU337" s="9">
-        <v>3.5272529563680752</v>
+        <v>3.6631779257849573</v>
       </c>
       <c r="AV337" s="9">
-        <v>-0.57197330791230105</v>
+        <v>-0.54019701302827727</v>
       </c>
       <c r="AW337" s="9">
-        <v>1.3852726307540566</v>
+        <v>1.6102530397633867</v>
       </c>
       <c r="AX337" s="9">
-        <v>3.2663844606562709</v>
+        <v>3.2753910354558804</v>
       </c>
       <c r="AY337" s="9">
-        <v>0.99395567494962767</v>
+        <v>1.0073875083948958</v>
       </c>
       <c r="AZ337" s="9">
-        <v>1.5016137251571198</v>
+        <v>1.4540512994734223</v>
       </c>
       <c r="BA337" s="9">
-        <v>2.3016997167138808</v>
+        <v>1.8413597733711211</v>
+      </c>
+    </row>
+    <row r="338" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A338" s="7">
+        <v>43344</v>
+      </c>
+      <c r="B338" s="9">
+        <v>1.7262848472064398</v>
+      </c>
+      <c r="C338" s="9">
+        <v>1.2782401902497005</v>
+      </c>
+      <c r="D338" s="9">
+        <v>-0.70015220700152558</v>
+      </c>
+      <c r="E338" s="9">
+        <v>2.9121350887235296</v>
+      </c>
+      <c r="F338" s="9">
+        <v>1.0640870616686857</v>
+      </c>
+      <c r="G338" s="9">
+        <v>2.0138407073348761</v>
+      </c>
+      <c r="H338" s="9">
+        <v>2.8904114717885285</v>
+      </c>
+      <c r="I338" s="9">
+        <v>1.1835375282502594</v>
+      </c>
+      <c r="J338" s="9">
+        <v>1.755926251097454</v>
+      </c>
+      <c r="K338" s="9">
+        <v>1.010611419909045</v>
+      </c>
+      <c r="L338" s="9">
+        <v>4.8286327370155568</v>
+      </c>
+      <c r="M338" s="9">
+        <v>2.4915341660873147</v>
+      </c>
+      <c r="N338" s="9">
+        <v>1.7764165390505393</v>
+      </c>
+      <c r="O338" s="9">
+        <v>2.6677782409337127</v>
+      </c>
+      <c r="P338" s="9">
+        <v>0.82803806011917269</v>
+      </c>
+      <c r="Q338" s="9">
+        <v>0.90043735528685365</v>
+      </c>
+      <c r="R338" s="9">
+        <v>1.1192368839427604</v>
+      </c>
+      <c r="S338" s="9">
+        <v>1.3957131667022813</v>
+      </c>
+      <c r="T338" s="9">
+        <v>0.75367742606164556</v>
+      </c>
+      <c r="U338" s="9">
+        <v>1.0114358322744645</v>
+      </c>
+      <c r="V338" s="9">
+        <v>0.72092278115988462</v>
+      </c>
+      <c r="W338" s="9">
+        <v>0.92395688201216597</v>
+      </c>
+      <c r="X338" s="9">
+        <v>1.7542888765910374</v>
+      </c>
+      <c r="Y338" s="9">
+        <v>1.4465595648895127</v>
+      </c>
+      <c r="Z338" s="9">
+        <v>1.3017106249574142</v>
+      </c>
+      <c r="AA338" s="9">
+        <v>1.7655244390328715</v>
+      </c>
+      <c r="AB338" s="9">
+        <v>1.3686226710778402</v>
+      </c>
+      <c r="AC338" s="9">
+        <v>1.5664690939881529</v>
+      </c>
+      <c r="AD338" s="9">
+        <v>1.7112509834775858</v>
+      </c>
+      <c r="AE338" s="9">
+        <v>3.2207907596623722</v>
+      </c>
+      <c r="AF338" s="9">
+        <v>2.2090437361008122</v>
+      </c>
+      <c r="AG338" s="9">
+        <v>1.4016771792455112</v>
+      </c>
+      <c r="AH338" s="9">
+        <v>2.5563728445677136</v>
+      </c>
+      <c r="AI338" s="9">
+        <v>0.99840757658298684</v>
+      </c>
+      <c r="AJ338" s="9">
+        <v>1.8609804630969653</v>
+      </c>
+      <c r="AK338" s="9">
+        <v>1.1162790697674445</v>
+      </c>
+      <c r="AL338" s="9">
+        <v>1.8900312595992168</v>
+      </c>
+      <c r="AM338" s="9">
+        <v>2.0397144399784026</v>
+      </c>
+      <c r="AN338" s="9">
+        <v>2.2986059380653305</v>
+      </c>
+      <c r="AO338" s="9">
+        <v>1.3211569776226011</v>
+      </c>
+      <c r="AP338" s="9">
+        <v>1.4138557867097554</v>
+      </c>
+      <c r="AQ338" s="9">
+        <v>1.3234871007960061</v>
+      </c>
+      <c r="AR338" s="9">
+        <v>1.4246323529411737</v>
+      </c>
+      <c r="AS338" s="9">
+        <v>2.1180682157181243</v>
+      </c>
+      <c r="AT338" s="9">
+        <v>3.3224058011298108</v>
+      </c>
+      <c r="AU338" s="9">
+        <v>3.5513385293121038</v>
+      </c>
+      <c r="AV338" s="9">
+        <v>-0.60432569974553985</v>
+      </c>
+      <c r="AW338" s="9">
+        <v>1.7286696320258703</v>
+      </c>
+      <c r="AX338" s="9">
+        <v>3.1503608540712067</v>
+      </c>
+      <c r="AY338" s="9">
+        <v>0.79109680879593614</v>
+      </c>
+      <c r="AZ338" s="9">
+        <v>1.416680822150495</v>
+      </c>
+      <c r="BA338" s="9">
+        <v>2.2324592487597492</v>
       </c>
     </row>
   </sheetData>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\Box Sync\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Historical\Employment\PUBLISHED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\aboddupalli\Box Sync\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Historical\Employment\PUBLISHED\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1991 -- September 2018</t>
+    <t>Total Employment; Year/Year: January 1991 -- October 2018</t>
   </si>
 </sst>
 </file>
@@ -622,11 +622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA338"/>
+  <dimension ref="A1:BA339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C338" sqref="C338"/>
+      <pane ySplit="5" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A339" sqref="A339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -54105,7 +54105,7 @@
         <v>43313</v>
       </c>
       <c r="B337" s="9">
-        <v>1.6447883279232931</v>
+        <v>1.6556764591797155</v>
       </c>
       <c r="C337" s="9">
         <v>1.0852866841766124</v>
@@ -54269,157 +54269,318 @@
         <v>1.7262848472064398</v>
       </c>
       <c r="C338" s="9">
-        <v>1.2782401902497005</v>
+        <v>1.3773285770907626</v>
       </c>
       <c r="D338" s="9">
-        <v>-0.70015220700152558</v>
+        <v>-0.39573820395738551</v>
       </c>
       <c r="E338" s="9">
-        <v>2.9121350887235296</v>
+        <v>2.86562678878078</v>
       </c>
       <c r="F338" s="9">
-        <v>1.0640870616686857</v>
+        <v>1.0479645304312777</v>
       </c>
       <c r="G338" s="9">
-        <v>2.0138407073348761</v>
+        <v>1.9978296063048244</v>
       </c>
       <c r="H338" s="9">
-        <v>2.8904114717885285</v>
+        <v>2.6732562057733382</v>
       </c>
       <c r="I338" s="9">
-        <v>1.1835375282502594</v>
+        <v>1.1300107053645769</v>
       </c>
       <c r="J338" s="9">
-        <v>1.755926251097454</v>
+        <v>1.6242317822651398</v>
       </c>
       <c r="K338" s="9">
-        <v>1.010611419909045</v>
+        <v>0.49267306720565657</v>
       </c>
       <c r="L338" s="9">
-        <v>4.8286327370155568</v>
+        <v>4.6757003473580587</v>
       </c>
       <c r="M338" s="9">
-        <v>2.4915341660873147</v>
+        <v>2.5632975264066573</v>
       </c>
       <c r="N338" s="9">
-        <v>1.7764165390505393</v>
+        <v>1.7457886676875922</v>
       </c>
       <c r="O338" s="9">
-        <v>2.6677782409337127</v>
+        <v>2.61219952758093</v>
       </c>
       <c r="P338" s="9">
-        <v>0.82803806011917269</v>
+        <v>0.80992987192572052</v>
       </c>
       <c r="Q338" s="9">
-        <v>0.90043735528685365</v>
+        <v>0.84898379212760777</v>
       </c>
       <c r="R338" s="9">
-        <v>1.1192368839427604</v>
+        <v>1.2019077901430899</v>
       </c>
       <c r="S338" s="9">
-        <v>1.3957131667022813</v>
+        <v>1.4740440076906676</v>
       </c>
       <c r="T338" s="9">
-        <v>0.75367742606164556</v>
+        <v>0.53537086127137345</v>
       </c>
       <c r="U338" s="9">
-        <v>1.0114358322744645</v>
+        <v>1.1283354510800532</v>
       </c>
       <c r="V338" s="9">
-        <v>0.72092278115988462</v>
+        <v>0.78500480615187074</v>
       </c>
       <c r="W338" s="9">
-        <v>0.92395688201216597</v>
+        <v>0.8616264574319864</v>
       </c>
       <c r="X338" s="9">
-        <v>1.7542888765910374</v>
+        <v>1.8013281682346405</v>
       </c>
       <c r="Y338" s="9">
-        <v>1.4465595648895127</v>
+        <v>1.4191366347494314</v>
       </c>
       <c r="Z338" s="9">
-        <v>1.3017106249574142</v>
+        <v>1.3664553942615658</v>
       </c>
       <c r="AA338" s="9">
-        <v>1.7655244390328715</v>
+        <v>1.5915811445468737</v>
       </c>
       <c r="AB338" s="9">
-        <v>1.3686226710778402</v>
+        <v>1.4522026815253288</v>
       </c>
       <c r="AC338" s="9">
-        <v>1.5664690939881529</v>
+        <v>1.5241320914479353</v>
       </c>
       <c r="AD338" s="9">
-        <v>1.7112509834775858</v>
+        <v>1.6227380015735642</v>
       </c>
       <c r="AE338" s="9">
-        <v>3.2207907596623722</v>
+        <v>3.1245372427069489</v>
       </c>
       <c r="AF338" s="9">
-        <v>2.2090437361008122</v>
+        <v>2.4314306893995519</v>
       </c>
       <c r="AG338" s="9">
         <v>1.4016771792455112</v>
       </c>
       <c r="AH338" s="9">
-        <v>2.5563728445677136</v>
+        <v>2.8095984565296117</v>
       </c>
       <c r="AI338" s="9">
-        <v>0.99840757658298684</v>
+        <v>1.0644093366299139</v>
       </c>
       <c r="AJ338" s="9">
-        <v>1.8609804630969653</v>
+        <v>2.0034370477568824</v>
       </c>
       <c r="AK338" s="9">
-        <v>1.1162790697674445</v>
+        <v>1.1627906976744187</v>
       </c>
       <c r="AL338" s="9">
-        <v>1.8900312595992168</v>
+        <v>1.8430515150967601</v>
       </c>
       <c r="AM338" s="9">
-        <v>2.0397144399784026</v>
+        <v>1.9677245185673975</v>
       </c>
       <c r="AN338" s="9">
-        <v>2.2986059380653305</v>
+        <v>2.5327232095349528</v>
       </c>
       <c r="AO338" s="9">
-        <v>1.3211569776226011</v>
+        <v>1.4772784502006078</v>
       </c>
       <c r="AP338" s="9">
-        <v>1.4138557867097554</v>
+        <v>1.5148454857604525</v>
       </c>
       <c r="AQ338" s="9">
-        <v>1.3234871007960061</v>
+        <v>1.4241872062913501</v>
       </c>
       <c r="AR338" s="9">
-        <v>1.4246323529411737</v>
+        <v>1.631433823529417</v>
       </c>
       <c r="AS338" s="9">
-        <v>2.1180682157181243</v>
+        <v>2.0385163578507739</v>
       </c>
       <c r="AT338" s="9">
-        <v>3.3224058011298108</v>
+        <v>3.4442164468897349</v>
       </c>
       <c r="AU338" s="9">
-        <v>3.5513385293121038</v>
+        <v>3.3412402575398139</v>
       </c>
       <c r="AV338" s="9">
-        <v>-0.60432569974553985</v>
+        <v>-0.54071246819338059</v>
       </c>
       <c r="AW338" s="9">
-        <v>1.7286696320258703</v>
+        <v>1.7236150424585477</v>
       </c>
       <c r="AX338" s="9">
-        <v>3.1503608540712067</v>
+        <v>3.2641571586859519</v>
       </c>
       <c r="AY338" s="9">
-        <v>0.79109680879593614</v>
+        <v>0.8313220702601295</v>
       </c>
       <c r="AZ338" s="9">
-        <v>1.416680822150495</v>
+        <v>1.3147613385425452</v>
       </c>
       <c r="BA338" s="9">
         <v>2.2324592487597492</v>
+      </c>
+    </row>
+    <row r="339" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A339" s="7">
+        <v>43374</v>
+      </c>
+      <c r="B339" s="9">
+        <v>1.70884442452151</v>
+      </c>
+      <c r="C339" s="9">
+        <v>1.6646024275452025</v>
+      </c>
+      <c r="D339" s="9">
+        <v>0.12154360376784479</v>
+      </c>
+      <c r="E339" s="9">
+        <v>3.1035223367697693</v>
+      </c>
+      <c r="F339" s="9">
+        <v>0.67529544175575718</v>
+      </c>
+      <c r="G339" s="9">
+        <v>1.8236166328959709</v>
+      </c>
+      <c r="H339" s="9">
+        <v>2.6914881686665919</v>
+      </c>
+      <c r="I339" s="9">
+        <v>1.3276970707311373</v>
+      </c>
+      <c r="J339" s="9">
+        <v>1.0680034873583211</v>
+      </c>
+      <c r="K339" s="9">
+        <v>0.23929471032745309</v>
+      </c>
+      <c r="L339" s="9">
+        <v>2.7000359850023625</v>
+      </c>
+      <c r="M339" s="9">
+        <v>2.0882602293516661</v>
+      </c>
+      <c r="N339" s="9">
+        <v>1.6671765065769488</v>
+      </c>
+      <c r="O339" s="9">
+        <v>2.1138436032053147</v>
+      </c>
+      <c r="P339" s="9">
+        <v>0.97616382432343751</v>
+      </c>
+      <c r="Q339" s="9">
+        <v>0.81567116249197469</v>
+      </c>
+      <c r="R339" s="9">
+        <v>1.3854464569431175</v>
+      </c>
+      <c r="S339" s="9">
+        <v>1.3870118785119852</v>
+      </c>
+      <c r="T339" s="9">
+        <v>0.54121565362198643</v>
+      </c>
+      <c r="U339" s="9">
+        <v>0.98462163122367619</v>
+      </c>
+      <c r="V339" s="9">
+        <v>1.2717321313586569</v>
+      </c>
+      <c r="W339" s="9">
+        <v>1.4138298263009073</v>
+      </c>
+      <c r="X339" s="9">
+        <v>1.7794479290431346</v>
+      </c>
+      <c r="Y339" s="9">
+        <v>1.411055551750124</v>
+      </c>
+      <c r="Z339" s="9">
+        <v>1.2098555649957488</v>
+      </c>
+      <c r="AA339" s="9">
+        <v>1.1947017574236156</v>
+      </c>
+      <c r="AB339" s="9">
+        <v>1.5526004316646909</v>
+      </c>
+      <c r="AC339" s="9">
+        <v>1.5010570824524361</v>
+      </c>
+      <c r="AD339" s="9">
+        <v>1.5844897155791775</v>
+      </c>
+      <c r="AE339" s="9">
+        <v>3.3873234228237696</v>
+      </c>
+      <c r="AF339" s="9">
+        <v>2.2516556291390661</v>
+      </c>
+      <c r="AG339" s="9">
+        <v>1.6526732291063502</v>
+      </c>
+      <c r="AH339" s="9">
+        <v>2.6773922439668709</v>
+      </c>
+      <c r="AI339" s="9">
+        <v>1.2864026817515113</v>
+      </c>
+      <c r="AJ339" s="9">
+        <v>2.3334986697930287</v>
+      </c>
+      <c r="AK339" s="9">
+        <v>1.1865984178687683</v>
+      </c>
+      <c r="AL339" s="9">
+        <v>2.0861202501898051</v>
+      </c>
+      <c r="AM339" s="9">
+        <v>1.3843308073273952</v>
+      </c>
+      <c r="AN339" s="9">
+        <v>2.4667126412391918</v>
+      </c>
+      <c r="AO339" s="9">
+        <v>1.5457788347205585</v>
+      </c>
+      <c r="AP339" s="9">
+        <v>1.2681159420289878</v>
+      </c>
+      <c r="AQ339" s="9">
+        <v>1.8031770261889866</v>
+      </c>
+      <c r="AR339" s="9">
+        <v>1.6723940435280669</v>
+      </c>
+      <c r="AS339" s="9">
+        <v>1.9602657763379783</v>
+      </c>
+      <c r="AT339" s="9">
+        <v>3.1282263899389569</v>
+      </c>
+      <c r="AU339" s="9">
+        <v>3.2837837837837771</v>
+      </c>
+      <c r="AV339" s="9">
+        <v>-0.8888888888888925</v>
+      </c>
+      <c r="AW339" s="9">
+        <v>1.8047165280691464</v>
+      </c>
+      <c r="AX339" s="9">
+        <v>3.2705678732356511</v>
+      </c>
+      <c r="AY339" s="9">
+        <v>0.92418965979104961</v>
+      </c>
+      <c r="AZ339" s="9">
+        <v>1.0688110749185669</v>
+      </c>
+      <c r="BA339" s="9">
+        <v>2.1238938053097343</v>
       </c>
     </row>
   </sheetData>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1991 -- October 2018</t>
+    <t>Total Employment; Year/Year: January 1991 -- November 2018</t>
   </si>
 </sst>
 </file>
@@ -622,11 +622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA339"/>
+  <dimension ref="A1:BA340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A339" sqref="A339"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -54266,7 +54266,7 @@
         <v>43344</v>
       </c>
       <c r="B338" s="9">
-        <v>1.7262848472064398</v>
+        <v>1.7269652905833439</v>
       </c>
       <c r="C338" s="9">
         <v>1.3773285770907626</v>
@@ -54427,160 +54427,321 @@
         <v>43374</v>
       </c>
       <c r="B339" s="9">
-        <v>1.70884442452151</v>
+        <v>1.7006941331485934</v>
       </c>
       <c r="C339" s="9">
-        <v>1.6646024275452025</v>
+        <v>1.7091899925687393</v>
       </c>
       <c r="D339" s="9">
-        <v>0.12154360376784479</v>
+        <v>-0.51656031601338359</v>
       </c>
       <c r="E339" s="9">
-        <v>3.1035223367697693</v>
+        <v>3.2681844215349436</v>
       </c>
       <c r="F339" s="9">
         <v>0.67529544175575718</v>
       </c>
       <c r="G339" s="9">
-        <v>1.8236166328959709</v>
+        <v>1.8259795958151839</v>
       </c>
       <c r="H339" s="9">
-        <v>2.6914881686665919</v>
+        <v>2.7251317707749276</v>
       </c>
       <c r="I339" s="9">
-        <v>1.3276970707311373</v>
+        <v>1.4170040485830069</v>
       </c>
       <c r="J339" s="9">
-        <v>1.0680034873583211</v>
+        <v>1.1769834350479462</v>
       </c>
       <c r="K339" s="9">
-        <v>0.23929471032745309</v>
+        <v>0.15113350125945157</v>
       </c>
       <c r="L339" s="9">
-        <v>2.7000359850023625</v>
+        <v>2.7244129220982609</v>
       </c>
       <c r="M339" s="9">
-        <v>2.0882602293516661</v>
+        <v>2.1083396546338853</v>
       </c>
       <c r="N339" s="9">
-        <v>1.6671765065769488</v>
+        <v>1.7436524931171753</v>
       </c>
       <c r="O339" s="9">
-        <v>2.1138436032053147</v>
+        <v>2.0862116606797492</v>
       </c>
       <c r="P339" s="9">
-        <v>0.97616382432343751</v>
+        <v>0.91854875880687736</v>
       </c>
       <c r="Q339" s="9">
-        <v>0.81567116249197469</v>
+        <v>0.7739242132305687</v>
       </c>
       <c r="R339" s="9">
-        <v>1.3854464569431175</v>
+        <v>1.290117572291068</v>
       </c>
       <c r="S339" s="9">
-        <v>1.3870118785119852</v>
+        <v>1.5079308627925041</v>
       </c>
       <c r="T339" s="9">
-        <v>0.54121565362198643</v>
+        <v>0.69733555370525035</v>
       </c>
       <c r="U339" s="9">
-        <v>0.98462163122367619</v>
+        <v>1.1115058620514688</v>
       </c>
       <c r="V339" s="9">
-        <v>1.2717321313586569</v>
+        <v>1.0946555054732701</v>
       </c>
       <c r="W339" s="9">
-        <v>1.4138298263009073</v>
+        <v>1.2045095663031171</v>
       </c>
       <c r="X339" s="9">
-        <v>1.7794479290431346</v>
+        <v>1.7352380426072831</v>
       </c>
       <c r="Y339" s="9">
-        <v>1.411055551750124</v>
+        <v>1.4247551202137256</v>
       </c>
       <c r="Z339" s="9">
-        <v>1.2098555649957488</v>
+        <v>1.1792693288020331</v>
       </c>
       <c r="AA339" s="9">
-        <v>1.1947017574236156</v>
+        <v>1.2899316076530249</v>
       </c>
       <c r="AB339" s="9">
-        <v>1.5526004316646909</v>
+        <v>1.4098725892919308</v>
       </c>
       <c r="AC339" s="9">
-        <v>1.5010570824524361</v>
+        <v>1.3742071881606766</v>
       </c>
       <c r="AD339" s="9">
-        <v>1.5844897155791775</v>
+        <v>1.4565495522094347</v>
       </c>
       <c r="AE339" s="9">
-        <v>3.3873234228237696</v>
+        <v>3.5426373788921008</v>
       </c>
       <c r="AF339" s="9">
-        <v>2.2516556291390661</v>
+        <v>2.1927888153053683</v>
       </c>
       <c r="AG339" s="9">
-        <v>1.6526732291063502</v>
+        <v>1.6502605674580106</v>
       </c>
       <c r="AH339" s="9">
-        <v>2.6773922439668709</v>
+        <v>2.701404730459839</v>
       </c>
       <c r="AI339" s="9">
-        <v>1.2864026817515113</v>
+        <v>1.361826943222292</v>
       </c>
       <c r="AJ339" s="9">
-        <v>2.3334986697930287</v>
+        <v>2.2342967939757488</v>
       </c>
       <c r="AK339" s="9">
-        <v>1.1865984178687683</v>
+        <v>1.1633317822242903</v>
       </c>
       <c r="AL339" s="9">
-        <v>2.0861202501898051</v>
+        <v>2.0228497053400272</v>
       </c>
       <c r="AM339" s="9">
-        <v>1.3843308073273952</v>
+        <v>1.5573721582433264</v>
       </c>
       <c r="AN339" s="9">
-        <v>2.4667126412391918</v>
+        <v>2.4507983661344253</v>
       </c>
       <c r="AO339" s="9">
-        <v>1.5457788347205585</v>
+        <v>1.5039105022525039</v>
       </c>
       <c r="AP339" s="9">
-        <v>1.2681159420289878</v>
+        <v>1.3687600644122406</v>
       </c>
       <c r="AQ339" s="9">
-        <v>1.8031770261889866</v>
+        <v>1.8270285741544494</v>
       </c>
       <c r="AR339" s="9">
-        <v>1.6723940435280669</v>
+        <v>1.5349369988545218</v>
       </c>
       <c r="AS339" s="9">
-        <v>1.9602657763379783</v>
+        <v>1.9999338864830913</v>
       </c>
       <c r="AT339" s="9">
-        <v>3.1282263899389569</v>
+        <v>3.1583054898422067</v>
       </c>
       <c r="AU339" s="9">
-        <v>3.2837837837837771</v>
+        <v>3.2432432432432434</v>
       </c>
       <c r="AV339" s="9">
-        <v>-0.8888888888888925</v>
+        <v>-0.73015873015873378</v>
       </c>
       <c r="AW339" s="9">
-        <v>1.8047165280691464</v>
+        <v>1.7389985592599078</v>
       </c>
       <c r="AX339" s="9">
-        <v>3.2705678732356511</v>
+        <v>3.1303154188177045</v>
       </c>
       <c r="AY339" s="9">
-        <v>0.92418965979104961</v>
+        <v>0.97776587195284681</v>
       </c>
       <c r="AZ339" s="9">
-        <v>1.0688110749185669</v>
+        <v>1.0925624321389886</v>
       </c>
       <c r="BA339" s="9">
-        <v>2.1238938053097343</v>
+        <v>2.3716814159291997</v>
+      </c>
+    </row>
+    <row r="340" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A340" s="7">
+        <v>43405</v>
+      </c>
+      <c r="B340" s="9">
+        <v>1.6568328246863342</v>
+      </c>
+      <c r="C340" s="9">
+        <v>1.7227722772277319</v>
+      </c>
+      <c r="D340" s="9">
+        <v>-0.15313935681470139</v>
+      </c>
+      <c r="E340" s="9">
+        <v>3.6402723038337483</v>
+      </c>
+      <c r="F340" s="9">
+        <v>0.98236572992993143</v>
+      </c>
+      <c r="G340" s="9">
+        <v>1.7668656698825385</v>
+      </c>
+      <c r="H340" s="9">
+        <v>2.5776849330398912</v>
+      </c>
+      <c r="I340" s="9">
+        <v>1.3691291148282636</v>
+      </c>
+      <c r="J340" s="9">
+        <v>1.5529308836395499</v>
+      </c>
+      <c r="K340" s="9">
+        <v>2.520478890989861E-2</v>
+      </c>
+      <c r="L340" s="9">
+        <v>2.7990824200013948</v>
+      </c>
+      <c r="M340" s="9">
+        <v>2.2087367810450229</v>
+      </c>
+      <c r="N340" s="9">
+        <v>2.0373774509804026</v>
+      </c>
+      <c r="O340" s="9">
+        <v>1.8179314144057199</v>
+      </c>
+      <c r="P340" s="9">
+        <v>0.89774577023628077</v>
+      </c>
+      <c r="Q340" s="9">
+        <v>0.96744126249477413</v>
+      </c>
+      <c r="R340" s="9">
+        <v>1.0081795700970193</v>
+      </c>
+      <c r="S340" s="9">
+        <v>1.3982539569877079</v>
+      </c>
+      <c r="T340" s="9">
+        <v>0.88394342762063216</v>
+      </c>
+      <c r="U340" s="9">
+        <v>1.1737804878048734</v>
+      </c>
+      <c r="V340" s="9">
+        <v>0.98039215686273029</v>
+      </c>
+      <c r="W340" s="9">
+        <v>1.3457518976201928</v>
+      </c>
+      <c r="X340" s="9">
+        <v>1.6685052399338114</v>
+      </c>
+      <c r="Y340" s="9">
+        <v>1.1824208871573971</v>
+      </c>
+      <c r="Z340" s="9">
+        <v>1.1967904256766038</v>
+      </c>
+      <c r="AA340" s="9">
+        <v>1.2168809873133604</v>
+      </c>
+      <c r="AB340" s="9">
+        <v>1.1251953464143112</v>
+      </c>
+      <c r="AC340" s="9">
+        <v>1.5608521408985399</v>
+      </c>
+      <c r="AD340" s="9">
+        <v>1.2655744138134104</v>
+      </c>
+      <c r="AE340" s="9">
+        <v>3.8350698293061471</v>
+      </c>
+      <c r="AF340" s="9">
+        <v>2.2209148404177119</v>
+      </c>
+      <c r="AG340" s="9">
+        <v>1.4672930972171938</v>
+      </c>
+      <c r="AH340" s="9">
+        <v>2.1164653832356866</v>
+      </c>
+      <c r="AI340" s="9">
+        <v>1.1957021614615957</v>
+      </c>
+      <c r="AJ340" s="9">
+        <v>2.2694492021995814</v>
+      </c>
+      <c r="AK340" s="9">
+        <v>1.7330210772833672</v>
+      </c>
+      <c r="AL340" s="9">
+        <v>2.1039313149570651</v>
+      </c>
+      <c r="AM340" s="9">
+        <v>1.6825775656324611</v>
+      </c>
+      <c r="AN340" s="9">
+        <v>2.4748277689454183</v>
+      </c>
+      <c r="AO340" s="9">
+        <v>1.3167581314415711</v>
+      </c>
+      <c r="AP340" s="9">
+        <v>1.0249196141479031</v>
+      </c>
+      <c r="AQ340" s="9">
+        <v>1.5580467414022507</v>
+      </c>
+      <c r="AR340" s="9">
+        <v>2.1291208791208818</v>
+      </c>
+      <c r="AS340" s="9">
+        <v>2.0044249248753365</v>
+      </c>
+      <c r="AT340" s="9">
+        <v>2.9615821040687278</v>
+      </c>
+      <c r="AU340" s="9">
+        <v>2.9413744362926595</v>
+      </c>
+      <c r="AV340" s="9">
+        <v>-0.41335453100159347</v>
+      </c>
+      <c r="AW340" s="9">
+        <v>1.8980943234089851</v>
+      </c>
+      <c r="AX340" s="9">
+        <v>2.9445882038011959</v>
+      </c>
+      <c r="AY340" s="9">
+        <v>0.87003078570472481</v>
+      </c>
+      <c r="AZ340" s="9">
+        <v>1.4866607833819898</v>
+      </c>
+      <c r="BA340" s="9">
+        <v>3.1926214969847466</v>
       </c>
     </row>
   </sheetData>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1991 -- November 2018</t>
+    <t>Total Employment; Year/Year: January 1991 -- December 2018</t>
   </si>
 </sst>
 </file>
@@ -622,11 +622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA340"/>
+  <dimension ref="A1:BA341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="5" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A341" sqref="A341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -51046,7 +51046,7 @@
         <v>42736</v>
       </c>
       <c r="B318" s="8">
-        <v>1.7458588228721472</v>
+        <v>1.73166218622351</v>
       </c>
       <c r="C318" s="8">
         <v>1.1721501157058032</v>
@@ -51207,7 +51207,7 @@
         <v>42767</v>
       </c>
       <c r="B319" s="8">
-        <v>1.7029968003457578</v>
+        <v>1.6654234665067935</v>
       </c>
       <c r="C319" s="8">
         <v>1.1815576449293579</v>
@@ -51368,7 +51368,7 @@
         <v>42795</v>
       </c>
       <c r="B320" s="8">
-        <v>1.5874672902399645</v>
+        <v>1.5882406163654206</v>
       </c>
       <c r="C320" s="8">
         <v>1.1910744798472233</v>
@@ -51529,7 +51529,7 @@
         <v>42826</v>
       </c>
       <c r="B321" s="8">
-        <v>1.5862423711612517</v>
+        <v>1.5873015873015872</v>
       </c>
       <c r="C321" s="8">
         <v>0.77698130232091833</v>
@@ -51690,7 +51690,7 @@
         <v>42856</v>
       </c>
       <c r="B322" s="8">
-        <v>1.6699560793906709</v>
+        <v>1.6656590714836665</v>
       </c>
       <c r="C322" s="8">
         <v>0.90279867589527529</v>
@@ -51851,7 +51851,7 @@
         <v>42887</v>
       </c>
       <c r="B323" s="8">
-        <v>1.6347507646638602</v>
+        <v>1.6256441198704477</v>
       </c>
       <c r="C323" s="8">
         <v>1.1543287327478042</v>
@@ -52012,7 +52012,7 @@
         <v>42917</v>
       </c>
       <c r="B324" s="8">
-        <v>1.5376524158166442</v>
+        <v>1.5305310499913509</v>
       </c>
       <c r="C324" s="8">
         <v>0.79039519759879717</v>
@@ -52173,7 +52173,7 @@
         <v>42948</v>
       </c>
       <c r="B325" s="8">
-        <v>1.5675866216020073</v>
+        <v>1.5650490806027928</v>
       </c>
       <c r="C325" s="8">
         <v>0.94042319043570521</v>
@@ -52334,7 +52334,7 @@
         <v>42979</v>
       </c>
       <c r="B326" s="8">
-        <v>1.3922522336058505</v>
+        <v>1.3882563996412061</v>
       </c>
       <c r="C326" s="8">
         <v>0.78897433336663247</v>
@@ -52495,7 +52495,7 @@
         <v>43009</v>
       </c>
       <c r="B327" s="8">
-        <v>1.481200675466106</v>
+        <v>1.4780294778640268</v>
       </c>
       <c r="C327" s="8">
         <v>0.84936297776667491</v>
@@ -52656,7 +52656,7 @@
         <v>43040</v>
       </c>
       <c r="B328" s="9">
-        <v>1.5097379128028254</v>
+        <v>1.5107279587958247</v>
       </c>
       <c r="C328" s="9">
         <v>0.89910089910089919</v>
@@ -52817,7 +52817,7 @@
         <v>43070</v>
       </c>
       <c r="B329" s="9">
-        <v>1.5044314720463157</v>
+        <v>1.4803049992093122</v>
       </c>
       <c r="C329" s="9">
         <v>0.82850868436814418</v>
@@ -52978,7 +52978,7 @@
         <v>43101</v>
       </c>
       <c r="B330" s="9">
-        <v>1.4447891500109817</v>
+        <v>1.4221490099179792</v>
       </c>
       <c r="C330" s="9">
         <v>0.73094326487991879</v>
@@ -53139,7 +53139,7 @@
         <v>43132</v>
       </c>
       <c r="B331" s="9">
-        <v>1.5278006251028129</v>
+        <v>1.5503716503469651</v>
       </c>
       <c r="C331" s="9">
         <v>0.85967004571655503</v>
@@ -53300,7 +53300,7 @@
         <v>43160</v>
       </c>
       <c r="B332" s="9">
-        <v>1.58321287396639</v>
+        <v>1.5867034796489523</v>
       </c>
       <c r="C332" s="9">
         <v>0.8343680158927218</v>
@@ -53461,7 +53461,7 @@
         <v>43191</v>
       </c>
       <c r="B333" s="9">
-        <v>1.5813170571491133</v>
+        <v>1.5727616024518387</v>
       </c>
       <c r="C333" s="9">
         <v>1.0296458416235483</v>
@@ -53622,7 +53622,7 @@
         <v>43221</v>
       </c>
       <c r="B334" s="8">
-        <v>1.6568807715705507</v>
+        <v>1.6684437882764653</v>
       </c>
       <c r="C334" s="8">
         <v>1.2128442191072717</v>
@@ -53783,7 +53783,7 @@
         <v>43252</v>
       </c>
       <c r="B335" s="8">
-        <v>1.6330235160845652</v>
+        <v>1.688356888891922</v>
       </c>
       <c r="C335" s="8">
         <v>1.0915405606549242</v>
@@ -53944,7 +53944,7 @@
         <v>43282</v>
       </c>
       <c r="B336" s="9">
-        <v>1.6138705632190176</v>
+        <v>1.6682908877788152</v>
       </c>
       <c r="C336" s="9">
         <v>1.2011117728806853</v>
@@ -54105,7 +54105,7 @@
         <v>43313</v>
       </c>
       <c r="B337" s="9">
-        <v>1.6556764591797155</v>
+        <v>1.7308268220304375</v>
       </c>
       <c r="C337" s="9">
         <v>1.0852866841766124</v>
@@ -54266,7 +54266,7 @@
         <v>43344</v>
       </c>
       <c r="B338" s="9">
-        <v>1.7269652905833439</v>
+        <v>1.7918634563297082</v>
       </c>
       <c r="C338" s="9">
         <v>1.3773285770907626</v>
@@ -54427,7 +54427,7 @@
         <v>43374</v>
       </c>
       <c r="B339" s="9">
-        <v>1.7006941331485934</v>
+        <v>1.8002472792489232</v>
       </c>
       <c r="C339" s="9">
         <v>1.7091899925687393</v>
@@ -54588,160 +54588,321 @@
         <v>43405</v>
       </c>
       <c r="B340" s="9">
-        <v>1.6568328246863342</v>
+        <v>1.781280948569413</v>
       </c>
       <c r="C340" s="9">
-        <v>1.7227722772277319</v>
+        <v>1.7673267326732585</v>
       </c>
       <c r="D340" s="9">
-        <v>-0.15313935681470139</v>
+        <v>-0.21439509954057848</v>
       </c>
       <c r="E340" s="9">
-        <v>3.6402723038337483</v>
+        <v>3.6008599068434255</v>
       </c>
       <c r="F340" s="9">
-        <v>0.98236572992993143</v>
+        <v>0.9984700861582948</v>
       </c>
       <c r="G340" s="9">
-        <v>1.7668656698825385</v>
+        <v>1.7373982637804282</v>
       </c>
       <c r="H340" s="9">
-        <v>2.5776849330398912</v>
+        <v>2.6746745253105635</v>
       </c>
       <c r="I340" s="9">
-        <v>1.3691291148282636</v>
+        <v>1.4584201440561937</v>
       </c>
       <c r="J340" s="9">
-        <v>1.5529308836395499</v>
+        <v>1.596675415573056</v>
       </c>
       <c r="K340" s="9">
-        <v>2.520478890989861E-2</v>
+        <v>8.8216761184630815E-2</v>
       </c>
       <c r="L340" s="9">
-        <v>2.7990824200013948</v>
+        <v>2.7457886322033507</v>
       </c>
       <c r="M340" s="9">
-        <v>2.2087367810450229</v>
+        <v>2.2778992459060365</v>
       </c>
       <c r="N340" s="9">
-        <v>2.0373774509804026</v>
+        <v>1.930147058823533</v>
       </c>
       <c r="O340" s="9">
-        <v>1.8179314144057199</v>
+        <v>1.9556534912546386</v>
       </c>
       <c r="P340" s="9">
-        <v>0.89774577023628077</v>
+        <v>0.93227445370691275</v>
       </c>
       <c r="Q340" s="9">
-        <v>0.96744126249477413</v>
+        <v>1.1217176100022381</v>
       </c>
       <c r="R340" s="9">
-        <v>1.0081795700970193</v>
+        <v>1.0842685942552874</v>
       </c>
       <c r="S340" s="9">
-        <v>1.3982539569877079</v>
+        <v>1.5189154659663469</v>
       </c>
       <c r="T340" s="9">
-        <v>0.88394342762063216</v>
+        <v>0.91514143094841449</v>
       </c>
       <c r="U340" s="9">
-        <v>1.1737804878048734</v>
+        <v>1.1941056910569106</v>
       </c>
       <c r="V340" s="9">
-        <v>0.98039215686273029</v>
+        <v>1.1089681774349047</v>
       </c>
       <c r="W340" s="9">
-        <v>1.3457518976201928</v>
+        <v>1.2834146162590299</v>
       </c>
       <c r="X340" s="9">
-        <v>1.6685052399338114</v>
+        <v>1.7319360176503085</v>
       </c>
       <c r="Y340" s="9">
-        <v>1.1824208871573971</v>
+        <v>1.2074818308158475</v>
       </c>
       <c r="Z340" s="9">
-        <v>1.1967904256766038</v>
+        <v>1.162790697674428</v>
       </c>
       <c r="AA340" s="9">
-        <v>1.2168809873133604</v>
+        <v>1.1996202640890534</v>
       </c>
       <c r="AB340" s="9">
-        <v>1.1251953464143112</v>
+        <v>1.2502170515714535</v>
       </c>
       <c r="AC340" s="9">
-        <v>1.5608521408985399</v>
+        <v>1.4764817549040288</v>
       </c>
       <c r="AD340" s="9">
-        <v>1.2655744138134104</v>
+        <v>1.3538703031492156</v>
       </c>
       <c r="AE340" s="9">
-        <v>3.8350698293061471</v>
+        <v>3.8867952412621101</v>
       </c>
       <c r="AF340" s="9">
-        <v>2.2209148404177119</v>
+        <v>2.2356228857184948</v>
       </c>
       <c r="AG340" s="9">
-        <v>1.4672930972171938</v>
+        <v>1.4648837489459146</v>
       </c>
       <c r="AH340" s="9">
-        <v>2.1164653832356866</v>
+        <v>2.1642951094105016</v>
       </c>
       <c r="AI340" s="9">
-        <v>1.1957021614615957</v>
+        <v>1.2071992976294994</v>
       </c>
       <c r="AJ340" s="9">
-        <v>2.2694492021995814</v>
+        <v>2.2086000180293879</v>
       </c>
       <c r="AK340" s="9">
-        <v>1.7330210772833672</v>
+        <v>1.5222482435597189</v>
       </c>
       <c r="AL340" s="9">
-        <v>2.1039313149570651</v>
+        <v>2.0858563036601834</v>
       </c>
       <c r="AM340" s="9">
-        <v>1.6825775656324611</v>
+        <v>1.5990453460620497</v>
       </c>
       <c r="AN340" s="9">
-        <v>2.4748277689454183</v>
+        <v>2.3635400105988293</v>
       </c>
       <c r="AO340" s="9">
-        <v>1.3167581314415711</v>
+        <v>1.3117387230625022</v>
       </c>
       <c r="AP340" s="9">
-        <v>1.0249196141479031</v>
+        <v>1.0450160771704158</v>
       </c>
       <c r="AQ340" s="9">
-        <v>1.5580467414022507</v>
+        <v>1.6720501615048584</v>
       </c>
       <c r="AR340" s="9">
-        <v>2.1291208791208818</v>
+        <v>2.0375457875457825</v>
       </c>
       <c r="AS340" s="9">
-        <v>2.0044249248753365</v>
+        <v>2.1001882244163359</v>
       </c>
       <c r="AT340" s="9">
-        <v>2.9615821040687278</v>
+        <v>2.9834657156751527</v>
       </c>
       <c r="AU340" s="9">
-        <v>2.9413744362926595</v>
+        <v>3.0221444436965648</v>
       </c>
       <c r="AV340" s="9">
-        <v>-0.41335453100159347</v>
+        <v>-0.31796502384737679</v>
       </c>
       <c r="AW340" s="9">
-        <v>1.8980943234089851</v>
+        <v>1.8854572107364889</v>
       </c>
       <c r="AX340" s="9">
-        <v>2.9445882038011959</v>
+        <v>3.0100234972190081</v>
       </c>
       <c r="AY340" s="9">
-        <v>0.87003078570472481</v>
+        <v>0.78972025163967041</v>
       </c>
       <c r="AZ340" s="9">
-        <v>1.4866607833819898</v>
+        <v>1.5715158509266236</v>
       </c>
       <c r="BA340" s="9">
-        <v>3.1926214969847466</v>
+        <v>2.9797800638524423</v>
+      </c>
+    </row>
+    <row r="341" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A341" s="7">
+        <v>43435</v>
+      </c>
+      <c r="B341" s="9">
+        <v>1.8117022141521451</v>
+      </c>
+      <c r="C341" s="9">
+        <v>2.1582021582021649</v>
+      </c>
+      <c r="D341" s="9">
+        <v>-0.12251148545175414</v>
+      </c>
+      <c r="E341" s="9">
+        <v>3.3666058459446861</v>
+      </c>
+      <c r="F341" s="9">
+        <v>1.3801452784503558</v>
+      </c>
+      <c r="G341" s="9">
+        <v>1.6720677060971907</v>
+      </c>
+      <c r="H341" s="9">
+        <v>2.8063123418192508</v>
+      </c>
+      <c r="I341" s="9">
+        <v>1.1805885144755632</v>
+      </c>
+      <c r="J341" s="9">
+        <v>2.2392974753018637</v>
+      </c>
+      <c r="K341" s="9">
+        <v>0.28967254408059884</v>
+      </c>
+      <c r="L341" s="9">
+        <v>2.6697459584295693</v>
+      </c>
+      <c r="M341" s="9">
+        <v>2.5361026921019834</v>
+      </c>
+      <c r="N341" s="9">
+        <v>1.445966514459665</v>
+      </c>
+      <c r="O341" s="9">
+        <v>1.9914846861694824</v>
+      </c>
+      <c r="P341" s="9">
+        <v>1.1675327238045123</v>
+      </c>
+      <c r="Q341" s="9">
+        <v>1.4286172910847861</v>
+      </c>
+      <c r="R341" s="9">
+        <v>0.9794009857197018</v>
+      </c>
+      <c r="S341" s="9">
+        <v>1.424218805356773</v>
+      </c>
+      <c r="T341" s="9">
+        <v>1.1070686070686047</v>
+      </c>
+      <c r="U341" s="9">
+        <v>1.1115058620514688</v>
+      </c>
+      <c r="V341" s="9">
+        <v>0.68932350112216545</v>
+      </c>
+      <c r="W341" s="9">
+        <v>1.8740105298037661</v>
+      </c>
+      <c r="X341" s="9">
+        <v>1.8133715482555306</v>
+      </c>
+      <c r="Y341" s="9">
+        <v>1.2514790206607809</v>
+      </c>
+      <c r="Z341" s="9">
+        <v>1.0938614668614421</v>
+      </c>
+      <c r="AA341" s="9">
+        <v>0.94664371772805511</v>
+      </c>
+      <c r="AB341" s="9">
+        <v>1.3538846073734638</v>
+      </c>
+      <c r="AC341" s="9">
+        <v>0.98594503880847262</v>
+      </c>
+      <c r="AD341" s="9">
+        <v>1.2437567329350634</v>
+      </c>
+      <c r="AE341" s="9">
+        <v>3.8535078688042428</v>
+      </c>
+      <c r="AF341" s="9">
+        <v>2.6700103260067891</v>
+      </c>
+      <c r="AG341" s="9">
+        <v>1.4927172759718248</v>
+      </c>
+      <c r="AH341" s="9">
+        <v>2.380952380952392</v>
+      </c>
+      <c r="AI341" s="9">
+        <v>1.2733730283087814</v>
+      </c>
+      <c r="AJ341" s="9">
+        <v>1.9599029038928306</v>
+      </c>
+      <c r="AK341" s="9">
+        <v>2.1116846550915067</v>
+      </c>
+      <c r="AL341" s="9">
+        <v>2.1050539363605152</v>
+      </c>
+      <c r="AM341" s="9">
+        <v>1.519756838905775</v>
+      </c>
+      <c r="AN341" s="9">
+        <v>1.8504850274146001</v>
+      </c>
+      <c r="AO341" s="9">
+        <v>1.2479978643886689</v>
+      </c>
+      <c r="AP341" s="9">
+        <v>1.4259891544486891</v>
+      </c>
+      <c r="AQ341" s="9">
+        <v>1.9526066350710813</v>
+      </c>
+      <c r="AR341" s="9">
+        <v>2.0082154267457808</v>
+      </c>
+      <c r="AS341" s="9">
+        <v>1.9524281466798781</v>
+      </c>
+      <c r="AT341" s="9">
+        <v>3.1718789213344971</v>
+      </c>
+      <c r="AU341" s="9">
+        <v>3.1134670871636643</v>
+      </c>
+      <c r="AV341" s="9">
+        <v>-6.3795853269533853E-2</v>
+      </c>
+      <c r="AW341" s="9">
+        <v>1.9473457929743809</v>
+      </c>
+      <c r="AX341" s="9">
+        <v>3.0854125255881568</v>
+      </c>
+      <c r="AY341" s="9">
+        <v>0.62783863211326907</v>
+      </c>
+      <c r="AZ341" s="9">
+        <v>1.6354586394880208</v>
+      </c>
+      <c r="BA341" s="9">
+        <v>2.8238616307800917</v>
       </c>
     </row>
   </sheetData>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1991 -- February 2019</t>
+    <t>Total Employment; Year/Year: January 1991 -- March 2019</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA343"/>
+  <dimension ref="A1:BA344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -55074,157 +55074,318 @@
         <v>1.7036131724477876</v>
       </c>
       <c r="C343" s="8">
-        <v>1.5888632003541605</v>
+        <v>1.618377687048064</v>
       </c>
       <c r="D343" s="8">
-        <v>0.51860890787064928</v>
+        <v>0.82367297132397455</v>
       </c>
       <c r="E343" s="8">
-        <v>2.7187555241294006</v>
+        <v>2.5950150256319637</v>
       </c>
       <c r="F343" s="8">
-        <v>1.0711735301118781</v>
+        <v>1.0235658176624685</v>
       </c>
       <c r="G343" s="8">
-        <v>1.30115437246348</v>
+        <v>1.3379960468298573</v>
       </c>
       <c r="H343" s="8">
-        <v>1.6563146997929503</v>
+        <v>1.6415261756876527</v>
       </c>
       <c r="I343" s="8">
-        <v>0.2723021369798222</v>
+        <v>0.31965903036761328</v>
       </c>
       <c r="J343" s="8">
-        <v>0.93295725753959891</v>
+        <v>1.0631373399869894</v>
       </c>
       <c r="K343" s="8">
-        <v>0.48040455120100567</v>
+        <v>0.49304677623261406</v>
       </c>
       <c r="L343" s="8">
-        <v>2.4329196183565407</v>
+        <v>2.4237344569847243</v>
       </c>
       <c r="M343" s="8">
-        <v>2.1540918872152175</v>
+        <v>2.1052865097499955</v>
       </c>
       <c r="N343" s="8">
-        <v>0.48743335872049431</v>
+        <v>0.3655750190403621</v>
       </c>
       <c r="O343" s="8">
-        <v>2.5409836065573801</v>
+        <v>2.3497267759562903</v>
       </c>
       <c r="P343" s="8">
-        <v>0.96832860911309371</v>
+        <v>0.99782085101501861</v>
       </c>
       <c r="Q343" s="8">
-        <v>1.3589383692739538</v>
+        <v>1.2440985070817914</v>
       </c>
       <c r="R343" s="8">
-        <v>0.36660135263258847</v>
+        <v>0.3286770747740374</v>
       </c>
       <c r="S343" s="8">
-        <v>0.62331775038957038</v>
+        <v>0.53123671908202297</v>
       </c>
       <c r="T343" s="8">
-        <v>1.0939444214019152</v>
+        <v>1.073206138531732</v>
       </c>
       <c r="U343" s="8">
-        <v>0.29885523249923329</v>
+        <v>0.35963934758382676</v>
       </c>
       <c r="V343" s="8">
-        <v>0.69841269841269482</v>
+        <v>0.58730158730159443</v>
       </c>
       <c r="W343" s="8">
-        <v>0.46984265734266067</v>
+        <v>0.47348484848484851</v>
       </c>
       <c r="X343" s="8">
-        <v>0.5563625400827743</v>
+        <v>0.56184394441856012</v>
       </c>
       <c r="Y343" s="8">
-        <v>0.93502485078183084</v>
+        <v>0.88736581712546703</v>
       </c>
       <c r="Z343" s="8">
-        <v>5.077516755805294E-2</v>
+        <v>8.4625279263421574E-2</v>
       </c>
       <c r="AA343" s="8">
-        <v>1.0523569316402972</v>
+        <v>0.93929379022438286</v>
       </c>
       <c r="AB343" s="8">
-        <v>0.51321173451694735</v>
+        <v>0.30862057008113031</v>
       </c>
       <c r="AC343" s="8">
-        <v>1.0521885521885523</v>
+        <v>1.0101010101010124</v>
       </c>
       <c r="AD343" s="8">
-        <v>0.44005476237041719</v>
+        <v>0.32270682573832077</v>
       </c>
       <c r="AE343" s="8">
-        <v>3.5318155283128911</v>
+        <v>3.5464098073555097</v>
       </c>
       <c r="AF343" s="8">
-        <v>1.0127697049757951</v>
+        <v>0.9393805959195789</v>
       </c>
       <c r="AG343" s="8">
-        <v>0.79506577362309061</v>
+        <v>0.85770731942368461</v>
       </c>
       <c r="AH343" s="8">
         <v>1.0003572704537307</v>
       </c>
       <c r="AI343" s="8">
-        <v>0.98879572143737771</v>
+        <v>1.0053792974782598</v>
       </c>
       <c r="AJ343" s="8">
-        <v>1.4492753623188448</v>
+        <v>1.4179638575773965</v>
       </c>
       <c r="AK343" s="8">
-        <v>0.48554913294798208</v>
+        <v>0.34682080924855491</v>
       </c>
       <c r="AL343" s="8">
-        <v>0.64950252784223839</v>
+        <v>0.63151076806821493</v>
       </c>
       <c r="AM343" s="8">
-        <v>0.85139318885449999</v>
+        <v>0.70850202429150344</v>
       </c>
       <c r="AN343" s="8">
-        <v>1.5496139097546884</v>
+        <v>1.5128434102011847</v>
       </c>
       <c r="AO343" s="8">
-        <v>0.72232880140128752</v>
+        <v>0.76737008924847772</v>
       </c>
       <c r="AP343" s="8">
-        <v>-0.32245062474807856</v>
+        <v>-0.2015316404675534</v>
       </c>
       <c r="AQ343" s="8">
-        <v>1.4527279521674097</v>
+        <v>1.4620702541105999</v>
       </c>
       <c r="AR343" s="8">
         <v>1.9652650822669024</v>
       </c>
       <c r="AS343" s="8">
-        <v>1.7414161327419089</v>
+        <v>1.7578445868243797</v>
       </c>
       <c r="AT343" s="8">
-        <v>2.168861347792403</v>
+        <v>2.2390588690937259</v>
       </c>
       <c r="AU343" s="8">
-        <v>2.9077117572692672</v>
+        <v>2.9942111916960541</v>
       </c>
       <c r="AV343" s="8">
-        <v>0.443880786303118</v>
+        <v>0.53899809765378748</v>
       </c>
       <c r="AW343" s="8">
-        <v>0.78858430341719865</v>
+        <v>0.77857053448491442</v>
       </c>
       <c r="AX343" s="8">
-        <v>1.9738983753070427</v>
+        <v>1.8081737740818535</v>
       </c>
       <c r="AY343" s="8">
-        <v>2.4329208953148895</v>
+        <v>2.4607257055470662</v>
       </c>
       <c r="AZ343" s="8">
-        <v>0.38334790503731375</v>
+        <v>0.37325980227318273</v>
       </c>
       <c r="BA343" s="8">
-        <v>1.5811665495432183</v>
+        <v>1.6514406184118018</v>
+      </c>
+    </row>
+    <row r="344" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A344" s="7">
+        <v>43525</v>
+      </c>
+      <c r="B344" s="9">
+        <v>1.7109637912313946</v>
+      </c>
+      <c r="C344" s="9">
+        <v>1.5972870693468213</v>
+      </c>
+      <c r="D344" s="9">
+        <v>0.94541018603233395</v>
+      </c>
+      <c r="E344" s="9">
+        <v>2.3272214386459802</v>
+      </c>
+      <c r="F344" s="9">
+        <v>0.92768791627022229</v>
+      </c>
+      <c r="G344" s="9">
+        <v>1.3935144609991237</v>
+      </c>
+      <c r="H344" s="9">
+        <v>1.6640838314515669</v>
+      </c>
+      <c r="I344" s="9">
+        <v>0.4329517822193335</v>
+      </c>
+      <c r="J344" s="9">
+        <v>0.97613882863340562</v>
+      </c>
+      <c r="K344" s="9">
+        <v>0.49229992426154717</v>
+      </c>
+      <c r="L344" s="9">
+        <v>2.4040996950450428</v>
+      </c>
+      <c r="M344" s="9">
+        <v>1.8853728701040013</v>
+      </c>
+      <c r="N344" s="9">
+        <v>0.21318714786051121</v>
+      </c>
+      <c r="O344" s="9">
+        <v>2.6513598469317992</v>
+      </c>
+      <c r="P344" s="9">
+        <v>0.77526987242393908</v>
+      </c>
+      <c r="Q344" s="9">
+        <v>1.3122690788635583</v>
+      </c>
+      <c r="R344" s="9">
+        <v>0.24672613399126103</v>
+      </c>
+      <c r="S344" s="9">
+        <v>0.41817279750512887</v>
+      </c>
+      <c r="T344" s="9">
+        <v>0.90118085767557954</v>
+      </c>
+      <c r="U344" s="9">
+        <v>2.0159258139293597E-2</v>
+      </c>
+      <c r="V344" s="9">
+        <v>0.46039053818066006</v>
+      </c>
+      <c r="W344" s="9">
+        <v>0.56807836568223702</v>
+      </c>
+      <c r="X344" s="9">
+        <v>0.77364132671258057</v>
+      </c>
+      <c r="Y344" s="9">
+        <v>0.57951329937748419</v>
+      </c>
+      <c r="Z344" s="9">
+        <v>0.26778753262601573</v>
+      </c>
+      <c r="AA344" s="9">
+        <v>0.6509286582190591</v>
+      </c>
+      <c r="AB344" s="9">
+        <v>0.35675937792248907</v>
+      </c>
+      <c r="AC344" s="9">
+        <v>0.92514718250630312</v>
+      </c>
+      <c r="AD344" s="9">
+        <v>1.9557989438679032E-2</v>
+      </c>
+      <c r="AE344" s="9">
+        <v>3.4364761558063375</v>
+      </c>
+      <c r="AF344" s="9">
+        <v>1.1325194881600305</v>
+      </c>
+      <c r="AG344" s="9">
+        <v>1.0808202653799801</v>
+      </c>
+      <c r="AH344" s="9">
+        <v>1.1774500475737502</v>
+      </c>
+      <c r="AI344" s="9">
+        <v>1.0977175759082061</v>
+      </c>
+      <c r="AJ344" s="9">
+        <v>1.4046762991580999</v>
+      </c>
+      <c r="AK344" s="9">
+        <v>0.1617375231053578</v>
+      </c>
+      <c r="AL344" s="9">
+        <v>0.71586596399086611</v>
+      </c>
+      <c r="AM344" s="9">
+        <v>0.49296192908475106</v>
+      </c>
+      <c r="AN344" s="9">
+        <v>1.7107472712006788</v>
+      </c>
+      <c r="AO344" s="9">
+        <v>0.84923918846769275</v>
+      </c>
+      <c r="AP344" s="9">
+        <v>-0.20165355918531966</v>
+      </c>
+      <c r="AQ344" s="9">
+        <v>1.4492753623188406</v>
+      </c>
+      <c r="AR344" s="9">
+        <v>1.9872087711283664</v>
+      </c>
+      <c r="AS344" s="9">
+        <v>1.5691681439170175</v>
+      </c>
+      <c r="AT344" s="9">
+        <v>2.1814903362393037</v>
+      </c>
+      <c r="AU344" s="9">
+        <v>2.9577932868062482</v>
+      </c>
+      <c r="AV344" s="9">
+        <v>0.34865293185420687</v>
+      </c>
+      <c r="AW344" s="9">
+        <v>0.88792176283734781</v>
+      </c>
+      <c r="AX344" s="9">
+        <v>2.3763136143582475</v>
+      </c>
+      <c r="AY344" s="9">
+        <v>2.670746974544449</v>
+      </c>
+      <c r="AZ344" s="9">
+        <v>0.30935808197988557</v>
+      </c>
+      <c r="BA344" s="9">
+        <v>1.7217146872803852</v>
       </c>
     </row>
   </sheetData>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1991 -- March 2019</t>
+    <t>Total Employment; Year/Year: January 1991 -- April 2019</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA344"/>
+  <dimension ref="A1:BA345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -55071,7 +55071,7 @@
         <v>43497</v>
       </c>
       <c r="B343" s="8">
-        <v>1.7036131724477876</v>
+        <v>1.7191435343052188</v>
       </c>
       <c r="C343" s="8">
         <v>1.618377687048064</v>
@@ -55232,160 +55232,321 @@
         <v>43525</v>
       </c>
       <c r="B344" s="9">
-        <v>1.7109637912313946</v>
+        <v>1.7217542605493699</v>
       </c>
       <c r="C344" s="9">
-        <v>1.5972870693468213</v>
+        <v>1.685752199341424</v>
       </c>
       <c r="D344" s="9">
-        <v>0.94541018603233395</v>
+        <v>1.0978956999085157</v>
       </c>
       <c r="E344" s="9">
-        <v>2.3272214386459802</v>
+        <v>2.3589562764457015</v>
       </c>
       <c r="F344" s="9">
-        <v>0.92768791627022229</v>
+        <v>0.94354582936884424</v>
       </c>
       <c r="G344" s="9">
-        <v>1.3935144609991237</v>
+        <v>1.4168857727139934</v>
       </c>
       <c r="H344" s="9">
-        <v>1.6640838314515669</v>
+        <v>1.6788428898236292</v>
       </c>
       <c r="I344" s="9">
-        <v>0.4329517822193335</v>
+        <v>0.52784532352767288</v>
       </c>
       <c r="J344" s="9">
-        <v>0.97613882863340562</v>
+        <v>0.82429501084598944</v>
       </c>
       <c r="K344" s="9">
-        <v>0.49229992426154717</v>
+        <v>0.56803837414794234</v>
       </c>
       <c r="L344" s="9">
-        <v>2.4040996950450428</v>
+        <v>2.3318735239492772</v>
       </c>
       <c r="M344" s="9">
-        <v>1.8853728701040013</v>
+        <v>1.834476654127011</v>
       </c>
       <c r="N344" s="9">
-        <v>0.21318714786051121</v>
+        <v>0.27409776153494048</v>
       </c>
       <c r="O344" s="9">
-        <v>2.6513598469317992</v>
+        <v>2.5966926335930025</v>
       </c>
       <c r="P344" s="9">
-        <v>0.77526987242393908</v>
+        <v>0.72129538763494216</v>
       </c>
       <c r="Q344" s="9">
-        <v>1.3122690788635583</v>
+        <v>1.1848643139253494</v>
       </c>
       <c r="R344" s="9">
-        <v>0.24672613399126103</v>
+        <v>0.24039982286328554</v>
       </c>
       <c r="S344" s="9">
-        <v>0.41817279750512887</v>
+        <v>0.48196186831100396</v>
       </c>
       <c r="T344" s="9">
-        <v>0.90118085767557954</v>
+        <v>0.85456805469235553</v>
       </c>
       <c r="U344" s="9">
-        <v>2.0159258139293597E-2</v>
+        <v>1.5119443604473063E-2</v>
       </c>
       <c r="V344" s="9">
-        <v>0.46039053818066006</v>
+        <v>0.49214160977933363</v>
       </c>
       <c r="W344" s="9">
-        <v>0.56807836568223702</v>
+        <v>0.53894614180110645</v>
       </c>
       <c r="X344" s="9">
-        <v>0.77364132671258057</v>
+        <v>0.6968258758333129</v>
       </c>
       <c r="Y344" s="9">
-        <v>0.57951329937748419</v>
+        <v>0.64063384267119827</v>
       </c>
       <c r="Z344" s="9">
-        <v>0.26778753262601573</v>
+        <v>0.27456696383173146</v>
       </c>
       <c r="AA344" s="9">
-        <v>0.6509286582190591</v>
+        <v>0.78111438986287096</v>
       </c>
       <c r="AB344" s="9">
-        <v>0.35675937792248907</v>
+        <v>0.49530670915452124</v>
       </c>
       <c r="AC344" s="9">
-        <v>0.92514718250630312</v>
+        <v>0.86206896551723411</v>
       </c>
       <c r="AD344" s="9">
-        <v>1.9557989438679032E-2</v>
+        <v>0.14668492079013165</v>
       </c>
       <c r="AE344" s="9">
-        <v>3.4364761558063375</v>
+        <v>3.6039315617036762</v>
       </c>
       <c r="AF344" s="9">
-        <v>1.1325194881600305</v>
+        <v>1.0883953522576817</v>
       </c>
       <c r="AG344" s="9">
-        <v>1.0808202653799801</v>
+        <v>1.1459589867310012</v>
       </c>
       <c r="AH344" s="9">
-        <v>1.1774500475737502</v>
+        <v>1.3201712654614681</v>
       </c>
       <c r="AI344" s="9">
-        <v>1.0977175759082061</v>
+        <v>1.1205003935214028</v>
       </c>
       <c r="AJ344" s="9">
-        <v>1.4046762991580999</v>
+        <v>1.4314745751356743</v>
       </c>
       <c r="AK344" s="9">
-        <v>0.1617375231053578</v>
+        <v>0.23105360443622919</v>
       </c>
       <c r="AL344" s="9">
-        <v>0.71586596399086611</v>
+        <v>0.6403223195496226</v>
       </c>
       <c r="AM344" s="9">
-        <v>0.49296192908475106</v>
+        <v>0.54641563223852496</v>
       </c>
       <c r="AN344" s="9">
-        <v>1.7107472712006788</v>
+        <v>1.7527287993283003</v>
       </c>
       <c r="AO344" s="9">
-        <v>0.84923918846769275</v>
+        <v>0.88594500800853315</v>
       </c>
       <c r="AP344" s="9">
-        <v>-0.20165355918531966</v>
+        <v>4.0330711837073097E-2</v>
       </c>
       <c r="AQ344" s="9">
-        <v>1.4492753623188406</v>
+        <v>1.5334268349696205</v>
       </c>
       <c r="AR344" s="9">
-        <v>1.9872087711283664</v>
+        <v>1.8958428506167226</v>
       </c>
       <c r="AS344" s="9">
-        <v>1.5691681439170175</v>
+        <v>1.5494714726544638</v>
       </c>
       <c r="AT344" s="9">
-        <v>2.1814903362393037</v>
+        <v>2.2217392354319108</v>
       </c>
       <c r="AU344" s="9">
-        <v>2.9577932868062482</v>
+        <v>3.0309072781654973</v>
       </c>
       <c r="AV344" s="9">
-        <v>0.34865293185420687</v>
+        <v>0.44374009508715606</v>
       </c>
       <c r="AW344" s="9">
-        <v>0.88792176283734781</v>
+        <v>0.87291463445136674</v>
       </c>
       <c r="AX344" s="9">
-        <v>2.3763136143582475</v>
+        <v>2.3704097296020836</v>
       </c>
       <c r="AY344" s="9">
-        <v>2.670746974544449</v>
+        <v>2.5872861315899325</v>
       </c>
       <c r="AZ344" s="9">
-        <v>0.30935808197988557</v>
+        <v>0.23201856148492186</v>
       </c>
       <c r="BA344" s="9">
         <v>1.7217146872803852</v>
+      </c>
+    </row>
+    <row r="345" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A345" s="7">
+        <v>43556</v>
+      </c>
+      <c r="B345" s="9">
+        <v>1.764606836167705</v>
+      </c>
+      <c r="C345" s="9">
+        <v>1.6698590442512646</v>
+      </c>
+      <c r="D345" s="9">
+        <v>1.5596330275229429</v>
+      </c>
+      <c r="E345" s="9">
+        <v>2.7501586629997887</v>
+      </c>
+      <c r="F345" s="9">
+        <v>1.063576474323348</v>
+      </c>
+      <c r="G345" s="9">
+        <v>1.585346634056926</v>
+      </c>
+      <c r="H345" s="9">
+        <v>1.8077390375906597</v>
+      </c>
+      <c r="I345" s="9">
+        <v>0.68895884064856616</v>
+      </c>
+      <c r="J345" s="9">
+        <v>0.86749078291043158</v>
+      </c>
+      <c r="K345" s="9">
+        <v>0.49223778871640683</v>
+      </c>
+      <c r="L345" s="9">
+        <v>2.3590412746377352</v>
+      </c>
+      <c r="M345" s="9">
+        <v>1.5429570761295424</v>
+      </c>
+      <c r="N345" s="9">
+        <v>0.57935660923922372</v>
+      </c>
+      <c r="O345" s="9">
+        <v>2.5480310669028539</v>
+      </c>
+      <c r="P345" s="9">
+        <v>1.3698630136986301</v>
+      </c>
+      <c r="Q345" s="9">
+        <v>1.2346072864161384</v>
+      </c>
+      <c r="R345" s="9">
+        <v>0.69061648609263715</v>
+      </c>
+      <c r="S345" s="9">
+        <v>0.87806259736580261</v>
+      </c>
+      <c r="T345" s="9">
+        <v>1.009421265141319</v>
+      </c>
+      <c r="U345" s="9">
+        <v>5.549109620138911E-2</v>
+      </c>
+      <c r="V345" s="9">
+        <v>0.49229791964426051</v>
+      </c>
+      <c r="W345" s="9">
+        <v>0.70366049292692601</v>
+      </c>
+      <c r="X345" s="9">
+        <v>1.0199312714776607</v>
+      </c>
+      <c r="Y345" s="9">
+        <v>0.84568992880785543</v>
+      </c>
+      <c r="Z345" s="9">
+        <v>0.77577407281388844</v>
+      </c>
+      <c r="AA345" s="9">
+        <v>0.97137901127493897</v>
+      </c>
+      <c r="AB345" s="9">
+        <v>1.0405105438401776</v>
+      </c>
+      <c r="AC345" s="9">
+        <v>0.81984443977297339</v>
+      </c>
+      <c r="AD345" s="9">
+        <v>0.31326480665688161</v>
+      </c>
+      <c r="AE345" s="9">
+        <v>3.6041273070774529</v>
+      </c>
+      <c r="AF345" s="9">
+        <v>1.4575971731448729</v>
+      </c>
+      <c r="AG345" s="9">
+        <v>1.3572806171649032</v>
+      </c>
+      <c r="AH345" s="9">
+        <v>1.5593381740269041</v>
+      </c>
+      <c r="AI345" s="9">
+        <v>1.4002092028542612</v>
+      </c>
+      <c r="AJ345" s="9">
+        <v>1.5561599857314887</v>
+      </c>
+      <c r="AK345" s="9">
+        <v>0.6720741599072948</v>
+      </c>
+      <c r="AL345" s="9">
+        <v>0.79966860580299393</v>
+      </c>
+      <c r="AM345" s="9">
+        <v>1.0117240968874608</v>
+      </c>
+      <c r="AN345" s="9">
+        <v>2.0115546218487372</v>
+      </c>
+      <c r="AO345" s="9">
+        <v>0.97202307512754982</v>
+      </c>
+      <c r="AP345" s="9">
+        <v>1.0094891984655763</v>
+      </c>
+      <c r="AQ345" s="9">
+        <v>1.9801516711918445</v>
+      </c>
+      <c r="AR345" s="9">
+        <v>2.5753046677397209</v>
+      </c>
+      <c r="AS345" s="9">
+        <v>1.6935801496652196</v>
+      </c>
+      <c r="AT345" s="9">
+        <v>2.3662071517042862</v>
+      </c>
+      <c r="AU345" s="9">
+        <v>3.02748638958969</v>
+      </c>
+      <c r="AV345" s="9">
+        <v>1.3044861597200019</v>
+      </c>
+      <c r="AW345" s="9">
+        <v>1.0780390195097527</v>
+      </c>
+      <c r="AX345" s="9">
+        <v>2.6991946665093365</v>
+      </c>
+      <c r="AY345" s="9">
+        <v>1.828001661819683</v>
+      </c>
+      <c r="AZ345" s="9">
+        <v>0.50968743671099404</v>
+      </c>
+      <c r="BA345" s="9">
+        <v>1.4385964912280782</v>
       </c>
     </row>
   </sheetData>

--- a/data/historical/source/total_employment_historical.xlsx
+++ b/data/historical/source/total_employment_historical.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\aboddupalli\Box Sync\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Historical\Employment\PUBLISHED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\Box Sync\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Historical\Employment\PUBLISHED\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -183,7 +183,7 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Total Employment; Year/Year: January 1991 -- April 2019</t>
+    <t>Total Employment; Year/Year: January 1991 -- May 2019</t>
   </si>
 </sst>
 </file>
@@ -622,11 +622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA345"/>
+  <dimension ref="A1:BA346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="5" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D348" sqref="D348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -55232,7 +55232,7 @@
         <v>43525</v>
       </c>
       <c r="B344" s="9">
-        <v>1.7217542605493699</v>
+        <v>1.6974757045839264</v>
       </c>
       <c r="C344" s="9">
         <v>1.685752199341424</v>
@@ -55393,160 +55393,321 @@
         <v>43556</v>
       </c>
       <c r="B345" s="9">
-        <v>1.764606836167705</v>
+        <v>1.7140932816972554</v>
       </c>
       <c r="C345" s="9">
-        <v>1.6698590442512646</v>
+        <v>1.6649476941211185</v>
       </c>
       <c r="D345" s="9">
-        <v>1.5596330275229429</v>
+        <v>1.5290519877675841</v>
       </c>
       <c r="E345" s="9">
-        <v>2.7501586629997887</v>
+        <v>2.6866934630844184</v>
       </c>
       <c r="F345" s="9">
-        <v>1.063576474323348</v>
+        <v>1.1111993015318675</v>
       </c>
       <c r="G345" s="9">
-        <v>1.585346634056926</v>
+        <v>1.6005230009514242</v>
       </c>
       <c r="H345" s="9">
-        <v>1.8077390375906597</v>
+        <v>1.7746032914841232</v>
       </c>
       <c r="I345" s="9">
-        <v>0.68895884064856616</v>
+        <v>0.70083744134940629</v>
       </c>
       <c r="J345" s="9">
-        <v>0.86749078291043158</v>
+        <v>0.84580351333766579</v>
       </c>
       <c r="K345" s="9">
-        <v>0.49223778871640683</v>
+        <v>0.39126593462072734</v>
       </c>
       <c r="L345" s="9">
-        <v>2.3590412746377352</v>
+        <v>2.3773550351395154</v>
       </c>
       <c r="M345" s="9">
-        <v>1.5429570761295424</v>
+        <v>1.6735660682265834</v>
       </c>
       <c r="N345" s="9">
-        <v>0.57935660923922372</v>
+        <v>0.53361792956243326</v>
       </c>
       <c r="O345" s="9">
-        <v>2.5480310669028539</v>
+        <v>2.4935277285733846</v>
       </c>
       <c r="P345" s="9">
-        <v>1.3698630136986301</v>
+        <v>1.3288491510130425</v>
       </c>
       <c r="Q345" s="9">
-        <v>1.2346072864161384</v>
+        <v>1.2186562878836302</v>
       </c>
       <c r="R345" s="9">
-        <v>0.69061648609263715</v>
+        <v>0.67794462396249422</v>
       </c>
       <c r="S345" s="9">
-        <v>0.87806259736580261</v>
+        <v>0.91346834725958526</v>
       </c>
       <c r="T345" s="9">
-        <v>1.009421265141319</v>
+        <v>0.9110673982814026</v>
       </c>
       <c r="U345" s="9">
-        <v>5.549109620138911E-2</v>
+        <v>4.5401805982953687E-2</v>
       </c>
       <c r="V345" s="9">
-        <v>0.49229791964426051</v>
+        <v>0.31761156106082261</v>
       </c>
       <c r="W345" s="9">
-        <v>0.70366049292692601</v>
+        <v>0.65990958144961021</v>
       </c>
       <c r="X345" s="9">
-        <v>1.0199312714776607</v>
+        <v>0.9182130584192465</v>
       </c>
       <c r="Y345" s="9">
-        <v>0.84568992880785543</v>
+        <v>0.77540470684260232</v>
       </c>
       <c r="Z345" s="9">
-        <v>0.77577407281388844</v>
+        <v>0.66008846546444677</v>
       </c>
       <c r="AA345" s="9">
-        <v>0.97137901127493897</v>
+        <v>0.9106678230702514</v>
       </c>
       <c r="AB345" s="9">
-        <v>1.0405105438401776</v>
+        <v>0.96767480577136833</v>
       </c>
       <c r="AC345" s="9">
-        <v>0.81984443977297339</v>
+        <v>1.009039310489807</v>
       </c>
       <c r="AD345" s="9">
-        <v>0.31326480665688161</v>
+        <v>0.47968673519335203</v>
       </c>
       <c r="AE345" s="9">
-        <v>3.6041273070774529</v>
+        <v>3.7857869495712766</v>
       </c>
       <c r="AF345" s="9">
-        <v>1.4575971731448729</v>
+        <v>1.4134275618374423</v>
       </c>
       <c r="AG345" s="9">
-        <v>1.3572806171649032</v>
+        <v>1.2873674059787761</v>
       </c>
       <c r="AH345" s="9">
-        <v>1.5593381740269041</v>
+        <v>1.4879181049875014</v>
       </c>
       <c r="AI345" s="9">
-        <v>1.4002092028542612</v>
+        <v>1.2572884410244687</v>
       </c>
       <c r="AJ345" s="9">
-        <v>1.5561599857314887</v>
+        <v>1.6275025638739022</v>
       </c>
       <c r="AK345" s="9">
-        <v>0.6720741599072948</v>
+        <v>0.74159907300115613</v>
       </c>
       <c r="AL345" s="9">
-        <v>0.79966860580299393</v>
+        <v>0.81407704915079904</v>
       </c>
       <c r="AM345" s="9">
-        <v>1.0117240968874608</v>
+        <v>0.92245432363268465</v>
       </c>
       <c r="AN345" s="9">
-        <v>2.0115546218487372</v>
+        <v>2.0483193277310923</v>
       </c>
       <c r="AO345" s="9">
-        <v>0.97202307512754982</v>
+        <v>0.8919937310347128</v>
       </c>
       <c r="AP345" s="9">
-        <v>1.0094891984655763</v>
+        <v>0.80759135877246113</v>
       </c>
       <c r="AQ345" s="9">
-        <v>1.9801516711918445</v>
+        <v>1.9661080423181352</v>
       </c>
       <c r="AR345" s="9">
-        <v>2.5753046677397209</v>
+        <v>2.5293170843872157</v>
       </c>
       <c r="AS345" s="9">
-        <v>1.6935801496652196</v>
+        <v>1.6607588289352733</v>
       </c>
       <c r="AT345" s="9">
-        <v>2.3662071517042862</v>
+        <v>2.3999871314362897</v>
       </c>
       <c r="AU345" s="9">
-        <v>3.02748638958969</v>
+        <v>2.9876510423582525</v>
       </c>
       <c r="AV345" s="9">
-        <v>1.3044861597200019</v>
+        <v>1.2726694241170855</v>
       </c>
       <c r="AW345" s="9">
-        <v>1.0780390195097527</v>
+        <v>0.93546773386693571</v>
       </c>
       <c r="AX345" s="9">
-        <v>2.6991946665093365</v>
+        <v>2.6873949084043747</v>
       </c>
       <c r="AY345" s="9">
-        <v>1.828001661819683</v>
+        <v>1.7864561695056056</v>
       </c>
       <c r="AZ345" s="9">
-        <v>0.50968743671099404</v>
+        <v>0.59744818740296601</v>
       </c>
       <c r="BA345" s="9">
-        <v>1.4385964912280782</v>
+        <v>1.5087719298245654</v>
+      </c>
+    </row>
+    <row r="346" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A346" s="7">
+        <v>43586</v>
+      </c>
+      <c r="B346" s="9">
+        <v>1.5798850381525429</v>
+      </c>
+      <c r="C346" s="9">
+        <v>1.8373863915499924</v>
+      </c>
+      <c r="D346" s="9">
+        <v>1.7125382262997011</v>
+      </c>
+      <c r="E346" s="9">
+        <v>2.6792306880911458</v>
+      </c>
+      <c r="F346" s="9">
+        <v>0.99151265170143565</v>
+      </c>
+      <c r="G346" s="9">
+        <v>1.6490888302961055</v>
+      </c>
+      <c r="H346" s="9">
+        <v>1.687127839447184</v>
+      </c>
+      <c r="I346" s="9">
+        <v>0.39113428943936873</v>
+      </c>
+      <c r="J346" s="9">
+        <v>0.58428911491019009</v>
+      </c>
+      <c r="K346" s="9">
+        <v>0.4544306993183424</v>
+      </c>
+      <c r="L346" s="9">
+        <v>2.4523254218685691</v>
+      </c>
+      <c r="M346" s="9">
+        <v>1.5265995051254941</v>
+      </c>
+      <c r="N346" s="9">
+        <v>0.33536585365854354</v>
+      </c>
+      <c r="O346" s="9">
+        <v>2.4999999999999969</v>
+      </c>
+      <c r="P346" s="9">
+        <v>1.2247106272748258</v>
+      </c>
+      <c r="Q346" s="9">
+        <v>0.77642716222236652</v>
+      </c>
+      <c r="R346" s="9">
+        <v>0.39777749715872934</v>
+      </c>
+      <c r="S346" s="9">
+        <v>0.91308040770102572</v>
+      </c>
+      <c r="T346" s="9">
+        <v>0.97897026831037459</v>
+      </c>
+      <c r="U346" s="9">
+        <v>9.5915997778780529E-2</v>
+      </c>
+      <c r="V346" s="9">
+        <v>0.17482517482516036</v>
+      </c>
+      <c r="W346" s="9">
+        <v>0.54650781506175539</v>
+      </c>
+      <c r="X346" s="9">
+        <v>0.73339559413284272</v>
+      </c>
+      <c r="Y346" s="9">
+        <v>0.53001132502830428</v>
+      </c>
+      <c r="Z346" s="9">
+        <v>0.18285869086722736</v>
+      </c>
+      <c r="AA346" s="9">
+        <v>1.0487995146051754</v>
+      </c>
+      <c r="AB346" s="9">
+        <v>1.0754180253937418</v>
+      </c>
+      <c r="AC346" s="9">
+        <v>0.96496748479127825</v>
+      </c>
+      <c r="AD346" s="9">
+        <v>0.46865846514352222</v>
+      </c>
+      <c r="AE346" s="9">
+        <v>4.0029006526468489</v>
+      </c>
+      <c r="AF346" s="9">
+        <v>1.3686534216335473</v>
+      </c>
+      <c r="AG346" s="9">
+        <v>1.1065840545818499</v>
+      </c>
+      <c r="AH346" s="9">
+        <v>1.8227305218012948</v>
+      </c>
+      <c r="AI346" s="9">
+        <v>1.0160267353674448</v>
+      </c>
+      <c r="AJ346" s="9">
+        <v>1.491374513077351</v>
+      </c>
+      <c r="AK346" s="9">
+        <v>0.64620355411955033</v>
+      </c>
+      <c r="AL346" s="9">
+        <v>0.77287549318105009</v>
+      </c>
+      <c r="AM346" s="9">
+        <v>0.58781617385107843</v>
+      </c>
+      <c r="AN346" s="9">
+        <v>1.966748833062359</v>
+      </c>
+      <c r="AO346" s="9">
+        <v>0.9155340615358899</v>
+      </c>
+      <c r="AP346" s="9">
+        <v>0.42287555376559927</v>
+      </c>
+      <c r="AQ346" s="9">
+        <v>1.912644968200528</v>
+      </c>
+      <c r="AR346" s="9">
+        <v>1.91824617492579</v>
+      </c>
+      <c r="AS346" s="9">
+        <v>1.5521136906905952</v>
+      </c>
+      <c r="AT346" s="9">
+        <v>2.2968127010613575</v>
+      </c>
+      <c r="AU346" s="9">
+        <v>2.8180194483032288</v>
+      </c>
+      <c r="AV346" s="9">
+        <v>1.2416427889207187</v>
+      </c>
+      <c r="AW346" s="9">
+        <v>0.79996000199990003</v>
+      </c>
+      <c r="AX346" s="9">
+        <v>2.7857121823375222</v>
+      </c>
+      <c r="AY346" s="9">
+        <v>0.71203614952759764</v>
+      </c>
+      <c r="AZ346" s="9">
+        <v>0.50556117290192115</v>
+      </c>
+      <c r="BA346" s="9">
+        <v>1.5783935461241669</v>
       </c>
     </row>
   </sheetData>
